--- a/Client/WebClient/lang/fibertest_strings.xlsx
+++ b/Client/WebClient/lang/fibertest_strings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VsGitProjects\AppResponsiveMenu\lang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VsGitProjects\Fibertest\Client\WebClient\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63267F4F-4C07-497A-AA00-DF4D6077D53A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2F26C0-38B1-4899-B100-A8C55ABBBF96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="1350" windowWidth="20280" windowHeight="12510" xr2:uid="{A7D3CB50-0A18-4D34-8249-9890304C4FB8}"/>
+    <workbookView xWindow="-21390" yWindow="2115" windowWidth="20280" windowHeight="12510" xr2:uid="{A7D3CB50-0A18-4D34-8249-9890304C4FB8}"/>
   </bookViews>
   <sheets>
     <sheet name="fibertest" sheetId="5" r:id="rId1"/>
@@ -8068,8 +8068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414197DE-5D7D-415C-BB9E-1CF1298E8AD7}">
   <dimension ref="A1:C864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A845" workbookViewId="0">
-      <selection activeCell="A865" sqref="A865"/>
+    <sheetView tabSelected="1" topLeftCell="A840" workbookViewId="0">
+      <selection activeCell="A865" sqref="A865:XFD865"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Client/WebClient/lang/fibertest_strings.xlsx
+++ b/Client/WebClient/lang/fibertest_strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VsGitProjects\Fibertest\Client\WebClient\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2F26C0-38B1-4899-B100-A8C55ABBBF96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4CE564-1B68-4742-A14A-F4385080FCD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21390" yWindow="2115" windowWidth="20280" windowHeight="12510" xr2:uid="{A7D3CB50-0A18-4D34-8249-9890304C4FB8}"/>
+    <workbookView xWindow="-22470" yWindow="1770" windowWidth="20280" windowHeight="12765" xr2:uid="{A7D3CB50-0A18-4D34-8249-9890304C4FB8}"/>
   </bookViews>
   <sheets>
     <sheet name="fibertest" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2591" uniqueCount="2541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2594" uniqueCount="2544">
   <si>
     <t>Name</t>
   </si>
@@ -7663,6 +7663,15 @@
   </si>
   <si>
     <t>Отзывчивый</t>
+  </si>
+  <si>
+    <t>SID_Rtu_Moni_Settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTU  &lt;{{0}}&gt; Monitoring Settings </t>
+  </si>
+  <si>
+    <t>RTU  &lt;{{0}}&gt;  Настройки мониторинга</t>
   </si>
 </sst>
 </file>
@@ -8066,10 +8075,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414197DE-5D7D-415C-BB9E-1CF1298E8AD7}">
-  <dimension ref="A1:C864"/>
+  <dimension ref="A1:C865"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A840" workbookViewId="0">
-      <selection activeCell="A865" sqref="A865:XFD865"/>
+    <sheetView tabSelected="1" topLeftCell="A849" workbookViewId="0">
+      <selection activeCell="A865" sqref="A865"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17570,6 +17579,17 @@
       </c>
       <c r="C864" t="s">
         <v>2540</v>
+      </c>
+    </row>
+    <row r="865" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A865" t="s">
+        <v>2541</v>
+      </c>
+      <c r="B865" t="s">
+        <v>2542</v>
+      </c>
+      <c r="C865" t="s">
+        <v>2543</v>
       </c>
     </row>
   </sheetData>

--- a/Client/WebClient/lang/fibertest_strings.xlsx
+++ b/Client/WebClient/lang/fibertest_strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VsGitProjects\Fibertest\Client\WebClient\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4CE564-1B68-4742-A14A-F4385080FCD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4553C4-AD7C-4907-9B78-AA7C7653173E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22470" yWindow="1770" windowWidth="20280" windowHeight="12765" xr2:uid="{A7D3CB50-0A18-4D34-8249-9890304C4FB8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2594" uniqueCount="2544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2606" uniqueCount="2555">
   <si>
     <t>Name</t>
   </si>
@@ -7673,18 +7673,58 @@
   <si>
     <t>RTU  &lt;{{0}}&gt;  Настройки мониторинга</t>
   </si>
+  <si>
+    <t>SID_saving_frequency</t>
+  </si>
+  <si>
+    <t>SID_measurement_frequency</t>
+  </si>
+  <si>
+    <t>measurement frequency</t>
+  </si>
+  <si>
+    <t>saving frequency</t>
+  </si>
+  <si>
+    <t>частота измерений</t>
+  </si>
+  <si>
+    <t>частота сохранения</t>
+  </si>
+  <si>
+    <t>SID_Cycle_full_time_sec</t>
+  </si>
+  <si>
+    <t>Cycle full time {{0}} sec</t>
+  </si>
+  <si>
+    <t>Полное время цикла {{0}} сек</t>
+  </si>
+  <si>
+    <t>SID_Auto</t>
+  </si>
+  <si>
+    <t>Авто</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -7707,8 +7747,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -8075,10 +8118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414197DE-5D7D-415C-BB9E-1CF1298E8AD7}">
-  <dimension ref="A1:C865"/>
+  <dimension ref="A1:C869"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A849" workbookViewId="0">
-      <selection activeCell="A865" sqref="A865"/>
+    <sheetView tabSelected="1" topLeftCell="A851" workbookViewId="0">
+      <selection activeCell="C870" sqref="C870"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17592,6 +17635,50 @@
         <v>2543</v>
       </c>
     </row>
+    <row r="866" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A866" t="s">
+        <v>2545</v>
+      </c>
+      <c r="B866" s="1" t="s">
+        <v>2546</v>
+      </c>
+      <c r="C866" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="867" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A867" t="s">
+        <v>2544</v>
+      </c>
+      <c r="B867" s="1" t="s">
+        <v>2547</v>
+      </c>
+      <c r="C867" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="868" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A868" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B868" t="s">
+        <v>2551</v>
+      </c>
+      <c r="C868" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="869" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A869" s="1" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B869" t="s">
+        <v>227</v>
+      </c>
+      <c r="C869" t="s">
+        <v>2554</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C4 A6:C6 A8 A10">
     <cfRule type="containsBlanks" dxfId="0" priority="2">
@@ -17599,6 +17686,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17616,264 +17704,264 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Client/WebClient/lang/fibertest_strings.xlsx
+++ b/Client/WebClient/lang/fibertest_strings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VsGitProjects\Fibertest\Client\WebClient\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4553C4-AD7C-4907-9B78-AA7C7653173E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBE3BA7-6DED-4762-8F40-387B65190F0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22470" yWindow="1770" windowWidth="20280" windowHeight="12765" xr2:uid="{A7D3CB50-0A18-4D34-8249-9890304C4FB8}"/>
+    <workbookView xWindow="-21690" yWindow="1500" windowWidth="20280" windowHeight="12765" xr2:uid="{A7D3CB50-0A18-4D34-8249-9890304C4FB8}"/>
   </bookViews>
   <sheets>
     <sheet name="fibertest" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2606" uniqueCount="2555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2609" uniqueCount="2558">
   <si>
     <t>Name</t>
   </si>
@@ -6744,12 +6744,6 @@
     <t>SID_User_with_the_same_name_is_registered_on_another_PC</t>
   </si>
   <si>
-    <t>User with the same name is registered on another PC</t>
-  </si>
-  <si>
-    <t>Пользователь с таким именем подключился за другим PC</t>
-  </si>
-  <si>
     <t>SID_Users</t>
   </si>
   <si>
@@ -7705,6 +7699,21 @@
   </si>
   <si>
     <t>Авто</t>
+  </si>
+  <si>
+    <t>User with the same name is registered from another device</t>
+  </si>
+  <si>
+    <t>Пользователь с таким именем подключился с другого устройства</t>
+  </si>
+  <si>
+    <t>SID_This_user_has_no_right_to_start_Web_Client</t>
+  </si>
+  <si>
+    <t>This user has no right to start Web Client</t>
+  </si>
+  <si>
+    <t>Данный пользователь не имеет прав на запуск ПО Fibertest WebClient</t>
   </si>
 </sst>
 </file>
@@ -8118,10 +8127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414197DE-5D7D-415C-BB9E-1CF1298E8AD7}">
-  <dimension ref="A1:C869"/>
+  <dimension ref="A1:C870"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A851" workbookViewId="0">
-      <selection activeCell="C870" sqref="C870"/>
+    <sheetView tabSelected="1" topLeftCell="A738" workbookViewId="0">
+      <selection activeCell="C757" sqref="C757"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8147,10 +8156,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="C2" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -8158,10 +8167,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="C3" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -8213,10 +8222,10 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="C8" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -8235,10 +8244,10 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="C10" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -8268,10 +8277,10 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="C13" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -8290,10 +8299,10 @@
         <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="C15" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -8301,10 +8310,10 @@
         <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="C16" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -8312,10 +8321,10 @@
         <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="C17" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -8323,10 +8332,10 @@
         <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
       <c r="C18" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -8334,10 +8343,10 @@
         <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="C19" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -8345,10 +8354,10 @@
         <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="C20" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -8356,10 +8365,10 @@
         <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="C21" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -8367,10 +8376,10 @@
         <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="C22" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -8378,10 +8387,10 @@
         <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="C23" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -8389,10 +8398,10 @@
         <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="C24" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -8400,10 +8409,10 @@
         <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="C25" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -8411,10 +8420,10 @@
         <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="C26" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -8422,10 +8431,10 @@
         <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
       <c r="C27" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -8433,10 +8442,10 @@
         <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
       <c r="C28" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -8444,10 +8453,10 @@
         <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
       <c r="C29" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -8455,10 +8464,10 @@
         <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
       <c r="C30" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -8466,10 +8475,10 @@
         <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
       <c r="C31" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -8477,10 +8486,10 @@
         <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="C32" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -8631,10 +8640,10 @@
         <v>95</v>
       </c>
       <c r="B46" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="C46" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -8961,10 +8970,10 @@
         <v>183</v>
       </c>
       <c r="B76" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
       <c r="C76" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -9203,10 +9212,10 @@
         <v>244</v>
       </c>
       <c r="B98" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
       <c r="C98" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -9280,10 +9289,10 @@
         <v>263</v>
       </c>
       <c r="B105" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
       <c r="C105" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -9313,10 +9322,10 @@
         <v>270</v>
       </c>
       <c r="B108" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="C108" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -9412,10 +9421,10 @@
         <v>294</v>
       </c>
       <c r="B117" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="C117" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -9445,10 +9454,10 @@
         <v>301</v>
       </c>
       <c r="B120" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="C120" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -9467,10 +9476,10 @@
         <v>305</v>
       </c>
       <c r="B122" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
       <c r="C122" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -9500,10 +9509,10 @@
         <v>311</v>
       </c>
       <c r="B125" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="C125" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -9566,10 +9575,10 @@
         <v>327</v>
       </c>
       <c r="B131" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="C131" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -9588,10 +9597,10 @@
         <v>331</v>
       </c>
       <c r="B133" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
       <c r="C133" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -9676,10 +9685,10 @@
         <v>352</v>
       </c>
       <c r="B141" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
       <c r="C141" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -9720,10 +9729,10 @@
         <v>362</v>
       </c>
       <c r="B145" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
       <c r="C145" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -9764,10 +9773,10 @@
         <v>372</v>
       </c>
       <c r="B149" t="s">
-        <v>2381</v>
+        <v>2379</v>
       </c>
       <c r="C149" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -9841,10 +9850,10 @@
         <v>391</v>
       </c>
       <c r="B156" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
       <c r="C156" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -9896,10 +9905,10 @@
         <v>404</v>
       </c>
       <c r="B161" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="C161" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -10105,10 +10114,10 @@
         <v>459</v>
       </c>
       <c r="B180" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
       <c r="C180" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -10127,10 +10136,10 @@
         <v>463</v>
       </c>
       <c r="B182" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
       <c r="C182" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -10149,10 +10158,10 @@
         <v>467</v>
       </c>
       <c r="B184" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
       <c r="C184" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -10160,10 +10169,10 @@
         <v>468</v>
       </c>
       <c r="B185" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="C185" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -10259,10 +10268,10 @@
         <v>493</v>
       </c>
       <c r="B194" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
       <c r="C194" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -10281,10 +10290,10 @@
         <v>497</v>
       </c>
       <c r="B196" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
       <c r="C196" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -11084,10 +11093,10 @@
         <v>707</v>
       </c>
       <c r="B269" t="s">
-        <v>2398</v>
+        <v>2396</v>
       </c>
       <c r="C269" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -11117,10 +11126,10 @@
         <v>714</v>
       </c>
       <c r="B272" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="C272" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -11161,10 +11170,10 @@
         <v>724</v>
       </c>
       <c r="B276" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
       <c r="C276" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -11238,10 +11247,10 @@
         <v>743</v>
       </c>
       <c r="B283" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
       <c r="C283" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -11491,10 +11500,10 @@
         <v>808</v>
       </c>
       <c r="B306" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
       <c r="C306" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -11645,10 +11654,10 @@
         <v>847</v>
       </c>
       <c r="B320" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
       <c r="C320" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -11711,10 +11720,10 @@
         <v>863</v>
       </c>
       <c r="B326" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
       <c r="C326" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -11986,10 +11995,10 @@
         <v>935</v>
       </c>
       <c r="B351" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
       <c r="C351" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -12272,10 +12281,10 @@
         <v>1011</v>
       </c>
       <c r="B377" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
       <c r="C377" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -12382,10 +12391,10 @@
         <v>1039</v>
       </c>
       <c r="B387" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
       <c r="C387" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -12393,10 +12402,10 @@
         <v>1040</v>
       </c>
       <c r="B388" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
       <c r="C388" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -12437,10 +12446,10 @@
         <v>1050</v>
       </c>
       <c r="B392" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
       <c r="C392" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -12734,10 +12743,10 @@
         <v>1127</v>
       </c>
       <c r="B419" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
       <c r="C419" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -12943,10 +12952,10 @@
         <v>1180</v>
       </c>
       <c r="B438" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
       <c r="C438" t="s">
-        <v>2425</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
@@ -12976,10 +12985,10 @@
         <v>1187</v>
       </c>
       <c r="B441" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
       <c r="C441" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -13020,10 +13029,10 @@
         <v>1197</v>
       </c>
       <c r="B445" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
       <c r="C445" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -13042,10 +13051,10 @@
         <v>1201</v>
       </c>
       <c r="B447" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
       <c r="C447" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -13119,10 +13128,10 @@
         <v>1220</v>
       </c>
       <c r="B454" t="s">
-        <v>2432</v>
+        <v>2430</v>
       </c>
       <c r="C454" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -13130,10 +13139,10 @@
         <v>1221</v>
       </c>
       <c r="B455" t="s">
-        <v>2434</v>
+        <v>2432</v>
       </c>
       <c r="C455" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -13141,10 +13150,10 @@
         <v>1222</v>
       </c>
       <c r="B456" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
       <c r="C456" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -13174,10 +13183,10 @@
         <v>1229</v>
       </c>
       <c r="B459" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
       <c r="C459" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -13185,10 +13194,10 @@
         <v>1230</v>
       </c>
       <c r="B460" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
       <c r="C460" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -13229,10 +13238,10 @@
         <v>1240</v>
       </c>
       <c r="B464" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
       <c r="C464" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
@@ -13251,10 +13260,10 @@
         <v>1244</v>
       </c>
       <c r="B466" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="C466" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
@@ -13295,10 +13304,10 @@
         <v>1254</v>
       </c>
       <c r="B470" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
       <c r="C470" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
@@ -13581,10 +13590,10 @@
         <v>1328</v>
       </c>
       <c r="B496" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
       <c r="C496" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -13746,10 +13755,10 @@
         <v>1371</v>
       </c>
       <c r="B511" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
       <c r="C511" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
@@ -13812,10 +13821,10 @@
         <v>1387</v>
       </c>
       <c r="B517" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
       <c r="C517" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
@@ -13911,10 +13920,10 @@
         <v>1412</v>
       </c>
       <c r="B526" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
       <c r="C526" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
@@ -13922,10 +13931,10 @@
         <v>1413</v>
       </c>
       <c r="B527" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
       <c r="C527" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
@@ -13955,10 +13964,10 @@
         <v>1420</v>
       </c>
       <c r="B530" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
       <c r="C530" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
@@ -14021,10 +14030,10 @@
         <v>1433</v>
       </c>
       <c r="B536" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
       <c r="C536" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
@@ -14032,10 +14041,10 @@
         <v>1434</v>
       </c>
       <c r="B537" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="C537" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
@@ -14197,10 +14206,10 @@
         <v>1477</v>
       </c>
       <c r="B552" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
       <c r="C552" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
@@ -14296,10 +14305,10 @@
         <v>1500</v>
       </c>
       <c r="B561" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
       <c r="C561" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
@@ -14318,10 +14327,10 @@
         <v>1504</v>
       </c>
       <c r="B563" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
       <c r="C563" t="s">
-        <v>2464</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
@@ -14329,10 +14338,10 @@
         <v>1505</v>
       </c>
       <c r="B564" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="C564" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
@@ -14351,10 +14360,10 @@
         <v>1509</v>
       </c>
       <c r="B566" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
       <c r="C566" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
@@ -14373,10 +14382,10 @@
         <v>1513</v>
       </c>
       <c r="B568" t="s">
-        <v>2469</v>
+        <v>2467</v>
       </c>
       <c r="C568" t="s">
-        <v>2469</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
@@ -14395,10 +14404,10 @@
         <v>1517</v>
       </c>
       <c r="B570" t="s">
-        <v>2470</v>
+        <v>2468</v>
       </c>
       <c r="C570" t="s">
-        <v>2470</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
@@ -14417,10 +14426,10 @@
         <v>1521</v>
       </c>
       <c r="B572" t="s">
-        <v>2471</v>
+        <v>2469</v>
       </c>
       <c r="C572" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
@@ -14648,10 +14657,10 @@
         <v>1581</v>
       </c>
       <c r="B593" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
       <c r="C593" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
@@ -14703,10 +14712,10 @@
         <v>1594</v>
       </c>
       <c r="B598" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
       <c r="C598" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
@@ -14846,10 +14855,10 @@
         <v>1630</v>
       </c>
       <c r="B611" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
       <c r="C611" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
@@ -15253,10 +15262,10 @@
         <v>1736</v>
       </c>
       <c r="B648" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
       <c r="C648" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.25">
@@ -15473,10 +15482,10 @@
         <v>1793</v>
       </c>
       <c r="B668" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
       <c r="C668" t="s">
-        <v>2482</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.25">
@@ -15605,10 +15614,10 @@
         <v>1827</v>
       </c>
       <c r="B680" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
       <c r="C680" t="s">
-        <v>2484</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.25">
@@ -15671,10 +15680,10 @@
         <v>1843</v>
       </c>
       <c r="B686" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
       <c r="C686" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.25">
@@ -15682,10 +15691,10 @@
         <v>1844</v>
       </c>
       <c r="B687" t="s">
-        <v>2486</v>
+        <v>2484</v>
       </c>
       <c r="C687" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.25">
@@ -15693,10 +15702,10 @@
         <v>1845</v>
       </c>
       <c r="B688" t="s">
-        <v>2488</v>
+        <v>2486</v>
       </c>
       <c r="C688" t="s">
-        <v>2489</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.25">
@@ -15759,10 +15768,10 @@
         <v>1861</v>
       </c>
       <c r="B694" t="s">
-        <v>2490</v>
+        <v>2488</v>
       </c>
       <c r="C694" t="s">
-        <v>2491</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.25">
@@ -15781,10 +15790,10 @@
         <v>1865</v>
       </c>
       <c r="B696" t="s">
-        <v>2492</v>
+        <v>2490</v>
       </c>
       <c r="C696" t="s">
-        <v>2493</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.25">
@@ -15924,10 +15933,10 @@
         <v>1902</v>
       </c>
       <c r="B709" t="s">
-        <v>2494</v>
+        <v>2492</v>
       </c>
       <c r="C709" t="s">
-        <v>2495</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.25">
@@ -15935,10 +15944,10 @@
         <v>1903</v>
       </c>
       <c r="B710" t="s">
-        <v>2496</v>
+        <v>2494</v>
       </c>
       <c r="C710" t="s">
-        <v>2497</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.25">
@@ -15946,10 +15955,10 @@
         <v>1904</v>
       </c>
       <c r="B711" t="s">
-        <v>2498</v>
+        <v>2496</v>
       </c>
       <c r="C711" t="s">
-        <v>2499</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.25">
@@ -16001,10 +16010,10 @@
         <v>1917</v>
       </c>
       <c r="B716" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
       <c r="C716" t="s">
-        <v>2501</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.25">
@@ -16427,1256 +16436,1267 @@
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
-        <v>2030</v>
+        <v>2555</v>
       </c>
       <c r="B755" t="s">
-        <v>2031</v>
+        <v>2556</v>
       </c>
       <c r="C755" t="s">
-        <v>2032</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>2033</v>
+        <v>2030</v>
       </c>
       <c r="B756" t="s">
-        <v>2034</v>
+        <v>2031</v>
       </c>
       <c r="C756" t="s">
-        <v>2035</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="B757" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="C757" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>2039</v>
+        <v>2036</v>
       </c>
       <c r="B758" t="s">
-        <v>2040</v>
+        <v>2037</v>
       </c>
       <c r="C758" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
-        <v>2042</v>
+        <v>2039</v>
       </c>
       <c r="B759" t="s">
-        <v>2043</v>
+        <v>2040</v>
       </c>
       <c r="C759" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>2045</v>
+        <v>2042</v>
       </c>
       <c r="B760" t="s">
-        <v>2046</v>
+        <v>2043</v>
       </c>
       <c r="C760" t="s">
-        <v>2047</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
-        <v>2048</v>
+        <v>2045</v>
       </c>
       <c r="B761" t="s">
-        <v>2049</v>
+        <v>2046</v>
       </c>
       <c r="C761" t="s">
-        <v>2050</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
-        <v>2051</v>
+        <v>2048</v>
       </c>
       <c r="B762" t="s">
-        <v>2052</v>
+        <v>2049</v>
       </c>
       <c r="C762" t="s">
-        <v>2053</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
       <c r="B763" t="s">
-        <v>2502</v>
+        <v>2052</v>
       </c>
       <c r="C763" t="s">
-        <v>2503</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="B764" t="s">
-        <v>2056</v>
+        <v>2500</v>
       </c>
       <c r="C764" t="s">
-        <v>2057</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
-        <v>2058</v>
+        <v>2055</v>
       </c>
       <c r="B765" t="s">
-        <v>2059</v>
+        <v>2056</v>
       </c>
       <c r="C765" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
-        <v>2061</v>
+        <v>2058</v>
       </c>
       <c r="B766" t="s">
-        <v>2062</v>
+        <v>2059</v>
       </c>
       <c r="C766" t="s">
-        <v>2063</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
       <c r="B767" t="s">
-        <v>2504</v>
+        <v>2062</v>
       </c>
       <c r="C767" t="s">
-        <v>2505</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="B768" t="s">
-        <v>2066</v>
+        <v>2502</v>
       </c>
       <c r="C768" t="s">
-        <v>2067</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
       <c r="B769" t="s">
-        <v>2069</v>
+        <v>2066</v>
       </c>
       <c r="C769" t="s">
-        <v>2070</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
-        <v>2071</v>
+        <v>2068</v>
       </c>
       <c r="B770" t="s">
-        <v>2072</v>
+        <v>2069</v>
       </c>
       <c r="C770" t="s">
-        <v>2073</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
-        <v>2074</v>
+        <v>2071</v>
       </c>
       <c r="B771" t="s">
-        <v>2506</v>
+        <v>2072</v>
       </c>
       <c r="C771" t="s">
-        <v>2507</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B772" t="s">
-        <v>2508</v>
+        <v>2504</v>
       </c>
       <c r="C772" t="s">
-        <v>2509</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="B773" t="s">
-        <v>2510</v>
+        <v>2506</v>
       </c>
       <c r="C773" t="s">
-        <v>2511</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="B774" t="s">
-        <v>2078</v>
+        <v>2508</v>
       </c>
       <c r="C774" t="s">
-        <v>2079</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
-        <v>2080</v>
+        <v>2077</v>
       </c>
       <c r="B775" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
       <c r="C775" t="s">
-        <v>2082</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
-        <v>2083</v>
+        <v>2080</v>
       </c>
       <c r="B776" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
       <c r="C776" t="s">
-        <v>2085</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
       <c r="B777" t="s">
-        <v>2087</v>
+        <v>2084</v>
       </c>
       <c r="C777" t="s">
-        <v>2088</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="B778" t="s">
-        <v>2090</v>
+        <v>2087</v>
       </c>
       <c r="C778" t="s">
-        <v>2091</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
-        <v>2092</v>
+        <v>2089</v>
       </c>
       <c r="B779" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
       <c r="C779" t="s">
-        <v>2094</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
-        <v>2095</v>
+        <v>2092</v>
       </c>
       <c r="B780" t="s">
-        <v>2096</v>
+        <v>2093</v>
       </c>
       <c r="C780" t="s">
-        <v>2097</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
-        <v>2098</v>
+        <v>2095</v>
       </c>
       <c r="B781" t="s">
-        <v>2099</v>
+        <v>2096</v>
       </c>
       <c r="C781" t="s">
-        <v>2100</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
       <c r="B782" t="s">
-        <v>2102</v>
+        <v>2099</v>
       </c>
       <c r="C782" t="s">
-        <v>2103</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
-        <v>2104</v>
+        <v>2101</v>
       </c>
       <c r="B783" t="s">
-        <v>2512</v>
+        <v>2102</v>
       </c>
       <c r="C783" t="s">
-        <v>2513</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B784" t="s">
-        <v>2106</v>
+        <v>2510</v>
       </c>
       <c r="C784" t="s">
-        <v>2107</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="B785" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="C785" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
-        <v>2111</v>
+        <v>2108</v>
       </c>
       <c r="B786" t="s">
-        <v>2514</v>
+        <v>2109</v>
       </c>
       <c r="C786" t="s">
-        <v>2515</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B787" t="s">
-        <v>2516</v>
+        <v>2512</v>
       </c>
       <c r="C787" t="s">
-        <v>2517</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="B788" t="s">
-        <v>2518</v>
+        <v>2514</v>
       </c>
       <c r="C788" t="s">
-        <v>2519</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B789" t="s">
-        <v>2115</v>
+        <v>2516</v>
       </c>
       <c r="C789" t="s">
-        <v>2116</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
-        <v>2117</v>
+        <v>2114</v>
       </c>
       <c r="B790" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="C790" t="s">
-        <v>2119</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="B791" t="s">
-        <v>2121</v>
+        <v>2118</v>
       </c>
       <c r="C791" t="s">
-        <v>2122</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
-        <v>2123</v>
+        <v>2120</v>
       </c>
       <c r="B792" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
       <c r="C792" t="s">
-        <v>2125</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
-        <v>2126</v>
+        <v>2123</v>
       </c>
       <c r="B793" t="s">
-        <v>2127</v>
+        <v>2124</v>
       </c>
       <c r="C793" t="s">
-        <v>2128</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
-        <v>2129</v>
+        <v>2126</v>
       </c>
       <c r="B794" t="s">
-        <v>2130</v>
+        <v>2127</v>
       </c>
       <c r="C794" t="s">
-        <v>2131</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
       <c r="B795" t="s">
-        <v>2133</v>
+        <v>2130</v>
       </c>
       <c r="C795" t="s">
-        <v>2134</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
-        <v>2135</v>
+        <v>2132</v>
       </c>
       <c r="B796" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
       <c r="C796" t="s">
-        <v>2137</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
-        <v>2138</v>
+        <v>2135</v>
       </c>
       <c r="B797" t="s">
-        <v>2139</v>
+        <v>2136</v>
       </c>
       <c r="C797" t="s">
-        <v>2140</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
-        <v>2141</v>
+        <v>2138</v>
       </c>
       <c r="B798" t="s">
-        <v>2142</v>
+        <v>2139</v>
       </c>
       <c r="C798" t="s">
-        <v>2143</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
-        <v>2144</v>
+        <v>2141</v>
       </c>
       <c r="B799" t="s">
-        <v>2145</v>
+        <v>2142</v>
       </c>
       <c r="C799" t="s">
-        <v>2146</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
-        <v>2147</v>
+        <v>2144</v>
       </c>
       <c r="B800" t="s">
-        <v>2520</v>
+        <v>2145</v>
       </c>
       <c r="C800" t="s">
-        <v>2521</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="B801" t="s">
-        <v>2149</v>
+        <v>2518</v>
       </c>
       <c r="C801" t="s">
-        <v>2150</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
-        <v>2151</v>
+        <v>2148</v>
       </c>
       <c r="B802" t="s">
-        <v>2152</v>
+        <v>2149</v>
       </c>
       <c r="C802" t="s">
-        <v>2153</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
-        <v>2154</v>
+        <v>2151</v>
       </c>
       <c r="B803" t="s">
-        <v>2155</v>
+        <v>2152</v>
       </c>
       <c r="C803" t="s">
-        <v>2156</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
-        <v>2157</v>
+        <v>2154</v>
       </c>
       <c r="B804" t="s">
-        <v>2158</v>
+        <v>2155</v>
       </c>
       <c r="C804" t="s">
-        <v>2159</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
-        <v>2160</v>
+        <v>2157</v>
       </c>
       <c r="B805" t="s">
-        <v>2161</v>
+        <v>2158</v>
       </c>
       <c r="C805" t="s">
-        <v>2162</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
-        <v>2163</v>
+        <v>2160</v>
       </c>
       <c r="B806" t="s">
-        <v>2164</v>
+        <v>2161</v>
       </c>
       <c r="C806" t="s">
-        <v>2165</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
       <c r="B807" t="s">
-        <v>2167</v>
+        <v>2164</v>
       </c>
       <c r="C807" t="s">
-        <v>1580</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="B808" t="s">
-        <v>2522</v>
+        <v>2167</v>
       </c>
       <c r="C808" t="s">
-        <v>2523</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="B809" t="s">
-        <v>2170</v>
+        <v>2520</v>
       </c>
       <c r="C809" t="s">
-        <v>2171</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
-        <v>2172</v>
+        <v>2169</v>
       </c>
       <c r="B810" t="s">
-        <v>2173</v>
+        <v>2170</v>
       </c>
       <c r="C810" t="s">
-        <v>2174</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
-        <v>2175</v>
+        <v>2172</v>
       </c>
       <c r="B811" t="s">
-        <v>2176</v>
+        <v>2173</v>
       </c>
       <c r="C811" t="s">
-        <v>2177</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
-        <v>2178</v>
+        <v>2175</v>
       </c>
       <c r="B812" t="s">
-        <v>2179</v>
+        <v>2176</v>
       </c>
       <c r="C812" t="s">
-        <v>2180</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
-        <v>2181</v>
+        <v>2178</v>
       </c>
       <c r="B813" t="s">
-        <v>3</v>
+        <v>2179</v>
       </c>
       <c r="C813" t="s">
-        <v>4</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="B814" t="s">
-        <v>2183</v>
+        <v>3</v>
       </c>
       <c r="C814" t="s">
-        <v>2184</v>
+        <v>4</v>
       </c>
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
-        <v>2185</v>
+        <v>2182</v>
       </c>
       <c r="B815" t="s">
-        <v>2186</v>
+        <v>2183</v>
       </c>
       <c r="C815" t="s">
-        <v>2187</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
-        <v>2188</v>
+        <v>2185</v>
       </c>
       <c r="B816" t="s">
-        <v>2189</v>
+        <v>2186</v>
       </c>
       <c r="C816" t="s">
-        <v>2190</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
-        <v>2191</v>
+        <v>2188</v>
       </c>
       <c r="B817" t="s">
-        <v>2192</v>
+        <v>2189</v>
       </c>
       <c r="C817" t="s">
-        <v>2193</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
-        <v>2194</v>
+        <v>2191</v>
       </c>
       <c r="B818" t="s">
-        <v>2195</v>
+        <v>2192</v>
       </c>
       <c r="C818" t="s">
-        <v>2196</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
-        <v>2197</v>
+        <v>2194</v>
       </c>
       <c r="B819" t="s">
-        <v>2198</v>
+        <v>2195</v>
       </c>
       <c r="C819" t="s">
-        <v>2199</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
-        <v>2200</v>
+        <v>2197</v>
       </c>
       <c r="B820" t="s">
-        <v>2201</v>
+        <v>2198</v>
       </c>
       <c r="C820" t="s">
-        <v>378</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="B821" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="C821" t="s">
-        <v>2204</v>
+        <v>378</v>
       </c>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
-        <v>2205</v>
+        <v>2202</v>
       </c>
       <c r="B822" t="s">
-        <v>2206</v>
+        <v>2203</v>
       </c>
       <c r="C822" t="s">
-        <v>2207</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
-        <v>2208</v>
+        <v>2205</v>
       </c>
       <c r="B823" t="s">
-        <v>191</v>
+        <v>2206</v>
       </c>
       <c r="C823" t="s">
-        <v>192</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="B824" t="s">
-        <v>2210</v>
+        <v>191</v>
       </c>
       <c r="C824" t="s">
-        <v>2211</v>
+        <v>192</v>
       </c>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
-        <v>2212</v>
+        <v>2209</v>
       </c>
       <c r="B825" t="s">
-        <v>2213</v>
+        <v>2210</v>
       </c>
       <c r="C825" t="s">
-        <v>2214</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
-        <v>2215</v>
+        <v>2212</v>
       </c>
       <c r="B826" t="s">
-        <v>2216</v>
+        <v>2213</v>
       </c>
       <c r="C826" t="s">
-        <v>2217</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
-        <v>2218</v>
+        <v>2215</v>
       </c>
       <c r="B827" t="s">
-        <v>2219</v>
+        <v>2216</v>
       </c>
       <c r="C827" t="s">
-        <v>2220</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
-        <v>2221</v>
+        <v>2218</v>
       </c>
       <c r="B828" t="s">
-        <v>2222</v>
+        <v>2219</v>
       </c>
       <c r="C828" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
-        <v>2224</v>
+        <v>2221</v>
       </c>
       <c r="B829" t="s">
-        <v>2225</v>
+        <v>2222</v>
       </c>
       <c r="C829" t="s">
-        <v>2226</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
-        <v>2227</v>
+        <v>2224</v>
       </c>
       <c r="B830" t="s">
-        <v>2228</v>
+        <v>2225</v>
       </c>
       <c r="C830" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
-        <v>2230</v>
+        <v>2227</v>
       </c>
       <c r="B831" t="s">
-        <v>2231</v>
+        <v>2228</v>
       </c>
       <c r="C831" t="s">
-        <v>2232</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
-        <v>2233</v>
+        <v>2230</v>
       </c>
       <c r="B832" t="s">
-        <v>2234</v>
+        <v>2231</v>
       </c>
       <c r="C832" t="s">
-        <v>2235</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
-        <v>2236</v>
+        <v>2233</v>
       </c>
       <c r="B833" t="s">
-        <v>2237</v>
+        <v>2553</v>
       </c>
       <c r="C833" t="s">
-        <v>2238</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
-        <v>2239</v>
+        <v>2234</v>
       </c>
       <c r="B834" t="s">
-        <v>2240</v>
+        <v>2235</v>
       </c>
       <c r="C834" t="s">
-        <v>2241</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
-        <v>2242</v>
+        <v>2237</v>
       </c>
       <c r="B835" t="s">
-        <v>2243</v>
+        <v>2238</v>
       </c>
       <c r="C835" t="s">
-        <v>2243</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
-        <v>2244</v>
+        <v>2240</v>
       </c>
       <c r="B836" t="s">
-        <v>2245</v>
+        <v>2241</v>
       </c>
       <c r="C836" t="s">
-        <v>2246</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
-        <v>2247</v>
+        <v>2242</v>
       </c>
       <c r="B837" t="s">
-        <v>2248</v>
+        <v>2243</v>
       </c>
       <c r="C837" t="s">
-        <v>2214</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
-        <v>2249</v>
+        <v>2245</v>
       </c>
       <c r="B838" t="s">
-        <v>2250</v>
+        <v>2246</v>
       </c>
       <c r="C838" t="s">
-        <v>2251</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
-        <v>2252</v>
+        <v>2247</v>
       </c>
       <c r="B839" t="s">
-        <v>2253</v>
+        <v>2248</v>
       </c>
       <c r="C839" t="s">
-        <v>2254</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
-        <v>2255</v>
+        <v>2250</v>
       </c>
       <c r="B840" t="s">
-        <v>2256</v>
+        <v>2251</v>
       </c>
       <c r="C840" t="s">
-        <v>2257</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
-        <v>2258</v>
+        <v>2253</v>
       </c>
       <c r="B841" t="s">
-        <v>2259</v>
+        <v>2254</v>
       </c>
       <c r="C841" t="s">
-        <v>2260</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
-        <v>2261</v>
+        <v>2256</v>
       </c>
       <c r="B842" t="s">
-        <v>2262</v>
+        <v>2257</v>
       </c>
       <c r="C842" t="s">
-        <v>2263</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
-        <v>2264</v>
+        <v>2259</v>
       </c>
       <c r="B843" t="s">
-        <v>2265</v>
+        <v>2260</v>
       </c>
       <c r="C843" t="s">
-        <v>2266</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
-        <v>2267</v>
+        <v>2262</v>
       </c>
       <c r="B844" t="s">
-        <v>2268</v>
+        <v>2263</v>
       </c>
       <c r="C844" t="s">
-        <v>2269</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
-        <v>2270</v>
+        <v>2265</v>
       </c>
       <c r="B845" t="s">
-        <v>2271</v>
+        <v>2266</v>
       </c>
       <c r="C845" t="s">
-        <v>2272</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
-        <v>2273</v>
+        <v>2268</v>
       </c>
       <c r="B846" t="s">
-        <v>2274</v>
+        <v>2269</v>
       </c>
       <c r="C846" t="s">
-        <v>2275</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
-        <v>2276</v>
+        <v>2271</v>
       </c>
       <c r="B847" t="s">
-        <v>2277</v>
+        <v>2272</v>
       </c>
       <c r="C847" t="s">
-        <v>2278</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
-        <v>2279</v>
+        <v>2274</v>
       </c>
       <c r="B848" t="s">
-        <v>2280</v>
+        <v>2275</v>
       </c>
       <c r="C848" t="s">
-        <v>2281</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
-        <v>2282</v>
+        <v>2277</v>
       </c>
       <c r="B849" t="s">
-        <v>2283</v>
+        <v>2278</v>
       </c>
       <c r="C849" t="s">
-        <v>2284</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
-        <v>2285</v>
+        <v>2280</v>
       </c>
       <c r="B850" t="s">
-        <v>2286</v>
+        <v>2281</v>
       </c>
       <c r="C850" t="s">
-        <v>2287</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
-        <v>2288</v>
+        <v>2283</v>
       </c>
       <c r="B851" t="s">
-        <v>2289</v>
+        <v>2284</v>
       </c>
       <c r="C851" t="s">
-        <v>2290</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
-        <v>2291</v>
+        <v>2286</v>
       </c>
       <c r="B852" t="s">
-        <v>2292</v>
+        <v>2287</v>
       </c>
       <c r="C852" t="s">
-        <v>950</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
-        <v>2293</v>
+        <v>2289</v>
       </c>
       <c r="B853" t="s">
-        <v>2294</v>
+        <v>2290</v>
       </c>
       <c r="C853" t="s">
-        <v>2295</v>
+        <v>950</v>
       </c>
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
-        <v>2296</v>
+        <v>2291</v>
       </c>
       <c r="B854" t="s">
-        <v>2297</v>
+        <v>2292</v>
       </c>
       <c r="C854" t="s">
-        <v>2298</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="855" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
-        <v>2299</v>
+        <v>2294</v>
       </c>
       <c r="B855" t="s">
-        <v>2300</v>
+        <v>2295</v>
       </c>
       <c r="C855" t="s">
-        <v>2301</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
-        <v>2302</v>
+        <v>2297</v>
       </c>
       <c r="B856" t="s">
-        <v>2303</v>
+        <v>2298</v>
       </c>
       <c r="C856" t="s">
-        <v>2304</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
-        <v>2305</v>
+        <v>2300</v>
       </c>
       <c r="B857" t="s">
-        <v>2306</v>
+        <v>2301</v>
       </c>
       <c r="C857" t="s">
-        <v>2307</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
-        <v>2308</v>
+        <v>2303</v>
       </c>
       <c r="B858" t="s">
-        <v>2524</v>
+        <v>2304</v>
       </c>
       <c r="C858" t="s">
-        <v>2525</v>
-      </c>
-    </row>
-    <row r="860" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A860" t="s">
-        <v>2526</v>
-      </c>
-      <c r="B860" t="s">
-        <v>2529</v>
-      </c>
-      <c r="C860" t="s">
-        <v>2535</v>
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="859" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A859" t="s">
+        <v>2306</v>
+      </c>
+      <c r="B859" t="s">
+        <v>2522</v>
+      </c>
+      <c r="C859" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
+        <v>2524</v>
+      </c>
+      <c r="B861" t="s">
         <v>2527</v>
       </c>
-      <c r="B861" t="s">
-        <v>2530</v>
-      </c>
       <c r="C861" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
+        <v>2525</v>
+      </c>
+      <c r="B862" t="s">
         <v>2528</v>
       </c>
-      <c r="B862" t="s">
-        <v>2531</v>
-      </c>
       <c r="C862" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
-        <v>2532</v>
+        <v>2526</v>
       </c>
       <c r="B863" t="s">
-        <v>2536</v>
+        <v>2529</v>
       </c>
       <c r="C863" t="s">
-        <v>2537</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
-        <v>2538</v>
+        <v>2530</v>
       </c>
       <c r="B864" t="s">
-        <v>2539</v>
+        <v>2534</v>
       </c>
       <c r="C864" t="s">
-        <v>2540</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
-        <v>2541</v>
+        <v>2536</v>
       </c>
       <c r="B865" t="s">
-        <v>2542</v>
+        <v>2537</v>
       </c>
       <c r="C865" t="s">
-        <v>2543</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
-        <v>2545</v>
-      </c>
-      <c r="B866" s="1" t="s">
-        <v>2546</v>
+        <v>2539</v>
+      </c>
+      <c r="B866" t="s">
+        <v>2540</v>
       </c>
       <c r="C866" t="s">
-        <v>2548</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
+        <v>2543</v>
+      </c>
+      <c r="B867" s="1" t="s">
         <v>2544</v>
       </c>
-      <c r="B867" s="1" t="s">
-        <v>2547</v>
-      </c>
       <c r="C867" t="s">
-        <v>2549</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
+        <v>2542</v>
+      </c>
+      <c r="B868" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="C868" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="869" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A869" t="s">
+        <v>2548</v>
+      </c>
+      <c r="B869" t="s">
+        <v>2549</v>
+      </c>
+      <c r="C869" t="s">
         <v>2550</v>
       </c>
-      <c r="B868" t="s">
+    </row>
+    <row r="870" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A870" s="1" t="s">
         <v>2551</v>
       </c>
-      <c r="C868" t="s">
+      <c r="B870" t="s">
+        <v>227</v>
+      </c>
+      <c r="C870" t="s">
         <v>2552</v>
-      </c>
-    </row>
-    <row r="869" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A869" s="1" t="s">
-        <v>2553</v>
-      </c>
-      <c r="B869" t="s">
-        <v>227</v>
-      </c>
-      <c r="C869" t="s">
-        <v>2554</v>
       </c>
     </row>
   </sheetData>

--- a/Client/WebClient/lang/fibertest_strings.xlsx
+++ b/Client/WebClient/lang/fibertest_strings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VsGitProjects\Fibertest\Client\WebClient\lang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VSProjects\Fibertest\Client\WebClient\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25067E5-41E8-4432-A4B0-9AF72BE020C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56038583-6252-433F-BA01-41832CEC87BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22170" yWindow="1995" windowWidth="19365" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="600" windowWidth="26250" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fibertest" sheetId="1" r:id="rId1"/>
@@ -7895,12 +7895,6 @@
     <t>SID_Rtu_Moni_Settings</t>
   </si>
   <si>
-    <t xml:space="preserve">RTU  &lt;{{0}}&gt; Monitoring Settings </t>
-  </si>
-  <si>
-    <t>RTU  &lt;{{0}}&gt;  Настройки мониторинга</t>
-  </si>
-  <si>
     <t>SID_measurement_frequency</t>
   </si>
   <si>
@@ -7932,13 +7926,19 @@
   </si>
   <si>
     <t>Авто</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{0}}: Monitoring Settings </t>
+  </si>
+  <si>
+    <t>{{0}}:  Настройки мониторинга</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -8331,18 +8331,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C897"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A884" workbookViewId="0">
-      <selection activeCell="B906" sqref="B906"/>
+    <sheetView tabSelected="1" topLeftCell="A881" workbookViewId="0">
+      <selection activeCell="B901" sqref="B901"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69" customWidth="1"/>
     <col min="2" max="2" width="58.42578125" customWidth="1"/>
     <col min="3" max="3" width="76.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8364,7 +8364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -8386,7 +8386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -8397,7 +8397,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -8430,7 +8430,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -8452,7 +8452,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -8463,7 +8463,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -8496,7 +8496,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -8518,7 +8518,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -8562,7 +8562,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -8584,7 +8584,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -8606,7 +8606,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -8650,7 +8650,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>82</v>
       </c>
@@ -8661,7 +8661,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>85</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>88</v>
       </c>
@@ -8683,7 +8683,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>91</v>
       </c>
@@ -8694,7 +8694,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>94</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>97</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>100</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>103</v>
       </c>
@@ -8738,7 +8738,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>106</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>109</v>
       </c>
@@ -8760,7 +8760,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>112</v>
       </c>
@@ -8771,7 +8771,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>115</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>118</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>119</v>
       </c>
@@ -8804,7 +8804,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>122</v>
       </c>
@@ -8815,7 +8815,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>125</v>
       </c>
@@ -8826,7 +8826,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>126</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>127</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>130</v>
       </c>
@@ -8859,7 +8859,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>133</v>
       </c>
@@ -8870,7 +8870,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>136</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>139</v>
       </c>
@@ -8892,7 +8892,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>142</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>145</v>
       </c>
@@ -8914,7 +8914,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>148</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>151</v>
       </c>
@@ -8936,7 +8936,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>154</v>
       </c>
@@ -8947,7 +8947,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>157</v>
       </c>
@@ -8958,7 +8958,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>160</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>163</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>166</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>169</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>172</v>
       </c>
@@ -9013,7 +9013,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>175</v>
       </c>
@@ -9024,7 +9024,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>178</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>181</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>184</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>187</v>
       </c>
@@ -9068,7 +9068,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>190</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>191</v>
       </c>
@@ -9090,7 +9090,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>194</v>
       </c>
@@ -9101,7 +9101,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>197</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>200</v>
       </c>
@@ -9123,7 +9123,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>203</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>206</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>209</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>212</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>215</v>
       </c>
@@ -9178,7 +9178,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>218</v>
       </c>
@@ -9189,7 +9189,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>221</v>
       </c>
@@ -9200,7 +9200,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>224</v>
       </c>
@@ -9211,7 +9211,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>227</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>230</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>233</v>
       </c>
@@ -9244,7 +9244,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>236</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>239</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>242</v>
       </c>
@@ -9277,7 +9277,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>245</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>248</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>251</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>254</v>
       </c>
@@ -9321,7 +9321,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>257</v>
       </c>
@@ -9332,7 +9332,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>260</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>263</v>
       </c>
@@ -9354,7 +9354,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>266</v>
       </c>
@@ -9365,7 +9365,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>269</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>272</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>275</v>
       </c>
@@ -9398,7 +9398,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>278</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>281</v>
       </c>
@@ -9420,7 +9420,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>284</v>
       </c>
@@ -9431,7 +9431,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>287</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>290</v>
       </c>
@@ -9453,7 +9453,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>293</v>
       </c>
@@ -9464,7 +9464,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>296</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>299</v>
       </c>
@@ -9486,7 +9486,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>302</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>305</v>
       </c>
@@ -9508,7 +9508,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>308</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>311</v>
       </c>
@@ -9530,7 +9530,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>314</v>
       </c>
@@ -9541,7 +9541,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>317</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>320</v>
       </c>
@@ -9563,7 +9563,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>323</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>326</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>329</v>
       </c>
@@ -9596,7 +9596,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>332</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>335</v>
       </c>
@@ -9618,7 +9618,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>338</v>
       </c>
@@ -9629,7 +9629,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>341</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>344</v>
       </c>
@@ -9651,7 +9651,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>347</v>
       </c>
@@ -9662,7 +9662,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>350</v>
       </c>
@@ -9673,7 +9673,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>353</v>
       </c>
@@ -9684,7 +9684,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>354</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>355</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>358</v>
       </c>
@@ -9717,7 +9717,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>361</v>
       </c>
@@ -9728,7 +9728,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>363</v>
       </c>
@@ -9739,7 +9739,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>366</v>
       </c>
@@ -9750,7 +9750,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>369</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>372</v>
       </c>
@@ -9772,7 +9772,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>375</v>
       </c>
@@ -9783,7 +9783,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>378</v>
       </c>
@@ -9794,7 +9794,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>381</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>384</v>
       </c>
@@ -9816,7 +9816,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>387</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>390</v>
       </c>
@@ -9838,7 +9838,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>393</v>
       </c>
@@ -9849,7 +9849,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>396</v>
       </c>
@@ -9860,7 +9860,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>399</v>
       </c>
@@ -9871,7 +9871,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>402</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>405</v>
       </c>
@@ -9893,7 +9893,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>408</v>
       </c>
@@ -9904,7 +9904,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>411</v>
       </c>
@@ -9915,7 +9915,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>414</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>417</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>420</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>423</v>
       </c>
@@ -9959,7 +9959,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>426</v>
       </c>
@@ -9970,7 +9970,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>429</v>
       </c>
@@ -9981,7 +9981,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>432</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>435</v>
       </c>
@@ -10003,7 +10003,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>437</v>
       </c>
@@ -10014,7 +10014,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>439</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>441</v>
       </c>
@@ -10036,7 +10036,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>444</v>
       </c>
@@ -10047,7 +10047,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>446</v>
       </c>
@@ -10058,7 +10058,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>449</v>
       </c>
@@ -10069,7 +10069,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>450</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>453</v>
       </c>
@@ -10091,7 +10091,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>456</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>458</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>461</v>
       </c>
@@ -10124,7 +10124,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>463</v>
       </c>
@@ -10135,7 +10135,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>466</v>
       </c>
@@ -10146,7 +10146,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>469</v>
       </c>
@@ -10157,7 +10157,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>472</v>
       </c>
@@ -10168,7 +10168,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>475</v>
       </c>
@@ -10179,7 +10179,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>478</v>
       </c>
@@ -10190,7 +10190,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>481</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>484</v>
       </c>
@@ -10212,7 +10212,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>487</v>
       </c>
@@ -10223,7 +10223,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>490</v>
       </c>
@@ -10234,7 +10234,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>493</v>
       </c>
@@ -10245,7 +10245,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>496</v>
       </c>
@@ -10256,7 +10256,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>499</v>
       </c>
@@ -10267,7 +10267,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>502</v>
       </c>
@@ -10278,7 +10278,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>505</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>508</v>
       </c>
@@ -10300,7 +10300,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>511</v>
       </c>
@@ -10311,7 +10311,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>512</v>
       </c>
@@ -10322,7 +10322,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>515</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>518</v>
       </c>
@@ -10344,7 +10344,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>521</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>524</v>
       </c>
@@ -10366,7 +10366,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>527</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>530</v>
       </c>
@@ -10388,7 +10388,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>533</v>
       </c>
@@ -10399,7 +10399,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>536</v>
       </c>
@@ -10410,7 +10410,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>539</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>542</v>
       </c>
@@ -10432,7 +10432,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>545</v>
       </c>
@@ -10443,7 +10443,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>548</v>
       </c>
@@ -10454,7 +10454,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>551</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>554</v>
       </c>
@@ -10476,7 +10476,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>557</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>560</v>
       </c>
@@ -10498,7 +10498,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>563</v>
       </c>
@@ -10509,7 +10509,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>566</v>
       </c>
@@ -10520,7 +10520,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>569</v>
       </c>
@@ -10531,7 +10531,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>572</v>
       </c>
@@ -10542,7 +10542,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>575</v>
       </c>
@@ -10553,7 +10553,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>578</v>
       </c>
@@ -10564,7 +10564,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>581</v>
       </c>
@@ -10575,7 +10575,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>584</v>
       </c>
@@ -10586,7 +10586,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>587</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>590</v>
       </c>
@@ -10608,7 +10608,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>593</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>596</v>
       </c>
@@ -10630,7 +10630,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>599</v>
       </c>
@@ -10641,7 +10641,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>602</v>
       </c>
@@ -10652,7 +10652,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>605</v>
       </c>
@@ -10663,7 +10663,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>608</v>
       </c>
@@ -10674,7 +10674,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>611</v>
       </c>
@@ -10685,7 +10685,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>612</v>
       </c>
@@ -10696,7 +10696,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>615</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>618</v>
       </c>
@@ -10718,7 +10718,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>621</v>
       </c>
@@ -10729,7 +10729,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>624</v>
       </c>
@@ -10740,7 +10740,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>627</v>
       </c>
@@ -10751,7 +10751,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>630</v>
       </c>
@@ -10762,7 +10762,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>631</v>
       </c>
@@ -10773,7 +10773,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>634</v>
       </c>
@@ -10784,7 +10784,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>637</v>
       </c>
@@ -10795,7 +10795,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>640</v>
       </c>
@@ -10806,7 +10806,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>641</v>
       </c>
@@ -10817,7 +10817,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>642</v>
       </c>
@@ -10828,7 +10828,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>645</v>
       </c>
@@ -10839,7 +10839,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>648</v>
       </c>
@@ -10850,7 +10850,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>651</v>
       </c>
@@ -10861,7 +10861,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>652</v>
       </c>
@@ -10872,7 +10872,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>653</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>656</v>
       </c>
@@ -10894,7 +10894,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>658</v>
       </c>
@@ -10905,7 +10905,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>659</v>
       </c>
@@ -10916,7 +10916,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>661</v>
       </c>
@@ -10927,7 +10927,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>663</v>
       </c>
@@ -10938,7 +10938,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>665</v>
       </c>
@@ -10949,7 +10949,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>666</v>
       </c>
@@ -10960,7 +10960,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>667</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>668</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>671</v>
       </c>
@@ -10993,7 +10993,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>673</v>
       </c>
@@ -11004,7 +11004,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>675</v>
       </c>
@@ -11015,7 +11015,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>676</v>
       </c>
@@ -11026,7 +11026,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>679</v>
       </c>
@@ -11037,7 +11037,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>682</v>
       </c>
@@ -11048,7 +11048,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>685</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>688</v>
       </c>
@@ -11070,7 +11070,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>691</v>
       </c>
@@ -11081,7 +11081,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>694</v>
       </c>
@@ -11092,7 +11092,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>697</v>
       </c>
@@ -11103,7 +11103,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>700</v>
       </c>
@@ -11114,7 +11114,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>703</v>
       </c>
@@ -11125,7 +11125,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>706</v>
       </c>
@@ -11136,7 +11136,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>709</v>
       </c>
@@ -11147,7 +11147,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>712</v>
       </c>
@@ -11158,7 +11158,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>715</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>718</v>
       </c>
@@ -11180,7 +11180,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>721</v>
       </c>
@@ -11191,7 +11191,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>724</v>
       </c>
@@ -11202,7 +11202,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>727</v>
       </c>
@@ -11213,7 +11213,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>730</v>
       </c>
@@ -11224,7 +11224,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>731</v>
       </c>
@@ -11235,7 +11235,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>732</v>
       </c>
@@ -11246,7 +11246,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>733</v>
       </c>
@@ -11257,7 +11257,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>734</v>
       </c>
@@ -11268,7 +11268,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>737</v>
       </c>
@@ -11279,7 +11279,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>740</v>
       </c>
@@ -11290,7 +11290,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>743</v>
       </c>
@@ -11301,7 +11301,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>746</v>
       </c>
@@ -11312,7 +11312,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>749</v>
       </c>
@@ -11323,7 +11323,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>752</v>
       </c>
@@ -11334,7 +11334,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>755</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>756</v>
       </c>
@@ -11356,7 +11356,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>757</v>
       </c>
@@ -11367,7 +11367,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>758</v>
       </c>
@@ -11378,7 +11378,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>761</v>
       </c>
@@ -11389,7 +11389,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>764</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>767</v>
       </c>
@@ -11411,7 +11411,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>770</v>
       </c>
@@ -11422,7 +11422,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>773</v>
       </c>
@@ -11433,7 +11433,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>776</v>
       </c>
@@ -11444,7 +11444,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>779</v>
       </c>
@@ -11455,7 +11455,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>782</v>
       </c>
@@ -11466,7 +11466,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>785</v>
       </c>
@@ -11477,7 +11477,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>788</v>
       </c>
@@ -11488,7 +11488,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>791</v>
       </c>
@@ -11499,7 +11499,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>794</v>
       </c>
@@ -11510,7 +11510,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>797</v>
       </c>
@@ -11521,7 +11521,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>800</v>
       </c>
@@ -11532,7 +11532,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>803</v>
       </c>
@@ -11543,7 +11543,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>806</v>
       </c>
@@ -11554,7 +11554,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>809</v>
       </c>
@@ -11565,7 +11565,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>812</v>
       </c>
@@ -11576,7 +11576,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>815</v>
       </c>
@@ -11587,7 +11587,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>818</v>
       </c>
@@ -11598,7 +11598,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>821</v>
       </c>
@@ -11609,7 +11609,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>824</v>
       </c>
@@ -11620,7 +11620,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>827</v>
       </c>
@@ -11631,7 +11631,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>830</v>
       </c>
@@ -11642,7 +11642,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>833</v>
       </c>
@@ -11653,7 +11653,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>836</v>
       </c>
@@ -11664,7 +11664,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>837</v>
       </c>
@@ -11675,7 +11675,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>838</v>
       </c>
@@ -11686,7 +11686,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>841</v>
       </c>
@@ -11697,7 +11697,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>844</v>
       </c>
@@ -11708,7 +11708,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>847</v>
       </c>
@@ -11719,7 +11719,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>850</v>
       </c>
@@ -11730,7 +11730,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>853</v>
       </c>
@@ -11741,7 +11741,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>856</v>
       </c>
@@ -11752,7 +11752,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>859</v>
       </c>
@@ -11763,7 +11763,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>860</v>
       </c>
@@ -11774,7 +11774,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>861</v>
       </c>
@@ -11785,7 +11785,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>862</v>
       </c>
@@ -11796,7 +11796,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>863</v>
       </c>
@@ -11807,7 +11807,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>864</v>
       </c>
@@ -11818,7 +11818,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>867</v>
       </c>
@@ -11829,7 +11829,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>870</v>
       </c>
@@ -11840,7 +11840,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>873</v>
       </c>
@@ -11851,7 +11851,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>876</v>
       </c>
@@ -11862,7 +11862,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>879</v>
       </c>
@@ -11873,7 +11873,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>882</v>
       </c>
@@ -11884,7 +11884,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>885</v>
       </c>
@@ -11895,7 +11895,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>888</v>
       </c>
@@ -11906,7 +11906,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>891</v>
       </c>
@@ -11917,7 +11917,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>894</v>
       </c>
@@ -11928,7 +11928,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>895</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>898</v>
       </c>
@@ -11950,7 +11950,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>901</v>
       </c>
@@ -11961,7 +11961,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>904</v>
       </c>
@@ -11972,7 +11972,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>905</v>
       </c>
@@ -11983,7 +11983,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>908</v>
       </c>
@@ -11994,7 +11994,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>909</v>
       </c>
@@ -12005,7 +12005,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>912</v>
       </c>
@@ -12016,7 +12016,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>915</v>
       </c>
@@ -12027,7 +12027,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>918</v>
       </c>
@@ -12038,7 +12038,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>921</v>
       </c>
@@ -12049,7 +12049,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>924</v>
       </c>
@@ -12060,7 +12060,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>927</v>
       </c>
@@ -12071,7 +12071,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>930</v>
       </c>
@@ -12082,7 +12082,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>933</v>
       </c>
@@ -12093,7 +12093,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>936</v>
       </c>
@@ -12104,7 +12104,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>939</v>
       </c>
@@ -12115,7 +12115,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>942</v>
       </c>
@@ -12126,7 +12126,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>945</v>
       </c>
@@ -12137,7 +12137,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>948</v>
       </c>
@@ -12148,7 +12148,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>951</v>
       </c>
@@ -12159,7 +12159,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>954</v>
       </c>
@@ -12170,7 +12170,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>957</v>
       </c>
@@ -12181,7 +12181,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>960</v>
       </c>
@@ -12192,7 +12192,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>962</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>965</v>
       </c>
@@ -12214,7 +12214,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>968</v>
       </c>
@@ -12225,7 +12225,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>971</v>
       </c>
@@ -12236,7 +12236,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>974</v>
       </c>
@@ -12247,7 +12247,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>977</v>
       </c>
@@ -12258,7 +12258,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>980</v>
       </c>
@@ -12269,7 +12269,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>983</v>
       </c>
@@ -12280,7 +12280,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>986</v>
       </c>
@@ -12291,7 +12291,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>989</v>
       </c>
@@ -12302,7 +12302,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>992</v>
       </c>
@@ -12313,7 +12313,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>995</v>
       </c>
@@ -12324,7 +12324,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>998</v>
       </c>
@@ -12335,7 +12335,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>1001</v>
       </c>
@@ -12346,7 +12346,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>1004</v>
       </c>
@@ -12357,7 +12357,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>1007</v>
       </c>
@@ -12368,7 +12368,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>1010</v>
       </c>
@@ -12379,7 +12379,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>1013</v>
       </c>
@@ -12390,7 +12390,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1016</v>
       </c>
@@ -12401,7 +12401,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>1019</v>
       </c>
@@ -12412,7 +12412,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>1022</v>
       </c>
@@ -12423,7 +12423,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>1025</v>
       </c>
@@ -12434,7 +12434,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>1028</v>
       </c>
@@ -12445,7 +12445,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>1031</v>
       </c>
@@ -12456,7 +12456,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>1034</v>
       </c>
@@ -12467,7 +12467,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>1037</v>
       </c>
@@ -12478,7 +12478,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>1040</v>
       </c>
@@ -12489,7 +12489,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>1043</v>
       </c>
@@ -12500,7 +12500,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>1046</v>
       </c>
@@ -12511,7 +12511,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>1049</v>
       </c>
@@ -12522,7 +12522,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="381" spans="1:3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>1052</v>
       </c>
@@ -12533,7 +12533,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>1053</v>
       </c>
@@ -12544,7 +12544,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>1054</v>
       </c>
@@ -12555,7 +12555,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="384" spans="1:3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>1057</v>
       </c>
@@ -12566,7 +12566,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>1060</v>
       </c>
@@ -12577,7 +12577,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="386" spans="1:3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>1063</v>
       </c>
@@ -12588,7 +12588,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="387" spans="1:3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>1066</v>
       </c>
@@ -12599,7 +12599,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="388" spans="1:3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>1069</v>
       </c>
@@ -12610,7 +12610,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="389" spans="1:3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>1072</v>
       </c>
@@ -12621,7 +12621,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>1075</v>
       </c>
@@ -12632,7 +12632,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>1078</v>
       </c>
@@ -12643,7 +12643,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="392" spans="1:3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>1081</v>
       </c>
@@ -12654,7 +12654,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="393" spans="1:3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>1084</v>
       </c>
@@ -12665,7 +12665,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="394" spans="1:3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>1087</v>
       </c>
@@ -12676,7 +12676,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="395" spans="1:3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>1090</v>
       </c>
@@ -12687,7 +12687,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="396" spans="1:3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>1093</v>
       </c>
@@ -12698,7 +12698,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>1096</v>
       </c>
@@ -12709,7 +12709,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="398" spans="1:3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>1099</v>
       </c>
@@ -12720,7 +12720,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="399" spans="1:3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>1102</v>
       </c>
@@ -12731,7 +12731,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="400" spans="1:3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>1105</v>
       </c>
@@ -12742,7 +12742,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="401" spans="1:3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>1108</v>
       </c>
@@ -12753,7 +12753,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>1111</v>
       </c>
@@ -12764,7 +12764,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>1114</v>
       </c>
@@ -12775,7 +12775,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="404" spans="1:3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>1117</v>
       </c>
@@ -12786,7 +12786,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="405" spans="1:3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>1120</v>
       </c>
@@ -12797,7 +12797,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>1123</v>
       </c>
@@ -12808,7 +12808,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="407" spans="1:3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>1126</v>
       </c>
@@ -12819,7 +12819,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="408" spans="1:3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>1129</v>
       </c>
@@ -12830,7 +12830,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="409" spans="1:3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>1132</v>
       </c>
@@ -12841,7 +12841,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="410" spans="1:3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>1135</v>
       </c>
@@ -12852,7 +12852,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="411" spans="1:3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>1138</v>
       </c>
@@ -12863,7 +12863,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="412" spans="1:3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>1141</v>
       </c>
@@ -12874,7 +12874,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="413" spans="1:3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>1143</v>
       </c>
@@ -12885,7 +12885,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="414" spans="1:3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>1146</v>
       </c>
@@ -12896,7 +12896,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="415" spans="1:3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>1149</v>
       </c>
@@ -12907,7 +12907,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="416" spans="1:3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>1150</v>
       </c>
@@ -12918,7 +12918,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="417" spans="1:3">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>1151</v>
       </c>
@@ -12929,7 +12929,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="418" spans="1:3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>1152</v>
       </c>
@@ -12940,7 +12940,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="419" spans="1:3">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>1155</v>
       </c>
@@ -12951,7 +12951,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="420" spans="1:3">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>1156</v>
       </c>
@@ -12962,7 +12962,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="421" spans="1:3">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>1159</v>
       </c>
@@ -12973,7 +12973,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="422" spans="1:3">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>1162</v>
       </c>
@@ -12984,7 +12984,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="423" spans="1:3">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>1163</v>
       </c>
@@ -12995,7 +12995,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="424" spans="1:3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>1166</v>
       </c>
@@ -13006,7 +13006,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="425" spans="1:3">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>1169</v>
       </c>
@@ -13017,7 +13017,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="426" spans="1:3">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>1172</v>
       </c>
@@ -13028,7 +13028,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="427" spans="1:3">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>1175</v>
       </c>
@@ -13039,7 +13039,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="428" spans="1:3">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>1178</v>
       </c>
@@ -13050,7 +13050,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="429" spans="1:3">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>1181</v>
       </c>
@@ -13061,7 +13061,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="430" spans="1:3">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>1184</v>
       </c>
@@ -13072,7 +13072,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="431" spans="1:3">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>1187</v>
       </c>
@@ -13083,7 +13083,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="432" spans="1:3">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>1190</v>
       </c>
@@ -13094,7 +13094,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="433" spans="1:3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>1191</v>
       </c>
@@ -13105,7 +13105,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="434" spans="1:3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>1192</v>
       </c>
@@ -13116,7 +13116,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="435" spans="1:3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>1194</v>
       </c>
@@ -13127,7 +13127,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="436" spans="1:3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>1196</v>
       </c>
@@ -13138,7 +13138,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="437" spans="1:3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>1198</v>
       </c>
@@ -13149,7 +13149,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="438" spans="1:3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>1201</v>
       </c>
@@ -13160,7 +13160,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="439" spans="1:3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>1202</v>
       </c>
@@ -13171,7 +13171,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="440" spans="1:3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>1203</v>
       </c>
@@ -13182,7 +13182,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="441" spans="1:3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>1206</v>
       </c>
@@ -13193,7 +13193,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="442" spans="1:3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>1209</v>
       </c>
@@ -13204,7 +13204,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="443" spans="1:3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>1212</v>
       </c>
@@ -13215,7 +13215,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="444" spans="1:3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>1215</v>
       </c>
@@ -13226,7 +13226,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="445" spans="1:3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>1218</v>
       </c>
@@ -13237,7 +13237,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="446" spans="1:3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>1221</v>
       </c>
@@ -13248,7 +13248,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="447" spans="1:3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>1224</v>
       </c>
@@ -13259,7 +13259,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="448" spans="1:3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>1227</v>
       </c>
@@ -13270,7 +13270,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="449" spans="1:3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>1230</v>
       </c>
@@ -13281,7 +13281,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="450" spans="1:3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>1233</v>
       </c>
@@ -13292,7 +13292,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="451" spans="1:3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>1234</v>
       </c>
@@ -13303,7 +13303,7 @@
         <v>2463</v>
       </c>
     </row>
-    <row r="452" spans="1:3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>1235</v>
       </c>
@@ -13314,7 +13314,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="453" spans="1:3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>1238</v>
       </c>
@@ -13325,7 +13325,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="454" spans="1:3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>1239</v>
       </c>
@@ -13336,7 +13336,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="455" spans="1:3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>1240</v>
       </c>
@@ -13347,7 +13347,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="456" spans="1:3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>1243</v>
       </c>
@@ -13358,7 +13358,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="457" spans="1:3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>1246</v>
       </c>
@@ -13369,7 +13369,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="458" spans="1:3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>1249</v>
       </c>
@@ -13380,7 +13380,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="459" spans="1:3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>1252</v>
       </c>
@@ -13391,7 +13391,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="460" spans="1:3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>1255</v>
       </c>
@@ -13402,7 +13402,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="461" spans="1:3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>1258</v>
       </c>
@@ -13413,7 +13413,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="462" spans="1:3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>1261</v>
       </c>
@@ -13424,7 +13424,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="463" spans="1:3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>1264</v>
       </c>
@@ -13435,7 +13435,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="464" spans="1:3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>1267</v>
       </c>
@@ -13446,7 +13446,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="465" spans="1:3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>1268</v>
       </c>
@@ -13457,7 +13457,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="466" spans="1:3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>1269</v>
       </c>
@@ -13468,7 +13468,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="467" spans="1:3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>1272</v>
       </c>
@@ -13479,7 +13479,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="468" spans="1:3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>1275</v>
       </c>
@@ -13490,7 +13490,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="469" spans="1:3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>1278</v>
       </c>
@@ -13501,7 +13501,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="470" spans="1:3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>1281</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="471" spans="1:3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>1284</v>
       </c>
@@ -13523,7 +13523,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="472" spans="1:3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>1287</v>
       </c>
@@ -13534,7 +13534,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="473" spans="1:3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>1290</v>
       </c>
@@ -13545,7 +13545,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="474" spans="1:3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>1293</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="475" spans="1:3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>1296</v>
       </c>
@@ -13567,7 +13567,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="476" spans="1:3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>1299</v>
       </c>
@@ -13578,7 +13578,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="477" spans="1:3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>1302</v>
       </c>
@@ -13589,7 +13589,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="478" spans="1:3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>1303</v>
       </c>
@@ -13600,7 +13600,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="479" spans="1:3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>1306</v>
       </c>
@@ -13611,7 +13611,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="480" spans="1:3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>1309</v>
       </c>
@@ -13622,7 +13622,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="481" spans="1:3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>1312</v>
       </c>
@@ -13633,7 +13633,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="482" spans="1:3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>1315</v>
       </c>
@@ -13644,7 +13644,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="483" spans="1:3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>1318</v>
       </c>
@@ -13655,7 +13655,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="484" spans="1:3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>1321</v>
       </c>
@@ -13666,7 +13666,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="485" spans="1:3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>1324</v>
       </c>
@@ -13677,7 +13677,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="486" spans="1:3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>1327</v>
       </c>
@@ -13688,7 +13688,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="487" spans="1:3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>1330</v>
       </c>
@@ -13699,7 +13699,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="488" spans="1:3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>1333</v>
       </c>
@@ -13710,7 +13710,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="489" spans="1:3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>1336</v>
       </c>
@@ -13721,7 +13721,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="490" spans="1:3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>1339</v>
       </c>
@@ -13732,7 +13732,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="491" spans="1:3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>1342</v>
       </c>
@@ -13743,7 +13743,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="492" spans="1:3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>1345</v>
       </c>
@@ -13754,7 +13754,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="493" spans="1:3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>1347</v>
       </c>
@@ -13765,7 +13765,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="494" spans="1:3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>1350</v>
       </c>
@@ -13776,7 +13776,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="495" spans="1:3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>1353</v>
       </c>
@@ -13787,7 +13787,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="496" spans="1:3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>1356</v>
       </c>
@@ -13798,7 +13798,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="497" spans="1:3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>1359</v>
       </c>
@@ -13809,7 +13809,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="498" spans="1:3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>1362</v>
       </c>
@@ -13820,7 +13820,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="499" spans="1:3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>1365</v>
       </c>
@@ -13831,7 +13831,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="500" spans="1:3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>1368</v>
       </c>
@@ -13842,7 +13842,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="501" spans="1:3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>1371</v>
       </c>
@@ -13853,7 +13853,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="502" spans="1:3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>1374</v>
       </c>
@@ -13864,7 +13864,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="503" spans="1:3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>1377</v>
       </c>
@@ -13875,7 +13875,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="504" spans="1:3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>1380</v>
       </c>
@@ -13886,7 +13886,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="505" spans="1:3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>1383</v>
       </c>
@@ -13897,7 +13897,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="506" spans="1:3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>1386</v>
       </c>
@@ -13908,7 +13908,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="507" spans="1:3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>1389</v>
       </c>
@@ -13919,7 +13919,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="508" spans="1:3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>1390</v>
       </c>
@@ -13930,7 +13930,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="509" spans="1:3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>1391</v>
       </c>
@@ -13941,7 +13941,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="510" spans="1:3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>1394</v>
       </c>
@@ -13952,7 +13952,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="511" spans="1:3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>1397</v>
       </c>
@@ -13963,7 +13963,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="512" spans="1:3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>1400</v>
       </c>
@@ -13974,7 +13974,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="513" spans="1:3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>1403</v>
       </c>
@@ -13985,7 +13985,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="514" spans="1:3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>1406</v>
       </c>
@@ -13996,7 +13996,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="515" spans="1:3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>1409</v>
       </c>
@@ -14007,7 +14007,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="516" spans="1:3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>1410</v>
       </c>
@@ -14018,7 +14018,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="517" spans="1:3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>1413</v>
       </c>
@@ -14029,7 +14029,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="518" spans="1:3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>1416</v>
       </c>
@@ -14040,7 +14040,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="519" spans="1:3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>1418</v>
       </c>
@@ -14051,7 +14051,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="520" spans="1:3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>1421</v>
       </c>
@@ -14062,7 +14062,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="521" spans="1:3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>1424</v>
       </c>
@@ -14073,7 +14073,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="522" spans="1:3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>1426</v>
       </c>
@@ -14084,7 +14084,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="523" spans="1:3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>1429</v>
       </c>
@@ -14095,7 +14095,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="524" spans="1:3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>1432</v>
       </c>
@@ -14106,7 +14106,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="525" spans="1:3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>1435</v>
       </c>
@@ -14117,7 +14117,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="526" spans="1:3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>1438</v>
       </c>
@@ -14128,7 +14128,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="527" spans="1:3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>1441</v>
       </c>
@@ -14139,7 +14139,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="528" spans="1:3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>1444</v>
       </c>
@@ -14150,7 +14150,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="529" spans="1:3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>1447</v>
       </c>
@@ -14161,7 +14161,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="530" spans="1:3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>1450</v>
       </c>
@@ -14172,7 +14172,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="531" spans="1:3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>1453</v>
       </c>
@@ -14183,7 +14183,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="532" spans="1:3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>1456</v>
       </c>
@@ -14194,7 +14194,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="533" spans="1:3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>1459</v>
       </c>
@@ -14205,7 +14205,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="534" spans="1:3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>1462</v>
       </c>
@@ -14216,7 +14216,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="535" spans="1:3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>1465</v>
       </c>
@@ -14227,7 +14227,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="536" spans="1:3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>1468</v>
       </c>
@@ -14238,7 +14238,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="537" spans="1:3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>1471</v>
       </c>
@@ -14249,7 +14249,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="538" spans="1:3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>1474</v>
       </c>
@@ -14260,7 +14260,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="539" spans="1:3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>1477</v>
       </c>
@@ -14271,7 +14271,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="540" spans="1:3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>1480</v>
       </c>
@@ -14282,7 +14282,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="541" spans="1:3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>1483</v>
       </c>
@@ -14293,7 +14293,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="542" spans="1:3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>1486</v>
       </c>
@@ -14304,7 +14304,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="543" spans="1:3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>1489</v>
       </c>
@@ -14315,7 +14315,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="544" spans="1:3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>1492</v>
       </c>
@@ -14326,7 +14326,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="545" spans="1:3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>1495</v>
       </c>
@@ -14337,7 +14337,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="546" spans="1:3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>1498</v>
       </c>
@@ -14348,7 +14348,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="547" spans="1:3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>1501</v>
       </c>
@@ -14359,7 +14359,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="548" spans="1:3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>1504</v>
       </c>
@@ -14370,7 +14370,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="549" spans="1:3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>1507</v>
       </c>
@@ -14381,7 +14381,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="550" spans="1:3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>1508</v>
       </c>
@@ -14392,7 +14392,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="551" spans="1:3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>1511</v>
       </c>
@@ -14403,7 +14403,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="552" spans="1:3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>1514</v>
       </c>
@@ -14414,7 +14414,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="553" spans="1:3">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>1517</v>
       </c>
@@ -14425,7 +14425,7 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="554" spans="1:3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>1518</v>
       </c>
@@ -14436,7 +14436,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="555" spans="1:3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>1521</v>
       </c>
@@ -14447,7 +14447,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="556" spans="1:3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>1524</v>
       </c>
@@ -14458,7 +14458,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="557" spans="1:3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>1527</v>
       </c>
@@ -14469,7 +14469,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="558" spans="1:3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>1530</v>
       </c>
@@ -14480,7 +14480,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="559" spans="1:3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>1533</v>
       </c>
@@ -14491,7 +14491,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="560" spans="1:3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>1536</v>
       </c>
@@ -14502,7 +14502,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="561" spans="1:3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>1539</v>
       </c>
@@ -14513,7 +14513,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="562" spans="1:3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>1542</v>
       </c>
@@ -14524,7 +14524,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="563" spans="1:3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>1545</v>
       </c>
@@ -14535,7 +14535,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="564" spans="1:3">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>1548</v>
       </c>
@@ -14546,7 +14546,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="565" spans="1:3">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>1551</v>
       </c>
@@ -14557,7 +14557,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="566" spans="1:3">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>1554</v>
       </c>
@@ -14568,7 +14568,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="567" spans="1:3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>1557</v>
       </c>
@@ -14579,7 +14579,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="568" spans="1:3">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>1560</v>
       </c>
@@ -14590,7 +14590,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="569" spans="1:3">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>1563</v>
       </c>
@@ -14601,7 +14601,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="570" spans="1:3">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>1566</v>
       </c>
@@ -14612,7 +14612,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="571" spans="1:3">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>1569</v>
       </c>
@@ -14623,7 +14623,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="572" spans="1:3">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>1572</v>
       </c>
@@ -14634,7 +14634,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="573" spans="1:3">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>1575</v>
       </c>
@@ -14645,7 +14645,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="574" spans="1:3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>1578</v>
       </c>
@@ -14656,7 +14656,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="575" spans="1:3">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>1581</v>
       </c>
@@ -14667,7 +14667,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="576" spans="1:3">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>1584</v>
       </c>
@@ -14678,7 +14678,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="577" spans="1:3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>1587</v>
       </c>
@@ -14689,7 +14689,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="578" spans="1:3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>1590</v>
       </c>
@@ -14700,7 +14700,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="579" spans="1:3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>1593</v>
       </c>
@@ -14711,7 +14711,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="580" spans="1:3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>1596</v>
       </c>
@@ -14722,7 +14722,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="581" spans="1:3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>1599</v>
       </c>
@@ -14733,7 +14733,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="582" spans="1:3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>1602</v>
       </c>
@@ -14744,7 +14744,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="583" spans="1:3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>1605</v>
       </c>
@@ -14755,7 +14755,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="584" spans="1:3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>1608</v>
       </c>
@@ -14766,7 +14766,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="585" spans="1:3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>1611</v>
       </c>
@@ -14777,7 +14777,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="586" spans="1:3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>1614</v>
       </c>
@@ -14788,7 +14788,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="587" spans="1:3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>1617</v>
       </c>
@@ -14799,7 +14799,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="588" spans="1:3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>1620</v>
       </c>
@@ -14810,7 +14810,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="589" spans="1:3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>1621</v>
       </c>
@@ -14821,7 +14821,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="590" spans="1:3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>1624</v>
       </c>
@@ -14832,7 +14832,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="591" spans="1:3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>1627</v>
       </c>
@@ -14843,7 +14843,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="592" spans="1:3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>1630</v>
       </c>
@@ -14854,7 +14854,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="593" spans="1:3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>1633</v>
       </c>
@@ -14865,7 +14865,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="594" spans="1:3">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>1636</v>
       </c>
@@ -14876,7 +14876,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="595" spans="1:3">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>1639</v>
       </c>
@@ -14887,7 +14887,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="596" spans="1:3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>1640</v>
       </c>
@@ -14898,7 +14898,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="597" spans="1:3">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>1643</v>
       </c>
@@ -14909,7 +14909,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="598" spans="1:3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>1644</v>
       </c>
@@ -14920,7 +14920,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="599" spans="1:3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>1647</v>
       </c>
@@ -14931,7 +14931,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="600" spans="1:3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>1648</v>
       </c>
@@ -14942,7 +14942,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="601" spans="1:3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>1651</v>
       </c>
@@ -14953,7 +14953,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="602" spans="1:3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>1654</v>
       </c>
@@ -14964,7 +14964,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="603" spans="1:3">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>1657</v>
       </c>
@@ -14975,7 +14975,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="604" spans="1:3">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>1660</v>
       </c>
@@ -14986,7 +14986,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="605" spans="1:3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>1661</v>
       </c>
@@ -14997,7 +14997,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="606" spans="1:3">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>1662</v>
       </c>
@@ -15008,7 +15008,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="607" spans="1:3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>1665</v>
       </c>
@@ -15019,7 +15019,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="608" spans="1:3">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>1666</v>
       </c>
@@ -15030,7 +15030,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="609" spans="1:3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>1667</v>
       </c>
@@ -15041,7 +15041,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="610" spans="1:3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>1668</v>
       </c>
@@ -15052,7 +15052,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="611" spans="1:3">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>1669</v>
       </c>
@@ -15063,7 +15063,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="612" spans="1:3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>1672</v>
       </c>
@@ -15074,7 +15074,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="613" spans="1:3">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>1675</v>
       </c>
@@ -15085,7 +15085,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="614" spans="1:3">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>1678</v>
       </c>
@@ -15096,7 +15096,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="615" spans="1:3">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>1681</v>
       </c>
@@ -15107,7 +15107,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="616" spans="1:3">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>1684</v>
       </c>
@@ -15118,7 +15118,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="617" spans="1:3">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>1685</v>
       </c>
@@ -15129,7 +15129,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="618" spans="1:3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>1688</v>
       </c>
@@ -15140,7 +15140,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="619" spans="1:3">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>1689</v>
       </c>
@@ -15151,7 +15151,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="620" spans="1:3">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>1692</v>
       </c>
@@ -15162,7 +15162,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="621" spans="1:3">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>1695</v>
       </c>
@@ -15173,7 +15173,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="622" spans="1:3">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>1698</v>
       </c>
@@ -15184,7 +15184,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="623" spans="1:3">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>1699</v>
       </c>
@@ -15195,7 +15195,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="624" spans="1:3">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>1702</v>
       </c>
@@ -15206,7 +15206,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="625" spans="1:3">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>1703</v>
       </c>
@@ -15217,7 +15217,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="626" spans="1:3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>1704</v>
       </c>
@@ -15228,7 +15228,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="627" spans="1:3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>1707</v>
       </c>
@@ -15239,7 +15239,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="628" spans="1:3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>1708</v>
       </c>
@@ -15250,7 +15250,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="629" spans="1:3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>1709</v>
       </c>
@@ -15261,7 +15261,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="630" spans="1:3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>1712</v>
       </c>
@@ -15272,7 +15272,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="631" spans="1:3">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>1715</v>
       </c>
@@ -15283,7 +15283,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="632" spans="1:3">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>1718</v>
       </c>
@@ -15294,7 +15294,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="633" spans="1:3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>1721</v>
       </c>
@@ -15305,7 +15305,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="634" spans="1:3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>1724</v>
       </c>
@@ -15316,7 +15316,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="635" spans="1:3">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>1727</v>
       </c>
@@ -15327,7 +15327,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="636" spans="1:3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>1730</v>
       </c>
@@ -15338,7 +15338,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="637" spans="1:3">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>1732</v>
       </c>
@@ -15349,7 +15349,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="638" spans="1:3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>1735</v>
       </c>
@@ -15360,7 +15360,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="639" spans="1:3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>1736</v>
       </c>
@@ -15371,7 +15371,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="640" spans="1:3">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>1737</v>
       </c>
@@ -15382,7 +15382,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="641" spans="1:3">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>1740</v>
       </c>
@@ -15393,7 +15393,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="642" spans="1:3">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>1741</v>
       </c>
@@ -15404,7 +15404,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="643" spans="1:3">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>1742</v>
       </c>
@@ -15415,7 +15415,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="644" spans="1:3">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>1743</v>
       </c>
@@ -15426,7 +15426,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="645" spans="1:3">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>1744</v>
       </c>
@@ -15437,7 +15437,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="646" spans="1:3">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>1745</v>
       </c>
@@ -15448,7 +15448,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="647" spans="1:3">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>1746</v>
       </c>
@@ -15459,7 +15459,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="648" spans="1:3">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>1747</v>
       </c>
@@ -15470,7 +15470,7 @@
         <v>2535</v>
       </c>
     </row>
-    <row r="649" spans="1:3">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>1748</v>
       </c>
@@ -15481,7 +15481,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="650" spans="1:3">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>1749</v>
       </c>
@@ -15492,7 +15492,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="651" spans="1:3">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>1752</v>
       </c>
@@ -15503,7 +15503,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="652" spans="1:3">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>1755</v>
       </c>
@@ -15514,7 +15514,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="653" spans="1:3">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>1758</v>
       </c>
@@ -15525,7 +15525,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="654" spans="1:3">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>1761</v>
       </c>
@@ -15536,7 +15536,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="655" spans="1:3">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>1764</v>
       </c>
@@ -15547,7 +15547,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="656" spans="1:3">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>1767</v>
       </c>
@@ -15558,7 +15558,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="657" spans="1:3">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>1770</v>
       </c>
@@ -15569,7 +15569,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="658" spans="1:3">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>1773</v>
       </c>
@@ -15580,7 +15580,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="659" spans="1:3">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>1776</v>
       </c>
@@ -15591,7 +15591,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="660" spans="1:3">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>1779</v>
       </c>
@@ -15602,7 +15602,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="661" spans="1:3">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>1782</v>
       </c>
@@ -15613,7 +15613,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="662" spans="1:3">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>1785</v>
       </c>
@@ -15624,7 +15624,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="663" spans="1:3">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>1788</v>
       </c>
@@ -15635,7 +15635,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="664" spans="1:3">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>1791</v>
       </c>
@@ -15646,7 +15646,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="665" spans="1:3">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>1794</v>
       </c>
@@ -15657,7 +15657,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="666" spans="1:3">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>1797</v>
       </c>
@@ -15668,7 +15668,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="667" spans="1:3">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>1800</v>
       </c>
@@ -15679,7 +15679,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="668" spans="1:3">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>1803</v>
       </c>
@@ -15690,7 +15690,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="669" spans="1:3">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>1806</v>
       </c>
@@ -15701,7 +15701,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="670" spans="1:3">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>1809</v>
       </c>
@@ -15712,7 +15712,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="671" spans="1:3">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>1812</v>
       </c>
@@ -15723,7 +15723,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="672" spans="1:3">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>1815</v>
       </c>
@@ -15734,7 +15734,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="673" spans="1:3">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>1818</v>
       </c>
@@ -15745,7 +15745,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="674" spans="1:3">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>1821</v>
       </c>
@@ -15756,7 +15756,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="675" spans="1:3">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>1824</v>
       </c>
@@ -15767,7 +15767,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="676" spans="1:3">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>1827</v>
       </c>
@@ -15778,7 +15778,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="677" spans="1:3">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>1830</v>
       </c>
@@ -15789,7 +15789,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="678" spans="1:3">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>1833</v>
       </c>
@@ -15800,7 +15800,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="679" spans="1:3">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>1836</v>
       </c>
@@ -15811,7 +15811,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="680" spans="1:3">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>1839</v>
       </c>
@@ -15822,7 +15822,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="681" spans="1:3">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>1842</v>
       </c>
@@ -15833,7 +15833,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="682" spans="1:3">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>1843</v>
       </c>
@@ -15844,7 +15844,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="683" spans="1:3">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>1846</v>
       </c>
@@ -15855,7 +15855,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="684" spans="1:3">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>1849</v>
       </c>
@@ -15866,7 +15866,7 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="685" spans="1:3">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>1850</v>
       </c>
@@ -15877,7 +15877,7 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="686" spans="1:3">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>1851</v>
       </c>
@@ -15888,7 +15888,7 @@
         <v>2545</v>
       </c>
     </row>
-    <row r="687" spans="1:3">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>1852</v>
       </c>
@@ -15899,7 +15899,7 @@
         <v>2547</v>
       </c>
     </row>
-    <row r="688" spans="1:3">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>1853</v>
       </c>
@@ -15910,7 +15910,7 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="689" spans="1:3">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>1854</v>
       </c>
@@ -15921,7 +15921,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="690" spans="1:3">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>1855</v>
       </c>
@@ -15932,7 +15932,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="691" spans="1:3">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>1858</v>
       </c>
@@ -15943,7 +15943,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="692" spans="1:3">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>1861</v>
       </c>
@@ -15954,7 +15954,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="693" spans="1:3">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>1864</v>
       </c>
@@ -15965,7 +15965,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="694" spans="1:3">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>1867</v>
       </c>
@@ -15976,7 +15976,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="695" spans="1:3">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>1870</v>
       </c>
@@ -15987,7 +15987,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="696" spans="1:3">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>1873</v>
       </c>
@@ -15998,7 +15998,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="697" spans="1:3">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>1876</v>
       </c>
@@ -16009,7 +16009,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="698" spans="1:3">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>1879</v>
       </c>
@@ -16020,7 +16020,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="699" spans="1:3">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>1882</v>
       </c>
@@ -16031,7 +16031,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="700" spans="1:3">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>1884</v>
       </c>
@@ -16042,7 +16042,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="701" spans="1:3">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>1887</v>
       </c>
@@ -16053,7 +16053,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="702" spans="1:3">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>1890</v>
       </c>
@@ -16064,7 +16064,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="703" spans="1:3">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>1893</v>
       </c>
@@ -16075,7 +16075,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="704" spans="1:3">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>1896</v>
       </c>
@@ -16086,7 +16086,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="705" spans="1:3">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>1899</v>
       </c>
@@ -16097,7 +16097,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="706" spans="1:3">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>1902</v>
       </c>
@@ -16108,7 +16108,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="707" spans="1:3">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>1905</v>
       </c>
@@ -16119,7 +16119,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="708" spans="1:3">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>1908</v>
       </c>
@@ -16130,7 +16130,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="709" spans="1:3">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>1911</v>
       </c>
@@ -16141,7 +16141,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="710" spans="1:3">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>1914</v>
       </c>
@@ -16152,7 +16152,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="711" spans="1:3">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>1917</v>
       </c>
@@ -16163,7 +16163,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="712" spans="1:3">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>1920</v>
       </c>
@@ -16174,7 +16174,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="713" spans="1:3">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>1923</v>
       </c>
@@ -16185,7 +16185,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="714" spans="1:3">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>1926</v>
       </c>
@@ -16196,7 +16196,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="715" spans="1:3">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>1929</v>
       </c>
@@ -16207,7 +16207,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="716" spans="1:3">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>1932</v>
       </c>
@@ -16218,7 +16218,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="717" spans="1:3">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>1935</v>
       </c>
@@ -16229,7 +16229,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="718" spans="1:3">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>1938</v>
       </c>
@@ -16240,7 +16240,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="719" spans="1:3">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>1941</v>
       </c>
@@ -16251,7 +16251,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="720" spans="1:3">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>1944</v>
       </c>
@@ -16262,7 +16262,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="721" spans="1:3">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>1947</v>
       </c>
@@ -16273,7 +16273,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="722" spans="1:3">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>1950</v>
       </c>
@@ -16284,7 +16284,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="723" spans="1:3">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>1953</v>
       </c>
@@ -16295,7 +16295,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="724" spans="1:3">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>1956</v>
       </c>
@@ -16306,7 +16306,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="725" spans="1:3">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>1959</v>
       </c>
@@ -16317,7 +16317,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="726" spans="1:3">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>1962</v>
       </c>
@@ -16328,7 +16328,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="727" spans="1:3">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>1965</v>
       </c>
@@ -16339,7 +16339,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="728" spans="1:3">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>1968</v>
       </c>
@@ -16350,7 +16350,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="729" spans="1:3">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>1971</v>
       </c>
@@ -16361,7 +16361,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="730" spans="1:3">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>1974</v>
       </c>
@@ -16372,7 +16372,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="731" spans="1:3">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>1977</v>
       </c>
@@ -16383,7 +16383,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="732" spans="1:3">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>1980</v>
       </c>
@@ -16394,7 +16394,7 @@
         <v>2553</v>
       </c>
     </row>
-    <row r="733" spans="1:3">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>1981</v>
       </c>
@@ -16405,7 +16405,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="734" spans="1:3">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>1984</v>
       </c>
@@ -16416,7 +16416,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="735" spans="1:3">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>1986</v>
       </c>
@@ -16427,7 +16427,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="736" spans="1:3">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>1989</v>
       </c>
@@ -16438,7 +16438,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="737" spans="1:3">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>1992</v>
       </c>
@@ -16449,7 +16449,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="738" spans="1:3">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>1995</v>
       </c>
@@ -16460,7 +16460,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="739" spans="1:3">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>1998</v>
       </c>
@@ -16471,7 +16471,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="740" spans="1:3">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>2001</v>
       </c>
@@ -16482,7 +16482,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="741" spans="1:3">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>2004</v>
       </c>
@@ -16493,7 +16493,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="742" spans="1:3">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>2007</v>
       </c>
@@ -16504,7 +16504,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="743" spans="1:3">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>2008</v>
       </c>
@@ -16515,7 +16515,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="744" spans="1:3">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>2009</v>
       </c>
@@ -16526,7 +16526,7 @@
         <v>2559</v>
       </c>
     </row>
-    <row r="745" spans="1:3">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>2010</v>
       </c>
@@ -16537,7 +16537,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="746" spans="1:3">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>2011</v>
       </c>
@@ -16548,7 +16548,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="747" spans="1:3">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>2014</v>
       </c>
@@ -16559,7 +16559,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="748" spans="1:3">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>2017</v>
       </c>
@@ -16570,7 +16570,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="749" spans="1:3">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>2020</v>
       </c>
@@ -16581,7 +16581,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="750" spans="1:3">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>2023</v>
       </c>
@@ -16592,7 +16592,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="751" spans="1:3">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>2026</v>
       </c>
@@ -16603,7 +16603,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="752" spans="1:3">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>2029</v>
       </c>
@@ -16614,7 +16614,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="753" spans="1:3">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>2032</v>
       </c>
@@ -16625,7 +16625,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="754" spans="1:3">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>2035</v>
       </c>
@@ -16636,7 +16636,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="755" spans="1:3">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>2038</v>
       </c>
@@ -16647,7 +16647,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="756" spans="1:3">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>2041</v>
       </c>
@@ -16658,7 +16658,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="757" spans="1:3">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>2044</v>
       </c>
@@ -16669,7 +16669,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="758" spans="1:3">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>2047</v>
       </c>
@@ -16680,7 +16680,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="759" spans="1:3">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>2050</v>
       </c>
@@ -16691,7 +16691,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="760" spans="1:3">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>2053</v>
       </c>
@@ -16702,7 +16702,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="761" spans="1:3">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>2055</v>
       </c>
@@ -16713,7 +16713,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="762" spans="1:3">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>2058</v>
       </c>
@@ -16724,7 +16724,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="763" spans="1:3">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>2061</v>
       </c>
@@ -16735,7 +16735,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="764" spans="1:3">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>2064</v>
       </c>
@@ -16746,7 +16746,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="765" spans="1:3">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>2067</v>
       </c>
@@ -16757,7 +16757,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="766" spans="1:3">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>2070</v>
       </c>
@@ -16768,7 +16768,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="767" spans="1:3">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>2073</v>
       </c>
@@ -16779,7 +16779,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="768" spans="1:3">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>2074</v>
       </c>
@@ -16790,7 +16790,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="769" spans="1:3">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>2075</v>
       </c>
@@ -16801,7 +16801,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="770" spans="1:3">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>2078</v>
       </c>
@@ -16812,7 +16812,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="771" spans="1:3">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>2081</v>
       </c>
@@ -16823,7 +16823,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="772" spans="1:3">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>2084</v>
       </c>
@@ -16834,7 +16834,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="773" spans="1:3">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>2087</v>
       </c>
@@ -16845,7 +16845,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="774" spans="1:3">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>2090</v>
       </c>
@@ -16856,7 +16856,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="775" spans="1:3">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>2093</v>
       </c>
@@ -16867,7 +16867,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="776" spans="1:3">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>2096</v>
       </c>
@@ -16878,7 +16878,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="777" spans="1:3">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>2099</v>
       </c>
@@ -16889,7 +16889,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="778" spans="1:3">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>2101</v>
       </c>
@@ -16900,7 +16900,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="779" spans="1:3">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>2104</v>
       </c>
@@ -16911,7 +16911,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="780" spans="1:3">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>2107</v>
       </c>
@@ -16922,7 +16922,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="781" spans="1:3">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>2110</v>
       </c>
@@ -16933,7 +16933,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="782" spans="1:3">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>2113</v>
       </c>
@@ -16944,7 +16944,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="783" spans="1:3">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>2116</v>
       </c>
@@ -16955,7 +16955,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="784" spans="1:3">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>2117</v>
       </c>
@@ -16966,7 +16966,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="785" spans="1:3">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>2118</v>
       </c>
@@ -16977,7 +16977,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="786" spans="1:3">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>2119</v>
       </c>
@@ -16988,7 +16988,7 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="787" spans="1:3">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>2120</v>
       </c>
@@ -16999,7 +16999,7 @@
         <v>2571</v>
       </c>
     </row>
-    <row r="788" spans="1:3">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>2121</v>
       </c>
@@ -17010,7 +17010,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="789" spans="1:3">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>2124</v>
       </c>
@@ -17021,7 +17021,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="790" spans="1:3">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>2127</v>
       </c>
@@ -17032,7 +17032,7 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="791" spans="1:3">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>2128</v>
       </c>
@@ -17043,7 +17043,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="792" spans="1:3">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>2129</v>
       </c>
@@ -17054,7 +17054,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="793" spans="1:3">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>2132</v>
       </c>
@@ -17065,7 +17065,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="794" spans="1:3">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>2135</v>
       </c>
@@ -17076,7 +17076,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="795" spans="1:3">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>2138</v>
       </c>
@@ -17087,7 +17087,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="796" spans="1:3">
+    <row r="796" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>2141</v>
       </c>
@@ -17098,7 +17098,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="797" spans="1:3">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>2144</v>
       </c>
@@ -17109,7 +17109,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="798" spans="1:3">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>2147</v>
       </c>
@@ -17120,7 +17120,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="799" spans="1:3">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>2150</v>
       </c>
@@ -17131,7 +17131,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="800" spans="1:3">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>2153</v>
       </c>
@@ -17142,7 +17142,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="801" spans="1:3">
+    <row r="801" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>2156</v>
       </c>
@@ -17153,7 +17153,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="802" spans="1:3">
+    <row r="802" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>2159</v>
       </c>
@@ -17164,7 +17164,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="803" spans="1:3">
+    <row r="803" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>2162</v>
       </c>
@@ -17175,7 +17175,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="804" spans="1:3">
+    <row r="804" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>2163</v>
       </c>
@@ -17186,7 +17186,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="805" spans="1:3">
+    <row r="805" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>2166</v>
       </c>
@@ -17197,7 +17197,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="806" spans="1:3">
+    <row r="806" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>2167</v>
       </c>
@@ -17208,7 +17208,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="807" spans="1:3">
+    <row r="807" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>2170</v>
       </c>
@@ -17219,7 +17219,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="808" spans="1:3">
+    <row r="808" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>2173</v>
       </c>
@@ -17230,7 +17230,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="809" spans="1:3">
+    <row r="809" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>2176</v>
       </c>
@@ -17241,7 +17241,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="810" spans="1:3">
+    <row r="810" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>2179</v>
       </c>
@@ -17252,7 +17252,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="811" spans="1:3">
+    <row r="811" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>2180</v>
       </c>
@@ -17263,7 +17263,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="812" spans="1:3">
+    <row r="812" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>2181</v>
       </c>
@@ -17274,7 +17274,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="813" spans="1:3">
+    <row r="813" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>2183</v>
       </c>
@@ -17285,7 +17285,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="814" spans="1:3">
+    <row r="814" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>2184</v>
       </c>
@@ -17296,7 +17296,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="815" spans="1:3">
+    <row r="815" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>2187</v>
       </c>
@@ -17307,7 +17307,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="816" spans="1:3">
+    <row r="816" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>2188</v>
       </c>
@@ -17318,7 +17318,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="817" spans="1:3">
+    <row r="817" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>2191</v>
       </c>
@@ -17329,7 +17329,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="818" spans="1:3">
+    <row r="818" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>2194</v>
       </c>
@@ -17340,7 +17340,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="819" spans="1:3">
+    <row r="819" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>2197</v>
       </c>
@@ -17351,7 +17351,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="820" spans="1:3">
+    <row r="820" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>2200</v>
       </c>
@@ -17362,7 +17362,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="821" spans="1:3">
+    <row r="821" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>2203</v>
       </c>
@@ -17373,7 +17373,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="822" spans="1:3">
+    <row r="822" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>2206</v>
       </c>
@@ -17384,7 +17384,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="823" spans="1:3">
+    <row r="823" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>2209</v>
       </c>
@@ -17395,7 +17395,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="824" spans="1:3">
+    <row r="824" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>2212</v>
       </c>
@@ -17406,7 +17406,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="825" spans="1:3">
+    <row r="825" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>2215</v>
       </c>
@@ -17417,7 +17417,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="826" spans="1:3">
+    <row r="826" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>2218</v>
       </c>
@@ -17428,7 +17428,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="827" spans="1:3">
+    <row r="827" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>2221</v>
       </c>
@@ -17439,7 +17439,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="828" spans="1:3">
+    <row r="828" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>2224</v>
       </c>
@@ -17450,7 +17450,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="829" spans="1:3">
+    <row r="829" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>2227</v>
       </c>
@@ -17461,7 +17461,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="830" spans="1:3">
+    <row r="830" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>2230</v>
       </c>
@@ -17472,7 +17472,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="831" spans="1:3">
+    <row r="831" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>2233</v>
       </c>
@@ -17483,7 +17483,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="832" spans="1:3">
+    <row r="832" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>2236</v>
       </c>
@@ -17494,7 +17494,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="833" spans="1:3">
+    <row r="833" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>2239</v>
       </c>
@@ -17505,7 +17505,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="834" spans="1:3">
+    <row r="834" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>2242</v>
       </c>
@@ -17516,7 +17516,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="835" spans="1:3">
+    <row r="835" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>2244</v>
       </c>
@@ -17527,7 +17527,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="836" spans="1:3">
+    <row r="836" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
         <v>2247</v>
       </c>
@@ -17538,7 +17538,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="837" spans="1:3">
+    <row r="837" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
         <v>2250</v>
       </c>
@@ -17549,7 +17549,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="838" spans="1:3">
+    <row r="838" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>2253</v>
       </c>
@@ -17560,7 +17560,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="839" spans="1:3">
+    <row r="839" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>2256</v>
       </c>
@@ -17571,7 +17571,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="840" spans="1:3">
+    <row r="840" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>2259</v>
       </c>
@@ -17582,7 +17582,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="841" spans="1:3">
+    <row r="841" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>2262</v>
       </c>
@@ -17593,7 +17593,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="842" spans="1:3">
+    <row r="842" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>2264</v>
       </c>
@@ -17604,7 +17604,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="843" spans="1:3">
+    <row r="843" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>2267</v>
       </c>
@@ -17615,7 +17615,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="844" spans="1:3">
+    <row r="844" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
         <v>2270</v>
       </c>
@@ -17626,7 +17626,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="845" spans="1:3">
+    <row r="845" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>2273</v>
       </c>
@@ -17637,7 +17637,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="846" spans="1:3">
+    <row r="846" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
         <v>2276</v>
       </c>
@@ -17648,7 +17648,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="847" spans="1:3">
+    <row r="847" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>2277</v>
       </c>
@@ -17659,7 +17659,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="848" spans="1:3">
+    <row r="848" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>2280</v>
       </c>
@@ -17670,7 +17670,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="849" spans="1:3">
+    <row r="849" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>2283</v>
       </c>
@@ -17681,7 +17681,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="850" spans="1:3">
+    <row r="850" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>2284</v>
       </c>
@@ -17692,7 +17692,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="851" spans="1:3">
+    <row r="851" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
         <v>2285</v>
       </c>
@@ -17703,7 +17703,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="852" spans="1:3">
+    <row r="852" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
         <v>2286</v>
       </c>
@@ -17714,7 +17714,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="853" spans="1:3">
+    <row r="853" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
         <v>2289</v>
       </c>
@@ -17725,7 +17725,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="854" spans="1:3">
+    <row r="854" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
         <v>2292</v>
       </c>
@@ -17736,7 +17736,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="855" spans="1:3">
+    <row r="855" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>2295</v>
       </c>
@@ -17747,7 +17747,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="856" spans="1:3">
+    <row r="856" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
         <v>2296</v>
       </c>
@@ -17758,7 +17758,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="857" spans="1:3">
+    <row r="857" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
         <v>2299</v>
       </c>
@@ -17769,7 +17769,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="858" spans="1:3">
+    <row r="858" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
         <v>2302</v>
       </c>
@@ -17780,7 +17780,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="859" spans="1:3">
+    <row r="859" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
         <v>2305</v>
       </c>
@@ -17791,7 +17791,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="860" spans="1:3">
+    <row r="860" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
         <v>2308</v>
       </c>
@@ -17802,7 +17802,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="861" spans="1:3">
+    <row r="861" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
         <v>2311</v>
       </c>
@@ -17813,7 +17813,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="862" spans="1:3">
+    <row r="862" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>2314</v>
       </c>
@@ -17824,7 +17824,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="863" spans="1:3">
+    <row r="863" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
         <v>2317</v>
       </c>
@@ -17835,7 +17835,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="864" spans="1:3">
+    <row r="864" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
         <v>2320</v>
       </c>
@@ -17846,7 +17846,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="865" spans="1:3">
+    <row r="865" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>2323</v>
       </c>
@@ -17857,7 +17857,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="866" spans="1:3">
+    <row r="866" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
         <v>2325</v>
       </c>
@@ -17868,7 +17868,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="867" spans="1:3">
+    <row r="867" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>2328</v>
       </c>
@@ -17879,7 +17879,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="868" spans="1:3">
+    <row r="868" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>2331</v>
       </c>
@@ -17890,7 +17890,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="869" spans="1:3">
+    <row r="869" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
         <v>2334</v>
       </c>
@@ -17901,7 +17901,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="870" spans="1:3">
+    <row r="870" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
         <v>2337</v>
       </c>
@@ -17912,7 +17912,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="871" spans="1:3">
+    <row r="871" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
         <v>2340</v>
       </c>
@@ -17923,7 +17923,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="872" spans="1:3">
+    <row r="872" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
         <v>2343</v>
       </c>
@@ -17934,7 +17934,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="873" spans="1:3">
+    <row r="873" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
         <v>2346</v>
       </c>
@@ -17945,7 +17945,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="874" spans="1:3">
+    <row r="874" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
         <v>2349</v>
       </c>
@@ -17956,7 +17956,7 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="875" spans="1:3">
+    <row r="875" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
         <v>2350</v>
       </c>
@@ -17967,7 +17967,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="876" spans="1:3">
+    <row r="876" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
         <v>2353</v>
       </c>
@@ -17978,7 +17978,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="877" spans="1:3">
+    <row r="877" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
         <v>2356</v>
       </c>
@@ -17989,7 +17989,7 @@
         <v>2598</v>
       </c>
     </row>
-    <row r="878" spans="1:3">
+    <row r="878" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
         <v>2357</v>
       </c>
@@ -18000,7 +18000,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="879" spans="1:3">
+    <row r="879" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
         <v>2358</v>
       </c>
@@ -18011,7 +18011,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="880" spans="1:3">
+    <row r="880" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
         <v>2359</v>
       </c>
@@ -18022,7 +18022,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="881" spans="1:3">
+    <row r="881" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
         <v>2360</v>
       </c>
@@ -18033,7 +18033,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="882" spans="1:3">
+    <row r="882" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
         <v>2361</v>
       </c>
@@ -18044,7 +18044,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="883" spans="1:3">
+    <row r="883" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
         <v>2364</v>
       </c>
@@ -18055,7 +18055,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="884" spans="1:3">
+    <row r="884" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
         <v>2367</v>
       </c>
@@ -18066,7 +18066,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="885" spans="1:3">
+    <row r="885" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
         <v>2370</v>
       </c>
@@ -18077,7 +18077,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="886" spans="1:3">
+    <row r="886" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
         <v>2373</v>
       </c>
@@ -18088,7 +18088,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="888" spans="1:3">
+    <row r="888" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A888" s="2" t="s">
         <v>2607</v>
       </c>
@@ -18099,7 +18099,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="889" spans="1:3">
+    <row r="889" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A889" s="2" t="s">
         <v>2610</v>
       </c>
@@ -18110,7 +18110,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="890" spans="1:3">
+    <row r="890" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A890" s="2" t="s">
         <v>2613</v>
       </c>
@@ -18121,7 +18121,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="891" spans="1:3">
+    <row r="891" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A891" s="2" t="s">
         <v>2616</v>
       </c>
@@ -18132,7 +18132,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="892" spans="1:3">
+    <row r="892" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A892" s="2" t="s">
         <v>2619</v>
       </c>
@@ -18143,59 +18143,59 @@
         <v>2621</v>
       </c>
     </row>
-    <row r="893" spans="1:3">
+    <row r="893" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A893" s="2" t="s">
         <v>2622</v>
       </c>
       <c r="B893" s="2" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C893" s="2" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="894" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A894" s="2" t="s">
         <v>2623</v>
       </c>
-      <c r="C893" s="2" t="s">
+      <c r="B894" s="3" t="s">
         <v>2624</v>
       </c>
-    </row>
-    <row r="894" spans="1:3">
-      <c r="A894" s="2" t="s">
+      <c r="C894" s="2" t="s">
         <v>2625</v>
       </c>
-      <c r="B894" s="3" t="s">
+    </row>
+    <row r="895" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A895" s="2" t="s">
         <v>2626</v>
       </c>
-      <c r="C894" s="2" t="s">
+      <c r="B895" s="3" t="s">
         <v>2627</v>
       </c>
-    </row>
-    <row r="895" spans="1:3">
-      <c r="A895" s="2" t="s">
+      <c r="C895" s="2" t="s">
         <v>2628</v>
       </c>
-      <c r="B895" s="3" t="s">
+    </row>
+    <row r="896" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A896" s="2" t="s">
         <v>2629</v>
       </c>
-      <c r="C895" s="2" t="s">
+      <c r="B896" s="2" t="s">
         <v>2630</v>
       </c>
-    </row>
-    <row r="896" spans="1:3">
-      <c r="A896" s="2" t="s">
+      <c r="C896" s="2" t="s">
         <v>2631</v>
       </c>
-      <c r="B896" s="2" t="s">
+    </row>
+    <row r="897" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A897" s="3" t="s">
         <v>2632</v>
-      </c>
-      <c r="C896" s="2" t="s">
-        <v>2633</v>
-      </c>
-    </row>
-    <row r="897" spans="1:3">
-      <c r="A897" s="3" t="s">
-        <v>2634</v>
       </c>
       <c r="B897" s="2" t="s">
         <v>822</v>
       </c>
       <c r="C897" s="2" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
     </row>
   </sheetData>

--- a/Client/WebClient/lang/fibertest_strings.xlsx
+++ b/Client/WebClient/lang/fibertest_strings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VSProjects\Fibertest\Client\WebClient\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56038583-6252-433F-BA01-41832CEC87BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AF5888-962F-42BB-B007-FD11229348E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="600" windowWidth="26250" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="750" windowWidth="26250" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fibertest" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2688" uniqueCount="2636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2691" uniqueCount="2639">
   <si>
     <t>Name</t>
   </si>
@@ -7932,6 +7932,15 @@
   </si>
   <si>
     <t>{{0}}:  Настройки мониторинга</t>
+  </si>
+  <si>
+    <t>SID_Landmark_count_does_not_match_graph</t>
+  </si>
+  <si>
+    <t>Количество ориентиров на рефлектограмме не соответствует графу</t>
+  </si>
+  <si>
+    <t>Landmark count on base ref does not match graph</t>
   </si>
 </sst>
 </file>
@@ -7979,13 +7988,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8329,10 +8339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C897"/>
+  <dimension ref="A1:C898"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A881" workbookViewId="0">
-      <selection activeCell="B901" sqref="B901"/>
+    <sheetView tabSelected="1" topLeftCell="A876" workbookViewId="0">
+      <selection activeCell="A898" sqref="A898"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18198,6 +18208,17 @@
         <v>2633</v>
       </c>
     </row>
+    <row r="898" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A898" s="4" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B898" s="4" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C898" s="4" t="s">
+        <v>2637</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Client/WebClient/lang/fibertest_strings.xlsx
+++ b/Client/WebClient/lang/fibertest_strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VSProjects\Fibertest\Client\WebClient\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AF5888-962F-42BB-B007-FD11229348E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AECC97-52A7-46B2-949A-754AFAD6A18F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="750" windowWidth="26250" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fibertest" sheetId="1" r:id="rId1"/>
@@ -3491,9 +3491,6 @@
     <t>Время окончания измерения</t>
   </si>
   <si>
-    <t>SID_State_on__0_</t>
-  </si>
-  <si>
     <t>SID__not_attached_</t>
   </si>
   <si>
@@ -7370,9 +7367,6 @@
     <t>Переключение в порт {{0}}</t>
   </si>
   <si>
-    <t>State on {{0}} (ID {{1}})</t>
-  </si>
-  <si>
     <t>Состояние на {{0}} (ID {{1}})</t>
   </si>
   <si>
@@ -7941,6 +7935,12 @@
   </si>
   <si>
     <t>Landmark count on base ref does not match graph</t>
+  </si>
+  <si>
+    <t>SID_State_at_</t>
+  </si>
+  <si>
+    <t>State at {{0}} (ID {{1}})</t>
   </si>
 </sst>
 </file>
@@ -8341,8 +8341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C898"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A876" workbookViewId="0">
-      <selection activeCell="A898" sqref="A898"/>
+    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
+      <selection activeCell="A419" sqref="A419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8357,10 +8357,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2375</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2376</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2377</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -8797,10 +8797,10 @@
         <v>118</v>
       </c>
       <c r="B41" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C41" t="s">
         <v>2378</v>
-      </c>
-      <c r="C41" t="s">
-        <v>2379</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -8830,10 +8830,10 @@
         <v>125</v>
       </c>
       <c r="B44" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="C44" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -8841,10 +8841,10 @@
         <v>126</v>
       </c>
       <c r="B45" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C45" t="s">
         <v>2381</v>
-      </c>
-      <c r="C45" t="s">
-        <v>2382</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -9083,10 +9083,10 @@
         <v>190</v>
       </c>
       <c r="B67" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="C67" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -9688,10 +9688,10 @@
         <v>353</v>
       </c>
       <c r="B122" t="s">
+        <v>2383</v>
+      </c>
+      <c r="C122" t="s">
         <v>2384</v>
-      </c>
-      <c r="C122" t="s">
-        <v>2385</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -9699,10 +9699,10 @@
         <v>354</v>
       </c>
       <c r="B123" t="s">
+        <v>2385</v>
+      </c>
+      <c r="C123" t="s">
         <v>2386</v>
-      </c>
-      <c r="C123" t="s">
-        <v>2387</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -10073,10 +10073,10 @@
         <v>449</v>
       </c>
       <c r="B157" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C157" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -10315,10 +10315,10 @@
         <v>511</v>
       </c>
       <c r="B179" t="s">
+        <v>2388</v>
+      </c>
+      <c r="C179" t="s">
         <v>2389</v>
-      </c>
-      <c r="C179" t="s">
-        <v>2390</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -10766,10 +10766,10 @@
         <v>630</v>
       </c>
       <c r="B220" t="s">
+        <v>2390</v>
+      </c>
+      <c r="C220" t="s">
         <v>2391</v>
-      </c>
-      <c r="C220" t="s">
-        <v>2392</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -10810,10 +10810,10 @@
         <v>640</v>
       </c>
       <c r="B224" t="s">
+        <v>2392</v>
+      </c>
+      <c r="C224" t="s">
         <v>2393</v>
-      </c>
-      <c r="C224" t="s">
-        <v>2394</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -10821,10 +10821,10 @@
         <v>641</v>
       </c>
       <c r="B225" t="s">
+        <v>2394</v>
+      </c>
+      <c r="C225" t="s">
         <v>2395</v>
-      </c>
-      <c r="C225" t="s">
-        <v>2396</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -10865,10 +10865,10 @@
         <v>651</v>
       </c>
       <c r="B229" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C229" t="s">
         <v>2397</v>
-      </c>
-      <c r="C229" t="s">
-        <v>2398</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -10876,10 +10876,10 @@
         <v>652</v>
       </c>
       <c r="B230" t="s">
+        <v>2398</v>
+      </c>
+      <c r="C230" t="s">
         <v>2399</v>
-      </c>
-      <c r="C230" t="s">
-        <v>2400</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -10909,10 +10909,10 @@
         <v>658</v>
       </c>
       <c r="B233" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="C233" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -10953,10 +10953,10 @@
         <v>665</v>
       </c>
       <c r="B237" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="C237" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -10964,10 +10964,10 @@
         <v>666</v>
       </c>
       <c r="B238" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="C238" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -10975,10 +10975,10 @@
         <v>667</v>
       </c>
       <c r="B239" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="C239" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -11019,10 +11019,10 @@
         <v>675</v>
       </c>
       <c r="B243" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="C243" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -11228,10 +11228,10 @@
         <v>730</v>
       </c>
       <c r="B262" t="s">
+        <v>2405</v>
+      </c>
+      <c r="C262" t="s">
         <v>2406</v>
-      </c>
-      <c r="C262" t="s">
-        <v>2407</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -11239,10 +11239,10 @@
         <v>731</v>
       </c>
       <c r="B263" t="s">
+        <v>2407</v>
+      </c>
+      <c r="C263" t="s">
         <v>2408</v>
-      </c>
-      <c r="C263" t="s">
-        <v>2409</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -11250,10 +11250,10 @@
         <v>732</v>
       </c>
       <c r="B264" t="s">
+        <v>2409</v>
+      </c>
+      <c r="C264" t="s">
         <v>2410</v>
-      </c>
-      <c r="C264" t="s">
-        <v>2411</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -11261,10 +11261,10 @@
         <v>733</v>
       </c>
       <c r="B265" t="s">
+        <v>2411</v>
+      </c>
+      <c r="C265" t="s">
         <v>2412</v>
-      </c>
-      <c r="C265" t="s">
-        <v>2413</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -11349,10 +11349,10 @@
         <v>755</v>
       </c>
       <c r="B273" t="s">
+        <v>2413</v>
+      </c>
+      <c r="C273" t="s">
         <v>2414</v>
-      </c>
-      <c r="C273" t="s">
-        <v>2415</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -11360,10 +11360,10 @@
         <v>756</v>
       </c>
       <c r="B274" t="s">
+        <v>2415</v>
+      </c>
+      <c r="C274" t="s">
         <v>2416</v>
-      </c>
-      <c r="C274" t="s">
-        <v>2417</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -11371,10 +11371,10 @@
         <v>757</v>
       </c>
       <c r="B275" t="s">
+        <v>2417</v>
+      </c>
+      <c r="C275" t="s">
         <v>2418</v>
-      </c>
-      <c r="C275" t="s">
-        <v>2419</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -11668,10 +11668,10 @@
         <v>836</v>
       </c>
       <c r="B302" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C302" t="s">
         <v>2420</v>
-      </c>
-      <c r="C302" t="s">
-        <v>2421</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -11679,10 +11679,10 @@
         <v>837</v>
       </c>
       <c r="B303" t="s">
+        <v>2421</v>
+      </c>
+      <c r="C303" t="s">
         <v>2422</v>
-      </c>
-      <c r="C303" t="s">
-        <v>2423</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -11767,10 +11767,10 @@
         <v>859</v>
       </c>
       <c r="B311" t="s">
+        <v>2423</v>
+      </c>
+      <c r="C311" t="s">
         <v>2424</v>
-      </c>
-      <c r="C311" t="s">
-        <v>2425</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -11778,10 +11778,10 @@
         <v>860</v>
       </c>
       <c r="B312" t="s">
+        <v>2425</v>
+      </c>
+      <c r="C312" t="s">
         <v>2426</v>
-      </c>
-      <c r="C312" t="s">
-        <v>2427</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -11789,10 +11789,10 @@
         <v>861</v>
       </c>
       <c r="B313" t="s">
+        <v>2427</v>
+      </c>
+      <c r="C313" t="s">
         <v>2428</v>
-      </c>
-      <c r="C313" t="s">
-        <v>2429</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -11800,10 +11800,10 @@
         <v>862</v>
       </c>
       <c r="B314" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C314" t="s">
         <v>2430</v>
-      </c>
-      <c r="C314" t="s">
-        <v>2431</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -11811,10 +11811,10 @@
         <v>863</v>
       </c>
       <c r="B315" t="s">
+        <v>2431</v>
+      </c>
+      <c r="C315" t="s">
         <v>2432</v>
-      </c>
-      <c r="C315" t="s">
-        <v>2433</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -11932,10 +11932,10 @@
         <v>894</v>
       </c>
       <c r="B326" t="s">
+        <v>2433</v>
+      </c>
+      <c r="C326" t="s">
         <v>2434</v>
-      </c>
-      <c r="C326" t="s">
-        <v>2435</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -11976,10 +11976,10 @@
         <v>904</v>
       </c>
       <c r="B330" t="s">
+        <v>2435</v>
+      </c>
+      <c r="C330" t="s">
         <v>2436</v>
-      </c>
-      <c r="C330" t="s">
-        <v>2437</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -11998,10 +11998,10 @@
         <v>908</v>
       </c>
       <c r="B332" t="s">
+        <v>2437</v>
+      </c>
+      <c r="C332" t="s">
         <v>2438</v>
-      </c>
-      <c r="C332" t="s">
-        <v>2439</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -12548,10 +12548,10 @@
         <v>1053</v>
       </c>
       <c r="B382" t="s">
+        <v>2439</v>
+      </c>
+      <c r="C382" t="s">
         <v>2440</v>
-      </c>
-      <c r="C382" t="s">
-        <v>2441</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -12911,10 +12911,10 @@
         <v>1149</v>
       </c>
       <c r="B415" t="s">
+        <v>2441</v>
+      </c>
+      <c r="C415" t="s">
         <v>2442</v>
-      </c>
-      <c r="C415" t="s">
-        <v>2443</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -12922,10 +12922,10 @@
         <v>1150</v>
       </c>
       <c r="B416" t="s">
+        <v>2443</v>
+      </c>
+      <c r="C416" t="s">
         <v>2444</v>
-      </c>
-      <c r="C416" t="s">
-        <v>2445</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -12933,10 +12933,10 @@
         <v>1151</v>
       </c>
       <c r="B417" t="s">
+        <v>2445</v>
+      </c>
+      <c r="C417" t="s">
         <v>2446</v>
-      </c>
-      <c r="C417" t="s">
-        <v>2447</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -12952,813 +12952,813 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>1155</v>
+        <v>2637</v>
       </c>
       <c r="B419" t="s">
-        <v>2448</v>
+        <v>2638</v>
       </c>
       <c r="C419" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B420" t="s">
         <v>1156</v>
       </c>
-      <c r="B420" t="s">
+      <c r="C420" t="s">
         <v>1157</v>
-      </c>
-      <c r="C420" t="s">
-        <v>1158</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B421" t="s">
         <v>1159</v>
       </c>
-      <c r="B421" t="s">
+      <c r="C421" t="s">
         <v>1160</v>
-      </c>
-      <c r="C421" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B422" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
       <c r="C422" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B423" t="s">
         <v>1163</v>
       </c>
-      <c r="B423" t="s">
+      <c r="C423" t="s">
         <v>1164</v>
-      </c>
-      <c r="C423" t="s">
-        <v>1165</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B424" t="s">
         <v>1166</v>
       </c>
-      <c r="B424" t="s">
+      <c r="C424" t="s">
         <v>1167</v>
-      </c>
-      <c r="C424" t="s">
-        <v>1168</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B425" t="s">
         <v>1169</v>
       </c>
-      <c r="B425" t="s">
+      <c r="C425" t="s">
         <v>1170</v>
-      </c>
-      <c r="C425" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B426" t="s">
         <v>1172</v>
       </c>
-      <c r="B426" t="s">
+      <c r="C426" t="s">
         <v>1173</v>
-      </c>
-      <c r="C426" t="s">
-        <v>1174</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B427" t="s">
         <v>1175</v>
       </c>
-      <c r="B427" t="s">
+      <c r="C427" t="s">
         <v>1176</v>
-      </c>
-      <c r="C427" t="s">
-        <v>1177</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B428" t="s">
         <v>1178</v>
       </c>
-      <c r="B428" t="s">
+      <c r="C428" t="s">
         <v>1179</v>
-      </c>
-      <c r="C428" t="s">
-        <v>1180</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B429" t="s">
         <v>1181</v>
       </c>
-      <c r="B429" t="s">
+      <c r="C429" t="s">
         <v>1182</v>
-      </c>
-      <c r="C429" t="s">
-        <v>1183</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B430" t="s">
         <v>1184</v>
       </c>
-      <c r="B430" t="s">
+      <c r="C430" t="s">
         <v>1185</v>
-      </c>
-      <c r="C430" t="s">
-        <v>1186</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B431" t="s">
         <v>1187</v>
       </c>
-      <c r="B431" t="s">
+      <c r="C431" t="s">
         <v>1188</v>
-      </c>
-      <c r="C431" t="s">
-        <v>1189</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B432" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
       <c r="C432" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B433" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
       <c r="C433" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B434" t="s">
         <v>798</v>
       </c>
       <c r="C434" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B435" t="s">
         <v>807</v>
       </c>
       <c r="C435" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B436" t="s">
         <v>1044</v>
       </c>
       <c r="C436" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B437" t="s">
         <v>1198</v>
       </c>
-      <c r="B437" t="s">
+      <c r="C437" t="s">
         <v>1199</v>
-      </c>
-      <c r="C437" t="s">
-        <v>1200</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B438" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="C438" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B439" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="C439" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B440" t="s">
         <v>1203</v>
       </c>
-      <c r="B440" t="s">
+      <c r="C440" t="s">
         <v>1204</v>
-      </c>
-      <c r="C440" t="s">
-        <v>1205</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B441" t="s">
         <v>1206</v>
       </c>
-      <c r="B441" t="s">
+      <c r="C441" t="s">
         <v>1207</v>
-      </c>
-      <c r="C441" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B442" t="s">
         <v>1209</v>
       </c>
-      <c r="B442" t="s">
+      <c r="C442" t="s">
         <v>1210</v>
-      </c>
-      <c r="C442" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B443" t="s">
         <v>1212</v>
       </c>
-      <c r="B443" t="s">
+      <c r="C443" t="s">
         <v>1213</v>
-      </c>
-      <c r="C443" t="s">
-        <v>1214</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B444" t="s">
         <v>1215</v>
       </c>
-      <c r="B444" t="s">
+      <c r="C444" t="s">
         <v>1216</v>
-      </c>
-      <c r="C444" t="s">
-        <v>1217</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B445" t="s">
         <v>1218</v>
       </c>
-      <c r="B445" t="s">
+      <c r="C445" t="s">
         <v>1219</v>
-      </c>
-      <c r="C445" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B446" t="s">
         <v>1221</v>
       </c>
-      <c r="B446" t="s">
+      <c r="C446" t="s">
         <v>1222</v>
-      </c>
-      <c r="C446" t="s">
-        <v>1223</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B447" t="s">
         <v>1224</v>
       </c>
-      <c r="B447" t="s">
+      <c r="C447" t="s">
         <v>1225</v>
-      </c>
-      <c r="C447" t="s">
-        <v>1226</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B448" t="s">
         <v>1227</v>
       </c>
-      <c r="B448" t="s">
+      <c r="C448" t="s">
         <v>1228</v>
-      </c>
-      <c r="C448" t="s">
-        <v>1229</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B449" t="s">
         <v>1230</v>
       </c>
-      <c r="B449" t="s">
+      <c r="C449" t="s">
         <v>1231</v>
-      </c>
-      <c r="C449" t="s">
-        <v>1232</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B450" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
       <c r="C450" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B451" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
       <c r="C451" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B452" t="s">
         <v>1235</v>
       </c>
-      <c r="B452" t="s">
+      <c r="C452" t="s">
         <v>1236</v>
-      </c>
-      <c r="C452" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B453" t="s">
-        <v>2464</v>
+        <v>2462</v>
       </c>
       <c r="C453" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B454" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
       <c r="C454" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B455" t="s">
         <v>1240</v>
       </c>
-      <c r="B455" t="s">
+      <c r="C455" t="s">
         <v>1241</v>
-      </c>
-      <c r="C455" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B456" t="s">
         <v>1243</v>
       </c>
-      <c r="B456" t="s">
+      <c r="C456" t="s">
         <v>1244</v>
-      </c>
-      <c r="C456" t="s">
-        <v>1245</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B457" t="s">
         <v>1246</v>
       </c>
-      <c r="B457" t="s">
+      <c r="C457" t="s">
         <v>1247</v>
-      </c>
-      <c r="C457" t="s">
-        <v>1248</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B458" t="s">
         <v>1249</v>
       </c>
-      <c r="B458" t="s">
+      <c r="C458" t="s">
         <v>1250</v>
-      </c>
-      <c r="C458" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B459" t="s">
         <v>1252</v>
       </c>
-      <c r="B459" t="s">
+      <c r="C459" t="s">
         <v>1253</v>
-      </c>
-      <c r="C459" t="s">
-        <v>1254</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B460" t="s">
         <v>1255</v>
       </c>
-      <c r="B460" t="s">
+      <c r="C460" t="s">
         <v>1256</v>
-      </c>
-      <c r="C460" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B461" t="s">
         <v>1258</v>
       </c>
-      <c r="B461" t="s">
+      <c r="C461" t="s">
         <v>1259</v>
-      </c>
-      <c r="C461" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B462" t="s">
         <v>1261</v>
       </c>
-      <c r="B462" t="s">
+      <c r="C462" t="s">
         <v>1262</v>
-      </c>
-      <c r="C462" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B463" t="s">
         <v>1264</v>
       </c>
-      <c r="B463" t="s">
+      <c r="C463" t="s">
         <v>1265</v>
-      </c>
-      <c r="C463" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B464" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
       <c r="C464" t="s">
-        <v>2469</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B465" t="s">
-        <v>2470</v>
+        <v>2468</v>
       </c>
       <c r="C465" t="s">
-        <v>2471</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B466" t="s">
         <v>1269</v>
       </c>
-      <c r="B466" t="s">
+      <c r="C466" t="s">
         <v>1270</v>
-      </c>
-      <c r="C466" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B467" t="s">
         <v>1272</v>
       </c>
-      <c r="B467" t="s">
+      <c r="C467" t="s">
         <v>1273</v>
-      </c>
-      <c r="C467" t="s">
-        <v>1274</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B468" t="s">
         <v>1275</v>
       </c>
-      <c r="B468" t="s">
+      <c r="C468" t="s">
         <v>1276</v>
-      </c>
-      <c r="C468" t="s">
-        <v>1277</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B469" t="s">
         <v>1278</v>
       </c>
-      <c r="B469" t="s">
+      <c r="C469" t="s">
         <v>1279</v>
-      </c>
-      <c r="C469" t="s">
-        <v>1280</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B470" t="s">
         <v>1281</v>
       </c>
-      <c r="B470" t="s">
+      <c r="C470" t="s">
         <v>1282</v>
-      </c>
-      <c r="C470" t="s">
-        <v>1283</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B471" t="s">
         <v>1284</v>
       </c>
-      <c r="B471" t="s">
+      <c r="C471" t="s">
         <v>1285</v>
-      </c>
-      <c r="C471" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B472" t="s">
         <v>1287</v>
       </c>
-      <c r="B472" t="s">
+      <c r="C472" t="s">
         <v>1288</v>
-      </c>
-      <c r="C472" t="s">
-        <v>1289</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B473" t="s">
         <v>1290</v>
       </c>
-      <c r="B473" t="s">
+      <c r="C473" t="s">
         <v>1291</v>
-      </c>
-      <c r="C473" t="s">
-        <v>1292</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B474" t="s">
         <v>1293</v>
       </c>
-      <c r="B474" t="s">
+      <c r="C474" t="s">
         <v>1294</v>
-      </c>
-      <c r="C474" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B475" t="s">
         <v>1296</v>
       </c>
-      <c r="B475" t="s">
+      <c r="C475" t="s">
         <v>1297</v>
-      </c>
-      <c r="C475" t="s">
-        <v>1298</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B476" t="s">
         <v>1299</v>
       </c>
-      <c r="B476" t="s">
+      <c r="C476" t="s">
         <v>1300</v>
-      </c>
-      <c r="C476" t="s">
-        <v>1301</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B477" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
       <c r="C477" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B478" t="s">
         <v>1303</v>
       </c>
-      <c r="B478" t="s">
+      <c r="C478" t="s">
         <v>1304</v>
-      </c>
-      <c r="C478" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B479" t="s">
         <v>1306</v>
       </c>
-      <c r="B479" t="s">
+      <c r="C479" t="s">
         <v>1307</v>
-      </c>
-      <c r="C479" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B480" t="s">
         <v>1309</v>
       </c>
-      <c r="B480" t="s">
+      <c r="C480" t="s">
         <v>1310</v>
-      </c>
-      <c r="C480" t="s">
-        <v>1311</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B481" t="s">
         <v>1312</v>
       </c>
-      <c r="B481" t="s">
+      <c r="C481" t="s">
         <v>1313</v>
-      </c>
-      <c r="C481" t="s">
-        <v>1314</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B482" t="s">
         <v>1315</v>
       </c>
-      <c r="B482" t="s">
+      <c r="C482" t="s">
         <v>1316</v>
-      </c>
-      <c r="C482" t="s">
-        <v>1317</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B483" t="s">
         <v>1318</v>
       </c>
-      <c r="B483" t="s">
+      <c r="C483" t="s">
         <v>1319</v>
-      </c>
-      <c r="C483" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B484" t="s">
         <v>1321</v>
       </c>
-      <c r="B484" t="s">
+      <c r="C484" t="s">
         <v>1322</v>
-      </c>
-      <c r="C484" t="s">
-        <v>1323</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B485" t="s">
         <v>1324</v>
       </c>
-      <c r="B485" t="s">
+      <c r="C485" t="s">
         <v>1325</v>
-      </c>
-      <c r="C485" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B486" t="s">
         <v>1327</v>
       </c>
-      <c r="B486" t="s">
+      <c r="C486" t="s">
         <v>1328</v>
-      </c>
-      <c r="C486" t="s">
-        <v>1329</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B487" t="s">
         <v>1330</v>
       </c>
-      <c r="B487" t="s">
+      <c r="C487" t="s">
         <v>1331</v>
-      </c>
-      <c r="C487" t="s">
-        <v>1332</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B488" t="s">
         <v>1333</v>
       </c>
-      <c r="B488" t="s">
+      <c r="C488" t="s">
         <v>1334</v>
-      </c>
-      <c r="C488" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B489" t="s">
         <v>1336</v>
       </c>
-      <c r="B489" t="s">
+      <c r="C489" t="s">
         <v>1337</v>
-      </c>
-      <c r="C489" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B490" t="s">
         <v>1339</v>
       </c>
-      <c r="B490" t="s">
+      <c r="C490" t="s">
         <v>1340</v>
-      </c>
-      <c r="C490" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B491" t="s">
         <v>1342</v>
       </c>
-      <c r="B491" t="s">
+      <c r="C491" t="s">
         <v>1343</v>
-      </c>
-      <c r="C491" t="s">
-        <v>1344</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B492" t="s">
         <v>1345</v>
-      </c>
-      <c r="B492" t="s">
-        <v>1346</v>
       </c>
       <c r="C492" t="s">
         <v>250</v>
@@ -13766,318 +13766,318 @@
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B493" t="s">
         <v>1347</v>
       </c>
-      <c r="B493" t="s">
+      <c r="C493" t="s">
         <v>1348</v>
-      </c>
-      <c r="C493" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B494" t="s">
         <v>1350</v>
       </c>
-      <c r="B494" t="s">
+      <c r="C494" t="s">
         <v>1351</v>
-      </c>
-      <c r="C494" t="s">
-        <v>1352</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B495" t="s">
         <v>1353</v>
       </c>
-      <c r="B495" t="s">
+      <c r="C495" t="s">
         <v>1354</v>
-      </c>
-      <c r="C495" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B496" t="s">
         <v>1356</v>
       </c>
-      <c r="B496" t="s">
+      <c r="C496" t="s">
         <v>1357</v>
-      </c>
-      <c r="C496" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B497" t="s">
         <v>1359</v>
       </c>
-      <c r="B497" t="s">
+      <c r="C497" t="s">
         <v>1360</v>
-      </c>
-      <c r="C497" t="s">
-        <v>1361</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B498" t="s">
         <v>1362</v>
       </c>
-      <c r="B498" t="s">
+      <c r="C498" t="s">
         <v>1363</v>
-      </c>
-      <c r="C498" t="s">
-        <v>1364</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B499" t="s">
         <v>1365</v>
       </c>
-      <c r="B499" t="s">
+      <c r="C499" t="s">
         <v>1366</v>
-      </c>
-      <c r="C499" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B500" t="s">
         <v>1368</v>
       </c>
-      <c r="B500" t="s">
+      <c r="C500" t="s">
         <v>1369</v>
-      </c>
-      <c r="C500" t="s">
-        <v>1370</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B501" t="s">
         <v>1371</v>
       </c>
-      <c r="B501" t="s">
+      <c r="C501" t="s">
         <v>1372</v>
-      </c>
-      <c r="C501" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B502" t="s">
         <v>1374</v>
       </c>
-      <c r="B502" t="s">
+      <c r="C502" t="s">
         <v>1375</v>
-      </c>
-      <c r="C502" t="s">
-        <v>1376</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B503" t="s">
         <v>1377</v>
       </c>
-      <c r="B503" t="s">
+      <c r="C503" t="s">
         <v>1378</v>
-      </c>
-      <c r="C503" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B504" t="s">
         <v>1380</v>
       </c>
-      <c r="B504" t="s">
+      <c r="C504" t="s">
         <v>1381</v>
-      </c>
-      <c r="C504" t="s">
-        <v>1382</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B505" t="s">
         <v>1383</v>
       </c>
-      <c r="B505" t="s">
+      <c r="C505" t="s">
         <v>1384</v>
-      </c>
-      <c r="C505" t="s">
-        <v>1385</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B506" t="s">
         <v>1386</v>
       </c>
-      <c r="B506" t="s">
+      <c r="C506" t="s">
         <v>1387</v>
-      </c>
-      <c r="C506" t="s">
-        <v>1388</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B507" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
       <c r="C507" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B508" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
       <c r="C508" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B509" t="s">
         <v>1391</v>
       </c>
-      <c r="B509" t="s">
+      <c r="C509" t="s">
         <v>1392</v>
-      </c>
-      <c r="C509" t="s">
-        <v>1393</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B510" t="s">
         <v>1394</v>
       </c>
-      <c r="B510" t="s">
+      <c r="C510" t="s">
         <v>1395</v>
-      </c>
-      <c r="C510" t="s">
-        <v>1396</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B511" t="s">
         <v>1397</v>
       </c>
-      <c r="B511" t="s">
+      <c r="C511" t="s">
         <v>1398</v>
-      </c>
-      <c r="C511" t="s">
-        <v>1399</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B512" t="s">
         <v>1400</v>
       </c>
-      <c r="B512" t="s">
+      <c r="C512" t="s">
         <v>1401</v>
-      </c>
-      <c r="C512" t="s">
-        <v>1402</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B513" t="s">
         <v>1403</v>
       </c>
-      <c r="B513" t="s">
+      <c r="C513" t="s">
         <v>1404</v>
-      </c>
-      <c r="C513" t="s">
-        <v>1405</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B514" t="s">
         <v>1406</v>
       </c>
-      <c r="B514" t="s">
+      <c r="C514" t="s">
         <v>1407</v>
-      </c>
-      <c r="C514" t="s">
-        <v>1408</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B515" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
       <c r="C515" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B516" t="s">
         <v>1410</v>
       </c>
-      <c r="B516" t="s">
+      <c r="C516" t="s">
         <v>1411</v>
-      </c>
-      <c r="C516" t="s">
-        <v>1412</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B517" t="s">
         <v>1413</v>
       </c>
-      <c r="B517" t="s">
+      <c r="C517" t="s">
         <v>1414</v>
-      </c>
-      <c r="C517" t="s">
-        <v>1415</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B518" t="s">
         <v>1416</v>
       </c>
-      <c r="B518" t="s">
-        <v>1417</v>
-      </c>
       <c r="C518" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B519" t="s">
         <v>1418</v>
       </c>
-      <c r="B519" t="s">
+      <c r="C519" t="s">
         <v>1419</v>
-      </c>
-      <c r="C519" t="s">
-        <v>1420</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B520" t="s">
         <v>1421</v>
       </c>
-      <c r="B520" t="s">
+      <c r="C520" t="s">
         <v>1422</v>
-      </c>
-      <c r="C520" t="s">
-        <v>1423</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B521" t="s">
         <v>1424</v>
-      </c>
-      <c r="B521" t="s">
-        <v>1425</v>
       </c>
       <c r="C521" t="s">
         <v>465</v>
@@ -14085,810 +14085,810 @@
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B522" t="s">
         <v>1426</v>
       </c>
-      <c r="B522" t="s">
+      <c r="C522" t="s">
         <v>1427</v>
-      </c>
-      <c r="C522" t="s">
-        <v>1428</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B523" t="s">
         <v>1429</v>
       </c>
-      <c r="B523" t="s">
+      <c r="C523" t="s">
         <v>1430</v>
-      </c>
-      <c r="C523" t="s">
-        <v>1431</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B524" t="s">
         <v>1432</v>
       </c>
-      <c r="B524" t="s">
+      <c r="C524" t="s">
         <v>1433</v>
-      </c>
-      <c r="C524" t="s">
-        <v>1434</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B525" t="s">
         <v>1435</v>
       </c>
-      <c r="B525" t="s">
+      <c r="C525" t="s">
         <v>1436</v>
-      </c>
-      <c r="C525" t="s">
-        <v>1437</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B526" t="s">
         <v>1438</v>
       </c>
-      <c r="B526" t="s">
+      <c r="C526" t="s">
         <v>1439</v>
-      </c>
-      <c r="C526" t="s">
-        <v>1440</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B527" t="s">
         <v>1441</v>
       </c>
-      <c r="B527" t="s">
+      <c r="C527" t="s">
         <v>1442</v>
-      </c>
-      <c r="C527" t="s">
-        <v>1443</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B528" t="s">
         <v>1444</v>
       </c>
-      <c r="B528" t="s">
+      <c r="C528" t="s">
         <v>1445</v>
-      </c>
-      <c r="C528" t="s">
-        <v>1446</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B529" t="s">
         <v>1447</v>
       </c>
-      <c r="B529" t="s">
+      <c r="C529" t="s">
         <v>1448</v>
-      </c>
-      <c r="C529" t="s">
-        <v>1449</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B530" t="s">
         <v>1450</v>
       </c>
-      <c r="B530" t="s">
+      <c r="C530" t="s">
         <v>1451</v>
-      </c>
-      <c r="C530" t="s">
-        <v>1452</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B531" t="s">
         <v>1453</v>
       </c>
-      <c r="B531" t="s">
+      <c r="C531" t="s">
         <v>1454</v>
-      </c>
-      <c r="C531" t="s">
-        <v>1455</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B532" t="s">
         <v>1456</v>
       </c>
-      <c r="B532" t="s">
+      <c r="C532" t="s">
         <v>1457</v>
-      </c>
-      <c r="C532" t="s">
-        <v>1458</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B533" t="s">
         <v>1459</v>
       </c>
-      <c r="B533" t="s">
+      <c r="C533" t="s">
         <v>1460</v>
-      </c>
-      <c r="C533" t="s">
-        <v>1461</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B534" t="s">
         <v>1462</v>
       </c>
-      <c r="B534" t="s">
+      <c r="C534" t="s">
         <v>1463</v>
-      </c>
-      <c r="C534" t="s">
-        <v>1464</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B535" t="s">
         <v>1465</v>
       </c>
-      <c r="B535" t="s">
+      <c r="C535" t="s">
         <v>1466</v>
-      </c>
-      <c r="C535" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B536" t="s">
         <v>1468</v>
       </c>
-      <c r="B536" t="s">
+      <c r="C536" t="s">
         <v>1469</v>
-      </c>
-      <c r="C536" t="s">
-        <v>1470</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B537" t="s">
         <v>1471</v>
       </c>
-      <c r="B537" t="s">
+      <c r="C537" t="s">
         <v>1472</v>
-      </c>
-      <c r="C537" t="s">
-        <v>1473</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B538" t="s">
         <v>1474</v>
       </c>
-      <c r="B538" t="s">
+      <c r="C538" t="s">
         <v>1475</v>
-      </c>
-      <c r="C538" t="s">
-        <v>1476</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B539" t="s">
         <v>1477</v>
       </c>
-      <c r="B539" t="s">
+      <c r="C539" t="s">
         <v>1478</v>
-      </c>
-      <c r="C539" t="s">
-        <v>1479</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B540" t="s">
         <v>1480</v>
       </c>
-      <c r="B540" t="s">
+      <c r="C540" t="s">
         <v>1481</v>
-      </c>
-      <c r="C540" t="s">
-        <v>1482</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B541" t="s">
         <v>1483</v>
       </c>
-      <c r="B541" t="s">
+      <c r="C541" t="s">
         <v>1484</v>
-      </c>
-      <c r="C541" t="s">
-        <v>1485</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B542" t="s">
         <v>1486</v>
       </c>
-      <c r="B542" t="s">
+      <c r="C542" t="s">
         <v>1487</v>
-      </c>
-      <c r="C542" t="s">
-        <v>1488</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B543" t="s">
         <v>1489</v>
       </c>
-      <c r="B543" t="s">
+      <c r="C543" t="s">
         <v>1490</v>
-      </c>
-      <c r="C543" t="s">
-        <v>1491</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B544" t="s">
         <v>1492</v>
       </c>
-      <c r="B544" t="s">
+      <c r="C544" t="s">
         <v>1493</v>
-      </c>
-      <c r="C544" t="s">
-        <v>1494</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B545" t="s">
         <v>1495</v>
       </c>
-      <c r="B545" t="s">
+      <c r="C545" t="s">
         <v>1496</v>
-      </c>
-      <c r="C545" t="s">
-        <v>1497</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B546" t="s">
         <v>1498</v>
       </c>
-      <c r="B546" t="s">
+      <c r="C546" t="s">
         <v>1499</v>
-      </c>
-      <c r="C546" t="s">
-        <v>1500</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B547" t="s">
         <v>1501</v>
       </c>
-      <c r="B547" t="s">
+      <c r="C547" t="s">
         <v>1502</v>
-      </c>
-      <c r="C547" t="s">
-        <v>1503</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B548" t="s">
         <v>1504</v>
       </c>
-      <c r="B548" t="s">
+      <c r="C548" t="s">
         <v>1505</v>
-      </c>
-      <c r="C548" t="s">
-        <v>1506</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B549" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
       <c r="C549" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B550" t="s">
         <v>1508</v>
       </c>
-      <c r="B550" t="s">
+      <c r="C550" t="s">
         <v>1509</v>
-      </c>
-      <c r="C550" t="s">
-        <v>1510</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B551" t="s">
         <v>1511</v>
       </c>
-      <c r="B551" t="s">
+      <c r="C551" t="s">
         <v>1512</v>
-      </c>
-      <c r="C551" t="s">
-        <v>1513</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B552" t="s">
         <v>1514</v>
       </c>
-      <c r="B552" t="s">
+      <c r="C552" t="s">
         <v>1515</v>
-      </c>
-      <c r="C552" t="s">
-        <v>1516</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B553" t="s">
-        <v>2482</v>
+        <v>2480</v>
       </c>
       <c r="C553" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B554" t="s">
         <v>1518</v>
       </c>
-      <c r="B554" t="s">
+      <c r="C554" t="s">
         <v>1519</v>
-      </c>
-      <c r="C554" t="s">
-        <v>1520</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B555" t="s">
         <v>1521</v>
       </c>
-      <c r="B555" t="s">
+      <c r="C555" t="s">
         <v>1522</v>
-      </c>
-      <c r="C555" t="s">
-        <v>1523</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B556" t="s">
         <v>1524</v>
       </c>
-      <c r="B556" t="s">
+      <c r="C556" t="s">
         <v>1525</v>
-      </c>
-      <c r="C556" t="s">
-        <v>1526</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B557" t="s">
         <v>1527</v>
       </c>
-      <c r="B557" t="s">
+      <c r="C557" t="s">
         <v>1528</v>
-      </c>
-      <c r="C557" t="s">
-        <v>1529</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B558" t="s">
         <v>1530</v>
       </c>
-      <c r="B558" t="s">
+      <c r="C558" t="s">
         <v>1531</v>
-      </c>
-      <c r="C558" t="s">
-        <v>1532</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B559" t="s">
         <v>1533</v>
       </c>
-      <c r="B559" t="s">
+      <c r="C559" t="s">
         <v>1534</v>
-      </c>
-      <c r="C559" t="s">
-        <v>1535</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B560" t="s">
         <v>1536</v>
       </c>
-      <c r="B560" t="s">
+      <c r="C560" t="s">
         <v>1537</v>
-      </c>
-      <c r="C560" t="s">
-        <v>1538</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B561" t="s">
         <v>1539</v>
       </c>
-      <c r="B561" t="s">
+      <c r="C561" t="s">
         <v>1540</v>
-      </c>
-      <c r="C561" t="s">
-        <v>1541</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B562" t="s">
         <v>1542</v>
       </c>
-      <c r="B562" t="s">
+      <c r="C562" t="s">
         <v>1543</v>
-      </c>
-      <c r="C562" t="s">
-        <v>1544</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B563" t="s">
         <v>1545</v>
       </c>
-      <c r="B563" t="s">
+      <c r="C563" t="s">
         <v>1546</v>
-      </c>
-      <c r="C563" t="s">
-        <v>1547</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B564" t="s">
         <v>1548</v>
       </c>
-      <c r="B564" t="s">
+      <c r="C564" t="s">
         <v>1549</v>
-      </c>
-      <c r="C564" t="s">
-        <v>1550</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B565" t="s">
         <v>1551</v>
       </c>
-      <c r="B565" t="s">
+      <c r="C565" t="s">
         <v>1552</v>
-      </c>
-      <c r="C565" t="s">
-        <v>1553</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B566" t="s">
         <v>1554</v>
       </c>
-      <c r="B566" t="s">
+      <c r="C566" t="s">
         <v>1555</v>
-      </c>
-      <c r="C566" t="s">
-        <v>1556</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B567" t="s">
         <v>1557</v>
       </c>
-      <c r="B567" t="s">
+      <c r="C567" t="s">
         <v>1558</v>
-      </c>
-      <c r="C567" t="s">
-        <v>1559</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B568" t="s">
         <v>1560</v>
       </c>
-      <c r="B568" t="s">
+      <c r="C568" t="s">
         <v>1561</v>
-      </c>
-      <c r="C568" t="s">
-        <v>1562</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B569" t="s">
         <v>1563</v>
       </c>
-      <c r="B569" t="s">
+      <c r="C569" t="s">
         <v>1564</v>
-      </c>
-      <c r="C569" t="s">
-        <v>1565</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B570" t="s">
         <v>1566</v>
       </c>
-      <c r="B570" t="s">
+      <c r="C570" t="s">
         <v>1567</v>
-      </c>
-      <c r="C570" t="s">
-        <v>1568</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B571" t="s">
         <v>1569</v>
       </c>
-      <c r="B571" t="s">
+      <c r="C571" t="s">
         <v>1570</v>
-      </c>
-      <c r="C571" t="s">
-        <v>1571</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B572" t="s">
         <v>1572</v>
       </c>
-      <c r="B572" t="s">
+      <c r="C572" t="s">
         <v>1573</v>
-      </c>
-      <c r="C572" t="s">
-        <v>1574</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B573" t="s">
         <v>1575</v>
       </c>
-      <c r="B573" t="s">
+      <c r="C573" t="s">
         <v>1576</v>
-      </c>
-      <c r="C573" t="s">
-        <v>1577</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B574" t="s">
         <v>1578</v>
       </c>
-      <c r="B574" t="s">
+      <c r="C574" t="s">
         <v>1579</v>
-      </c>
-      <c r="C574" t="s">
-        <v>1580</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B575" t="s">
         <v>1581</v>
       </c>
-      <c r="B575" t="s">
+      <c r="C575" t="s">
         <v>1582</v>
-      </c>
-      <c r="C575" t="s">
-        <v>1583</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B576" t="s">
         <v>1584</v>
       </c>
-      <c r="B576" t="s">
+      <c r="C576" t="s">
         <v>1585</v>
-      </c>
-      <c r="C576" t="s">
-        <v>1586</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B577" t="s">
         <v>1587</v>
       </c>
-      <c r="B577" t="s">
+      <c r="C577" t="s">
         <v>1588</v>
-      </c>
-      <c r="C577" t="s">
-        <v>1589</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B578" t="s">
         <v>1590</v>
       </c>
-      <c r="B578" t="s">
+      <c r="C578" t="s">
         <v>1591</v>
-      </c>
-      <c r="C578" t="s">
-        <v>1592</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B579" t="s">
         <v>1593</v>
       </c>
-      <c r="B579" t="s">
+      <c r="C579" t="s">
         <v>1594</v>
-      </c>
-      <c r="C579" t="s">
-        <v>1595</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B580" t="s">
         <v>1596</v>
       </c>
-      <c r="B580" t="s">
+      <c r="C580" t="s">
         <v>1597</v>
-      </c>
-      <c r="C580" t="s">
-        <v>1598</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B581" t="s">
         <v>1599</v>
       </c>
-      <c r="B581" t="s">
+      <c r="C581" t="s">
         <v>1600</v>
-      </c>
-      <c r="C581" t="s">
-        <v>1601</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B582" t="s">
         <v>1602</v>
       </c>
-      <c r="B582" t="s">
+      <c r="C582" t="s">
         <v>1603</v>
-      </c>
-      <c r="C582" t="s">
-        <v>1604</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B583" t="s">
         <v>1605</v>
       </c>
-      <c r="B583" t="s">
+      <c r="C583" t="s">
         <v>1606</v>
-      </c>
-      <c r="C583" t="s">
-        <v>1607</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B584" t="s">
         <v>1608</v>
       </c>
-      <c r="B584" t="s">
+      <c r="C584" t="s">
         <v>1609</v>
-      </c>
-      <c r="C584" t="s">
-        <v>1610</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B585" t="s">
         <v>1611</v>
       </c>
-      <c r="B585" t="s">
+      <c r="C585" t="s">
         <v>1612</v>
-      </c>
-      <c r="C585" t="s">
-        <v>1613</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B586" t="s">
         <v>1614</v>
       </c>
-      <c r="B586" t="s">
+      <c r="C586" t="s">
         <v>1615</v>
-      </c>
-      <c r="C586" t="s">
-        <v>1616</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B587" t="s">
         <v>1617</v>
       </c>
-      <c r="B587" t="s">
+      <c r="C587" t="s">
         <v>1618</v>
-      </c>
-      <c r="C587" t="s">
-        <v>1619</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B588" t="s">
-        <v>2484</v>
+        <v>2482</v>
       </c>
       <c r="C588" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B589" t="s">
         <v>1621</v>
       </c>
-      <c r="B589" t="s">
+      <c r="C589" t="s">
         <v>1622</v>
-      </c>
-      <c r="C589" t="s">
-        <v>1623</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B590" t="s">
         <v>1624</v>
       </c>
-      <c r="B590" t="s">
+      <c r="C590" t="s">
         <v>1625</v>
-      </c>
-      <c r="C590" t="s">
-        <v>1626</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B591" t="s">
         <v>1627</v>
       </c>
-      <c r="B591" t="s">
+      <c r="C591" t="s">
         <v>1628</v>
-      </c>
-      <c r="C591" t="s">
-        <v>1629</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B592" t="s">
         <v>1630</v>
       </c>
-      <c r="B592" t="s">
+      <c r="C592" t="s">
         <v>1631</v>
-      </c>
-      <c r="C592" t="s">
-        <v>1632</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B593" t="s">
         <v>1633</v>
       </c>
-      <c r="B593" t="s">
+      <c r="C593" t="s">
         <v>1634</v>
-      </c>
-      <c r="C593" t="s">
-        <v>1635</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B594" t="s">
         <v>1636</v>
       </c>
-      <c r="B594" t="s">
+      <c r="C594" t="s">
         <v>1637</v>
-      </c>
-      <c r="C594" t="s">
-        <v>1638</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B595" t="s">
         <v>379</v>
@@ -14899,450 +14899,450 @@
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B596" t="s">
         <v>1640</v>
       </c>
-      <c r="B596" t="s">
+      <c r="C596" t="s">
         <v>1641</v>
-      </c>
-      <c r="C596" t="s">
-        <v>1642</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="B597" t="s">
-        <v>2486</v>
+        <v>2484</v>
       </c>
       <c r="C597" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B598" t="s">
         <v>1644</v>
       </c>
-      <c r="B598" t="s">
+      <c r="C598" t="s">
         <v>1645</v>
-      </c>
-      <c r="C598" t="s">
-        <v>1646</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B599" t="s">
-        <v>2488</v>
+        <v>2486</v>
       </c>
       <c r="C599" t="s">
-        <v>2489</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B600" t="s">
         <v>1648</v>
       </c>
-      <c r="B600" t="s">
+      <c r="C600" t="s">
         <v>1649</v>
-      </c>
-      <c r="C600" t="s">
-        <v>1650</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B601" t="s">
         <v>1651</v>
       </c>
-      <c r="B601" t="s">
+      <c r="C601" t="s">
         <v>1652</v>
-      </c>
-      <c r="C601" t="s">
-        <v>1653</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B602" t="s">
         <v>1654</v>
       </c>
-      <c r="B602" t="s">
+      <c r="C602" t="s">
         <v>1655</v>
-      </c>
-      <c r="C602" t="s">
-        <v>1656</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B603" t="s">
         <v>1657</v>
       </c>
-      <c r="B603" t="s">
+      <c r="C603" t="s">
         <v>1658</v>
-      </c>
-      <c r="C603" t="s">
-        <v>1659</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B604" t="s">
-        <v>2490</v>
+        <v>2488</v>
       </c>
       <c r="C604" t="s">
-        <v>2491</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="B605" t="s">
-        <v>2492</v>
+        <v>2490</v>
       </c>
       <c r="C605" t="s">
-        <v>2493</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B606" t="s">
         <v>1662</v>
       </c>
-      <c r="B606" t="s">
+      <c r="C606" t="s">
         <v>1663</v>
-      </c>
-      <c r="C606" t="s">
-        <v>1664</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="B607" t="s">
-        <v>2494</v>
+        <v>2492</v>
       </c>
       <c r="C607" t="s">
-        <v>2495</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B608" t="s">
-        <v>2496</v>
+        <v>2494</v>
       </c>
       <c r="C608" t="s">
-        <v>2497</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B609" t="s">
-        <v>2498</v>
+        <v>2496</v>
       </c>
       <c r="C609" t="s">
-        <v>2499</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="B610" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
       <c r="C610" t="s">
-        <v>2501</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B611" t="s">
         <v>1669</v>
       </c>
-      <c r="B611" t="s">
+      <c r="C611" t="s">
         <v>1670</v>
-      </c>
-      <c r="C611" t="s">
-        <v>1671</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B612" t="s">
         <v>1672</v>
       </c>
-      <c r="B612" t="s">
+      <c r="C612" t="s">
         <v>1673</v>
-      </c>
-      <c r="C612" t="s">
-        <v>1674</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B613" t="s">
         <v>1675</v>
       </c>
-      <c r="B613" t="s">
+      <c r="C613" t="s">
         <v>1676</v>
-      </c>
-      <c r="C613" t="s">
-        <v>1677</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B614" t="s">
         <v>1678</v>
       </c>
-      <c r="B614" t="s">
+      <c r="C614" t="s">
         <v>1679</v>
-      </c>
-      <c r="C614" t="s">
-        <v>1680</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B615" t="s">
         <v>1681</v>
       </c>
-      <c r="B615" t="s">
+      <c r="C615" t="s">
         <v>1682</v>
-      </c>
-      <c r="C615" t="s">
-        <v>1683</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="B616" t="s">
-        <v>2502</v>
+        <v>2500</v>
       </c>
       <c r="C616" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B617" t="s">
         <v>1685</v>
       </c>
-      <c r="B617" t="s">
+      <c r="C617" t="s">
         <v>1686</v>
-      </c>
-      <c r="C617" t="s">
-        <v>1687</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B618" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
       <c r="C618" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B619" t="s">
         <v>1689</v>
       </c>
-      <c r="B619" t="s">
+      <c r="C619" t="s">
         <v>1690</v>
-      </c>
-      <c r="C619" t="s">
-        <v>1691</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B620" t="s">
         <v>1692</v>
       </c>
-      <c r="B620" t="s">
+      <c r="C620" t="s">
         <v>1693</v>
-      </c>
-      <c r="C620" t="s">
-        <v>1694</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B621" t="s">
         <v>1695</v>
       </c>
-      <c r="B621" t="s">
+      <c r="C621" t="s">
         <v>1696</v>
-      </c>
-      <c r="C621" t="s">
-        <v>1697</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B622" t="s">
-        <v>2506</v>
+        <v>2504</v>
       </c>
       <c r="C622" t="s">
-        <v>2507</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B623" t="s">
         <v>1699</v>
       </c>
-      <c r="B623" t="s">
+      <c r="C623" t="s">
         <v>1700</v>
-      </c>
-      <c r="C623" t="s">
-        <v>1701</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B624" t="s">
-        <v>2508</v>
+        <v>2506</v>
       </c>
       <c r="C624" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B625" t="s">
-        <v>2510</v>
+        <v>2508</v>
       </c>
       <c r="C625" t="s">
-        <v>2511</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B626" t="s">
         <v>1704</v>
       </c>
-      <c r="B626" t="s">
+      <c r="C626" t="s">
         <v>1705</v>
-      </c>
-      <c r="C626" t="s">
-        <v>1706</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B627" t="s">
-        <v>2512</v>
+        <v>2510</v>
       </c>
       <c r="C627" t="s">
-        <v>2513</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B628" t="s">
-        <v>2514</v>
+        <v>2512</v>
       </c>
       <c r="C628" t="s">
-        <v>2515</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B629" t="s">
         <v>1709</v>
       </c>
-      <c r="B629" t="s">
+      <c r="C629" t="s">
         <v>1710</v>
-      </c>
-      <c r="C629" t="s">
-        <v>1711</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B630" t="s">
         <v>1712</v>
       </c>
-      <c r="B630" t="s">
+      <c r="C630" t="s">
         <v>1713</v>
-      </c>
-      <c r="C630" t="s">
-        <v>1714</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B631" t="s">
         <v>1715</v>
       </c>
-      <c r="B631" t="s">
+      <c r="C631" t="s">
         <v>1716</v>
-      </c>
-      <c r="C631" t="s">
-        <v>1717</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B632" t="s">
         <v>1718</v>
       </c>
-      <c r="B632" t="s">
+      <c r="C632" t="s">
         <v>1719</v>
-      </c>
-      <c r="C632" t="s">
-        <v>1720</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B633" t="s">
         <v>1721</v>
       </c>
-      <c r="B633" t="s">
+      <c r="C633" t="s">
         <v>1722</v>
-      </c>
-      <c r="C633" t="s">
-        <v>1723</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B634" t="s">
         <v>1724</v>
       </c>
-      <c r="B634" t="s">
+      <c r="C634" t="s">
         <v>1725</v>
-      </c>
-      <c r="C634" t="s">
-        <v>1726</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B635" t="s">
         <v>1727</v>
       </c>
-      <c r="B635" t="s">
+      <c r="C635" t="s">
         <v>1728</v>
-      </c>
-      <c r="C635" t="s">
-        <v>1729</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B636" t="s">
         <v>1730</v>
-      </c>
-      <c r="B636" t="s">
-        <v>1731</v>
       </c>
       <c r="C636" t="s">
         <v>111</v>
@@ -15350,692 +15350,692 @@
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B637" t="s">
         <v>1732</v>
       </c>
-      <c r="B637" t="s">
+      <c r="C637" t="s">
         <v>1733</v>
-      </c>
-      <c r="C637" t="s">
-        <v>1734</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B638" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
       <c r="C638" t="s">
-        <v>2517</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B639" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="C639" t="s">
-        <v>2519</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B640" t="s">
         <v>1737</v>
       </c>
-      <c r="B640" t="s">
+      <c r="C640" t="s">
         <v>1738</v>
-      </c>
-      <c r="C640" t="s">
-        <v>1739</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="B641" t="s">
-        <v>2520</v>
+        <v>2518</v>
       </c>
       <c r="C641" t="s">
-        <v>2521</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="B642" t="s">
-        <v>2522</v>
+        <v>2520</v>
       </c>
       <c r="C642" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="B643" t="s">
-        <v>2524</v>
+        <v>2522</v>
       </c>
       <c r="C643" t="s">
-        <v>2525</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="B644" t="s">
-        <v>2526</v>
+        <v>2524</v>
       </c>
       <c r="C644" t="s">
-        <v>2527</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="B645" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
       <c r="C645" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="B646" t="s">
-        <v>2530</v>
+        <v>2528</v>
       </c>
       <c r="C646" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B647" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
       <c r="C647" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B648" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
       <c r="C648" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B649" t="s">
-        <v>2536</v>
+        <v>2534</v>
       </c>
       <c r="C649" t="s">
-        <v>2537</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B650" t="s">
         <v>1749</v>
       </c>
-      <c r="B650" t="s">
+      <c r="C650" t="s">
         <v>1750</v>
-      </c>
-      <c r="C650" t="s">
-        <v>1751</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B651" t="s">
         <v>1752</v>
       </c>
-      <c r="B651" t="s">
+      <c r="C651" t="s">
         <v>1753</v>
-      </c>
-      <c r="C651" t="s">
-        <v>1754</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B652" t="s">
         <v>1755</v>
       </c>
-      <c r="B652" t="s">
+      <c r="C652" t="s">
         <v>1756</v>
-      </c>
-      <c r="C652" t="s">
-        <v>1757</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B653" t="s">
         <v>1758</v>
       </c>
-      <c r="B653" t="s">
+      <c r="C653" t="s">
         <v>1759</v>
-      </c>
-      <c r="C653" t="s">
-        <v>1760</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B654" t="s">
         <v>1761</v>
       </c>
-      <c r="B654" t="s">
+      <c r="C654" t="s">
         <v>1762</v>
-      </c>
-      <c r="C654" t="s">
-        <v>1763</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B655" t="s">
         <v>1764</v>
       </c>
-      <c r="B655" t="s">
+      <c r="C655" t="s">
         <v>1765</v>
-      </c>
-      <c r="C655" t="s">
-        <v>1766</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B656" t="s">
         <v>1767</v>
       </c>
-      <c r="B656" t="s">
+      <c r="C656" t="s">
         <v>1768</v>
-      </c>
-      <c r="C656" t="s">
-        <v>1769</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B657" t="s">
         <v>1770</v>
       </c>
-      <c r="B657" t="s">
+      <c r="C657" t="s">
         <v>1771</v>
-      </c>
-      <c r="C657" t="s">
-        <v>1772</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B658" t="s">
         <v>1773</v>
       </c>
-      <c r="B658" t="s">
+      <c r="C658" t="s">
         <v>1774</v>
-      </c>
-      <c r="C658" t="s">
-        <v>1775</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B659" t="s">
         <v>1776</v>
       </c>
-      <c r="B659" t="s">
+      <c r="C659" t="s">
         <v>1777</v>
-      </c>
-      <c r="C659" t="s">
-        <v>1778</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B660" t="s">
         <v>1779</v>
       </c>
-      <c r="B660" t="s">
+      <c r="C660" t="s">
         <v>1780</v>
-      </c>
-      <c r="C660" t="s">
-        <v>1781</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B661" t="s">
         <v>1782</v>
       </c>
-      <c r="B661" t="s">
+      <c r="C661" t="s">
         <v>1783</v>
-      </c>
-      <c r="C661" t="s">
-        <v>1784</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B662" t="s">
         <v>1785</v>
       </c>
-      <c r="B662" t="s">
+      <c r="C662" t="s">
         <v>1786</v>
-      </c>
-      <c r="C662" t="s">
-        <v>1787</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B663" t="s">
         <v>1788</v>
       </c>
-      <c r="B663" t="s">
+      <c r="C663" t="s">
         <v>1789</v>
-      </c>
-      <c r="C663" t="s">
-        <v>1790</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B664" t="s">
         <v>1791</v>
       </c>
-      <c r="B664" t="s">
+      <c r="C664" t="s">
         <v>1792</v>
-      </c>
-      <c r="C664" t="s">
-        <v>1793</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B665" t="s">
         <v>1794</v>
       </c>
-      <c r="B665" t="s">
+      <c r="C665" t="s">
         <v>1795</v>
-      </c>
-      <c r="C665" t="s">
-        <v>1796</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B666" t="s">
         <v>1797</v>
       </c>
-      <c r="B666" t="s">
+      <c r="C666" t="s">
         <v>1798</v>
-      </c>
-      <c r="C666" t="s">
-        <v>1799</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B667" t="s">
         <v>1800</v>
       </c>
-      <c r="B667" t="s">
+      <c r="C667" t="s">
         <v>1801</v>
-      </c>
-      <c r="C667" t="s">
-        <v>1802</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B668" t="s">
         <v>1803</v>
       </c>
-      <c r="B668" t="s">
+      <c r="C668" t="s">
         <v>1804</v>
-      </c>
-      <c r="C668" t="s">
-        <v>1805</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B669" t="s">
         <v>1806</v>
       </c>
-      <c r="B669" t="s">
+      <c r="C669" t="s">
         <v>1807</v>
-      </c>
-      <c r="C669" t="s">
-        <v>1808</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B670" t="s">
         <v>1809</v>
       </c>
-      <c r="B670" t="s">
+      <c r="C670" t="s">
         <v>1810</v>
-      </c>
-      <c r="C670" t="s">
-        <v>1811</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B671" t="s">
         <v>1812</v>
       </c>
-      <c r="B671" t="s">
+      <c r="C671" t="s">
         <v>1813</v>
-      </c>
-      <c r="C671" t="s">
-        <v>1814</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B672" t="s">
         <v>1815</v>
       </c>
-      <c r="B672" t="s">
+      <c r="C672" t="s">
         <v>1816</v>
-      </c>
-      <c r="C672" t="s">
-        <v>1817</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B673" t="s">
         <v>1818</v>
       </c>
-      <c r="B673" t="s">
+      <c r="C673" t="s">
         <v>1819</v>
-      </c>
-      <c r="C673" t="s">
-        <v>1820</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B674" t="s">
         <v>1821</v>
       </c>
-      <c r="B674" t="s">
+      <c r="C674" t="s">
         <v>1822</v>
-      </c>
-      <c r="C674" t="s">
-        <v>1823</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B675" t="s">
         <v>1824</v>
       </c>
-      <c r="B675" t="s">
+      <c r="C675" t="s">
         <v>1825</v>
-      </c>
-      <c r="C675" t="s">
-        <v>1826</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B676" t="s">
         <v>1827</v>
       </c>
-      <c r="B676" t="s">
+      <c r="C676" t="s">
         <v>1828</v>
-      </c>
-      <c r="C676" t="s">
-        <v>1829</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B677" t="s">
         <v>1830</v>
       </c>
-      <c r="B677" t="s">
+      <c r="C677" t="s">
         <v>1831</v>
-      </c>
-      <c r="C677" t="s">
-        <v>1832</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B678" t="s">
         <v>1833</v>
       </c>
-      <c r="B678" t="s">
+      <c r="C678" t="s">
         <v>1834</v>
-      </c>
-      <c r="C678" t="s">
-        <v>1835</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B679" t="s">
         <v>1836</v>
       </c>
-      <c r="B679" t="s">
+      <c r="C679" t="s">
         <v>1837</v>
-      </c>
-      <c r="C679" t="s">
-        <v>1838</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B680" t="s">
         <v>1839</v>
       </c>
-      <c r="B680" t="s">
+      <c r="C680" t="s">
         <v>1840</v>
-      </c>
-      <c r="C680" t="s">
-        <v>1841</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="B681" t="s">
-        <v>2538</v>
+        <v>2536</v>
       </c>
       <c r="C681" t="s">
-        <v>2539</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B682" t="s">
         <v>1843</v>
       </c>
-      <c r="B682" t="s">
+      <c r="C682" t="s">
         <v>1844</v>
-      </c>
-      <c r="C682" t="s">
-        <v>1845</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B683" t="s">
         <v>1846</v>
       </c>
-      <c r="B683" t="s">
+      <c r="C683" t="s">
         <v>1847</v>
-      </c>
-      <c r="C683" t="s">
-        <v>1848</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="B684" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="C684" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="B685" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="C685" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="B686" t="s">
-        <v>2544</v>
+        <v>2542</v>
       </c>
       <c r="C686" t="s">
-        <v>2545</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="B687" t="s">
-        <v>2546</v>
+        <v>2544</v>
       </c>
       <c r="C687" t="s">
-        <v>2547</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="B688" t="s">
-        <v>2548</v>
+        <v>2546</v>
       </c>
       <c r="C688" t="s">
-        <v>2549</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="B689" t="s">
-        <v>2550</v>
+        <v>2548</v>
       </c>
       <c r="C689" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B690" t="s">
         <v>1855</v>
       </c>
-      <c r="B690" t="s">
+      <c r="C690" t="s">
         <v>1856</v>
-      </c>
-      <c r="C690" t="s">
-        <v>1857</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B691" t="s">
         <v>1858</v>
       </c>
-      <c r="B691" t="s">
+      <c r="C691" t="s">
         <v>1859</v>
-      </c>
-      <c r="C691" t="s">
-        <v>1860</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B692" t="s">
         <v>1861</v>
       </c>
-      <c r="B692" t="s">
+      <c r="C692" t="s">
         <v>1862</v>
-      </c>
-      <c r="C692" t="s">
-        <v>1863</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B693" t="s">
         <v>1864</v>
       </c>
-      <c r="B693" t="s">
+      <c r="C693" t="s">
         <v>1865</v>
-      </c>
-      <c r="C693" t="s">
-        <v>1866</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B694" t="s">
         <v>1867</v>
       </c>
-      <c r="B694" t="s">
+      <c r="C694" t="s">
         <v>1868</v>
-      </c>
-      <c r="C694" t="s">
-        <v>1869</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B695" t="s">
         <v>1870</v>
       </c>
-      <c r="B695" t="s">
+      <c r="C695" t="s">
         <v>1871</v>
-      </c>
-      <c r="C695" t="s">
-        <v>1872</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B696" t="s">
         <v>1873</v>
       </c>
-      <c r="B696" t="s">
+      <c r="C696" t="s">
         <v>1874</v>
-      </c>
-      <c r="C696" t="s">
-        <v>1875</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B697" t="s">
         <v>1876</v>
       </c>
-      <c r="B697" t="s">
+      <c r="C697" t="s">
         <v>1877</v>
-      </c>
-      <c r="C697" t="s">
-        <v>1878</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B698" t="s">
         <v>1879</v>
       </c>
-      <c r="B698" t="s">
+      <c r="C698" t="s">
         <v>1880</v>
-      </c>
-      <c r="C698" t="s">
-        <v>1881</v>
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B699" t="s">
         <v>1882</v>
-      </c>
-      <c r="B699" t="s">
-        <v>1883</v>
       </c>
       <c r="C699" t="s">
         <v>690</v>
@@ -16043,384 +16043,384 @@
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B700" t="s">
         <v>1884</v>
       </c>
-      <c r="B700" t="s">
+      <c r="C700" t="s">
         <v>1885</v>
-      </c>
-      <c r="C700" t="s">
-        <v>1886</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B701" t="s">
         <v>1887</v>
       </c>
-      <c r="B701" t="s">
+      <c r="C701" t="s">
         <v>1888</v>
-      </c>
-      <c r="C701" t="s">
-        <v>1889</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B702" t="s">
         <v>1890</v>
       </c>
-      <c r="B702" t="s">
+      <c r="C702" t="s">
         <v>1891</v>
-      </c>
-      <c r="C702" t="s">
-        <v>1892</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B703" t="s">
         <v>1893</v>
       </c>
-      <c r="B703" t="s">
+      <c r="C703" t="s">
         <v>1894</v>
-      </c>
-      <c r="C703" t="s">
-        <v>1895</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B704" t="s">
         <v>1896</v>
       </c>
-      <c r="B704" t="s">
+      <c r="C704" t="s">
         <v>1897</v>
-      </c>
-      <c r="C704" t="s">
-        <v>1898</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B705" t="s">
         <v>1899</v>
       </c>
-      <c r="B705" t="s">
+      <c r="C705" t="s">
         <v>1900</v>
-      </c>
-      <c r="C705" t="s">
-        <v>1901</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B706" t="s">
         <v>1902</v>
       </c>
-      <c r="B706" t="s">
+      <c r="C706" t="s">
         <v>1903</v>
-      </c>
-      <c r="C706" t="s">
-        <v>1904</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B707" t="s">
         <v>1905</v>
       </c>
-      <c r="B707" t="s">
+      <c r="C707" t="s">
         <v>1906</v>
-      </c>
-      <c r="C707" t="s">
-        <v>1907</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B708" t="s">
         <v>1908</v>
       </c>
-      <c r="B708" t="s">
+      <c r="C708" t="s">
         <v>1909</v>
-      </c>
-      <c r="C708" t="s">
-        <v>1910</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B709" t="s">
         <v>1911</v>
       </c>
-      <c r="B709" t="s">
+      <c r="C709" t="s">
         <v>1912</v>
-      </c>
-      <c r="C709" t="s">
-        <v>1913</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B710" t="s">
         <v>1914</v>
       </c>
-      <c r="B710" t="s">
+      <c r="C710" t="s">
         <v>1915</v>
-      </c>
-      <c r="C710" t="s">
-        <v>1916</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B711" t="s">
         <v>1917</v>
       </c>
-      <c r="B711" t="s">
+      <c r="C711" t="s">
         <v>1918</v>
-      </c>
-      <c r="C711" t="s">
-        <v>1919</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B712" t="s">
         <v>1920</v>
       </c>
-      <c r="B712" t="s">
+      <c r="C712" t="s">
         <v>1921</v>
-      </c>
-      <c r="C712" t="s">
-        <v>1922</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B713" t="s">
         <v>1923</v>
       </c>
-      <c r="B713" t="s">
+      <c r="C713" t="s">
         <v>1924</v>
-      </c>
-      <c r="C713" t="s">
-        <v>1925</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B714" t="s">
         <v>1926</v>
       </c>
-      <c r="B714" t="s">
+      <c r="C714" t="s">
         <v>1927</v>
-      </c>
-      <c r="C714" t="s">
-        <v>1928</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B715" t="s">
         <v>1929</v>
       </c>
-      <c r="B715" t="s">
+      <c r="C715" t="s">
         <v>1930</v>
-      </c>
-      <c r="C715" t="s">
-        <v>1931</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B716" t="s">
         <v>1932</v>
       </c>
-      <c r="B716" t="s">
+      <c r="C716" t="s">
         <v>1933</v>
-      </c>
-      <c r="C716" t="s">
-        <v>1934</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B717" t="s">
         <v>1935</v>
       </c>
-      <c r="B717" t="s">
+      <c r="C717" t="s">
         <v>1936</v>
-      </c>
-      <c r="C717" t="s">
-        <v>1937</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B718" t="s">
         <v>1938</v>
       </c>
-      <c r="B718" t="s">
+      <c r="C718" t="s">
         <v>1939</v>
-      </c>
-      <c r="C718" t="s">
-        <v>1940</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B719" t="s">
         <v>1941</v>
       </c>
-      <c r="B719" t="s">
+      <c r="C719" t="s">
         <v>1942</v>
-      </c>
-      <c r="C719" t="s">
-        <v>1943</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B720" t="s">
         <v>1944</v>
       </c>
-      <c r="B720" t="s">
+      <c r="C720" t="s">
         <v>1945</v>
-      </c>
-      <c r="C720" t="s">
-        <v>1946</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B721" t="s">
         <v>1947</v>
       </c>
-      <c r="B721" t="s">
+      <c r="C721" t="s">
         <v>1948</v>
-      </c>
-      <c r="C721" t="s">
-        <v>1949</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B722" t="s">
         <v>1950</v>
       </c>
-      <c r="B722" t="s">
+      <c r="C722" t="s">
         <v>1951</v>
-      </c>
-      <c r="C722" t="s">
-        <v>1952</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B723" t="s">
         <v>1953</v>
       </c>
-      <c r="B723" t="s">
+      <c r="C723" t="s">
         <v>1954</v>
-      </c>
-      <c r="C723" t="s">
-        <v>1955</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B724" t="s">
         <v>1956</v>
       </c>
-      <c r="B724" t="s">
+      <c r="C724" t="s">
         <v>1957</v>
-      </c>
-      <c r="C724" t="s">
-        <v>1958</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B725" t="s">
         <v>1959</v>
       </c>
-      <c r="B725" t="s">
+      <c r="C725" t="s">
         <v>1960</v>
-      </c>
-      <c r="C725" t="s">
-        <v>1961</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B726" t="s">
         <v>1962</v>
       </c>
-      <c r="B726" t="s">
+      <c r="C726" t="s">
         <v>1963</v>
-      </c>
-      <c r="C726" t="s">
-        <v>1964</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B727" t="s">
         <v>1965</v>
       </c>
-      <c r="B727" t="s">
+      <c r="C727" t="s">
         <v>1966</v>
-      </c>
-      <c r="C727" t="s">
-        <v>1967</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B728" t="s">
         <v>1968</v>
       </c>
-      <c r="B728" t="s">
+      <c r="C728" t="s">
         <v>1969</v>
-      </c>
-      <c r="C728" t="s">
-        <v>1970</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B729" t="s">
         <v>1971</v>
       </c>
-      <c r="B729" t="s">
+      <c r="C729" t="s">
         <v>1972</v>
-      </c>
-      <c r="C729" t="s">
-        <v>1973</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B730" t="s">
         <v>1974</v>
       </c>
-      <c r="B730" t="s">
+      <c r="C730" t="s">
         <v>1975</v>
-      </c>
-      <c r="C730" t="s">
-        <v>1976</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B731" t="s">
         <v>1977</v>
       </c>
-      <c r="B731" t="s">
+      <c r="C731" t="s">
         <v>1978</v>
-      </c>
-      <c r="C731" t="s">
-        <v>1979</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B732" t="s">
-        <v>2552</v>
+        <v>2550</v>
       </c>
       <c r="C732" t="s">
-        <v>2553</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B733" t="s">
         <v>1981</v>
       </c>
-      <c r="B733" t="s">
+      <c r="C733" t="s">
         <v>1982</v>
-      </c>
-      <c r="C733" t="s">
-        <v>1983</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B734" t="s">
         <v>1984</v>
-      </c>
-      <c r="B734" t="s">
-        <v>1985</v>
       </c>
       <c r="C734" t="s">
         <v>595</v>
@@ -16428,857 +16428,857 @@
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B735" t="s">
         <v>1986</v>
       </c>
-      <c r="B735" t="s">
+      <c r="C735" t="s">
         <v>1987</v>
-      </c>
-      <c r="C735" t="s">
-        <v>1988</v>
       </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B736" t="s">
         <v>1989</v>
       </c>
-      <c r="B736" t="s">
+      <c r="C736" t="s">
         <v>1990</v>
-      </c>
-      <c r="C736" t="s">
-        <v>1991</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B737" t="s">
         <v>1992</v>
       </c>
-      <c r="B737" t="s">
+      <c r="C737" t="s">
         <v>1993</v>
-      </c>
-      <c r="C737" t="s">
-        <v>1994</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B738" t="s">
         <v>1995</v>
       </c>
-      <c r="B738" t="s">
+      <c r="C738" t="s">
         <v>1996</v>
-      </c>
-      <c r="C738" t="s">
-        <v>1997</v>
       </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B739" t="s">
         <v>1998</v>
       </c>
-      <c r="B739" t="s">
+      <c r="C739" t="s">
         <v>1999</v>
-      </c>
-      <c r="C739" t="s">
-        <v>2000</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B740" t="s">
         <v>2001</v>
       </c>
-      <c r="B740" t="s">
+      <c r="C740" t="s">
         <v>2002</v>
-      </c>
-      <c r="C740" t="s">
-        <v>2003</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B741" t="s">
         <v>2004</v>
       </c>
-      <c r="B741" t="s">
+      <c r="C741" t="s">
         <v>2005</v>
-      </c>
-      <c r="C741" t="s">
-        <v>2006</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B742" t="s">
-        <v>2554</v>
+        <v>2552</v>
       </c>
       <c r="C742" t="s">
-        <v>2555</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B743" t="s">
-        <v>2556</v>
+        <v>2554</v>
       </c>
       <c r="C743" t="s">
-        <v>2557</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B744" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
       <c r="C744" t="s">
-        <v>2559</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B745" t="s">
-        <v>2560</v>
+        <v>2558</v>
       </c>
       <c r="C745" t="s">
-        <v>2561</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B746" t="s">
         <v>2011</v>
       </c>
-      <c r="B746" t="s">
+      <c r="C746" t="s">
         <v>2012</v>
-      </c>
-      <c r="C746" t="s">
-        <v>2013</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B747" t="s">
         <v>2014</v>
       </c>
-      <c r="B747" t="s">
+      <c r="C747" t="s">
         <v>2015</v>
-      </c>
-      <c r="C747" t="s">
-        <v>2016</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B748" t="s">
         <v>2017</v>
       </c>
-      <c r="B748" t="s">
+      <c r="C748" t="s">
         <v>2018</v>
-      </c>
-      <c r="C748" t="s">
-        <v>2019</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B749" t="s">
         <v>2020</v>
       </c>
-      <c r="B749" t="s">
+      <c r="C749" t="s">
         <v>2021</v>
-      </c>
-      <c r="C749" t="s">
-        <v>2022</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B750" t="s">
         <v>2023</v>
       </c>
-      <c r="B750" t="s">
+      <c r="C750" t="s">
         <v>2024</v>
-      </c>
-      <c r="C750" t="s">
-        <v>2025</v>
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B751" t="s">
         <v>2026</v>
       </c>
-      <c r="B751" t="s">
+      <c r="C751" t="s">
         <v>2027</v>
-      </c>
-      <c r="C751" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B752" t="s">
         <v>2029</v>
       </c>
-      <c r="B752" t="s">
+      <c r="C752" t="s">
         <v>2030</v>
-      </c>
-      <c r="C752" t="s">
-        <v>2031</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B753" t="s">
         <v>2032</v>
       </c>
-      <c r="B753" t="s">
+      <c r="C753" t="s">
         <v>2033</v>
-      </c>
-      <c r="C753" t="s">
-        <v>2034</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B754" t="s">
         <v>2035</v>
       </c>
-      <c r="B754" t="s">
+      <c r="C754" t="s">
         <v>2036</v>
-      </c>
-      <c r="C754" t="s">
-        <v>2037</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B755" t="s">
         <v>2038</v>
       </c>
-      <c r="B755" t="s">
+      <c r="C755" t="s">
         <v>2039</v>
-      </c>
-      <c r="C755" t="s">
-        <v>2040</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B756" t="s">
         <v>2041</v>
       </c>
-      <c r="B756" t="s">
+      <c r="C756" t="s">
         <v>2042</v>
-      </c>
-      <c r="C756" t="s">
-        <v>2043</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B757" t="s">
         <v>2044</v>
       </c>
-      <c r="B757" t="s">
+      <c r="C757" t="s">
         <v>2045</v>
-      </c>
-      <c r="C757" t="s">
-        <v>2046</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B758" t="s">
         <v>2047</v>
       </c>
-      <c r="B758" t="s">
+      <c r="C758" t="s">
         <v>2048</v>
-      </c>
-      <c r="C758" t="s">
-        <v>2049</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B759" t="s">
         <v>2050</v>
       </c>
-      <c r="B759" t="s">
+      <c r="C759" t="s">
         <v>2051</v>
-      </c>
-      <c r="C759" t="s">
-        <v>2052</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B760" t="s">
         <v>2053</v>
       </c>
-      <c r="B760" t="s">
-        <v>2054</v>
-      </c>
       <c r="C760" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B761" t="s">
         <v>2055</v>
       </c>
-      <c r="B761" t="s">
+      <c r="C761" t="s">
         <v>2056</v>
-      </c>
-      <c r="C761" t="s">
-        <v>2057</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B762" t="s">
         <v>2058</v>
       </c>
-      <c r="B762" t="s">
+      <c r="C762" t="s">
         <v>2059</v>
-      </c>
-      <c r="C762" t="s">
-        <v>2060</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B763" t="s">
         <v>2061</v>
       </c>
-      <c r="B763" t="s">
+      <c r="C763" t="s">
         <v>2062</v>
-      </c>
-      <c r="C763" t="s">
-        <v>2063</v>
       </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B764" t="s">
         <v>2064</v>
       </c>
-      <c r="B764" t="s">
+      <c r="C764" t="s">
         <v>2065</v>
-      </c>
-      <c r="C764" t="s">
-        <v>2066</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B765" t="s">
         <v>2067</v>
       </c>
-      <c r="B765" t="s">
+      <c r="C765" t="s">
         <v>2068</v>
-      </c>
-      <c r="C765" t="s">
-        <v>2069</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B766" t="s">
         <v>2070</v>
       </c>
-      <c r="B766" t="s">
+      <c r="C766" t="s">
         <v>2071</v>
-      </c>
-      <c r="C766" t="s">
-        <v>2072</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B767" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C767" t="s">
         <v>1369</v>
-      </c>
-      <c r="C767" t="s">
-        <v>1370</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B768" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C768" t="s">
         <v>1372</v>
-      </c>
-      <c r="C768" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B769" t="s">
         <v>2075</v>
       </c>
-      <c r="B769" t="s">
+      <c r="C769" t="s">
         <v>2076</v>
-      </c>
-      <c r="C769" t="s">
-        <v>2077</v>
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B770" t="s">
         <v>2078</v>
       </c>
-      <c r="B770" t="s">
+      <c r="C770" t="s">
         <v>2079</v>
-      </c>
-      <c r="C770" t="s">
-        <v>2080</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B771" t="s">
         <v>2081</v>
       </c>
-      <c r="B771" t="s">
+      <c r="C771" t="s">
         <v>2082</v>
-      </c>
-      <c r="C771" t="s">
-        <v>2083</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B772" t="s">
         <v>2084</v>
       </c>
-      <c r="B772" t="s">
+      <c r="C772" t="s">
         <v>2085</v>
-      </c>
-      <c r="C772" t="s">
-        <v>2086</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B773" t="s">
         <v>2087</v>
       </c>
-      <c r="B773" t="s">
+      <c r="C773" t="s">
         <v>2088</v>
-      </c>
-      <c r="C773" t="s">
-        <v>2089</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B774" t="s">
         <v>2090</v>
       </c>
-      <c r="B774" t="s">
+      <c r="C774" t="s">
         <v>2091</v>
-      </c>
-      <c r="C774" t="s">
-        <v>2092</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B775" t="s">
         <v>2093</v>
       </c>
-      <c r="B775" t="s">
+      <c r="C775" t="s">
         <v>2094</v>
-      </c>
-      <c r="C775" t="s">
-        <v>2095</v>
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B776" t="s">
         <v>2096</v>
       </c>
-      <c r="B776" t="s">
+      <c r="C776" t="s">
         <v>2097</v>
-      </c>
-      <c r="C776" t="s">
-        <v>2098</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B777" t="s">
         <v>2099</v>
       </c>
-      <c r="B777" t="s">
-        <v>2100</v>
-      </c>
       <c r="C777" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B778" t="s">
         <v>2101</v>
       </c>
-      <c r="B778" t="s">
+      <c r="C778" t="s">
         <v>2102</v>
-      </c>
-      <c r="C778" t="s">
-        <v>2103</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B779" t="s">
         <v>2104</v>
       </c>
-      <c r="B779" t="s">
+      <c r="C779" t="s">
         <v>2105</v>
-      </c>
-      <c r="C779" t="s">
-        <v>2106</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B780" t="s">
         <v>2107</v>
       </c>
-      <c r="B780" t="s">
+      <c r="C780" t="s">
         <v>2108</v>
-      </c>
-      <c r="C780" t="s">
-        <v>2109</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B781" t="s">
         <v>2110</v>
       </c>
-      <c r="B781" t="s">
+      <c r="C781" t="s">
         <v>2111</v>
-      </c>
-      <c r="C781" t="s">
-        <v>2112</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B782" t="s">
         <v>2113</v>
       </c>
-      <c r="B782" t="s">
+      <c r="C782" t="s">
         <v>2114</v>
-      </c>
-      <c r="C782" t="s">
-        <v>2115</v>
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B783" t="s">
-        <v>2562</v>
+        <v>2560</v>
       </c>
       <c r="C783" t="s">
-        <v>2563</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="B784" t="s">
-        <v>2564</v>
+        <v>2562</v>
       </c>
       <c r="C784" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="B785" t="s">
-        <v>2566</v>
+        <v>2564</v>
       </c>
       <c r="C785" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="B786" t="s">
-        <v>2568</v>
+        <v>2566</v>
       </c>
       <c r="C786" t="s">
-        <v>2569</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="B787" t="s">
-        <v>2570</v>
+        <v>2568</v>
       </c>
       <c r="C787" t="s">
-        <v>2571</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B788" t="s">
         <v>2121</v>
       </c>
-      <c r="B788" t="s">
+      <c r="C788" t="s">
         <v>2122</v>
-      </c>
-      <c r="C788" t="s">
-        <v>2123</v>
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B789" t="s">
         <v>2124</v>
       </c>
-      <c r="B789" t="s">
+      <c r="C789" t="s">
         <v>2125</v>
-      </c>
-      <c r="C789" t="s">
-        <v>2126</v>
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="B790" t="s">
-        <v>2572</v>
+        <v>2570</v>
       </c>
       <c r="C790" t="s">
-        <v>2573</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="B791" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="C791" t="s">
-        <v>2575</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B792" t="s">
         <v>2129</v>
       </c>
-      <c r="B792" t="s">
+      <c r="C792" t="s">
         <v>2130</v>
-      </c>
-      <c r="C792" t="s">
-        <v>2131</v>
       </c>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B793" t="s">
         <v>2132</v>
       </c>
-      <c r="B793" t="s">
+      <c r="C793" t="s">
         <v>2133</v>
-      </c>
-      <c r="C793" t="s">
-        <v>2134</v>
       </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B794" t="s">
         <v>2135</v>
       </c>
-      <c r="B794" t="s">
+      <c r="C794" t="s">
         <v>2136</v>
-      </c>
-      <c r="C794" t="s">
-        <v>2137</v>
       </c>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B795" t="s">
         <v>2138</v>
       </c>
-      <c r="B795" t="s">
+      <c r="C795" t="s">
         <v>2139</v>
-      </c>
-      <c r="C795" t="s">
-        <v>2140</v>
       </c>
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B796" t="s">
         <v>2141</v>
       </c>
-      <c r="B796" t="s">
+      <c r="C796" t="s">
         <v>2142</v>
-      </c>
-      <c r="C796" t="s">
-        <v>2143</v>
       </c>
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B797" t="s">
         <v>2144</v>
       </c>
-      <c r="B797" t="s">
+      <c r="C797" t="s">
         <v>2145</v>
-      </c>
-      <c r="C797" t="s">
-        <v>2146</v>
       </c>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B798" t="s">
         <v>2147</v>
       </c>
-      <c r="B798" t="s">
+      <c r="C798" t="s">
         <v>2148</v>
-      </c>
-      <c r="C798" t="s">
-        <v>2149</v>
       </c>
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B799" t="s">
         <v>2150</v>
       </c>
-      <c r="B799" t="s">
+      <c r="C799" t="s">
         <v>2151</v>
-      </c>
-      <c r="C799" t="s">
-        <v>2152</v>
       </c>
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B800" t="s">
         <v>2153</v>
       </c>
-      <c r="B800" t="s">
+      <c r="C800" t="s">
         <v>2154</v>
-      </c>
-      <c r="C800" t="s">
-        <v>2155</v>
       </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B801" t="s">
         <v>2156</v>
       </c>
-      <c r="B801" t="s">
+      <c r="C801" t="s">
         <v>2157</v>
-      </c>
-      <c r="C801" t="s">
-        <v>2158</v>
       </c>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B802" t="s">
         <v>2159</v>
       </c>
-      <c r="B802" t="s">
+      <c r="C802" t="s">
         <v>2160</v>
-      </c>
-      <c r="C802" t="s">
-        <v>2161</v>
       </c>
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="B803" t="s">
-        <v>2576</v>
+        <v>2574</v>
       </c>
       <c r="C803" t="s">
-        <v>2577</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B804" t="s">
         <v>2163</v>
       </c>
-      <c r="B804" t="s">
+      <c r="C804" t="s">
         <v>2164</v>
-      </c>
-      <c r="C804" t="s">
-        <v>2165</v>
       </c>
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B805" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="C805" t="s">
-        <v>2579</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B806" t="s">
         <v>2167</v>
       </c>
-      <c r="B806" t="s">
+      <c r="C806" t="s">
         <v>2168</v>
-      </c>
-      <c r="C806" t="s">
-        <v>2169</v>
       </c>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B807" t="s">
         <v>2170</v>
       </c>
-      <c r="B807" t="s">
+      <c r="C807" t="s">
         <v>2171</v>
-      </c>
-      <c r="C807" t="s">
-        <v>2172</v>
       </c>
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B808" t="s">
         <v>2173</v>
       </c>
-      <c r="B808" t="s">
+      <c r="C808" t="s">
         <v>2174</v>
-      </c>
-      <c r="C808" t="s">
-        <v>2175</v>
       </c>
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B809" t="s">
         <v>2176</v>
       </c>
-      <c r="B809" t="s">
+      <c r="C809" t="s">
         <v>2177</v>
-      </c>
-      <c r="C809" t="s">
-        <v>2178</v>
       </c>
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="B810" t="s">
-        <v>2580</v>
+        <v>2578</v>
       </c>
       <c r="C810" t="s">
-        <v>2580</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="B811" t="s">
-        <v>2581</v>
+        <v>2579</v>
       </c>
       <c r="C811" t="s">
-        <v>2582</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B812" t="s">
         <v>2181</v>
-      </c>
-      <c r="B812" t="s">
-        <v>2182</v>
       </c>
       <c r="C812" t="s">
         <v>991</v>
@@ -17286,937 +17286,937 @@
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="B813" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
       <c r="C813" t="s">
-        <v>2584</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B814" t="s">
         <v>2184</v>
       </c>
-      <c r="B814" t="s">
+      <c r="C814" t="s">
         <v>2185</v>
-      </c>
-      <c r="C814" t="s">
-        <v>2186</v>
       </c>
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="B815" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C815" t="s">
         <v>1210</v>
-      </c>
-      <c r="C815" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B816" t="s">
         <v>2188</v>
       </c>
-      <c r="B816" t="s">
+      <c r="C816" t="s">
         <v>2189</v>
-      </c>
-      <c r="C816" t="s">
-        <v>2190</v>
       </c>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B817" t="s">
         <v>2191</v>
       </c>
-      <c r="B817" t="s">
+      <c r="C817" t="s">
         <v>2192</v>
-      </c>
-      <c r="C817" t="s">
-        <v>2193</v>
       </c>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B818" t="s">
         <v>2194</v>
       </c>
-      <c r="B818" t="s">
+      <c r="C818" t="s">
         <v>2195</v>
-      </c>
-      <c r="C818" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B819" t="s">
         <v>2197</v>
       </c>
-      <c r="B819" t="s">
+      <c r="C819" t="s">
         <v>2198</v>
-      </c>
-      <c r="C819" t="s">
-        <v>2199</v>
       </c>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B820" t="s">
         <v>2200</v>
       </c>
-      <c r="B820" t="s">
+      <c r="C820" t="s">
         <v>2201</v>
-      </c>
-      <c r="C820" t="s">
-        <v>2202</v>
       </c>
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B821" t="s">
         <v>2203</v>
       </c>
-      <c r="B821" t="s">
+      <c r="C821" t="s">
         <v>2204</v>
-      </c>
-      <c r="C821" t="s">
-        <v>2205</v>
       </c>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B822" t="s">
         <v>2206</v>
       </c>
-      <c r="B822" t="s">
+      <c r="C822" t="s">
         <v>2207</v>
-      </c>
-      <c r="C822" t="s">
-        <v>2208</v>
       </c>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B823" t="s">
         <v>2209</v>
       </c>
-      <c r="B823" t="s">
+      <c r="C823" t="s">
         <v>2210</v>
-      </c>
-      <c r="C823" t="s">
-        <v>2211</v>
       </c>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B824" t="s">
         <v>2212</v>
       </c>
-      <c r="B824" t="s">
+      <c r="C824" t="s">
         <v>2213</v>
-      </c>
-      <c r="C824" t="s">
-        <v>2214</v>
       </c>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B825" t="s">
         <v>2215</v>
       </c>
-      <c r="B825" t="s">
+      <c r="C825" t="s">
         <v>2216</v>
-      </c>
-      <c r="C825" t="s">
-        <v>2217</v>
       </c>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
+        <v>2217</v>
+      </c>
+      <c r="B826" t="s">
         <v>2218</v>
       </c>
-      <c r="B826" t="s">
+      <c r="C826" t="s">
         <v>2219</v>
-      </c>
-      <c r="C826" t="s">
-        <v>2220</v>
       </c>
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B827" t="s">
         <v>2221</v>
       </c>
-      <c r="B827" t="s">
+      <c r="C827" t="s">
         <v>2222</v>
-      </c>
-      <c r="C827" t="s">
-        <v>2223</v>
       </c>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B828" t="s">
         <v>2224</v>
       </c>
-      <c r="B828" t="s">
+      <c r="C828" t="s">
         <v>2225</v>
-      </c>
-      <c r="C828" t="s">
-        <v>2226</v>
       </c>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B829" t="s">
         <v>2227</v>
       </c>
-      <c r="B829" t="s">
+      <c r="C829" t="s">
         <v>2228</v>
-      </c>
-      <c r="C829" t="s">
-        <v>2229</v>
       </c>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B830" t="s">
         <v>2230</v>
       </c>
-      <c r="B830" t="s">
+      <c r="C830" t="s">
         <v>2231</v>
-      </c>
-      <c r="C830" t="s">
-        <v>2232</v>
       </c>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B831" t="s">
         <v>2233</v>
       </c>
-      <c r="B831" t="s">
+      <c r="C831" t="s">
         <v>2234</v>
-      </c>
-      <c r="C831" t="s">
-        <v>2235</v>
       </c>
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B832" t="s">
         <v>2236</v>
       </c>
-      <c r="B832" t="s">
+      <c r="C832" t="s">
         <v>2237</v>
-      </c>
-      <c r="C832" t="s">
-        <v>2238</v>
       </c>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B833" t="s">
         <v>2239</v>
       </c>
-      <c r="B833" t="s">
+      <c r="C833" t="s">
         <v>2240</v>
-      </c>
-      <c r="C833" t="s">
-        <v>2241</v>
       </c>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B834" t="s">
+        <v>2184</v>
+      </c>
+      <c r="C834" t="s">
         <v>2242</v>
-      </c>
-      <c r="B834" t="s">
-        <v>2185</v>
-      </c>
-      <c r="C834" t="s">
-        <v>2243</v>
       </c>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B835" t="s">
         <v>2244</v>
       </c>
-      <c r="B835" t="s">
+      <c r="C835" t="s">
         <v>2245</v>
-      </c>
-      <c r="C835" t="s">
-        <v>2246</v>
       </c>
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B836" t="s">
         <v>2247</v>
       </c>
-      <c r="B836" t="s">
+      <c r="C836" t="s">
         <v>2248</v>
-      </c>
-      <c r="C836" t="s">
-        <v>2249</v>
       </c>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B837" t="s">
         <v>2250</v>
       </c>
-      <c r="B837" t="s">
+      <c r="C837" t="s">
         <v>2251</v>
-      </c>
-      <c r="C837" t="s">
-        <v>2252</v>
       </c>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B838" t="s">
         <v>2253</v>
       </c>
-      <c r="B838" t="s">
+      <c r="C838" t="s">
         <v>2254</v>
-      </c>
-      <c r="C838" t="s">
-        <v>2255</v>
       </c>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
+        <v>2255</v>
+      </c>
+      <c r="B839" t="s">
         <v>2256</v>
       </c>
-      <c r="B839" t="s">
+      <c r="C839" t="s">
         <v>2257</v>
-      </c>
-      <c r="C839" t="s">
-        <v>2258</v>
       </c>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B840" t="s">
         <v>2259</v>
       </c>
-      <c r="B840" t="s">
+      <c r="C840" t="s">
         <v>2260</v>
-      </c>
-      <c r="C840" t="s">
-        <v>2261</v>
       </c>
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B841" t="s">
         <v>2262</v>
       </c>
-      <c r="B841" t="s">
-        <v>2263</v>
-      </c>
       <c r="C841" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B842" t="s">
         <v>2264</v>
       </c>
-      <c r="B842" t="s">
+      <c r="C842" t="s">
         <v>2265</v>
-      </c>
-      <c r="C842" t="s">
-        <v>2266</v>
       </c>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B843" t="s">
         <v>2267</v>
       </c>
-      <c r="B843" t="s">
+      <c r="C843" t="s">
         <v>2268</v>
-      </c>
-      <c r="C843" t="s">
-        <v>2269</v>
       </c>
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
+        <v>2269</v>
+      </c>
+      <c r="B844" t="s">
         <v>2270</v>
       </c>
-      <c r="B844" t="s">
+      <c r="C844" t="s">
         <v>2271</v>
-      </c>
-      <c r="C844" t="s">
-        <v>2272</v>
       </c>
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B845" t="s">
         <v>2273</v>
       </c>
-      <c r="B845" t="s">
+      <c r="C845" t="s">
         <v>2274</v>
-      </c>
-      <c r="C845" t="s">
-        <v>2275</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="B846" t="s">
-        <v>2585</v>
+        <v>2583</v>
       </c>
       <c r="C846" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B847" t="s">
         <v>2277</v>
       </c>
-      <c r="B847" t="s">
+      <c r="C847" t="s">
         <v>2278</v>
-      </c>
-      <c r="C847" t="s">
-        <v>2279</v>
       </c>
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B848" t="s">
         <v>2280</v>
       </c>
-      <c r="B848" t="s">
+      <c r="C848" t="s">
         <v>2281</v>
-      </c>
-      <c r="C848" t="s">
-        <v>2282</v>
       </c>
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="B849" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
       <c r="C849" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="B850" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
       <c r="C850" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="B851" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
       <c r="C851" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B852" t="s">
         <v>2286</v>
       </c>
-      <c r="B852" t="s">
+      <c r="C852" t="s">
         <v>2287</v>
-      </c>
-      <c r="C852" t="s">
-        <v>2288</v>
       </c>
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B853" t="s">
         <v>2289</v>
       </c>
-      <c r="B853" t="s">
+      <c r="C853" t="s">
         <v>2290</v>
-      </c>
-      <c r="C853" t="s">
-        <v>2291</v>
       </c>
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B854" t="s">
         <v>2292</v>
       </c>
-      <c r="B854" t="s">
+      <c r="C854" t="s">
         <v>2293</v>
-      </c>
-      <c r="C854" t="s">
-        <v>2294</v>
       </c>
     </row>
     <row r="855" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="B855" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="C855" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
+        <v>2295</v>
+      </c>
+      <c r="B856" t="s">
         <v>2296</v>
       </c>
-      <c r="B856" t="s">
+      <c r="C856" t="s">
         <v>2297</v>
-      </c>
-      <c r="C856" t="s">
-        <v>2298</v>
       </c>
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B857" t="s">
         <v>2299</v>
       </c>
-      <c r="B857" t="s">
+      <c r="C857" t="s">
         <v>2300</v>
-      </c>
-      <c r="C857" t="s">
-        <v>2301</v>
       </c>
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B858" t="s">
         <v>2302</v>
       </c>
-      <c r="B858" t="s">
+      <c r="C858" t="s">
         <v>2303</v>
-      </c>
-      <c r="C858" t="s">
-        <v>2304</v>
       </c>
     </row>
     <row r="859" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B859" t="s">
         <v>2305</v>
       </c>
-      <c r="B859" t="s">
+      <c r="C859" t="s">
         <v>2306</v>
-      </c>
-      <c r="C859" t="s">
-        <v>2307</v>
       </c>
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
+        <v>2307</v>
+      </c>
+      <c r="B860" t="s">
         <v>2308</v>
       </c>
-      <c r="B860" t="s">
+      <c r="C860" t="s">
         <v>2309</v>
-      </c>
-      <c r="C860" t="s">
-        <v>2310</v>
       </c>
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
+        <v>2310</v>
+      </c>
+      <c r="B861" t="s">
         <v>2311</v>
       </c>
-      <c r="B861" t="s">
+      <c r="C861" t="s">
         <v>2312</v>
-      </c>
-      <c r="C861" t="s">
-        <v>2313</v>
       </c>
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
+        <v>2313</v>
+      </c>
+      <c r="B862" t="s">
         <v>2314</v>
       </c>
-      <c r="B862" t="s">
+      <c r="C862" t="s">
         <v>2315</v>
-      </c>
-      <c r="C862" t="s">
-        <v>2316</v>
       </c>
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B863" t="s">
         <v>2317</v>
       </c>
-      <c r="B863" t="s">
+      <c r="C863" t="s">
         <v>2318</v>
-      </c>
-      <c r="C863" t="s">
-        <v>2319</v>
       </c>
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B864" t="s">
         <v>2320</v>
       </c>
-      <c r="B864" t="s">
+      <c r="C864" t="s">
         <v>2321</v>
-      </c>
-      <c r="C864" t="s">
-        <v>2322</v>
       </c>
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B865" t="s">
+        <v>2311</v>
+      </c>
+      <c r="C865" t="s">
         <v>2323</v>
-      </c>
-      <c r="B865" t="s">
-        <v>2312</v>
-      </c>
-      <c r="C865" t="s">
-        <v>2324</v>
       </c>
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
+        <v>2324</v>
+      </c>
+      <c r="B866" t="s">
         <v>2325</v>
       </c>
-      <c r="B866" t="s">
+      <c r="C866" t="s">
         <v>2326</v>
-      </c>
-      <c r="C866" t="s">
-        <v>2327</v>
       </c>
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B867" t="s">
         <v>2328</v>
       </c>
-      <c r="B867" t="s">
+      <c r="C867" t="s">
         <v>2329</v>
-      </c>
-      <c r="C867" t="s">
-        <v>2330</v>
       </c>
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B868" t="s">
         <v>2331</v>
       </c>
-      <c r="B868" t="s">
+      <c r="C868" t="s">
         <v>2332</v>
-      </c>
-      <c r="C868" t="s">
-        <v>2333</v>
       </c>
     </row>
     <row r="869" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B869" t="s">
         <v>2334</v>
       </c>
-      <c r="B869" t="s">
+      <c r="C869" t="s">
         <v>2335</v>
-      </c>
-      <c r="C869" t="s">
-        <v>2336</v>
       </c>
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B870" t="s">
         <v>2337</v>
       </c>
-      <c r="B870" t="s">
+      <c r="C870" t="s">
         <v>2338</v>
-      </c>
-      <c r="C870" t="s">
-        <v>2339</v>
       </c>
     </row>
     <row r="871" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
+        <v>2339</v>
+      </c>
+      <c r="B871" t="s">
         <v>2340</v>
       </c>
-      <c r="B871" t="s">
+      <c r="C871" t="s">
         <v>2341</v>
-      </c>
-      <c r="C871" t="s">
-        <v>2342</v>
       </c>
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B872" t="s">
         <v>2343</v>
       </c>
-      <c r="B872" t="s">
+      <c r="C872" t="s">
         <v>2344</v>
-      </c>
-      <c r="C872" t="s">
-        <v>2345</v>
       </c>
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
+        <v>2345</v>
+      </c>
+      <c r="B873" t="s">
         <v>2346</v>
       </c>
-      <c r="B873" t="s">
+      <c r="C873" t="s">
         <v>2347</v>
-      </c>
-      <c r="C873" t="s">
-        <v>2348</v>
       </c>
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="B874" t="s">
-        <v>2595</v>
+        <v>2593</v>
       </c>
       <c r="C874" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="875" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B875" t="s">
         <v>2350</v>
       </c>
-      <c r="B875" t="s">
+      <c r="C875" t="s">
         <v>2351</v>
-      </c>
-      <c r="C875" t="s">
-        <v>2352</v>
       </c>
     </row>
     <row r="876" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B876" t="s">
         <v>2353</v>
       </c>
-      <c r="B876" t="s">
+      <c r="C876" t="s">
         <v>2354</v>
-      </c>
-      <c r="C876" t="s">
-        <v>2355</v>
       </c>
     </row>
     <row r="877" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="B877" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="C877" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="878" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="B878" t="s">
-        <v>2599</v>
+        <v>2597</v>
       </c>
       <c r="C878" t="s">
-        <v>2600</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="879" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="B879" t="s">
-        <v>2601</v>
+        <v>2599</v>
       </c>
       <c r="C879" t="s">
-        <v>2602</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="880" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="B880" t="s">
-        <v>2603</v>
+        <v>2601</v>
       </c>
       <c r="C880" t="s">
-        <v>2604</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="B881" t="s">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="C881" t="s">
-        <v>2606</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
+        <v>2360</v>
+      </c>
+      <c r="B882" t="s">
         <v>2361</v>
       </c>
-      <c r="B882" t="s">
+      <c r="C882" t="s">
         <v>2362</v>
-      </c>
-      <c r="C882" t="s">
-        <v>2363</v>
       </c>
     </row>
     <row r="883" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B883" t="s">
         <v>2364</v>
       </c>
-      <c r="B883" t="s">
+      <c r="C883" t="s">
         <v>2365</v>
-      </c>
-      <c r="C883" t="s">
-        <v>2366</v>
       </c>
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
+        <v>2366</v>
+      </c>
+      <c r="B884" t="s">
         <v>2367</v>
       </c>
-      <c r="B884" t="s">
+      <c r="C884" t="s">
         <v>2368</v>
-      </c>
-      <c r="C884" t="s">
-        <v>2369</v>
       </c>
     </row>
     <row r="885" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B885" t="s">
         <v>2370</v>
       </c>
-      <c r="B885" t="s">
+      <c r="C885" t="s">
         <v>2371</v>
-      </c>
-      <c r="C885" t="s">
-        <v>2372</v>
       </c>
     </row>
     <row r="886" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B886" t="s">
         <v>2373</v>
       </c>
-      <c r="B886" t="s">
+      <c r="C886" t="s">
         <v>2374</v>
-      </c>
-      <c r="C886" t="s">
-        <v>2375</v>
       </c>
     </row>
     <row r="888" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A888" s="2" t="s">
+        <v>2605</v>
+      </c>
+      <c r="B888" s="2" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C888" s="2" t="s">
         <v>2607</v>
-      </c>
-      <c r="B888" s="2" t="s">
-        <v>2608</v>
-      </c>
-      <c r="C888" s="2" t="s">
-        <v>2609</v>
       </c>
     </row>
     <row r="889" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A889" s="2" t="s">
+        <v>2608</v>
+      </c>
+      <c r="B889" s="2" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C889" s="2" t="s">
         <v>2610</v>
-      </c>
-      <c r="B889" s="2" t="s">
-        <v>2611</v>
-      </c>
-      <c r="C889" s="2" t="s">
-        <v>2612</v>
       </c>
     </row>
     <row r="890" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A890" s="2" t="s">
+        <v>2611</v>
+      </c>
+      <c r="B890" s="2" t="s">
+        <v>2612</v>
+      </c>
+      <c r="C890" s="2" t="s">
         <v>2613</v>
-      </c>
-      <c r="B890" s="2" t="s">
-        <v>2614</v>
-      </c>
-      <c r="C890" s="2" t="s">
-        <v>2615</v>
       </c>
     </row>
     <row r="891" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A891" s="2" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B891" s="2" t="s">
+        <v>2615</v>
+      </c>
+      <c r="C891" s="2" t="s">
         <v>2616</v>
-      </c>
-      <c r="B891" s="2" t="s">
-        <v>2617</v>
-      </c>
-      <c r="C891" s="2" t="s">
-        <v>2618</v>
       </c>
     </row>
     <row r="892" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A892" s="2" t="s">
+        <v>2617</v>
+      </c>
+      <c r="B892" s="2" t="s">
+        <v>2618</v>
+      </c>
+      <c r="C892" s="2" t="s">
         <v>2619</v>
-      </c>
-      <c r="B892" s="2" t="s">
-        <v>2620</v>
-      </c>
-      <c r="C892" s="2" t="s">
-        <v>2621</v>
       </c>
     </row>
     <row r="893" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A893" s="2" t="s">
-        <v>2622</v>
+        <v>2620</v>
       </c>
       <c r="B893" s="2" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
       <c r="C893" s="2" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="894" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A894" s="2" t="s">
+        <v>2621</v>
+      </c>
+      <c r="B894" s="3" t="s">
+        <v>2622</v>
+      </c>
+      <c r="C894" s="2" t="s">
         <v>2623</v>
-      </c>
-      <c r="B894" s="3" t="s">
-        <v>2624</v>
-      </c>
-      <c r="C894" s="2" t="s">
-        <v>2625</v>
       </c>
     </row>
     <row r="895" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A895" s="2" t="s">
+        <v>2624</v>
+      </c>
+      <c r="B895" s="3" t="s">
+        <v>2625</v>
+      </c>
+      <c r="C895" s="2" t="s">
         <v>2626</v>
-      </c>
-      <c r="B895" s="3" t="s">
-        <v>2627</v>
-      </c>
-      <c r="C895" s="2" t="s">
-        <v>2628</v>
       </c>
     </row>
     <row r="896" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A896" s="2" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B896" s="2" t="s">
+        <v>2628</v>
+      </c>
+      <c r="C896" s="2" t="s">
         <v>2629</v>
-      </c>
-      <c r="B896" s="2" t="s">
-        <v>2630</v>
-      </c>
-      <c r="C896" s="2" t="s">
-        <v>2631</v>
       </c>
     </row>
     <row r="897" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A897" s="3" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
       <c r="B897" s="2" t="s">
         <v>822</v>
       </c>
       <c r="C897" s="2" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="898" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A898" s="4" t="s">
+        <v>2634</v>
+      </c>
+      <c r="B898" s="4" t="s">
         <v>2636</v>
       </c>
-      <c r="B898" s="4" t="s">
-        <v>2638</v>
-      </c>
       <c r="C898" s="4" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
     </row>
   </sheetData>

--- a/Client/WebClient/lang/fibertest_strings.xlsx
+++ b/Client/WebClient/lang/fibertest_strings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VSProjects\Fibertest\Client\WebClient\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AECC97-52A7-46B2-949A-754AFAD6A18F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E10D062-479F-4BE8-B392-6C7E6193C2B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2691" uniqueCount="2639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="2644">
   <si>
     <t>Name</t>
   </si>
@@ -7941,13 +7941,28 @@
   </si>
   <si>
     <t>State at {{0}} (ID {{1}})</t>
+  </si>
+  <si>
+    <t>Attach optical switch</t>
+  </si>
+  <si>
+    <t>Optical switch's IP address</t>
+  </si>
+  <si>
+    <t>SID_Optical_switch_s_IP_address</t>
+  </si>
+  <si>
+    <t>Подключить оптический переключатель</t>
+  </si>
+  <si>
+    <t>IP адрес оптического переключателя</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -7964,6 +7979,12 @@
       <color rgb="FF000000"/>
       <name val="Consolas"/>
       <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -7988,7 +8009,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -7996,6 +8017,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8339,10 +8364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C898"/>
+  <dimension ref="A1:C900"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="A419" sqref="A419"/>
+    <sheetView tabSelected="1" topLeftCell="A874" workbookViewId="0">
+      <selection activeCell="C901" sqref="C901"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18219,7 +18244,30 @@
         <v>2635</v>
       </c>
     </row>
+    <row r="899" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A899" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B899" s="5" t="s">
+        <v>2639</v>
+      </c>
+      <c r="C899" s="6" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="900" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A900" s="5" t="s">
+        <v>2641</v>
+      </c>
+      <c r="B900" s="5" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C900" s="6" t="s">
+        <v>2643</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Client/WebClient/lang/fibertest_strings.xlsx
+++ b/Client/WebClient/lang/fibertest_strings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VSProjects\Fibertest\Client\WebClient\lang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VsGitProjects\Fibertest\Client\WebClient\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E10D062-479F-4BE8-B392-6C7E6193C2B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E492B819-230E-428F-95CC-E605FE9A6EC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24495" yWindow="1830" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fibertest" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="2644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="2650">
   <si>
     <t>Name</t>
   </si>
@@ -7956,13 +7956,31 @@
   </si>
   <si>
     <t>IP адрес оптического переключателя</t>
+  </si>
+  <si>
+    <t>SID_Web_Client_software_version</t>
+  </si>
+  <si>
+    <t>Web-Client software version</t>
+  </si>
+  <si>
+    <t>Версия ПО WebClient</t>
+  </si>
+  <si>
+    <t>SID_Web_Api_software_version</t>
+  </si>
+  <si>
+    <t>Web API software version</t>
+  </si>
+  <si>
+    <t>Верия ПО Web API</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -7987,6 +8005,12 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -8009,7 +8033,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -8021,6 +8045,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8364,20 +8391,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C900"/>
+  <dimension ref="A1:C902"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A874" workbookViewId="0">
-      <selection activeCell="C901" sqref="C901"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="69" customWidth="1"/>
     <col min="2" max="2" width="58.42578125" customWidth="1"/>
     <col min="3" max="3" width="76.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8388,7 +8415,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8399,7 +8426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -8410,7 +8437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -8421,7 +8448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -8432,7 +8459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -8443,7 +8470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -8454,7 +8481,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -8465,7 +8492,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -8476,7 +8503,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -8487,7 +8514,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -8498,7 +8525,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -8509,7 +8536,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -8520,7 +8547,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -8531,7 +8558,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -8542,7 +8569,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -8553,7 +8580,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -8564,7 +8591,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -8575,7 +8602,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -8586,7 +8613,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -8597,7 +8624,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -8608,7 +8635,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -8619,7 +8646,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -8630,7 +8657,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -8641,7 +8668,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -8652,7 +8679,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -8663,7 +8690,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -8674,7 +8701,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -8685,7 +8712,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>82</v>
       </c>
@@ -8696,7 +8723,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>85</v>
       </c>
@@ -8707,7 +8734,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>88</v>
       </c>
@@ -8718,7 +8745,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>91</v>
       </c>
@@ -8729,7 +8756,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>94</v>
       </c>
@@ -8740,7 +8767,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>97</v>
       </c>
@@ -8751,7 +8778,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>100</v>
       </c>
@@ -8762,7 +8789,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>103</v>
       </c>
@@ -8773,7 +8800,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>106</v>
       </c>
@@ -8784,7 +8811,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>109</v>
       </c>
@@ -8795,7 +8822,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>112</v>
       </c>
@@ -8806,7 +8833,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>115</v>
       </c>
@@ -8817,7 +8844,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>118</v>
       </c>
@@ -8828,7 +8855,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>119</v>
       </c>
@@ -8839,7 +8866,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>122</v>
       </c>
@@ -8850,7 +8877,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>125</v>
       </c>
@@ -8861,7 +8888,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>126</v>
       </c>
@@ -8872,7 +8899,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>127</v>
       </c>
@@ -8883,7 +8910,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>130</v>
       </c>
@@ -8894,7 +8921,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>133</v>
       </c>
@@ -8905,7 +8932,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>136</v>
       </c>
@@ -8916,7 +8943,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>139</v>
       </c>
@@ -8927,7 +8954,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>142</v>
       </c>
@@ -8938,7 +8965,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>145</v>
       </c>
@@ -8949,7 +8976,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>148</v>
       </c>
@@ -8960,7 +8987,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>151</v>
       </c>
@@ -8971,7 +8998,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>154</v>
       </c>
@@ -8982,7 +9009,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>157</v>
       </c>
@@ -8993,7 +9020,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>160</v>
       </c>
@@ -9004,7 +9031,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>163</v>
       </c>
@@ -9015,7 +9042,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>166</v>
       </c>
@@ -9026,7 +9053,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>169</v>
       </c>
@@ -9037,7 +9064,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>172</v>
       </c>
@@ -9048,7 +9075,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>175</v>
       </c>
@@ -9059,7 +9086,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>178</v>
       </c>
@@ -9070,7 +9097,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>181</v>
       </c>
@@ -9081,7 +9108,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>184</v>
       </c>
@@ -9092,7 +9119,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>187</v>
       </c>
@@ -9103,7 +9130,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>190</v>
       </c>
@@ -9114,7 +9141,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>191</v>
       </c>
@@ -9125,7 +9152,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>194</v>
       </c>
@@ -9136,7 +9163,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>197</v>
       </c>
@@ -9147,7 +9174,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>200</v>
       </c>
@@ -9158,7 +9185,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>203</v>
       </c>
@@ -9169,7 +9196,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>206</v>
       </c>
@@ -9180,7 +9207,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>209</v>
       </c>
@@ -9191,7 +9218,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>212</v>
       </c>
@@ -9202,7 +9229,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>215</v>
       </c>
@@ -9213,7 +9240,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>218</v>
       </c>
@@ -9224,7 +9251,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>221</v>
       </c>
@@ -9235,7 +9262,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>224</v>
       </c>
@@ -9246,7 +9273,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>227</v>
       </c>
@@ -9257,7 +9284,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>230</v>
       </c>
@@ -9268,7 +9295,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>233</v>
       </c>
@@ -9279,7 +9306,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>236</v>
       </c>
@@ -9290,7 +9317,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>239</v>
       </c>
@@ -9301,7 +9328,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>242</v>
       </c>
@@ -9312,7 +9339,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>245</v>
       </c>
@@ -9323,7 +9350,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>248</v>
       </c>
@@ -9334,7 +9361,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>251</v>
       </c>
@@ -9345,7 +9372,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>254</v>
       </c>
@@ -9356,7 +9383,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>257</v>
       </c>
@@ -9367,7 +9394,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>260</v>
       </c>
@@ -9378,7 +9405,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>263</v>
       </c>
@@ -9389,7 +9416,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>266</v>
       </c>
@@ -9400,7 +9427,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>269</v>
       </c>
@@ -9411,7 +9438,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>272</v>
       </c>
@@ -9422,7 +9449,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>275</v>
       </c>
@@ -9433,7 +9460,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>278</v>
       </c>
@@ -9444,7 +9471,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>281</v>
       </c>
@@ -9455,7 +9482,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>284</v>
       </c>
@@ -9466,7 +9493,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>287</v>
       </c>
@@ -9477,7 +9504,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>290</v>
       </c>
@@ -9488,7 +9515,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>293</v>
       </c>
@@ -9499,7 +9526,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>296</v>
       </c>
@@ -9510,7 +9537,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>299</v>
       </c>
@@ -9521,7 +9548,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>302</v>
       </c>
@@ -9532,7 +9559,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>305</v>
       </c>
@@ -9543,7 +9570,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>308</v>
       </c>
@@ -9554,7 +9581,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>311</v>
       </c>
@@ -9565,7 +9592,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>314</v>
       </c>
@@ -9576,7 +9603,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>317</v>
       </c>
@@ -9587,7 +9614,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>320</v>
       </c>
@@ -9598,7 +9625,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>323</v>
       </c>
@@ -9609,7 +9636,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>326</v>
       </c>
@@ -9620,7 +9647,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>329</v>
       </c>
@@ -9631,7 +9658,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>332</v>
       </c>
@@ -9642,7 +9669,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>335</v>
       </c>
@@ -9653,7 +9680,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>338</v>
       </c>
@@ -9664,7 +9691,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>341</v>
       </c>
@@ -9675,7 +9702,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>344</v>
       </c>
@@ -9686,7 +9713,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>347</v>
       </c>
@@ -9697,7 +9724,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>350</v>
       </c>
@@ -9708,7 +9735,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>353</v>
       </c>
@@ -9719,7 +9746,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>354</v>
       </c>
@@ -9730,7 +9757,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>355</v>
       </c>
@@ -9741,7 +9768,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>358</v>
       </c>
@@ -9752,7 +9779,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>361</v>
       </c>
@@ -9763,7 +9790,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>363</v>
       </c>
@@ -9774,7 +9801,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>366</v>
       </c>
@@ -9785,7 +9812,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>369</v>
       </c>
@@ -9796,7 +9823,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>372</v>
       </c>
@@ -9807,7 +9834,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>375</v>
       </c>
@@ -9818,7 +9845,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>378</v>
       </c>
@@ -9829,7 +9856,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>381</v>
       </c>
@@ -9840,7 +9867,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>384</v>
       </c>
@@ -9851,7 +9878,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>387</v>
       </c>
@@ -9862,7 +9889,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>390</v>
       </c>
@@ -9873,7 +9900,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>393</v>
       </c>
@@ -9884,7 +9911,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>396</v>
       </c>
@@ -9895,7 +9922,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>399</v>
       </c>
@@ -9906,7 +9933,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>402</v>
       </c>
@@ -9917,8 +9944,8 @@
         <v>404</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    <row r="141" spans="1:3">
+      <c r="A141" s="6" t="s">
         <v>405</v>
       </c>
       <c r="B141" t="s">
@@ -9928,7 +9955,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>408</v>
       </c>
@@ -9939,7 +9966,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>411</v>
       </c>
@@ -9950,7 +9977,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>414</v>
       </c>
@@ -9961,7 +9988,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>417</v>
       </c>
@@ -9972,7 +9999,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>420</v>
       </c>
@@ -9983,7 +10010,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>423</v>
       </c>
@@ -9994,7 +10021,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>426</v>
       </c>
@@ -10005,7 +10032,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
         <v>429</v>
       </c>
@@ -10016,7 +10043,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
         <v>432</v>
       </c>
@@ -10027,7 +10054,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>435</v>
       </c>
@@ -10038,7 +10065,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
         <v>437</v>
       </c>
@@ -10049,7 +10076,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
         <v>439</v>
       </c>
@@ -10060,7 +10087,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>441</v>
       </c>
@@ -10071,7 +10098,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
         <v>444</v>
       </c>
@@ -10082,7 +10109,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
         <v>446</v>
       </c>
@@ -10093,7 +10120,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
         <v>449</v>
       </c>
@@ -10104,7 +10131,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
         <v>450</v>
       </c>
@@ -10115,7 +10142,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
         <v>453</v>
       </c>
@@ -10126,7 +10153,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
         <v>456</v>
       </c>
@@ -10137,7 +10164,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>458</v>
       </c>
@@ -10148,7 +10175,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>461</v>
       </c>
@@ -10159,7 +10186,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>463</v>
       </c>
@@ -10170,7 +10197,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>466</v>
       </c>
@@ -10181,7 +10208,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>469</v>
       </c>
@@ -10192,7 +10219,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>472</v>
       </c>
@@ -10203,7 +10230,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>475</v>
       </c>
@@ -10214,7 +10241,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>478</v>
       </c>
@@ -10225,7 +10252,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>481</v>
       </c>
@@ -10236,7 +10263,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>484</v>
       </c>
@@ -10247,7 +10274,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
         <v>487</v>
       </c>
@@ -10258,7 +10285,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
         <v>490</v>
       </c>
@@ -10269,7 +10296,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>493</v>
       </c>
@@ -10280,7 +10307,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>496</v>
       </c>
@@ -10291,7 +10318,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
         <v>499</v>
       </c>
@@ -10302,7 +10329,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
         <v>502</v>
       </c>
@@ -10313,7 +10340,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>505</v>
       </c>
@@ -10324,7 +10351,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
         <v>508</v>
       </c>
@@ -10335,7 +10362,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
         <v>511</v>
       </c>
@@ -10346,7 +10373,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>512</v>
       </c>
@@ -10357,7 +10384,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
         <v>515</v>
       </c>
@@ -10368,7 +10395,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
         <v>518</v>
       </c>
@@ -10379,7 +10406,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
         <v>521</v>
       </c>
@@ -10390,7 +10417,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
         <v>524</v>
       </c>
@@ -10401,7 +10428,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
         <v>527</v>
       </c>
@@ -10412,7 +10439,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
         <v>530</v>
       </c>
@@ -10423,7 +10450,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
         <v>533</v>
       </c>
@@ -10434,7 +10461,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
         <v>536</v>
       </c>
@@ -10445,7 +10472,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
         <v>539</v>
       </c>
@@ -10456,7 +10483,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
         <v>542</v>
       </c>
@@ -10467,7 +10494,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
         <v>545</v>
       </c>
@@ -10478,7 +10505,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
         <v>548</v>
       </c>
@@ -10489,7 +10516,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
         <v>551</v>
       </c>
@@ -10500,7 +10527,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
         <v>554</v>
       </c>
@@ -10511,7 +10538,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
         <v>557</v>
       </c>
@@ -10522,7 +10549,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
         <v>560</v>
       </c>
@@ -10533,7 +10560,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
         <v>563</v>
       </c>
@@ -10544,7 +10571,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
         <v>566</v>
       </c>
@@ -10555,7 +10582,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
         <v>569</v>
       </c>
@@ -10566,7 +10593,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3">
       <c r="A200" t="s">
         <v>572</v>
       </c>
@@ -10577,7 +10604,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3">
       <c r="A201" t="s">
         <v>575</v>
       </c>
@@ -10588,7 +10615,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3">
       <c r="A202" t="s">
         <v>578</v>
       </c>
@@ -10599,7 +10626,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3">
       <c r="A203" t="s">
         <v>581</v>
       </c>
@@ -10610,7 +10637,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3">
       <c r="A204" t="s">
         <v>584</v>
       </c>
@@ -10621,7 +10648,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3">
       <c r="A205" t="s">
         <v>587</v>
       </c>
@@ -10632,7 +10659,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3">
       <c r="A206" t="s">
         <v>590</v>
       </c>
@@ -10643,7 +10670,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3">
       <c r="A207" t="s">
         <v>593</v>
       </c>
@@ -10654,7 +10681,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3">
       <c r="A208" t="s">
         <v>596</v>
       </c>
@@ -10665,7 +10692,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3">
       <c r="A209" t="s">
         <v>599</v>
       </c>
@@ -10676,7 +10703,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3">
       <c r="A210" t="s">
         <v>602</v>
       </c>
@@ -10687,7 +10714,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3">
       <c r="A211" t="s">
         <v>605</v>
       </c>
@@ -10698,7 +10725,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3">
       <c r="A212" t="s">
         <v>608</v>
       </c>
@@ -10709,7 +10736,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3">
       <c r="A213" t="s">
         <v>611</v>
       </c>
@@ -10720,7 +10747,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3">
       <c r="A214" t="s">
         <v>612</v>
       </c>
@@ -10731,7 +10758,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3">
       <c r="A215" t="s">
         <v>615</v>
       </c>
@@ -10742,7 +10769,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3">
       <c r="A216" t="s">
         <v>618</v>
       </c>
@@ -10753,7 +10780,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3">
       <c r="A217" t="s">
         <v>621</v>
       </c>
@@ -10764,7 +10791,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3">
       <c r="A218" t="s">
         <v>624</v>
       </c>
@@ -10775,7 +10802,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3">
       <c r="A219" t="s">
         <v>627</v>
       </c>
@@ -10786,7 +10813,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3">
       <c r="A220" t="s">
         <v>630</v>
       </c>
@@ -10797,7 +10824,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3">
       <c r="A221" t="s">
         <v>631</v>
       </c>
@@ -10808,7 +10835,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3">
       <c r="A222" t="s">
         <v>634</v>
       </c>
@@ -10819,7 +10846,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3">
       <c r="A223" t="s">
         <v>637</v>
       </c>
@@ -10830,7 +10857,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3">
       <c r="A224" t="s">
         <v>640</v>
       </c>
@@ -10841,7 +10868,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3">
       <c r="A225" t="s">
         <v>641</v>
       </c>
@@ -10852,7 +10879,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3">
       <c r="A226" t="s">
         <v>642</v>
       </c>
@@ -10863,7 +10890,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3">
       <c r="A227" t="s">
         <v>645</v>
       </c>
@@ -10874,7 +10901,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3">
       <c r="A228" t="s">
         <v>648</v>
       </c>
@@ -10885,7 +10912,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3">
       <c r="A229" t="s">
         <v>651</v>
       </c>
@@ -10896,7 +10923,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3">
       <c r="A230" t="s">
         <v>652</v>
       </c>
@@ -10907,7 +10934,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3">
       <c r="A231" t="s">
         <v>653</v>
       </c>
@@ -10918,7 +10945,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3">
       <c r="A232" t="s">
         <v>656</v>
       </c>
@@ -10929,7 +10956,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3">
       <c r="A233" t="s">
         <v>658</v>
       </c>
@@ -10940,7 +10967,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3">
       <c r="A234" t="s">
         <v>659</v>
       </c>
@@ -10951,7 +10978,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3">
       <c r="A235" t="s">
         <v>661</v>
       </c>
@@ -10962,7 +10989,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3">
       <c r="A236" t="s">
         <v>663</v>
       </c>
@@ -10973,7 +11000,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3">
       <c r="A237" t="s">
         <v>665</v>
       </c>
@@ -10984,7 +11011,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3">
       <c r="A238" t="s">
         <v>666</v>
       </c>
@@ -10995,7 +11022,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3">
       <c r="A239" t="s">
         <v>667</v>
       </c>
@@ -11006,7 +11033,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3">
       <c r="A240" t="s">
         <v>668</v>
       </c>
@@ -11017,7 +11044,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3">
       <c r="A241" t="s">
         <v>671</v>
       </c>
@@ -11028,7 +11055,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3">
       <c r="A242" t="s">
         <v>673</v>
       </c>
@@ -11039,7 +11066,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3">
       <c r="A243" t="s">
         <v>675</v>
       </c>
@@ -11050,7 +11077,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3">
       <c r="A244" t="s">
         <v>676</v>
       </c>
@@ -11061,7 +11088,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3">
       <c r="A245" t="s">
         <v>679</v>
       </c>
@@ -11072,7 +11099,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3">
       <c r="A246" t="s">
         <v>682</v>
       </c>
@@ -11083,7 +11110,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3">
       <c r="A247" t="s">
         <v>685</v>
       </c>
@@ -11094,7 +11121,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3">
       <c r="A248" t="s">
         <v>688</v>
       </c>
@@ -11105,7 +11132,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3">
       <c r="A249" t="s">
         <v>691</v>
       </c>
@@ -11116,7 +11143,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3">
       <c r="A250" t="s">
         <v>694</v>
       </c>
@@ -11127,7 +11154,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3">
       <c r="A251" t="s">
         <v>697</v>
       </c>
@@ -11138,7 +11165,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3">
       <c r="A252" t="s">
         <v>700</v>
       </c>
@@ -11149,7 +11176,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3">
       <c r="A253" t="s">
         <v>703</v>
       </c>
@@ -11160,7 +11187,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3">
       <c r="A254" t="s">
         <v>706</v>
       </c>
@@ -11171,7 +11198,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3">
       <c r="A255" t="s">
         <v>709</v>
       </c>
@@ -11182,7 +11209,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3">
       <c r="A256" t="s">
         <v>712</v>
       </c>
@@ -11193,7 +11220,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3">
       <c r="A257" t="s">
         <v>715</v>
       </c>
@@ -11204,7 +11231,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3">
       <c r="A258" t="s">
         <v>718</v>
       </c>
@@ -11215,7 +11242,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3">
       <c r="A259" t="s">
         <v>721</v>
       </c>
@@ -11226,7 +11253,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3">
       <c r="A260" t="s">
         <v>724</v>
       </c>
@@ -11237,7 +11264,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3">
       <c r="A261" t="s">
         <v>727</v>
       </c>
@@ -11248,7 +11275,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3">
       <c r="A262" t="s">
         <v>730</v>
       </c>
@@ -11259,7 +11286,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3">
       <c r="A263" t="s">
         <v>731</v>
       </c>
@@ -11270,7 +11297,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3">
       <c r="A264" t="s">
         <v>732</v>
       </c>
@@ -11281,7 +11308,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3">
       <c r="A265" t="s">
         <v>733</v>
       </c>
@@ -11292,7 +11319,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3">
       <c r="A266" t="s">
         <v>734</v>
       </c>
@@ -11303,7 +11330,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3">
       <c r="A267" t="s">
         <v>737</v>
       </c>
@@ -11314,7 +11341,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3">
       <c r="A268" t="s">
         <v>740</v>
       </c>
@@ -11325,7 +11352,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3">
       <c r="A269" t="s">
         <v>743</v>
       </c>
@@ -11336,7 +11363,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3">
       <c r="A270" t="s">
         <v>746</v>
       </c>
@@ -11347,7 +11374,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3">
       <c r="A271" t="s">
         <v>749</v>
       </c>
@@ -11358,7 +11385,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3">
       <c r="A272" t="s">
         <v>752</v>
       </c>
@@ -11369,7 +11396,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3">
       <c r="A273" t="s">
         <v>755</v>
       </c>
@@ -11380,7 +11407,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3">
       <c r="A274" t="s">
         <v>756</v>
       </c>
@@ -11391,7 +11418,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3">
       <c r="A275" t="s">
         <v>757</v>
       </c>
@@ -11402,7 +11429,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3">
       <c r="A276" t="s">
         <v>758</v>
       </c>
@@ -11413,7 +11440,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3">
       <c r="A277" t="s">
         <v>761</v>
       </c>
@@ -11424,7 +11451,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3">
       <c r="A278" t="s">
         <v>764</v>
       </c>
@@ -11435,7 +11462,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3">
       <c r="A279" t="s">
         <v>767</v>
       </c>
@@ -11446,7 +11473,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3">
       <c r="A280" t="s">
         <v>770</v>
       </c>
@@ -11457,7 +11484,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3">
       <c r="A281" t="s">
         <v>773</v>
       </c>
@@ -11468,7 +11495,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3">
       <c r="A282" t="s">
         <v>776</v>
       </c>
@@ -11479,7 +11506,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3">
       <c r="A283" t="s">
         <v>779</v>
       </c>
@@ -11490,7 +11517,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3">
       <c r="A284" t="s">
         <v>782</v>
       </c>
@@ -11501,7 +11528,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3">
       <c r="A285" t="s">
         <v>785</v>
       </c>
@@ -11512,7 +11539,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3">
       <c r="A286" t="s">
         <v>788</v>
       </c>
@@ -11523,7 +11550,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3">
       <c r="A287" t="s">
         <v>791</v>
       </c>
@@ -11534,7 +11561,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3">
       <c r="A288" t="s">
         <v>794</v>
       </c>
@@ -11545,7 +11572,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3">
       <c r="A289" t="s">
         <v>797</v>
       </c>
@@ -11556,7 +11583,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3">
       <c r="A290" t="s">
         <v>800</v>
       </c>
@@ -11567,7 +11594,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3">
       <c r="A291" t="s">
         <v>803</v>
       </c>
@@ -11578,7 +11605,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3">
       <c r="A292" t="s">
         <v>806</v>
       </c>
@@ -11589,7 +11616,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3">
       <c r="A293" t="s">
         <v>809</v>
       </c>
@@ -11600,7 +11627,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3">
       <c r="A294" t="s">
         <v>812</v>
       </c>
@@ -11611,7 +11638,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3">
       <c r="A295" t="s">
         <v>815</v>
       </c>
@@ -11622,7 +11649,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3">
       <c r="A296" t="s">
         <v>818</v>
       </c>
@@ -11633,7 +11660,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3">
       <c r="A297" t="s">
         <v>821</v>
       </c>
@@ -11644,7 +11671,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3">
       <c r="A298" t="s">
         <v>824</v>
       </c>
@@ -11655,7 +11682,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3">
       <c r="A299" t="s">
         <v>827</v>
       </c>
@@ -11666,7 +11693,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3">
       <c r="A300" t="s">
         <v>830</v>
       </c>
@@ -11677,7 +11704,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3">
       <c r="A301" t="s">
         <v>833</v>
       </c>
@@ -11688,7 +11715,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3">
       <c r="A302" t="s">
         <v>836</v>
       </c>
@@ -11699,7 +11726,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3">
       <c r="A303" t="s">
         <v>837</v>
       </c>
@@ -11710,7 +11737,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3">
       <c r="A304" t="s">
         <v>838</v>
       </c>
@@ -11721,7 +11748,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3">
       <c r="A305" t="s">
         <v>841</v>
       </c>
@@ -11732,7 +11759,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3">
       <c r="A306" t="s">
         <v>844</v>
       </c>
@@ -11743,7 +11770,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3">
       <c r="A307" t="s">
         <v>847</v>
       </c>
@@ -11754,7 +11781,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3">
       <c r="A308" t="s">
         <v>850</v>
       </c>
@@ -11765,7 +11792,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3">
       <c r="A309" t="s">
         <v>853</v>
       </c>
@@ -11776,7 +11803,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3">
       <c r="A310" t="s">
         <v>856</v>
       </c>
@@ -11787,7 +11814,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3">
       <c r="A311" t="s">
         <v>859</v>
       </c>
@@ -11798,7 +11825,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3">
       <c r="A312" t="s">
         <v>860</v>
       </c>
@@ -11809,7 +11836,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3">
       <c r="A313" t="s">
         <v>861</v>
       </c>
@@ -11820,7 +11847,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3">
       <c r="A314" t="s">
         <v>862</v>
       </c>
@@ -11831,7 +11858,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3">
       <c r="A315" t="s">
         <v>863</v>
       </c>
@@ -11842,7 +11869,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3">
       <c r="A316" t="s">
         <v>864</v>
       </c>
@@ -11853,7 +11880,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3">
       <c r="A317" t="s">
         <v>867</v>
       </c>
@@ -11864,7 +11891,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3">
       <c r="A318" t="s">
         <v>870</v>
       </c>
@@ -11875,7 +11902,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3">
       <c r="A319" t="s">
         <v>873</v>
       </c>
@@ -11886,7 +11913,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3">
       <c r="A320" t="s">
         <v>876</v>
       </c>
@@ -11897,7 +11924,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3">
       <c r="A321" t="s">
         <v>879</v>
       </c>
@@ -11908,7 +11935,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3">
       <c r="A322" t="s">
         <v>882</v>
       </c>
@@ -11919,7 +11946,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3">
       <c r="A323" t="s">
         <v>885</v>
       </c>
@@ -11930,7 +11957,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3">
       <c r="A324" t="s">
         <v>888</v>
       </c>
@@ -11941,7 +11968,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3">
       <c r="A325" t="s">
         <v>891</v>
       </c>
@@ -11952,7 +11979,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3">
       <c r="A326" t="s">
         <v>894</v>
       </c>
@@ -11963,7 +11990,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3">
       <c r="A327" t="s">
         <v>895</v>
       </c>
@@ -11974,7 +12001,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3">
       <c r="A328" t="s">
         <v>898</v>
       </c>
@@ -11985,7 +12012,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3">
       <c r="A329" t="s">
         <v>901</v>
       </c>
@@ -11996,7 +12023,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3">
       <c r="A330" t="s">
         <v>904</v>
       </c>
@@ -12007,7 +12034,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3">
       <c r="A331" t="s">
         <v>905</v>
       </c>
@@ -12018,7 +12045,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3">
       <c r="A332" t="s">
         <v>908</v>
       </c>
@@ -12029,7 +12056,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3">
       <c r="A333" t="s">
         <v>909</v>
       </c>
@@ -12040,7 +12067,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3">
       <c r="A334" t="s">
         <v>912</v>
       </c>
@@ -12051,7 +12078,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3">
       <c r="A335" t="s">
         <v>915</v>
       </c>
@@ -12062,7 +12089,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3">
       <c r="A336" t="s">
         <v>918</v>
       </c>
@@ -12073,7 +12100,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3">
       <c r="A337" t="s">
         <v>921</v>
       </c>
@@ -12084,7 +12111,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3">
       <c r="A338" t="s">
         <v>924</v>
       </c>
@@ -12095,7 +12122,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3">
       <c r="A339" t="s">
         <v>927</v>
       </c>
@@ -12106,7 +12133,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3">
       <c r="A340" t="s">
         <v>930</v>
       </c>
@@ -12117,7 +12144,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3">
       <c r="A341" t="s">
         <v>933</v>
       </c>
@@ -12128,7 +12155,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3">
       <c r="A342" t="s">
         <v>936</v>
       </c>
@@ -12139,7 +12166,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3">
       <c r="A343" t="s">
         <v>939</v>
       </c>
@@ -12150,7 +12177,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3">
       <c r="A344" t="s">
         <v>942</v>
       </c>
@@ -12161,7 +12188,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3">
       <c r="A345" t="s">
         <v>945</v>
       </c>
@@ -12172,7 +12199,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3">
       <c r="A346" t="s">
         <v>948</v>
       </c>
@@ -12183,7 +12210,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3">
       <c r="A347" t="s">
         <v>951</v>
       </c>
@@ -12194,7 +12221,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3">
       <c r="A348" t="s">
         <v>954</v>
       </c>
@@ -12205,7 +12232,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3">
       <c r="A349" t="s">
         <v>957</v>
       </c>
@@ -12216,7 +12243,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3">
       <c r="A350" t="s">
         <v>960</v>
       </c>
@@ -12227,7 +12254,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3">
       <c r="A351" t="s">
         <v>962</v>
       </c>
@@ -12238,7 +12265,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3">
       <c r="A352" t="s">
         <v>965</v>
       </c>
@@ -12249,7 +12276,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3">
       <c r="A353" t="s">
         <v>968</v>
       </c>
@@ -12260,7 +12287,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3">
       <c r="A354" t="s">
         <v>971</v>
       </c>
@@ -12271,7 +12298,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3">
       <c r="A355" t="s">
         <v>974</v>
       </c>
@@ -12282,7 +12309,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3">
       <c r="A356" t="s">
         <v>977</v>
       </c>
@@ -12293,7 +12320,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3">
       <c r="A357" t="s">
         <v>980</v>
       </c>
@@ -12304,7 +12331,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3">
       <c r="A358" t="s">
         <v>983</v>
       </c>
@@ -12315,7 +12342,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3">
       <c r="A359" t="s">
         <v>986</v>
       </c>
@@ -12326,7 +12353,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3">
       <c r="A360" t="s">
         <v>989</v>
       </c>
@@ -12337,7 +12364,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3">
       <c r="A361" t="s">
         <v>992</v>
       </c>
@@ -12348,7 +12375,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3">
       <c r="A362" t="s">
         <v>995</v>
       </c>
@@ -12359,7 +12386,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3">
       <c r="A363" t="s">
         <v>998</v>
       </c>
@@ -12370,7 +12397,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3">
       <c r="A364" t="s">
         <v>1001</v>
       </c>
@@ -12381,7 +12408,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3">
       <c r="A365" t="s">
         <v>1004</v>
       </c>
@@ -12392,7 +12419,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3">
       <c r="A366" t="s">
         <v>1007</v>
       </c>
@@ -12403,7 +12430,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3">
       <c r="A367" t="s">
         <v>1010</v>
       </c>
@@ -12414,7 +12441,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3">
       <c r="A368" t="s">
         <v>1013</v>
       </c>
@@ -12425,7 +12452,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3">
       <c r="A369" t="s">
         <v>1016</v>
       </c>
@@ -12436,7 +12463,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3">
       <c r="A370" t="s">
         <v>1019</v>
       </c>
@@ -12447,7 +12474,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3">
       <c r="A371" t="s">
         <v>1022</v>
       </c>
@@ -12458,7 +12485,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3">
       <c r="A372" t="s">
         <v>1025</v>
       </c>
@@ -12469,7 +12496,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3">
       <c r="A373" t="s">
         <v>1028</v>
       </c>
@@ -12480,7 +12507,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3">
       <c r="A374" t="s">
         <v>1031</v>
       </c>
@@ -12491,7 +12518,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3">
       <c r="A375" t="s">
         <v>1034</v>
       </c>
@@ -12502,7 +12529,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3">
       <c r="A376" t="s">
         <v>1037</v>
       </c>
@@ -12513,7 +12540,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3">
       <c r="A377" t="s">
         <v>1040</v>
       </c>
@@ -12524,7 +12551,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3">
       <c r="A378" t="s">
         <v>1043</v>
       </c>
@@ -12535,7 +12562,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3">
       <c r="A379" t="s">
         <v>1046</v>
       </c>
@@ -12546,7 +12573,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3">
       <c r="A380" t="s">
         <v>1049</v>
       </c>
@@ -12557,7 +12584,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3">
       <c r="A381" t="s">
         <v>1052</v>
       </c>
@@ -12568,7 +12595,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3">
       <c r="A382" t="s">
         <v>1053</v>
       </c>
@@ -12579,7 +12606,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3">
       <c r="A383" t="s">
         <v>1054</v>
       </c>
@@ -12590,7 +12617,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3">
       <c r="A384" t="s">
         <v>1057</v>
       </c>
@@ -12601,7 +12628,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3">
       <c r="A385" t="s">
         <v>1060</v>
       </c>
@@ -12612,7 +12639,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3">
       <c r="A386" t="s">
         <v>1063</v>
       </c>
@@ -12623,7 +12650,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3">
       <c r="A387" t="s">
         <v>1066</v>
       </c>
@@ -12634,7 +12661,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3">
       <c r="A388" t="s">
         <v>1069</v>
       </c>
@@ -12645,7 +12672,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3">
       <c r="A389" t="s">
         <v>1072</v>
       </c>
@@ -12656,7 +12683,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3">
       <c r="A390" t="s">
         <v>1075</v>
       </c>
@@ -12667,7 +12694,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3">
       <c r="A391" t="s">
         <v>1078</v>
       </c>
@@ -12678,7 +12705,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3">
       <c r="A392" t="s">
         <v>1081</v>
       </c>
@@ -12689,7 +12716,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3">
       <c r="A393" t="s">
         <v>1084</v>
       </c>
@@ -12700,7 +12727,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3">
       <c r="A394" t="s">
         <v>1087</v>
       </c>
@@ -12711,7 +12738,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3">
       <c r="A395" t="s">
         <v>1090</v>
       </c>
@@ -12722,7 +12749,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3">
       <c r="A396" t="s">
         <v>1093</v>
       </c>
@@ -12733,7 +12760,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3">
       <c r="A397" t="s">
         <v>1096</v>
       </c>
@@ -12744,7 +12771,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3">
       <c r="A398" t="s">
         <v>1099</v>
       </c>
@@ -12755,7 +12782,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3">
       <c r="A399" t="s">
         <v>1102</v>
       </c>
@@ -12766,7 +12793,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3">
       <c r="A400" t="s">
         <v>1105</v>
       </c>
@@ -12777,7 +12804,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3">
       <c r="A401" t="s">
         <v>1108</v>
       </c>
@@ -12788,7 +12815,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3">
       <c r="A402" t="s">
         <v>1111</v>
       </c>
@@ -12799,7 +12826,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3">
       <c r="A403" t="s">
         <v>1114</v>
       </c>
@@ -12810,7 +12837,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3">
       <c r="A404" t="s">
         <v>1117</v>
       </c>
@@ -12821,7 +12848,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3">
       <c r="A405" t="s">
         <v>1120</v>
       </c>
@@ -12832,7 +12859,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3">
       <c r="A406" t="s">
         <v>1123</v>
       </c>
@@ -12843,7 +12870,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3">
       <c r="A407" t="s">
         <v>1126</v>
       </c>
@@ -12854,7 +12881,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3">
       <c r="A408" t="s">
         <v>1129</v>
       </c>
@@ -12865,7 +12892,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3">
       <c r="A409" t="s">
         <v>1132</v>
       </c>
@@ -12876,7 +12903,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3">
       <c r="A410" t="s">
         <v>1135</v>
       </c>
@@ -12887,7 +12914,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3">
       <c r="A411" t="s">
         <v>1138</v>
       </c>
@@ -12898,7 +12925,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3">
       <c r="A412" t="s">
         <v>1141</v>
       </c>
@@ -12909,7 +12936,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3">
       <c r="A413" t="s">
         <v>1143</v>
       </c>
@@ -12920,7 +12947,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3">
       <c r="A414" t="s">
         <v>1146</v>
       </c>
@@ -12931,7 +12958,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3">
       <c r="A415" t="s">
         <v>1149</v>
       </c>
@@ -12942,7 +12969,7 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3">
       <c r="A416" t="s">
         <v>1150</v>
       </c>
@@ -12953,7 +12980,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3">
       <c r="A417" t="s">
         <v>1151</v>
       </c>
@@ -12964,7 +12991,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3">
       <c r="A418" t="s">
         <v>1152</v>
       </c>
@@ -12975,7 +13002,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3">
       <c r="A419" t="s">
         <v>2637</v>
       </c>
@@ -12986,7 +13013,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3">
       <c r="A420" t="s">
         <v>1155</v>
       </c>
@@ -12997,7 +13024,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3">
       <c r="A421" t="s">
         <v>1158</v>
       </c>
@@ -13008,7 +13035,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3">
       <c r="A422" t="s">
         <v>1161</v>
       </c>
@@ -13019,7 +13046,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3">
       <c r="A423" t="s">
         <v>1162</v>
       </c>
@@ -13030,7 +13057,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3">
       <c r="A424" t="s">
         <v>1165</v>
       </c>
@@ -13041,7 +13068,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3">
       <c r="A425" t="s">
         <v>1168</v>
       </c>
@@ -13052,7 +13079,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3">
       <c r="A426" t="s">
         <v>1171</v>
       </c>
@@ -13063,7 +13090,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3">
       <c r="A427" t="s">
         <v>1174</v>
       </c>
@@ -13074,7 +13101,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3">
       <c r="A428" t="s">
         <v>1177</v>
       </c>
@@ -13085,7 +13112,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3">
       <c r="A429" t="s">
         <v>1180</v>
       </c>
@@ -13096,7 +13123,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3">
       <c r="A430" t="s">
         <v>1183</v>
       </c>
@@ -13107,7 +13134,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3">
       <c r="A431" t="s">
         <v>1186</v>
       </c>
@@ -13118,7 +13145,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3">
       <c r="A432" t="s">
         <v>1189</v>
       </c>
@@ -13129,7 +13156,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3">
       <c r="A433" t="s">
         <v>1190</v>
       </c>
@@ -13140,7 +13167,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3">
       <c r="A434" t="s">
         <v>1191</v>
       </c>
@@ -13151,7 +13178,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3">
       <c r="A435" t="s">
         <v>1193</v>
       </c>
@@ -13162,7 +13189,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3">
       <c r="A436" t="s">
         <v>1195</v>
       </c>
@@ -13173,7 +13200,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3">
       <c r="A437" t="s">
         <v>1197</v>
       </c>
@@ -13184,7 +13211,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3">
       <c r="A438" t="s">
         <v>1200</v>
       </c>
@@ -13195,7 +13222,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3">
       <c r="A439" t="s">
         <v>1201</v>
       </c>
@@ -13206,7 +13233,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3">
       <c r="A440" t="s">
         <v>1202</v>
       </c>
@@ -13217,7 +13244,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3">
       <c r="A441" t="s">
         <v>1205</v>
       </c>
@@ -13228,7 +13255,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3">
       <c r="A442" t="s">
         <v>1208</v>
       </c>
@@ -13239,7 +13266,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3">
       <c r="A443" t="s">
         <v>1211</v>
       </c>
@@ -13250,7 +13277,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3">
       <c r="A444" t="s">
         <v>1214</v>
       </c>
@@ -13261,7 +13288,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3">
       <c r="A445" t="s">
         <v>1217</v>
       </c>
@@ -13272,7 +13299,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3">
       <c r="A446" t="s">
         <v>1220</v>
       </c>
@@ -13283,7 +13310,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3">
       <c r="A447" t="s">
         <v>1223</v>
       </c>
@@ -13294,7 +13321,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3">
       <c r="A448" t="s">
         <v>1226</v>
       </c>
@@ -13305,7 +13332,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3">
       <c r="A449" t="s">
         <v>1229</v>
       </c>
@@ -13316,7 +13343,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3">
       <c r="A450" t="s">
         <v>1232</v>
       </c>
@@ -13327,7 +13354,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3">
       <c r="A451" t="s">
         <v>1233</v>
       </c>
@@ -13338,7 +13365,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3">
       <c r="A452" t="s">
         <v>1234</v>
       </c>
@@ -13349,7 +13376,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3">
       <c r="A453" t="s">
         <v>1237</v>
       </c>
@@ -13360,7 +13387,7 @@
         <v>2463</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3">
       <c r="A454" t="s">
         <v>1238</v>
       </c>
@@ -13371,7 +13398,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3">
       <c r="A455" t="s">
         <v>1239</v>
       </c>
@@ -13382,7 +13409,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3">
       <c r="A456" t="s">
         <v>1242</v>
       </c>
@@ -13393,7 +13420,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3">
       <c r="A457" t="s">
         <v>1245</v>
       </c>
@@ -13404,7 +13431,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3">
       <c r="A458" t="s">
         <v>1248</v>
       </c>
@@ -13415,7 +13442,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3">
       <c r="A459" t="s">
         <v>1251</v>
       </c>
@@ -13426,7 +13453,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3">
       <c r="A460" t="s">
         <v>1254</v>
       </c>
@@ -13437,7 +13464,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3">
       <c r="A461" t="s">
         <v>1257</v>
       </c>
@@ -13448,7 +13475,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3">
       <c r="A462" t="s">
         <v>1260</v>
       </c>
@@ -13459,7 +13486,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3">
       <c r="A463" t="s">
         <v>1263</v>
       </c>
@@ -13470,7 +13497,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3">
       <c r="A464" t="s">
         <v>1266</v>
       </c>
@@ -13481,7 +13508,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3">
       <c r="A465" t="s">
         <v>1267</v>
       </c>
@@ -13492,7 +13519,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3">
       <c r="A466" t="s">
         <v>1268</v>
       </c>
@@ -13503,7 +13530,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3">
       <c r="A467" t="s">
         <v>1271</v>
       </c>
@@ -13514,7 +13541,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3">
       <c r="A468" t="s">
         <v>1274</v>
       </c>
@@ -13525,7 +13552,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3">
       <c r="A469" t="s">
         <v>1277</v>
       </c>
@@ -13536,7 +13563,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3">
       <c r="A470" t="s">
         <v>1280</v>
       </c>
@@ -13547,7 +13574,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3">
       <c r="A471" t="s">
         <v>1283</v>
       </c>
@@ -13558,7 +13585,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:3">
       <c r="A472" t="s">
         <v>1286</v>
       </c>
@@ -13569,7 +13596,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3">
       <c r="A473" t="s">
         <v>1289</v>
       </c>
@@ -13580,7 +13607,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:3">
       <c r="A474" t="s">
         <v>1292</v>
       </c>
@@ -13591,7 +13618,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3">
       <c r="A475" t="s">
         <v>1295</v>
       </c>
@@ -13602,7 +13629,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:3">
       <c r="A476" t="s">
         <v>1298</v>
       </c>
@@ -13613,7 +13640,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3">
       <c r="A477" t="s">
         <v>1301</v>
       </c>
@@ -13624,7 +13651,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:3">
       <c r="A478" t="s">
         <v>1302</v>
       </c>
@@ -13635,7 +13662,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3">
       <c r="A479" t="s">
         <v>1305</v>
       </c>
@@ -13646,7 +13673,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:3">
       <c r="A480" t="s">
         <v>1308</v>
       </c>
@@ -13657,7 +13684,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3">
       <c r="A481" t="s">
         <v>1311</v>
       </c>
@@ -13668,7 +13695,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3">
       <c r="A482" t="s">
         <v>1314</v>
       </c>
@@ -13679,7 +13706,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:3">
       <c r="A483" t="s">
         <v>1317</v>
       </c>
@@ -13690,7 +13717,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3">
       <c r="A484" t="s">
         <v>1320</v>
       </c>
@@ -13701,7 +13728,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3">
       <c r="A485" t="s">
         <v>1323</v>
       </c>
@@ -13712,7 +13739,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:3">
       <c r="A486" t="s">
         <v>1326</v>
       </c>
@@ -13723,7 +13750,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3">
       <c r="A487" t="s">
         <v>1329</v>
       </c>
@@ -13734,7 +13761,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:3">
       <c r="A488" t="s">
         <v>1332</v>
       </c>
@@ -13745,7 +13772,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3">
       <c r="A489" t="s">
         <v>1335</v>
       </c>
@@ -13756,7 +13783,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3">
       <c r="A490" t="s">
         <v>1338</v>
       </c>
@@ -13767,7 +13794,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:3">
       <c r="A491" t="s">
         <v>1341</v>
       </c>
@@ -13778,7 +13805,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3">
       <c r="A492" t="s">
         <v>1344</v>
       </c>
@@ -13789,7 +13816,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3">
       <c r="A493" t="s">
         <v>1346</v>
       </c>
@@ -13800,7 +13827,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3">
       <c r="A494" t="s">
         <v>1349</v>
       </c>
@@ -13811,7 +13838,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3">
       <c r="A495" t="s">
         <v>1352</v>
       </c>
@@ -13822,7 +13849,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3">
       <c r="A496" t="s">
         <v>1355</v>
       </c>
@@ -13833,7 +13860,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3">
       <c r="A497" t="s">
         <v>1358</v>
       </c>
@@ -13844,7 +13871,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3">
       <c r="A498" t="s">
         <v>1361</v>
       </c>
@@ -13855,7 +13882,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:3">
       <c r="A499" t="s">
         <v>1364</v>
       </c>
@@ -13866,7 +13893,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:3">
       <c r="A500" t="s">
         <v>1367</v>
       </c>
@@ -13877,7 +13904,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:3">
       <c r="A501" t="s">
         <v>1370</v>
       </c>
@@ -13888,7 +13915,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:3">
       <c r="A502" t="s">
         <v>1373</v>
       </c>
@@ -13899,7 +13926,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3">
       <c r="A503" t="s">
         <v>1376</v>
       </c>
@@ -13910,7 +13937,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:3">
       <c r="A504" t="s">
         <v>1379</v>
       </c>
@@ -13921,7 +13948,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3">
       <c r="A505" t="s">
         <v>1382</v>
       </c>
@@ -13932,7 +13959,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:3">
       <c r="A506" t="s">
         <v>1385</v>
       </c>
@@ -13943,7 +13970,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3">
       <c r="A507" t="s">
         <v>1388</v>
       </c>
@@ -13954,7 +13981,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:3">
       <c r="A508" t="s">
         <v>1389</v>
       </c>
@@ -13965,7 +13992,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3">
       <c r="A509" t="s">
         <v>1390</v>
       </c>
@@ -13976,7 +14003,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:3">
       <c r="A510" t="s">
         <v>1393</v>
       </c>
@@ -13987,7 +14014,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:3">
       <c r="A511" t="s">
         <v>1396</v>
       </c>
@@ -13998,7 +14025,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3">
       <c r="A512" t="s">
         <v>1399</v>
       </c>
@@ -14009,7 +14036,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:3">
       <c r="A513" t="s">
         <v>1402</v>
       </c>
@@ -14020,7 +14047,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:3">
       <c r="A514" t="s">
         <v>1405</v>
       </c>
@@ -14031,7 +14058,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:3">
       <c r="A515" t="s">
         <v>1408</v>
       </c>
@@ -14042,7 +14069,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:3">
       <c r="A516" t="s">
         <v>1409</v>
       </c>
@@ -14053,7 +14080,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:3">
       <c r="A517" t="s">
         <v>1412</v>
       </c>
@@ -14064,7 +14091,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:3">
       <c r="A518" t="s">
         <v>1415</v>
       </c>
@@ -14075,7 +14102,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:3">
       <c r="A519" t="s">
         <v>1417</v>
       </c>
@@ -14086,7 +14113,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:3">
       <c r="A520" t="s">
         <v>1420</v>
       </c>
@@ -14097,7 +14124,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:3">
       <c r="A521" t="s">
         <v>1423</v>
       </c>
@@ -14108,7 +14135,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:3">
       <c r="A522" t="s">
         <v>1425</v>
       </c>
@@ -14119,7 +14146,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:3">
       <c r="A523" t="s">
         <v>1428</v>
       </c>
@@ -14130,7 +14157,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:3">
       <c r="A524" t="s">
         <v>1431</v>
       </c>
@@ -14141,7 +14168,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:3">
       <c r="A525" t="s">
         <v>1434</v>
       </c>
@@ -14152,7 +14179,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:3">
       <c r="A526" t="s">
         <v>1437</v>
       </c>
@@ -14163,7 +14190,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:3">
       <c r="A527" t="s">
         <v>1440</v>
       </c>
@@ -14174,7 +14201,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:3">
       <c r="A528" t="s">
         <v>1443</v>
       </c>
@@ -14185,7 +14212,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:3">
       <c r="A529" t="s">
         <v>1446</v>
       </c>
@@ -14196,7 +14223,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:3">
       <c r="A530" t="s">
         <v>1449</v>
       </c>
@@ -14207,7 +14234,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:3">
       <c r="A531" t="s">
         <v>1452</v>
       </c>
@@ -14218,7 +14245,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:3">
       <c r="A532" t="s">
         <v>1455</v>
       </c>
@@ -14229,7 +14256,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:3">
       <c r="A533" t="s">
         <v>1458</v>
       </c>
@@ -14240,7 +14267,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:3">
       <c r="A534" t="s">
         <v>1461</v>
       </c>
@@ -14251,7 +14278,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:3">
       <c r="A535" t="s">
         <v>1464</v>
       </c>
@@ -14262,7 +14289,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:3">
       <c r="A536" t="s">
         <v>1467</v>
       </c>
@@ -14273,7 +14300,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:3">
       <c r="A537" t="s">
         <v>1470</v>
       </c>
@@ -14284,7 +14311,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:3">
       <c r="A538" t="s">
         <v>1473</v>
       </c>
@@ -14295,7 +14322,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:3">
       <c r="A539" t="s">
         <v>1476</v>
       </c>
@@ -14306,7 +14333,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:3">
       <c r="A540" t="s">
         <v>1479</v>
       </c>
@@ -14317,7 +14344,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:3">
       <c r="A541" t="s">
         <v>1482</v>
       </c>
@@ -14328,7 +14355,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:3">
       <c r="A542" t="s">
         <v>1485</v>
       </c>
@@ -14339,7 +14366,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:3">
       <c r="A543" t="s">
         <v>1488</v>
       </c>
@@ -14350,7 +14377,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:3">
       <c r="A544" t="s">
         <v>1491</v>
       </c>
@@ -14361,7 +14388,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:3">
       <c r="A545" t="s">
         <v>1494</v>
       </c>
@@ -14372,7 +14399,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:3">
       <c r="A546" t="s">
         <v>1497</v>
       </c>
@@ -14383,7 +14410,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:3">
       <c r="A547" t="s">
         <v>1500</v>
       </c>
@@ -14394,7 +14421,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:3">
       <c r="A548" t="s">
         <v>1503</v>
       </c>
@@ -14405,7 +14432,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:3">
       <c r="A549" t="s">
         <v>1506</v>
       </c>
@@ -14416,7 +14443,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:3">
       <c r="A550" t="s">
         <v>1507</v>
       </c>
@@ -14427,7 +14454,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:3">
       <c r="A551" t="s">
         <v>1510</v>
       </c>
@@ -14438,7 +14465,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:3">
       <c r="A552" t="s">
         <v>1513</v>
       </c>
@@ -14449,7 +14476,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:3">
       <c r="A553" t="s">
         <v>1516</v>
       </c>
@@ -14460,7 +14487,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:3">
       <c r="A554" t="s">
         <v>1517</v>
       </c>
@@ -14471,7 +14498,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:3">
       <c r="A555" t="s">
         <v>1520</v>
       </c>
@@ -14482,7 +14509,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:3">
       <c r="A556" t="s">
         <v>1523</v>
       </c>
@@ -14493,7 +14520,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:3">
       <c r="A557" t="s">
         <v>1526</v>
       </c>
@@ -14504,7 +14531,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:3">
       <c r="A558" t="s">
         <v>1529</v>
       </c>
@@ -14515,7 +14542,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:3">
       <c r="A559" t="s">
         <v>1532</v>
       </c>
@@ -14526,7 +14553,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:3">
       <c r="A560" t="s">
         <v>1535</v>
       </c>
@@ -14537,7 +14564,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:3">
       <c r="A561" t="s">
         <v>1538</v>
       </c>
@@ -14548,7 +14575,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:3">
       <c r="A562" t="s">
         <v>1541</v>
       </c>
@@ -14559,7 +14586,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:3">
       <c r="A563" t="s">
         <v>1544</v>
       </c>
@@ -14570,7 +14597,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:3">
       <c r="A564" t="s">
         <v>1547</v>
       </c>
@@ -14581,7 +14608,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:3">
       <c r="A565" t="s">
         <v>1550</v>
       </c>
@@ -14592,7 +14619,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:3">
       <c r="A566" t="s">
         <v>1553</v>
       </c>
@@ -14603,7 +14630,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:3">
       <c r="A567" t="s">
         <v>1556</v>
       </c>
@@ -14614,7 +14641,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:3">
       <c r="A568" t="s">
         <v>1559</v>
       </c>
@@ -14625,7 +14652,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:3">
       <c r="A569" t="s">
         <v>1562</v>
       </c>
@@ -14636,7 +14663,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:3">
       <c r="A570" t="s">
         <v>1565</v>
       </c>
@@ -14647,7 +14674,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:3">
       <c r="A571" t="s">
         <v>1568</v>
       </c>
@@ -14658,7 +14685,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:3">
       <c r="A572" t="s">
         <v>1571</v>
       </c>
@@ -14669,7 +14696,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:3">
       <c r="A573" t="s">
         <v>1574</v>
       </c>
@@ -14680,7 +14707,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:3">
       <c r="A574" t="s">
         <v>1577</v>
       </c>
@@ -14691,7 +14718,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:3">
       <c r="A575" t="s">
         <v>1580</v>
       </c>
@@ -14702,7 +14729,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:3">
       <c r="A576" t="s">
         <v>1583</v>
       </c>
@@ -14713,7 +14740,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:3">
       <c r="A577" t="s">
         <v>1586</v>
       </c>
@@ -14724,7 +14751,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:3">
       <c r="A578" t="s">
         <v>1589</v>
       </c>
@@ -14735,7 +14762,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:3">
       <c r="A579" t="s">
         <v>1592</v>
       </c>
@@ -14746,7 +14773,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:3">
       <c r="A580" t="s">
         <v>1595</v>
       </c>
@@ -14757,7 +14784,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:3">
       <c r="A581" t="s">
         <v>1598</v>
       </c>
@@ -14768,7 +14795,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:3">
       <c r="A582" t="s">
         <v>1601</v>
       </c>
@@ -14779,7 +14806,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:3">
       <c r="A583" t="s">
         <v>1604</v>
       </c>
@@ -14790,7 +14817,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:3">
       <c r="A584" t="s">
         <v>1607</v>
       </c>
@@ -14801,7 +14828,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:3">
       <c r="A585" t="s">
         <v>1610</v>
       </c>
@@ -14812,7 +14839,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:3">
       <c r="A586" t="s">
         <v>1613</v>
       </c>
@@ -14823,7 +14850,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:3">
       <c r="A587" t="s">
         <v>1616</v>
       </c>
@@ -14834,7 +14861,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:3">
       <c r="A588" t="s">
         <v>1619</v>
       </c>
@@ -14845,7 +14872,7 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:3">
       <c r="A589" t="s">
         <v>1620</v>
       </c>
@@ -14856,7 +14883,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:3">
       <c r="A590" t="s">
         <v>1623</v>
       </c>
@@ -14867,7 +14894,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:3">
       <c r="A591" t="s">
         <v>1626</v>
       </c>
@@ -14878,7 +14905,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:3">
       <c r="A592" t="s">
         <v>1629</v>
       </c>
@@ -14889,7 +14916,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:3">
       <c r="A593" t="s">
         <v>1632</v>
       </c>
@@ -14900,7 +14927,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:3">
       <c r="A594" t="s">
         <v>1635</v>
       </c>
@@ -14911,7 +14938,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:3">
       <c r="A595" t="s">
         <v>1638</v>
       </c>
@@ -14922,7 +14949,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:3">
       <c r="A596" t="s">
         <v>1639</v>
       </c>
@@ -14933,7 +14960,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:3">
       <c r="A597" t="s">
         <v>1642</v>
       </c>
@@ -14944,7 +14971,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:3">
       <c r="A598" t="s">
         <v>1643</v>
       </c>
@@ -14955,7 +14982,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:3">
       <c r="A599" t="s">
         <v>1646</v>
       </c>
@@ -14966,7 +14993,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:3">
       <c r="A600" t="s">
         <v>1647</v>
       </c>
@@ -14977,7 +15004,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:3">
       <c r="A601" t="s">
         <v>1650</v>
       </c>
@@ -14988,7 +15015,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:3">
       <c r="A602" t="s">
         <v>1653</v>
       </c>
@@ -14999,7 +15026,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:3">
       <c r="A603" t="s">
         <v>1656</v>
       </c>
@@ -15010,7 +15037,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:3">
       <c r="A604" t="s">
         <v>1659</v>
       </c>
@@ -15021,7 +15048,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:3">
       <c r="A605" t="s">
         <v>1660</v>
       </c>
@@ -15032,7 +15059,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:3">
       <c r="A606" t="s">
         <v>1661</v>
       </c>
@@ -15043,7 +15070,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:3">
       <c r="A607" t="s">
         <v>1664</v>
       </c>
@@ -15054,7 +15081,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:3">
       <c r="A608" t="s">
         <v>1665</v>
       </c>
@@ -15065,7 +15092,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:3">
       <c r="A609" t="s">
         <v>1666</v>
       </c>
@@ -15076,7 +15103,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:3">
       <c r="A610" t="s">
         <v>1667</v>
       </c>
@@ -15087,7 +15114,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:3">
       <c r="A611" t="s">
         <v>1668</v>
       </c>
@@ -15098,7 +15125,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:3">
       <c r="A612" t="s">
         <v>1671</v>
       </c>
@@ -15109,7 +15136,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:3">
       <c r="A613" t="s">
         <v>1674</v>
       </c>
@@ -15120,7 +15147,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:3">
       <c r="A614" t="s">
         <v>1677</v>
       </c>
@@ -15131,7 +15158,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:3">
       <c r="A615" t="s">
         <v>1680</v>
       </c>
@@ -15142,7 +15169,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:3">
       <c r="A616" t="s">
         <v>1683</v>
       </c>
@@ -15153,7 +15180,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:3">
       <c r="A617" t="s">
         <v>1684</v>
       </c>
@@ -15164,7 +15191,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:3">
       <c r="A618" t="s">
         <v>1687</v>
       </c>
@@ -15175,7 +15202,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:3">
       <c r="A619" t="s">
         <v>1688</v>
       </c>
@@ -15186,7 +15213,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:3">
       <c r="A620" t="s">
         <v>1691</v>
       </c>
@@ -15197,7 +15224,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:3">
       <c r="A621" t="s">
         <v>1694</v>
       </c>
@@ -15208,7 +15235,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:3">
       <c r="A622" t="s">
         <v>1697</v>
       </c>
@@ -15219,7 +15246,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:3">
       <c r="A623" t="s">
         <v>1698</v>
       </c>
@@ -15230,7 +15257,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:3">
       <c r="A624" t="s">
         <v>1701</v>
       </c>
@@ -15241,7 +15268,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:3">
       <c r="A625" t="s">
         <v>1702</v>
       </c>
@@ -15252,7 +15279,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:3">
       <c r="A626" t="s">
         <v>1703</v>
       </c>
@@ -15263,7 +15290,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:3">
       <c r="A627" t="s">
         <v>1706</v>
       </c>
@@ -15274,7 +15301,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:3">
       <c r="A628" t="s">
         <v>1707</v>
       </c>
@@ -15285,7 +15312,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:3">
       <c r="A629" t="s">
         <v>1708</v>
       </c>
@@ -15296,7 +15323,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:3">
       <c r="A630" t="s">
         <v>1711</v>
       </c>
@@ -15307,7 +15334,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:3">
       <c r="A631" t="s">
         <v>1714</v>
       </c>
@@ -15318,7 +15345,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:3">
       <c r="A632" t="s">
         <v>1717</v>
       </c>
@@ -15329,7 +15356,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:3">
       <c r="A633" t="s">
         <v>1720</v>
       </c>
@@ -15340,7 +15367,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:3">
       <c r="A634" t="s">
         <v>1723</v>
       </c>
@@ -15351,7 +15378,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:3">
       <c r="A635" t="s">
         <v>1726</v>
       </c>
@@ -15362,7 +15389,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:3">
       <c r="A636" t="s">
         <v>1729</v>
       </c>
@@ -15373,7 +15400,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:3">
       <c r="A637" t="s">
         <v>1731</v>
       </c>
@@ -15384,7 +15411,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:3">
       <c r="A638" t="s">
         <v>1734</v>
       </c>
@@ -15395,7 +15422,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:3">
       <c r="A639" t="s">
         <v>1735</v>
       </c>
@@ -15406,7 +15433,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:3">
       <c r="A640" t="s">
         <v>1736</v>
       </c>
@@ -15417,7 +15444,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:3">
       <c r="A641" t="s">
         <v>1739</v>
       </c>
@@ -15428,7 +15455,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:3">
       <c r="A642" t="s">
         <v>1740</v>
       </c>
@@ -15439,7 +15466,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:3">
       <c r="A643" t="s">
         <v>1741</v>
       </c>
@@ -15450,7 +15477,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:3">
       <c r="A644" t="s">
         <v>1742</v>
       </c>
@@ -15461,7 +15488,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:3">
       <c r="A645" t="s">
         <v>1743</v>
       </c>
@@ -15472,7 +15499,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:3">
       <c r="A646" t="s">
         <v>1744</v>
       </c>
@@ -15483,7 +15510,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:3">
       <c r="A647" t="s">
         <v>1745</v>
       </c>
@@ -15494,7 +15521,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:3">
       <c r="A648" t="s">
         <v>1746</v>
       </c>
@@ -15505,7 +15532,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:3">
       <c r="A649" t="s">
         <v>1747</v>
       </c>
@@ -15516,7 +15543,7 @@
         <v>2535</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:3">
       <c r="A650" t="s">
         <v>1748</v>
       </c>
@@ -15527,7 +15554,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:3">
       <c r="A651" t="s">
         <v>1751</v>
       </c>
@@ -15538,7 +15565,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:3">
       <c r="A652" t="s">
         <v>1754</v>
       </c>
@@ -15549,7 +15576,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:3">
       <c r="A653" t="s">
         <v>1757</v>
       </c>
@@ -15560,7 +15587,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:3">
       <c r="A654" t="s">
         <v>1760</v>
       </c>
@@ -15571,7 +15598,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:3">
       <c r="A655" t="s">
         <v>1763</v>
       </c>
@@ -15582,7 +15609,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:3">
       <c r="A656" t="s">
         <v>1766</v>
       </c>
@@ -15593,7 +15620,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:3">
       <c r="A657" t="s">
         <v>1769</v>
       </c>
@@ -15604,7 +15631,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:3">
       <c r="A658" t="s">
         <v>1772</v>
       </c>
@@ -15615,7 +15642,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:3">
       <c r="A659" t="s">
         <v>1775</v>
       </c>
@@ -15626,7 +15653,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:3">
       <c r="A660" t="s">
         <v>1778</v>
       </c>
@@ -15637,7 +15664,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:3">
       <c r="A661" t="s">
         <v>1781</v>
       </c>
@@ -15648,7 +15675,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:3">
       <c r="A662" t="s">
         <v>1784</v>
       </c>
@@ -15659,7 +15686,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:3">
       <c r="A663" t="s">
         <v>1787</v>
       </c>
@@ -15670,7 +15697,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:3">
       <c r="A664" t="s">
         <v>1790</v>
       </c>
@@ -15681,7 +15708,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:3">
       <c r="A665" t="s">
         <v>1793</v>
       </c>
@@ -15692,7 +15719,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:3">
       <c r="A666" t="s">
         <v>1796</v>
       </c>
@@ -15703,7 +15730,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:3">
       <c r="A667" t="s">
         <v>1799</v>
       </c>
@@ -15714,7 +15741,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:3">
       <c r="A668" t="s">
         <v>1802</v>
       </c>
@@ -15725,7 +15752,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:3">
       <c r="A669" t="s">
         <v>1805</v>
       </c>
@@ -15736,7 +15763,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:3">
       <c r="A670" t="s">
         <v>1808</v>
       </c>
@@ -15747,7 +15774,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:3">
       <c r="A671" t="s">
         <v>1811</v>
       </c>
@@ -15758,7 +15785,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:3">
       <c r="A672" t="s">
         <v>1814</v>
       </c>
@@ -15769,7 +15796,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:3">
       <c r="A673" t="s">
         <v>1817</v>
       </c>
@@ -15780,7 +15807,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:3">
       <c r="A674" t="s">
         <v>1820</v>
       </c>
@@ -15791,7 +15818,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:3">
       <c r="A675" t="s">
         <v>1823</v>
       </c>
@@ -15802,7 +15829,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:3">
       <c r="A676" t="s">
         <v>1826</v>
       </c>
@@ -15813,7 +15840,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:3">
       <c r="A677" t="s">
         <v>1829</v>
       </c>
@@ -15824,7 +15851,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:3">
       <c r="A678" t="s">
         <v>1832</v>
       </c>
@@ -15835,7 +15862,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:3">
       <c r="A679" t="s">
         <v>1835</v>
       </c>
@@ -15846,7 +15873,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:3">
       <c r="A680" t="s">
         <v>1838</v>
       </c>
@@ -15857,7 +15884,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:3">
       <c r="A681" t="s">
         <v>1841</v>
       </c>
@@ -15868,7 +15895,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:3">
       <c r="A682" t="s">
         <v>1842</v>
       </c>
@@ -15879,7 +15906,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:3">
       <c r="A683" t="s">
         <v>1845</v>
       </c>
@@ -15890,7 +15917,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:3">
       <c r="A684" t="s">
         <v>1848</v>
       </c>
@@ -15901,7 +15928,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:3">
       <c r="A685" t="s">
         <v>1849</v>
       </c>
@@ -15912,7 +15939,7 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:3">
       <c r="A686" t="s">
         <v>1850</v>
       </c>
@@ -15923,7 +15950,7 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:3">
       <c r="A687" t="s">
         <v>1851</v>
       </c>
@@ -15934,7 +15961,7 @@
         <v>2545</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:3">
       <c r="A688" t="s">
         <v>1852</v>
       </c>
@@ -15945,7 +15972,7 @@
         <v>2547</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:3">
       <c r="A689" t="s">
         <v>1853</v>
       </c>
@@ -15956,7 +15983,7 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:3">
       <c r="A690" t="s">
         <v>1854</v>
       </c>
@@ -15967,7 +15994,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:3">
       <c r="A691" t="s">
         <v>1857</v>
       </c>
@@ -15978,7 +16005,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:3">
       <c r="A692" t="s">
         <v>1860</v>
       </c>
@@ -15989,7 +16016,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:3">
       <c r="A693" t="s">
         <v>1863</v>
       </c>
@@ -16000,7 +16027,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:3">
       <c r="A694" t="s">
         <v>1866</v>
       </c>
@@ -16011,7 +16038,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:3">
       <c r="A695" t="s">
         <v>1869</v>
       </c>
@@ -16022,7 +16049,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:3">
       <c r="A696" t="s">
         <v>1872</v>
       </c>
@@ -16033,7 +16060,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:3">
       <c r="A697" t="s">
         <v>1875</v>
       </c>
@@ -16044,7 +16071,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:3">
       <c r="A698" t="s">
         <v>1878</v>
       </c>
@@ -16055,7 +16082,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:3">
       <c r="A699" t="s">
         <v>1881</v>
       </c>
@@ -16066,7 +16093,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:3">
       <c r="A700" t="s">
         <v>1883</v>
       </c>
@@ -16077,7 +16104,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:3">
       <c r="A701" t="s">
         <v>1886</v>
       </c>
@@ -16088,7 +16115,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:3">
       <c r="A702" t="s">
         <v>1889</v>
       </c>
@@ -16099,7 +16126,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:3">
       <c r="A703" t="s">
         <v>1892</v>
       </c>
@@ -16110,7 +16137,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:3">
       <c r="A704" t="s">
         <v>1895</v>
       </c>
@@ -16121,7 +16148,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:3">
       <c r="A705" t="s">
         <v>1898</v>
       </c>
@@ -16132,7 +16159,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:3">
       <c r="A706" t="s">
         <v>1901</v>
       </c>
@@ -16143,7 +16170,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:3">
       <c r="A707" t="s">
         <v>1904</v>
       </c>
@@ -16154,7 +16181,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:3">
       <c r="A708" t="s">
         <v>1907</v>
       </c>
@@ -16165,7 +16192,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:3">
       <c r="A709" t="s">
         <v>1910</v>
       </c>
@@ -16176,7 +16203,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:3">
       <c r="A710" t="s">
         <v>1913</v>
       </c>
@@ -16187,7 +16214,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:3">
       <c r="A711" t="s">
         <v>1916</v>
       </c>
@@ -16198,7 +16225,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:3">
       <c r="A712" t="s">
         <v>1919</v>
       </c>
@@ -16209,7 +16236,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:3">
       <c r="A713" t="s">
         <v>1922</v>
       </c>
@@ -16220,7 +16247,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:3">
       <c r="A714" t="s">
         <v>1925</v>
       </c>
@@ -16231,7 +16258,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:3">
       <c r="A715" t="s">
         <v>1928</v>
       </c>
@@ -16242,7 +16269,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:3">
       <c r="A716" t="s">
         <v>1931</v>
       </c>
@@ -16253,7 +16280,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:3">
       <c r="A717" t="s">
         <v>1934</v>
       </c>
@@ -16264,7 +16291,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:3">
       <c r="A718" t="s">
         <v>1937</v>
       </c>
@@ -16275,7 +16302,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:3">
       <c r="A719" t="s">
         <v>1940</v>
       </c>
@@ -16286,7 +16313,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:3">
       <c r="A720" t="s">
         <v>1943</v>
       </c>
@@ -16297,7 +16324,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:3">
       <c r="A721" t="s">
         <v>1946</v>
       </c>
@@ -16308,7 +16335,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:3">
       <c r="A722" t="s">
         <v>1949</v>
       </c>
@@ -16319,7 +16346,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:3">
       <c r="A723" t="s">
         <v>1952</v>
       </c>
@@ -16330,7 +16357,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:3">
       <c r="A724" t="s">
         <v>1955</v>
       </c>
@@ -16341,7 +16368,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:3">
       <c r="A725" t="s">
         <v>1958</v>
       </c>
@@ -16352,7 +16379,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:3">
       <c r="A726" t="s">
         <v>1961</v>
       </c>
@@ -16363,7 +16390,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:3">
       <c r="A727" t="s">
         <v>1964</v>
       </c>
@@ -16374,7 +16401,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:3">
       <c r="A728" t="s">
         <v>1967</v>
       </c>
@@ -16385,7 +16412,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:3">
       <c r="A729" t="s">
         <v>1970</v>
       </c>
@@ -16396,7 +16423,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:3">
       <c r="A730" t="s">
         <v>1973</v>
       </c>
@@ -16407,7 +16434,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:3">
       <c r="A731" t="s">
         <v>1976</v>
       </c>
@@ -16418,7 +16445,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:3">
       <c r="A732" t="s">
         <v>1979</v>
       </c>
@@ -16429,7 +16456,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:3">
       <c r="A733" t="s">
         <v>1980</v>
       </c>
@@ -16440,7 +16467,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:3">
       <c r="A734" t="s">
         <v>1983</v>
       </c>
@@ -16451,7 +16478,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:3">
       <c r="A735" t="s">
         <v>1985</v>
       </c>
@@ -16462,7 +16489,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:3">
       <c r="A736" t="s">
         <v>1988</v>
       </c>
@@ -16473,7 +16500,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:3">
       <c r="A737" t="s">
         <v>1991</v>
       </c>
@@ -16484,7 +16511,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:3">
       <c r="A738" t="s">
         <v>1994</v>
       </c>
@@ -16495,7 +16522,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:3">
       <c r="A739" t="s">
         <v>1997</v>
       </c>
@@ -16506,7 +16533,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:3">
       <c r="A740" t="s">
         <v>2000</v>
       </c>
@@ -16517,7 +16544,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:3">
       <c r="A741" t="s">
         <v>2003</v>
       </c>
@@ -16528,7 +16555,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:3">
       <c r="A742" t="s">
         <v>2006</v>
       </c>
@@ -16539,7 +16566,7 @@
         <v>2553</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:3">
       <c r="A743" t="s">
         <v>2007</v>
       </c>
@@ -16550,7 +16577,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:3">
       <c r="A744" t="s">
         <v>2008</v>
       </c>
@@ -16561,7 +16588,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:3">
       <c r="A745" t="s">
         <v>2009</v>
       </c>
@@ -16572,7 +16599,7 @@
         <v>2559</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:3">
       <c r="A746" t="s">
         <v>2010</v>
       </c>
@@ -16583,7 +16610,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:3">
       <c r="A747" t="s">
         <v>2013</v>
       </c>
@@ -16594,7 +16621,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:3">
       <c r="A748" t="s">
         <v>2016</v>
       </c>
@@ -16605,7 +16632,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:3">
       <c r="A749" t="s">
         <v>2019</v>
       </c>
@@ -16616,7 +16643,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:3">
       <c r="A750" t="s">
         <v>2022</v>
       </c>
@@ -16627,7 +16654,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:3">
       <c r="A751" t="s">
         <v>2025</v>
       </c>
@@ -16638,7 +16665,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:3">
       <c r="A752" t="s">
         <v>2028</v>
       </c>
@@ -16649,7 +16676,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:3">
       <c r="A753" t="s">
         <v>2031</v>
       </c>
@@ -16660,7 +16687,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:3">
       <c r="A754" t="s">
         <v>2034</v>
       </c>
@@ -16671,7 +16698,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:3">
       <c r="A755" t="s">
         <v>2037</v>
       </c>
@@ -16682,7 +16709,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:3">
       <c r="A756" t="s">
         <v>2040</v>
       </c>
@@ -16693,8 +16720,8 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A757" t="s">
+    <row r="757" spans="1:3">
+      <c r="A757" s="6" t="s">
         <v>2043</v>
       </c>
       <c r="B757" t="s">
@@ -16704,7 +16731,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:3">
       <c r="A758" t="s">
         <v>2046</v>
       </c>
@@ -16715,7 +16742,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:3">
       <c r="A759" t="s">
         <v>2049</v>
       </c>
@@ -16726,7 +16753,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:3">
       <c r="A760" t="s">
         <v>2052</v>
       </c>
@@ -16737,7 +16764,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:3">
       <c r="A761" t="s">
         <v>2054</v>
       </c>
@@ -16748,7 +16775,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:3">
       <c r="A762" t="s">
         <v>2057</v>
       </c>
@@ -16759,7 +16786,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:3">
       <c r="A763" t="s">
         <v>2060</v>
       </c>
@@ -16770,7 +16797,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:3">
       <c r="A764" t="s">
         <v>2063</v>
       </c>
@@ -16781,7 +16808,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:3">
       <c r="A765" t="s">
         <v>2066</v>
       </c>
@@ -16792,7 +16819,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:3">
       <c r="A766" t="s">
         <v>2069</v>
       </c>
@@ -16803,7 +16830,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:3">
       <c r="A767" t="s">
         <v>2072</v>
       </c>
@@ -16814,7 +16841,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:3">
       <c r="A768" t="s">
         <v>2073</v>
       </c>
@@ -16825,7 +16852,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:3">
       <c r="A769" t="s">
         <v>2074</v>
       </c>
@@ -16836,7 +16863,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:3">
       <c r="A770" t="s">
         <v>2077</v>
       </c>
@@ -16847,7 +16874,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:3">
       <c r="A771" t="s">
         <v>2080</v>
       </c>
@@ -16858,7 +16885,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:3">
       <c r="A772" t="s">
         <v>2083</v>
       </c>
@@ -16869,7 +16896,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:3">
       <c r="A773" t="s">
         <v>2086</v>
       </c>
@@ -16880,7 +16907,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:3">
       <c r="A774" t="s">
         <v>2089</v>
       </c>
@@ -16891,7 +16918,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:3">
       <c r="A775" t="s">
         <v>2092</v>
       </c>
@@ -16902,7 +16929,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:3">
       <c r="A776" t="s">
         <v>2095</v>
       </c>
@@ -16913,7 +16940,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:3">
       <c r="A777" t="s">
         <v>2098</v>
       </c>
@@ -16924,7 +16951,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:3">
       <c r="A778" t="s">
         <v>2100</v>
       </c>
@@ -16935,7 +16962,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:3">
       <c r="A779" t="s">
         <v>2103</v>
       </c>
@@ -16946,7 +16973,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:3">
       <c r="A780" t="s">
         <v>2106</v>
       </c>
@@ -16957,7 +16984,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:3">
       <c r="A781" t="s">
         <v>2109</v>
       </c>
@@ -16968,7 +16995,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:3">
       <c r="A782" t="s">
         <v>2112</v>
       </c>
@@ -16979,7 +17006,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:3">
       <c r="A783" t="s">
         <v>2115</v>
       </c>
@@ -16990,7 +17017,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:3">
       <c r="A784" t="s">
         <v>2116</v>
       </c>
@@ -17001,7 +17028,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:3">
       <c r="A785" t="s">
         <v>2117</v>
       </c>
@@ -17012,7 +17039,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:3">
       <c r="A786" t="s">
         <v>2118</v>
       </c>
@@ -17023,7 +17050,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:3">
       <c r="A787" t="s">
         <v>2119</v>
       </c>
@@ -17034,7 +17061,7 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:3">
       <c r="A788" t="s">
         <v>2120</v>
       </c>
@@ -17045,7 +17072,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:3">
       <c r="A789" t="s">
         <v>2123</v>
       </c>
@@ -17056,7 +17083,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:3">
       <c r="A790" t="s">
         <v>2126</v>
       </c>
@@ -17067,7 +17094,7 @@
         <v>2571</v>
       </c>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:3">
       <c r="A791" t="s">
         <v>2127</v>
       </c>
@@ -17078,7 +17105,7 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:3">
       <c r="A792" t="s">
         <v>2128</v>
       </c>
@@ -17089,7 +17116,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:3">
       <c r="A793" t="s">
         <v>2131</v>
       </c>
@@ -17100,7 +17127,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:3">
       <c r="A794" t="s">
         <v>2134</v>
       </c>
@@ -17111,7 +17138,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:3">
       <c r="A795" t="s">
         <v>2137</v>
       </c>
@@ -17122,7 +17149,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:3">
       <c r="A796" t="s">
         <v>2140</v>
       </c>
@@ -17133,7 +17160,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:3">
       <c r="A797" t="s">
         <v>2143</v>
       </c>
@@ -17144,7 +17171,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:3">
       <c r="A798" t="s">
         <v>2146</v>
       </c>
@@ -17155,7 +17182,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:3">
       <c r="A799" t="s">
         <v>2149</v>
       </c>
@@ -17166,7 +17193,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:3">
       <c r="A800" t="s">
         <v>2152</v>
       </c>
@@ -17177,7 +17204,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:3">
       <c r="A801" t="s">
         <v>2155</v>
       </c>
@@ -17188,7 +17215,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:3">
       <c r="A802" t="s">
         <v>2158</v>
       </c>
@@ -17199,7 +17226,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:3">
       <c r="A803" t="s">
         <v>2161</v>
       </c>
@@ -17210,7 +17237,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:3">
       <c r="A804" t="s">
         <v>2162</v>
       </c>
@@ -17221,7 +17248,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:3">
       <c r="A805" t="s">
         <v>2165</v>
       </c>
@@ -17232,7 +17259,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:3">
       <c r="A806" t="s">
         <v>2166</v>
       </c>
@@ -17243,7 +17270,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:3">
       <c r="A807" t="s">
         <v>2169</v>
       </c>
@@ -17254,7 +17281,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:3">
       <c r="A808" t="s">
         <v>2172</v>
       </c>
@@ -17265,7 +17292,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:3">
       <c r="A809" t="s">
         <v>2175</v>
       </c>
@@ -17276,7 +17303,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:3">
       <c r="A810" t="s">
         <v>2178</v>
       </c>
@@ -17287,7 +17314,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="811" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:3">
       <c r="A811" t="s">
         <v>2179</v>
       </c>
@@ -17298,7 +17325,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="812" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:3">
       <c r="A812" t="s">
         <v>2180</v>
       </c>
@@ -17309,7 +17336,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="813" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:3">
       <c r="A813" t="s">
         <v>2182</v>
       </c>
@@ -17320,7 +17347,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="814" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:3">
       <c r="A814" t="s">
         <v>2183</v>
       </c>
@@ -17331,7 +17358,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="815" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:3">
       <c r="A815" t="s">
         <v>2186</v>
       </c>
@@ -17342,7 +17369,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="816" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:3">
       <c r="A816" t="s">
         <v>2187</v>
       </c>
@@ -17353,7 +17380,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="817" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:3">
       <c r="A817" t="s">
         <v>2190</v>
       </c>
@@ -17364,7 +17391,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="818" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:3">
       <c r="A818" t="s">
         <v>2193</v>
       </c>
@@ -17375,7 +17402,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="819" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:3">
       <c r="A819" t="s">
         <v>2196</v>
       </c>
@@ -17386,7 +17413,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="820" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:3">
       <c r="A820" t="s">
         <v>2199</v>
       </c>
@@ -17397,7 +17424,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="821" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:3">
       <c r="A821" t="s">
         <v>2202</v>
       </c>
@@ -17408,7 +17435,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="822" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:3">
       <c r="A822" t="s">
         <v>2205</v>
       </c>
@@ -17419,7 +17446,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="823" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:3">
       <c r="A823" t="s">
         <v>2208</v>
       </c>
@@ -17430,7 +17457,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="824" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:3">
       <c r="A824" t="s">
         <v>2211</v>
       </c>
@@ -17441,7 +17468,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="825" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:3">
       <c r="A825" t="s">
         <v>2214</v>
       </c>
@@ -17452,7 +17479,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="826" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:3">
       <c r="A826" t="s">
         <v>2217</v>
       </c>
@@ -17463,7 +17490,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="827" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:3">
       <c r="A827" t="s">
         <v>2220</v>
       </c>
@@ -17474,7 +17501,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="828" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:3">
       <c r="A828" t="s">
         <v>2223</v>
       </c>
@@ -17485,7 +17512,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="829" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:3">
       <c r="A829" t="s">
         <v>2226</v>
       </c>
@@ -17496,7 +17523,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="830" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:3">
       <c r="A830" t="s">
         <v>2229</v>
       </c>
@@ -17507,7 +17534,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="831" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:3">
       <c r="A831" t="s">
         <v>2232</v>
       </c>
@@ -17518,7 +17545,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="832" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:3">
       <c r="A832" t="s">
         <v>2235</v>
       </c>
@@ -17529,7 +17556,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="833" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:3">
       <c r="A833" t="s">
         <v>2238</v>
       </c>
@@ -17540,7 +17567,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="834" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:3">
       <c r="A834" t="s">
         <v>2241</v>
       </c>
@@ -17551,7 +17578,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="835" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:3">
       <c r="A835" t="s">
         <v>2243</v>
       </c>
@@ -17562,7 +17589,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="836" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:3">
       <c r="A836" t="s">
         <v>2246</v>
       </c>
@@ -17573,7 +17600,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="837" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:3">
       <c r="A837" t="s">
         <v>2249</v>
       </c>
@@ -17584,7 +17611,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="838" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:3">
       <c r="A838" t="s">
         <v>2252</v>
       </c>
@@ -17595,7 +17622,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="839" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:3">
       <c r="A839" t="s">
         <v>2255</v>
       </c>
@@ -17606,7 +17633,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="840" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:3">
       <c r="A840" t="s">
         <v>2258</v>
       </c>
@@ -17617,7 +17644,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="841" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:3">
       <c r="A841" t="s">
         <v>2261</v>
       </c>
@@ -17628,7 +17655,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="842" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:3">
       <c r="A842" t="s">
         <v>2263</v>
       </c>
@@ -17639,7 +17666,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="843" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:3">
       <c r="A843" t="s">
         <v>2266</v>
       </c>
@@ -17650,7 +17677,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="844" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:3">
       <c r="A844" t="s">
         <v>2269</v>
       </c>
@@ -17661,7 +17688,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="845" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:3">
       <c r="A845" t="s">
         <v>2272</v>
       </c>
@@ -17672,7 +17699,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="846" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:3">
       <c r="A846" t="s">
         <v>2275</v>
       </c>
@@ -17683,7 +17710,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="847" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:3">
       <c r="A847" t="s">
         <v>2276</v>
       </c>
@@ -17694,7 +17721,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="848" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:3">
       <c r="A848" t="s">
         <v>2279</v>
       </c>
@@ -17705,7 +17732,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="849" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:3">
       <c r="A849" t="s">
         <v>2282</v>
       </c>
@@ -17716,7 +17743,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="850" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:3">
       <c r="A850" t="s">
         <v>2283</v>
       </c>
@@ -17727,7 +17754,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="851" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:3">
       <c r="A851" t="s">
         <v>2284</v>
       </c>
@@ -17738,7 +17765,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="852" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:3">
       <c r="A852" t="s">
         <v>2285</v>
       </c>
@@ -17749,7 +17776,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="853" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:3">
       <c r="A853" t="s">
         <v>2288</v>
       </c>
@@ -17760,7 +17787,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="854" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:3">
       <c r="A854" t="s">
         <v>2291</v>
       </c>
@@ -17771,7 +17798,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="855" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:3">
       <c r="A855" t="s">
         <v>2294</v>
       </c>
@@ -17782,7 +17809,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="856" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:3">
       <c r="A856" t="s">
         <v>2295</v>
       </c>
@@ -17793,7 +17820,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="857" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:3">
       <c r="A857" t="s">
         <v>2298</v>
       </c>
@@ -17804,7 +17831,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="858" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:3">
       <c r="A858" t="s">
         <v>2301</v>
       </c>
@@ -17815,7 +17842,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="859" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:3">
       <c r="A859" t="s">
         <v>2304</v>
       </c>
@@ -17826,7 +17853,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="860" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:3">
       <c r="A860" t="s">
         <v>2307</v>
       </c>
@@ -17837,7 +17864,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="861" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:3">
       <c r="A861" t="s">
         <v>2310</v>
       </c>
@@ -17848,7 +17875,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="862" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:3">
       <c r="A862" t="s">
         <v>2313</v>
       </c>
@@ -17859,7 +17886,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="863" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:3">
       <c r="A863" t="s">
         <v>2316</v>
       </c>
@@ -17870,7 +17897,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="864" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:3">
       <c r="A864" t="s">
         <v>2319</v>
       </c>
@@ -17881,7 +17908,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="865" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:3">
       <c r="A865" t="s">
         <v>2322</v>
       </c>
@@ -17892,7 +17919,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="866" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:3">
       <c r="A866" t="s">
         <v>2324</v>
       </c>
@@ -17903,7 +17930,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="867" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:3">
       <c r="A867" t="s">
         <v>2327</v>
       </c>
@@ -17914,7 +17941,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="868" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:3">
       <c r="A868" t="s">
         <v>2330</v>
       </c>
@@ -17925,7 +17952,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="869" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:3">
       <c r="A869" t="s">
         <v>2333</v>
       </c>
@@ -17936,7 +17963,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="870" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:3">
       <c r="A870" t="s">
         <v>2336</v>
       </c>
@@ -17947,7 +17974,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="871" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:3">
       <c r="A871" t="s">
         <v>2339</v>
       </c>
@@ -17958,7 +17985,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="872" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:3">
       <c r="A872" t="s">
         <v>2342</v>
       </c>
@@ -17969,7 +17996,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="873" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:3">
       <c r="A873" t="s">
         <v>2345</v>
       </c>
@@ -17980,7 +18007,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="874" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:3">
       <c r="A874" t="s">
         <v>2348</v>
       </c>
@@ -17991,7 +18018,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="875" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:3">
       <c r="A875" t="s">
         <v>2349</v>
       </c>
@@ -18002,7 +18029,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="876" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:3">
       <c r="A876" t="s">
         <v>2352</v>
       </c>
@@ -18013,7 +18040,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="877" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:3">
       <c r="A877" t="s">
         <v>2355</v>
       </c>
@@ -18024,7 +18051,7 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="878" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:3">
       <c r="A878" t="s">
         <v>2356</v>
       </c>
@@ -18035,7 +18062,7 @@
         <v>2598</v>
       </c>
     </row>
-    <row r="879" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:3">
       <c r="A879" t="s">
         <v>2357</v>
       </c>
@@ -18046,7 +18073,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="880" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:3">
       <c r="A880" t="s">
         <v>2358</v>
       </c>
@@ -18057,7 +18084,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="881" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:3">
       <c r="A881" t="s">
         <v>2359</v>
       </c>
@@ -18068,7 +18095,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="882" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:3">
       <c r="A882" t="s">
         <v>2360</v>
       </c>
@@ -18079,7 +18106,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="883" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:3">
       <c r="A883" t="s">
         <v>2363</v>
       </c>
@@ -18090,7 +18117,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="884" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:3">
       <c r="A884" t="s">
         <v>2366</v>
       </c>
@@ -18101,7 +18128,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="885" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:3">
       <c r="A885" t="s">
         <v>2369</v>
       </c>
@@ -18112,7 +18139,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="886" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:3">
       <c r="A886" t="s">
         <v>2372</v>
       </c>
@@ -18123,7 +18150,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="888" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:3">
       <c r="A888" s="2" t="s">
         <v>2605</v>
       </c>
@@ -18134,7 +18161,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="889" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:3">
       <c r="A889" s="2" t="s">
         <v>2608</v>
       </c>
@@ -18145,7 +18172,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="890" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:3">
       <c r="A890" s="2" t="s">
         <v>2611</v>
       </c>
@@ -18156,7 +18183,7 @@
         <v>2613</v>
       </c>
     </row>
-    <row r="891" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:3">
       <c r="A891" s="2" t="s">
         <v>2614</v>
       </c>
@@ -18167,7 +18194,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="892" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:3">
       <c r="A892" s="2" t="s">
         <v>2617</v>
       </c>
@@ -18178,7 +18205,7 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="893" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:3">
       <c r="A893" s="2" t="s">
         <v>2620</v>
       </c>
@@ -18189,7 +18216,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="894" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:3">
       <c r="A894" s="2" t="s">
         <v>2621</v>
       </c>
@@ -18200,7 +18227,7 @@
         <v>2623</v>
       </c>
     </row>
-    <row r="895" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:3">
       <c r="A895" s="2" t="s">
         <v>2624</v>
       </c>
@@ -18211,7 +18238,7 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="896" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:3">
       <c r="A896" s="2" t="s">
         <v>2627</v>
       </c>
@@ -18222,7 +18249,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="897" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:3">
       <c r="A897" s="3" t="s">
         <v>2630</v>
       </c>
@@ -18233,7 +18260,7 @@
         <v>2631</v>
       </c>
     </row>
-    <row r="898" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:3">
       <c r="A898" s="4" t="s">
         <v>2634</v>
       </c>
@@ -18244,7 +18271,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="899" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:3">
       <c r="A899" s="5" t="s">
         <v>251</v>
       </c>
@@ -18255,7 +18282,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="900" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:3">
       <c r="A900" s="5" t="s">
         <v>2641</v>
       </c>
@@ -18266,8 +18293,30 @@
         <v>2643</v>
       </c>
     </row>
+    <row r="901" spans="1:3">
+      <c r="A901" s="6" t="s">
+        <v>2644</v>
+      </c>
+      <c r="B901" s="4" t="s">
+        <v>2645</v>
+      </c>
+      <c r="C901" s="4" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="902" spans="1:3">
+      <c r="A902" s="6" t="s">
+        <v>2647</v>
+      </c>
+      <c r="B902" s="7" t="s">
+        <v>2648</v>
+      </c>
+      <c r="C902" s="6" t="s">
+        <v>2649</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Client/WebClient/lang/fibertest_strings.xlsx
+++ b/Client/WebClient/lang/fibertest_strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VsGitProjects\Fibertest\Client\WebClient\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E492B819-230E-428F-95CC-E605FE9A6EC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D03FEB-8069-4E80-A824-59BC77AA6BF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24495" yWindow="1830" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fibertest" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="2650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2709" uniqueCount="2656">
   <si>
     <t>Name</t>
   </si>
@@ -7974,6 +7974,24 @@
   </si>
   <si>
     <t>Верия ПО Web API</t>
+  </si>
+  <si>
+    <t>SID_Save_reflectogram</t>
+  </si>
+  <si>
+    <t>SID_Save_ref_and_base</t>
+  </si>
+  <si>
+    <t>Save reflectogram</t>
+  </si>
+  <si>
+    <t>Save ref + base</t>
+  </si>
+  <si>
+    <t>Сохранить рефлектограмму</t>
+  </si>
+  <si>
+    <t>Сохранить рефлектограмму + базовую</t>
   </si>
 </sst>
 </file>
@@ -8391,10 +8409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C902"/>
+  <dimension ref="A1:C904"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141"/>
+    <sheetView tabSelected="1" topLeftCell="A885" workbookViewId="0">
+      <selection activeCell="C905" sqref="C905"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18315,6 +18333,28 @@
         <v>2649</v>
       </c>
     </row>
+    <row r="903" spans="1:3">
+      <c r="A903" t="s">
+        <v>2650</v>
+      </c>
+      <c r="B903" t="s">
+        <v>2652</v>
+      </c>
+      <c r="C903" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="904" spans="1:3">
+      <c r="A904" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B904" t="s">
+        <v>2653</v>
+      </c>
+      <c r="C904" t="s">
+        <v>2655</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Client/WebClient/lang/fibertest_strings.xlsx
+++ b/Client/WebClient/lang/fibertest_strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VsGitProjects\Fibertest\Client\WebClient\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8688F86-2E27-46A2-ADEC-ADA97E78A656}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560328CB-1D44-401F-81A8-9C4F88D5BE30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24435" yWindow="1980" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1590" yWindow="1140" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fibertest" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2709" uniqueCount="2656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="2662">
   <si>
     <t>Name</t>
   </si>
@@ -7992,6 +7992,24 @@
   </si>
   <si>
     <t>Log in</t>
+  </si>
+  <si>
+    <t>SID_Logout</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>RTUs</t>
+  </si>
+  <si>
+    <t>Выйти</t>
+  </si>
+  <si>
+    <t>Модули</t>
+  </si>
+  <si>
+    <t>SID_RTU_Tree</t>
   </si>
 </sst>
 </file>
@@ -8409,10 +8427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C904"/>
+  <dimension ref="A1:C906"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141"/>
+    <sheetView tabSelected="1" topLeftCell="A892" workbookViewId="0">
+      <selection activeCell="A910" sqref="A910"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18355,6 +18373,28 @@
         <v>2654</v>
       </c>
     </row>
+    <row r="905" spans="1:3">
+      <c r="A905" t="s">
+        <v>2656</v>
+      </c>
+      <c r="B905" t="s">
+        <v>2657</v>
+      </c>
+      <c r="C905" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="906" spans="1:3">
+      <c r="A906" t="s">
+        <v>2661</v>
+      </c>
+      <c r="B906" t="s">
+        <v>2658</v>
+      </c>
+      <c r="C906" t="s">
+        <v>2660</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Client/WebClient/lang/fibertest_strings.xlsx
+++ b/Client/WebClient/lang/fibertest_strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VsGitProjects\Fibertest\Client\WebClient\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560328CB-1D44-401F-81A8-9C4F88D5BE30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9781E901-C57E-4853-83A3-C5C0DCC37841}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="1140" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2235" yWindow="1245" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fibertest" sheetId="1" r:id="rId1"/>
@@ -8429,8 +8429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C906"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A892" workbookViewId="0">
-      <selection activeCell="A910" sqref="A910"/>
+    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
+      <selection activeCell="A385" sqref="A385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Client/WebClient/lang/fibertest_strings.xlsx
+++ b/Client/WebClient/lang/fibertest_strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VsGitProjects\Fibertest\Client\WebClient\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9781E901-C57E-4853-83A3-C5C0DCC37841}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33BE41B-11C5-4A18-B8ED-EE4C770D1A51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="1245" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4710" yWindow="1035" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fibertest" sheetId="1" r:id="rId1"/>
@@ -8429,8 +8429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C906"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="A385" sqref="A385"/>
+    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
+      <selection activeCell="A424" sqref="A424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Client/WebClient/lang/fibertest_strings.xlsx
+++ b/Client/WebClient/lang/fibertest_strings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VsGitProjects\Fibertest\Client\WebClient\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33BE41B-11C5-4A18-B8ED-EE4C770D1A51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50000E41-9EAB-4250-B0F2-7C9D8BCB56A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="1035" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fibertest" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="2662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2724" uniqueCount="2669">
   <si>
     <t>Name</t>
   </si>
@@ -8010,6 +8010,27 @@
   </si>
   <si>
     <t>SID_RTU_Tree</t>
+  </si>
+  <si>
+    <t>SID_Reject</t>
+  </si>
+  <si>
+    <t>Reject</t>
+  </si>
+  <si>
+    <t>Отклонить</t>
+  </si>
+  <si>
+    <t>SID_Yes</t>
+  </si>
+  <si>
+    <t>SID_No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Да</t>
   </si>
 </sst>
 </file>
@@ -8427,10 +8448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C906"/>
+  <dimension ref="A1:C909"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="A424" sqref="A424"/>
+    <sheetView tabSelected="1" topLeftCell="B904" workbookViewId="0">
+      <selection activeCell="C910" sqref="C910"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18395,6 +18416,39 @@
         <v>2660</v>
       </c>
     </row>
+    <row r="907" spans="1:3">
+      <c r="A907" t="s">
+        <v>2662</v>
+      </c>
+      <c r="B907" t="s">
+        <v>2663</v>
+      </c>
+      <c r="C907" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="908" spans="1:3">
+      <c r="A908" t="s">
+        <v>2665</v>
+      </c>
+      <c r="B908" t="s">
+        <v>2667</v>
+      </c>
+      <c r="C908" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="909" spans="1:3">
+      <c r="A909" t="s">
+        <v>2666</v>
+      </c>
+      <c r="B909" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C909" t="s">
+        <v>1133</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Client/WebClient/lang/fibertest_strings.xlsx
+++ b/Client/WebClient/lang/fibertest_strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VsGitProjects\Fibertest\Client\WebClient\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50000E41-9EAB-4250-B0F2-7C9D8BCB56A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E62F61-1AC0-4067-B0BA-89FF8AC13CB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2724" uniqueCount="2669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="2672">
   <si>
     <t>Name</t>
   </si>
@@ -8031,6 +8031,15 @@
   </si>
   <si>
     <t>Да</t>
+  </si>
+  <si>
+    <t>SID_Device</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Устройство</t>
   </si>
 </sst>
 </file>
@@ -8448,10 +8457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C909"/>
+  <dimension ref="A1:C910"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B904" workbookViewId="0">
-      <selection activeCell="C910" sqref="C910"/>
+    <sheetView tabSelected="1" topLeftCell="B900" workbookViewId="0">
+      <selection activeCell="C911" sqref="C911"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18449,6 +18458,17 @@
         <v>1133</v>
       </c>
     </row>
+    <row r="910" spans="1:3">
+      <c r="A910" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B910" t="s">
+        <v>2670</v>
+      </c>
+      <c r="C910" t="s">
+        <v>2671</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Client/WebClient/lang/fibertest_strings.xlsx
+++ b/Client/WebClient/lang/fibertest_strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VsGitProjects\Fibertest\Client\WebClient\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA9D1CA-2077-4B2D-9284-632BAE61ACC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB42C05-EE60-4F04-9CD6-76AAA5A5452C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25605" yWindow="990" windowWidth="22275" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="1365" windowWidth="22275" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fibertest" sheetId="1" r:id="rId1"/>
@@ -2756,9 +2756,6 @@
     <t>RTU Manager software version</t>
   </si>
   <si>
-    <t>Версия ПО RTU менеджера</t>
-  </si>
-  <si>
     <t>SID_Wrong_user_name_or_password_</t>
   </si>
   <si>
@@ -4598,9 +4595,6 @@
     <t>About</t>
   </si>
   <si>
-    <t>О программе</t>
-  </si>
-  <si>
     <t>SID_License</t>
   </si>
   <si>
@@ -5879,9 +5873,6 @@
     <t>This user has no right to start Fibertest Client</t>
   </si>
   <si>
-    <t>Данный пользователь не имеет прав на запуск ПО FIbertest Client</t>
-  </si>
-  <si>
     <t>SID_Set_password</t>
   </si>
   <si>
@@ -6023,9 +6014,6 @@
     <t>This user has no right to start Fibertest SuperClient</t>
   </si>
   <si>
-    <t>Данный пользователь не имеет прав на запуск ПО FIbertest SuperClient</t>
-  </si>
-  <si>
     <t>SID_Edit_settings</t>
   </si>
   <si>
@@ -6134,27 +6122,18 @@
     <t>Data-center software version</t>
   </si>
   <si>
-    <t>Версия ПО Сервер</t>
-  </si>
-  <si>
     <t>SID_Client_software_version</t>
   </si>
   <si>
     <t>Client software version</t>
   </si>
   <si>
-    <t>Версия ПО Клиент</t>
-  </si>
-  <si>
     <t>SID_RTUs_software_version</t>
   </si>
   <si>
     <t>RTUs software version</t>
   </si>
   <si>
-    <t>Версии ПО RTU менеджер</t>
-  </si>
-  <si>
     <t>SID_Users_guide</t>
   </si>
   <si>
@@ -6761,9 +6740,6 @@
     <t>Fibertest data size:</t>
   </si>
   <si>
-    <t>Размер данных ПО Fibertest:</t>
-  </si>
-  <si>
     <t>SID_Data</t>
   </si>
   <si>
@@ -7040,9 +7016,6 @@
     <t>This user has no right to start Web Client</t>
   </si>
   <si>
-    <t>Данный пользователь не имеет прав на запуск ПО Fibertest WebClient</t>
-  </si>
-  <si>
     <t>SID_Files_are_unzipped___</t>
   </si>
   <si>
@@ -7247,18 +7220,12 @@
     <t>Web-Client software version</t>
   </si>
   <si>
-    <t>Версия ПО WebClient</t>
-  </si>
-  <si>
     <t>SID_Web_Api_software_version</t>
   </si>
   <si>
     <t>Web API software version</t>
   </si>
   <si>
-    <t>Верия ПО Web API</t>
-  </si>
-  <si>
     <t>SID_Save_reflectogram</t>
   </si>
   <si>
@@ -7328,9 +7295,6 @@
     <t>Устройство</t>
   </si>
   <si>
-    <t>Удаление ПО завершено.</t>
-  </si>
-  <si>
     <t>Files are being copied...</t>
   </si>
   <si>
@@ -7445,9 +7409,6 @@
     <t>Uninstall failed</t>
   </si>
   <si>
-    <t>Удаление ПО не удалось</t>
-  </si>
-  <si>
     <t>SID_Uninstallation_completed_successfully</t>
   </si>
   <si>
@@ -8066,9 +8027,6 @@
     <t>software : {{0}}</t>
   </si>
   <si>
-    <t>версия ПО : {{0}}</t>
-  </si>
-  <si>
     <t xml:space="preserve">port {{0}}{{1}}  ; </t>
   </si>
   <si>
@@ -8111,9 +8069,6 @@
     <t>{{0}} ;  software {{1}}</t>
   </si>
   <si>
-    <t>{{0}} ;  версия ПО {{1}}</t>
-  </si>
-  <si>
     <t>Sorfiles table compressing {{0:0.0}}%...</t>
   </si>
   <si>
@@ -8192,18 +8147,6 @@
     <t>Не удалось удалить {{0}}</t>
   </si>
   <si>
-    <t xml:space="preserve">{{{{0}}}}: Monitoring Settings </t>
-  </si>
-  <si>
-    <t>{{{{0}}}}:  Настройки мониторинга</t>
-  </si>
-  <si>
-    <t>Cycle full time {{{{0}}}} sec</t>
-  </si>
-  <si>
-    <t>Полное время цикла {{{{0}}}} сек</t>
-  </si>
-  <si>
     <t>SID_User__0__is_logged_in_from_a_different_device_at__1_</t>
   </si>
   <si>
@@ -8211,16 +8154,80 @@
   </si>
   <si>
     <t>User {{0}} is logged in from a different device at {{1}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{0}}: Monitoring Settings </t>
+  </si>
+  <si>
+    <t>{{0}}:  Настройки мониторинга</t>
+  </si>
+  <si>
+    <t>Cycle full time {{0}} sec</t>
+  </si>
+  <si>
+    <t>Полное время цикла {{0}} сек</t>
+  </si>
+  <si>
+    <t>Версия ПК RTU менеджера</t>
+  </si>
+  <si>
+    <t>Удаление ПК завершено.</t>
+  </si>
+  <si>
+    <t>Данный пользователь не имеет прав на запуск ПК FIbertest Client</t>
+  </si>
+  <si>
+    <t>Данный пользователь не имеет прав на запуск ПК FIbertest SuperClient</t>
+  </si>
+  <si>
+    <t>Версия ПК Сервер</t>
+  </si>
+  <si>
+    <t>Версия ПК Клиент</t>
+  </si>
+  <si>
+    <t>Версии ПК RTU менеджер</t>
+  </si>
+  <si>
+    <t>версия ПК : {{0}}</t>
+  </si>
+  <si>
+    <t>{{0}} ;  версия ПК {{1}}</t>
+  </si>
+  <si>
+    <t>Размер данных ПК Fibertest:</t>
+  </si>
+  <si>
+    <t>Данный пользователь не имеет прав на запуск ПК Fibertest WebClient</t>
+  </si>
+  <si>
+    <t>Удаление ПК не удалось</t>
+  </si>
+  <si>
+    <t>Версия ПК WebClient</t>
+  </si>
+  <si>
+    <t>Верия ПК Web API</t>
+  </si>
+  <si>
+    <t>О системе</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -8268,23 +8275,24 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8630,8 +8638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C929"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A892" workbookViewId="0">
-      <selection activeCell="B906" sqref="B906"/>
+    <sheetView tabSelected="1" topLeftCell="A543" workbookViewId="0">
+      <selection activeCell="C557" sqref="C557"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8646,10 +8654,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2487</v>
+        <v>2474</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>2488</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -9086,10 +9094,10 @@
         <v>118</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>2489</v>
+        <v>2476</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>2490</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -9119,10 +9127,10 @@
         <v>125</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>2491</v>
+        <v>2478</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>2491</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -9130,10 +9138,10 @@
         <v>126</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>2492</v>
+        <v>2479</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>2493</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -9372,10 +9380,10 @@
         <v>190</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>2494</v>
+        <v>2481</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>2494</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -9977,10 +9985,10 @@
         <v>353</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>2495</v>
+        <v>2482</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>2496</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -9988,10 +9996,10 @@
         <v>354</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>2497</v>
+        <v>2484</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>2498</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -10197,7 +10205,7 @@
         <v>408</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>2417</v>
+        <v>2406</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>409</v>
@@ -10362,10 +10370,10 @@
         <v>448</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>2499</v>
+        <v>2486</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>2499</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -10604,10 +10612,10 @@
         <v>510</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>2500</v>
+        <v>2487</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>2501</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -11055,10 +11063,10 @@
         <v>629</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>2502</v>
+        <v>2489</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>2503</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -11099,10 +11107,10 @@
         <v>639</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>2504</v>
+        <v>2491</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>2505</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -11110,10 +11118,10 @@
         <v>640</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>2506</v>
+        <v>2493</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>2507</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -11154,10 +11162,10 @@
         <v>650</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>2508</v>
+        <v>2495</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>2509</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -11165,10 +11173,10 @@
         <v>651</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>2510</v>
+        <v>2497</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>2511</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -11198,10 +11206,10 @@
         <v>657</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>2512</v>
+        <v>2499</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>2512</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -11242,10 +11250,10 @@
         <v>664</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>2513</v>
+        <v>2500</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>2513</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -11253,10 +11261,10 @@
         <v>665</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>2514</v>
+        <v>2501</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>2514</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -11264,10 +11272,10 @@
         <v>666</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>2515</v>
+        <v>2502</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>2515</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -11308,10 +11316,10 @@
         <v>674</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>2516</v>
+        <v>2503</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>2516</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -11517,10 +11525,10 @@
         <v>729</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>2517</v>
+        <v>2504</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>2518</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -11528,10 +11536,10 @@
         <v>730</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>2519</v>
+        <v>2506</v>
       </c>
       <c r="C263" s="7" t="s">
-        <v>2520</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -11539,10 +11547,10 @@
         <v>731</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>2521</v>
+        <v>2508</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>2522</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -11550,10 +11558,10 @@
         <v>732</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>2523</v>
+        <v>2510</v>
       </c>
       <c r="C265" s="7" t="s">
-        <v>2524</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -11638,10 +11646,10 @@
         <v>754</v>
       </c>
       <c r="B273" s="7" t="s">
-        <v>2525</v>
+        <v>2512</v>
       </c>
       <c r="C273" s="7" t="s">
-        <v>2526</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -11649,10 +11657,10 @@
         <v>755</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>2527</v>
+        <v>2514</v>
       </c>
       <c r="C274" s="7" t="s">
-        <v>2528</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -11660,10 +11668,10 @@
         <v>756</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>2529</v>
+        <v>2516</v>
       </c>
       <c r="C275" s="7" t="s">
-        <v>2530</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -11957,10 +11965,10 @@
         <v>835</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>2531</v>
+        <v>2518</v>
       </c>
       <c r="C302" s="7" t="s">
-        <v>2532</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -11968,10 +11976,10 @@
         <v>836</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>2533</v>
+        <v>2520</v>
       </c>
       <c r="C303" s="7" t="s">
-        <v>2534</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -12056,10 +12064,10 @@
         <v>858</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>2535</v>
+        <v>2522</v>
       </c>
       <c r="C311" s="7" t="s">
-        <v>2536</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -12067,10 +12075,10 @@
         <v>859</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>2537</v>
+        <v>2524</v>
       </c>
       <c r="C312" s="7" t="s">
-        <v>2538</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -12078,10 +12086,10 @@
         <v>860</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>2539</v>
+        <v>2526</v>
       </c>
       <c r="C313" s="7" t="s">
-        <v>2540</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -12089,10 +12097,10 @@
         <v>861</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>2541</v>
+        <v>2528</v>
       </c>
       <c r="C314" s="7" t="s">
-        <v>2542</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -12100,10 +12108,10 @@
         <v>862</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>2543</v>
+        <v>2530</v>
       </c>
       <c r="C315" s="7" t="s">
-        <v>2544</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -12221,10 +12229,10 @@
         <v>893</v>
       </c>
       <c r="B326" s="7" t="s">
-        <v>2545</v>
+        <v>2532</v>
       </c>
       <c r="C326" s="7" t="s">
-        <v>2546</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -12265,10 +12273,10 @@
         <v>903</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>2547</v>
+        <v>2534</v>
       </c>
       <c r="C330" s="7" t="s">
-        <v>2548</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -12287,10 +12295,10 @@
         <v>907</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>2549</v>
+        <v>2536</v>
       </c>
       <c r="C332" s="7" t="s">
-        <v>2550</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -12301,191 +12309,191 @@
         <v>909</v>
       </c>
       <c r="C333" s="7" t="s">
-        <v>910</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="7" t="s">
+        <v>910</v>
+      </c>
+      <c r="B334" s="7" t="s">
         <v>911</v>
       </c>
-      <c r="B334" s="7" t="s">
+      <c r="C334" s="7" t="s">
         <v>912</v>
-      </c>
-      <c r="C334" s="7" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="7" t="s">
+        <v>913</v>
+      </c>
+      <c r="B335" s="7" t="s">
         <v>914</v>
       </c>
-      <c r="B335" s="7" t="s">
+      <c r="C335" s="7" t="s">
         <v>915</v>
-      </c>
-      <c r="C335" s="7" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="B336" s="7" t="s">
         <v>917</v>
       </c>
-      <c r="B336" s="7" t="s">
+      <c r="C336" s="7" t="s">
         <v>918</v>
-      </c>
-      <c r="C336" s="7" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="B337" s="7" t="s">
         <v>920</v>
       </c>
-      <c r="B337" s="7" t="s">
+      <c r="C337" s="7" t="s">
         <v>921</v>
-      </c>
-      <c r="C337" s="7" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="B338" s="7" t="s">
         <v>923</v>
       </c>
-      <c r="B338" s="7" t="s">
+      <c r="C338" s="7" t="s">
         <v>924</v>
-      </c>
-      <c r="C338" s="7" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="7" t="s">
+        <v>925</v>
+      </c>
+      <c r="B339" s="7" t="s">
         <v>926</v>
       </c>
-      <c r="B339" s="7" t="s">
+      <c r="C339" s="7" t="s">
         <v>927</v>
-      </c>
-      <c r="C339" s="7" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="B340" s="7" t="s">
         <v>929</v>
       </c>
-      <c r="B340" s="7" t="s">
+      <c r="C340" s="7" t="s">
         <v>930</v>
-      </c>
-      <c r="C340" s="7" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="B341" s="7" t="s">
         <v>932</v>
       </c>
-      <c r="B341" s="7" t="s">
+      <c r="C341" s="7" t="s">
         <v>933</v>
-      </c>
-      <c r="C341" s="7" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="7" t="s">
+        <v>934</v>
+      </c>
+      <c r="B342" s="7" t="s">
         <v>935</v>
       </c>
-      <c r="B342" s="7" t="s">
+      <c r="C342" s="7" t="s">
         <v>936</v>
-      </c>
-      <c r="C342" s="7" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="7" t="s">
+        <v>937</v>
+      </c>
+      <c r="B343" s="7" t="s">
         <v>938</v>
       </c>
-      <c r="B343" s="7" t="s">
+      <c r="C343" s="7" t="s">
         <v>939</v>
-      </c>
-      <c r="C343" s="7" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="7" t="s">
+        <v>940</v>
+      </c>
+      <c r="B344" s="7" t="s">
         <v>941</v>
       </c>
-      <c r="B344" s="7" t="s">
+      <c r="C344" s="7" t="s">
         <v>942</v>
-      </c>
-      <c r="C344" s="7" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="7" t="s">
+        <v>943</v>
+      </c>
+      <c r="B345" s="7" t="s">
         <v>944</v>
       </c>
-      <c r="B345" s="7" t="s">
+      <c r="C345" s="7" t="s">
         <v>945</v>
-      </c>
-      <c r="C345" s="7" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="7" t="s">
+        <v>946</v>
+      </c>
+      <c r="B346" s="7" t="s">
         <v>947</v>
       </c>
-      <c r="B346" s="7" t="s">
+      <c r="C346" s="7" t="s">
         <v>948</v>
-      </c>
-      <c r="C346" s="7" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="B347" s="7" t="s">
         <v>950</v>
       </c>
-      <c r="B347" s="7" t="s">
+      <c r="C347" s="7" t="s">
         <v>951</v>
-      </c>
-      <c r="C347" s="7" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="7" t="s">
+        <v>952</v>
+      </c>
+      <c r="B348" s="7" t="s">
         <v>953</v>
       </c>
-      <c r="B348" s="7" t="s">
+      <c r="C348" s="7" t="s">
         <v>954</v>
-      </c>
-      <c r="C348" s="7" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="7" t="s">
+        <v>955</v>
+      </c>
+      <c r="B349" s="7" t="s">
         <v>956</v>
       </c>
-      <c r="B349" s="7" t="s">
+      <c r="C349" s="7" t="s">
         <v>957</v>
-      </c>
-      <c r="C349" s="7" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" s="7" t="s">
+        <v>958</v>
+      </c>
+      <c r="B350" s="7" t="s">
         <v>959</v>
-      </c>
-      <c r="B350" s="7" t="s">
-        <v>960</v>
       </c>
       <c r="C350" s="7" t="s">
         <v>896</v>
@@ -12493,337 +12501,337 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="B351" s="7" t="s">
         <v>961</v>
       </c>
-      <c r="B351" s="7" t="s">
+      <c r="C351" s="7" t="s">
         <v>962</v>
-      </c>
-      <c r="C351" s="7" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="7" t="s">
+        <v>963</v>
+      </c>
+      <c r="B352" s="7" t="s">
         <v>964</v>
       </c>
-      <c r="B352" s="7" t="s">
+      <c r="C352" s="7" t="s">
         <v>965</v>
-      </c>
-      <c r="C352" s="7" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="7" t="s">
+        <v>966</v>
+      </c>
+      <c r="B353" s="7" t="s">
         <v>967</v>
       </c>
-      <c r="B353" s="7" t="s">
+      <c r="C353" s="7" t="s">
         <v>968</v>
-      </c>
-      <c r="C353" s="7" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="7" t="s">
+        <v>969</v>
+      </c>
+      <c r="B354" s="7" t="s">
         <v>970</v>
       </c>
-      <c r="B354" s="7" t="s">
+      <c r="C354" s="7" t="s">
         <v>971</v>
-      </c>
-      <c r="C354" s="7" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="7" t="s">
+        <v>972</v>
+      </c>
+      <c r="B355" s="7" t="s">
         <v>973</v>
       </c>
-      <c r="B355" s="7" t="s">
+      <c r="C355" s="7" t="s">
         <v>974</v>
-      </c>
-      <c r="C355" s="7" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="7" t="s">
+        <v>975</v>
+      </c>
+      <c r="B356" s="7" t="s">
         <v>976</v>
       </c>
-      <c r="B356" s="7" t="s">
+      <c r="C356" s="7" t="s">
         <v>977</v>
-      </c>
-      <c r="C356" s="7" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="7" t="s">
+        <v>978</v>
+      </c>
+      <c r="B357" s="7" t="s">
         <v>979</v>
       </c>
-      <c r="B357" s="7" t="s">
+      <c r="C357" s="7" t="s">
         <v>980</v>
-      </c>
-      <c r="C357" s="7" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="7" t="s">
+        <v>981</v>
+      </c>
+      <c r="B358" s="7" t="s">
         <v>982</v>
       </c>
-      <c r="B358" s="7" t="s">
+      <c r="C358" s="7" t="s">
         <v>983</v>
-      </c>
-      <c r="C358" s="7" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="B359" s="7" t="s">
         <v>985</v>
       </c>
-      <c r="B359" s="7" t="s">
+      <c r="C359" s="7" t="s">
         <v>986</v>
-      </c>
-      <c r="C359" s="7" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="7" t="s">
+        <v>987</v>
+      </c>
+      <c r="B360" s="7" t="s">
         <v>988</v>
       </c>
-      <c r="B360" s="7" t="s">
+      <c r="C360" s="7" t="s">
         <v>989</v>
-      </c>
-      <c r="C360" s="7" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="7" t="s">
+        <v>990</v>
+      </c>
+      <c r="B361" s="7" t="s">
         <v>991</v>
       </c>
-      <c r="B361" s="7" t="s">
+      <c r="C361" s="7" t="s">
         <v>992</v>
-      </c>
-      <c r="C361" s="7" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="B362" s="7" t="s">
         <v>994</v>
       </c>
-      <c r="B362" s="7" t="s">
+      <c r="C362" s="7" t="s">
         <v>995</v>
-      </c>
-      <c r="C362" s="7" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="7" t="s">
+        <v>996</v>
+      </c>
+      <c r="B363" s="7" t="s">
         <v>997</v>
       </c>
-      <c r="B363" s="7" t="s">
+      <c r="C363" s="7" t="s">
         <v>998</v>
-      </c>
-      <c r="C363" s="7" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="7" t="s">
+        <v>999</v>
+      </c>
+      <c r="B364" s="7" t="s">
         <v>1000</v>
       </c>
-      <c r="B364" s="7" t="s">
+      <c r="C364" s="7" t="s">
         <v>1001</v>
-      </c>
-      <c r="C364" s="7" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="7" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B365" s="7" t="s">
         <v>1003</v>
       </c>
-      <c r="B365" s="7" t="s">
+      <c r="C365" s="7" t="s">
         <v>1004</v>
-      </c>
-      <c r="C365" s="7" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B366" s="7" t="s">
         <v>1006</v>
       </c>
-      <c r="B366" s="7" t="s">
+      <c r="C366" s="7" t="s">
         <v>1007</v>
-      </c>
-      <c r="C366" s="7" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="7" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B367" s="7" t="s">
         <v>1009</v>
       </c>
-      <c r="B367" s="7" t="s">
+      <c r="C367" s="7" t="s">
         <v>1010</v>
-      </c>
-      <c r="C367" s="7" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="7" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B368" s="7" t="s">
         <v>1012</v>
       </c>
-      <c r="B368" s="7" t="s">
+      <c r="C368" s="7" t="s">
         <v>1013</v>
-      </c>
-      <c r="C368" s="7" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="7" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B369" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="B369" s="7" t="s">
+      <c r="C369" s="7" t="s">
         <v>1016</v>
-      </c>
-      <c r="C369" s="7" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B370" s="7" t="s">
         <v>1018</v>
       </c>
-      <c r="B370" s="7" t="s">
+      <c r="C370" s="7" t="s">
         <v>1019</v>
-      </c>
-      <c r="C370" s="7" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B371" s="7" t="s">
         <v>1021</v>
       </c>
-      <c r="B371" s="7" t="s">
+      <c r="C371" s="7" t="s">
         <v>1022</v>
-      </c>
-      <c r="C371" s="7" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="7" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B372" s="7" t="s">
         <v>1024</v>
       </c>
-      <c r="B372" s="7" t="s">
+      <c r="C372" s="7" t="s">
         <v>1025</v>
-      </c>
-      <c r="C372" s="7" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="7" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B373" s="7" t="s">
         <v>1027</v>
       </c>
-      <c r="B373" s="7" t="s">
+      <c r="C373" s="7" t="s">
         <v>1028</v>
-      </c>
-      <c r="C373" s="7" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="7" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B374" s="7" t="s">
         <v>1030</v>
       </c>
-      <c r="B374" s="7" t="s">
+      <c r="C374" s="7" t="s">
         <v>1031</v>
-      </c>
-      <c r="C374" s="7" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B375" s="7" t="s">
         <v>1033</v>
       </c>
-      <c r="B375" s="7" t="s">
+      <c r="C375" s="7" t="s">
         <v>1034</v>
-      </c>
-      <c r="C375" s="7" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B376" s="7" t="s">
         <v>1036</v>
       </c>
-      <c r="B376" s="7" t="s">
+      <c r="C376" s="7" t="s">
         <v>1037</v>
-      </c>
-      <c r="C376" s="7" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="7" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B377" s="7" t="s">
         <v>1039</v>
       </c>
-      <c r="B377" s="7" t="s">
+      <c r="C377" s="7" t="s">
         <v>1040</v>
-      </c>
-      <c r="C377" s="7" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="7" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B378" s="7" t="s">
         <v>1042</v>
       </c>
-      <c r="B378" s="7" t="s">
+      <c r="C378" s="7" t="s">
         <v>1043</v>
-      </c>
-      <c r="C378" s="7" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="7" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B379" s="7" t="s">
         <v>1045</v>
       </c>
-      <c r="B379" s="7" t="s">
+      <c r="C379" s="7" t="s">
         <v>1046</v>
-      </c>
-      <c r="C379" s="7" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="7" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B380" s="7" t="s">
         <v>1048</v>
       </c>
-      <c r="B380" s="7" t="s">
+      <c r="C380" s="7" t="s">
         <v>1049</v>
-      </c>
-      <c r="C380" s="7" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="7" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B381" s="7" t="s">
         <v>411</v>
@@ -12834,340 +12842,340 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="7" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>2551</v>
+        <v>2538</v>
       </c>
       <c r="C382" s="7" t="s">
-        <v>2552</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="7" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B383" s="7" t="s">
         <v>1053</v>
       </c>
-      <c r="B383" s="7" t="s">
+      <c r="C383" s="7" t="s">
         <v>1054</v>
-      </c>
-      <c r="C383" s="7" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="7" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B384" s="7" t="s">
         <v>1056</v>
       </c>
-      <c r="B384" s="7" t="s">
+      <c r="C384" s="7" t="s">
         <v>1057</v>
-      </c>
-      <c r="C384" s="7" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="7" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B385" s="7" t="s">
         <v>1059</v>
       </c>
-      <c r="B385" s="7" t="s">
+      <c r="C385" s="7" t="s">
         <v>1060</v>
-      </c>
-      <c r="C385" s="7" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" s="7" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B386" s="7" t="s">
         <v>1062</v>
       </c>
-      <c r="B386" s="7" t="s">
+      <c r="C386" s="7" t="s">
         <v>1063</v>
-      </c>
-      <c r="C386" s="7" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="7" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B387" s="7" t="s">
         <v>1065</v>
       </c>
-      <c r="B387" s="7" t="s">
+      <c r="C387" s="7" t="s">
         <v>1066</v>
-      </c>
-      <c r="C387" s="7" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B388" s="7" t="s">
         <v>1068</v>
       </c>
-      <c r="B388" s="7" t="s">
+      <c r="C388" s="7" t="s">
         <v>1069</v>
-      </c>
-      <c r="C388" s="7" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="7" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B389" s="7" t="s">
         <v>1071</v>
       </c>
-      <c r="B389" s="7" t="s">
+      <c r="C389" s="7" t="s">
         <v>1072</v>
-      </c>
-      <c r="C389" s="7" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="7" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B390" s="7" t="s">
         <v>1074</v>
       </c>
-      <c r="B390" s="7" t="s">
+      <c r="C390" s="7" t="s">
         <v>1075</v>
-      </c>
-      <c r="C390" s="7" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="7" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B391" s="7" t="s">
         <v>1077</v>
       </c>
-      <c r="B391" s="7" t="s">
+      <c r="C391" s="7" t="s">
         <v>1078</v>
-      </c>
-      <c r="C391" s="7" t="s">
-        <v>1079</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="7" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B392" s="7" t="s">
         <v>1080</v>
       </c>
-      <c r="B392" s="7" t="s">
+      <c r="C392" s="7" t="s">
         <v>1081</v>
-      </c>
-      <c r="C392" s="7" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="7" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B393" s="7" t="s">
         <v>1083</v>
       </c>
-      <c r="B393" s="7" t="s">
+      <c r="C393" s="7" t="s">
         <v>1084</v>
-      </c>
-      <c r="C393" s="7" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="7" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B394" s="7" t="s">
         <v>1086</v>
       </c>
-      <c r="B394" s="7" t="s">
+      <c r="C394" s="7" t="s">
         <v>1087</v>
-      </c>
-      <c r="C394" s="7" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="7" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B395" s="7" t="s">
         <v>1089</v>
       </c>
-      <c r="B395" s="7" t="s">
+      <c r="C395" s="7" t="s">
         <v>1090</v>
-      </c>
-      <c r="C395" s="7" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="7" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B396" s="7" t="s">
         <v>1092</v>
       </c>
-      <c r="B396" s="7" t="s">
+      <c r="C396" s="7" t="s">
         <v>1093</v>
-      </c>
-      <c r="C396" s="7" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="7" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B397" s="7" t="s">
         <v>1095</v>
       </c>
-      <c r="B397" s="7" t="s">
+      <c r="C397" s="7" t="s">
         <v>1096</v>
-      </c>
-      <c r="C397" s="7" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="7" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B398" s="7" t="s">
         <v>1098</v>
       </c>
-      <c r="B398" s="7" t="s">
+      <c r="C398" s="7" t="s">
         <v>1099</v>
-      </c>
-      <c r="C398" s="7" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="7" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B399" s="7" t="s">
         <v>1101</v>
       </c>
-      <c r="B399" s="7" t="s">
+      <c r="C399" s="7" t="s">
         <v>1102</v>
-      </c>
-      <c r="C399" s="7" t="s">
-        <v>1103</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="7" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B400" s="7" t="s">
         <v>1104</v>
       </c>
-      <c r="B400" s="7" t="s">
+      <c r="C400" s="7" t="s">
         <v>1105</v>
-      </c>
-      <c r="C400" s="7" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="7" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B401" s="7" t="s">
         <v>1107</v>
       </c>
-      <c r="B401" s="7" t="s">
+      <c r="C401" s="7" t="s">
         <v>1108</v>
-      </c>
-      <c r="C401" s="7" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="7" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B402" s="7" t="s">
         <v>1110</v>
       </c>
-      <c r="B402" s="7" t="s">
+      <c r="C402" s="7" t="s">
         <v>1111</v>
-      </c>
-      <c r="C402" s="7" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="7" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B403" s="7" t="s">
         <v>1113</v>
       </c>
-      <c r="B403" s="7" t="s">
+      <c r="C403" s="7" t="s">
         <v>1114</v>
-      </c>
-      <c r="C403" s="7" t="s">
-        <v>1115</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="7" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B404" s="7" t="s">
         <v>1116</v>
       </c>
-      <c r="B404" s="7" t="s">
+      <c r="C404" s="7" t="s">
         <v>1117</v>
-      </c>
-      <c r="C404" s="7" t="s">
-        <v>1118</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="7" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B405" s="7" t="s">
         <v>1119</v>
       </c>
-      <c r="B405" s="7" t="s">
+      <c r="C405" s="7" t="s">
         <v>1120</v>
-      </c>
-      <c r="C405" s="7" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="7" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B406" s="7" t="s">
         <v>1122</v>
       </c>
-      <c r="B406" s="7" t="s">
+      <c r="C406" s="7" t="s">
         <v>1123</v>
-      </c>
-      <c r="C406" s="7" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="7" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B407" s="7" t="s">
         <v>1125</v>
       </c>
-      <c r="B407" s="7" t="s">
+      <c r="C407" s="7" t="s">
         <v>1126</v>
-      </c>
-      <c r="C407" s="7" t="s">
-        <v>1127</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="7" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B408" s="7" t="s">
         <v>1128</v>
       </c>
-      <c r="B408" s="7" t="s">
+      <c r="C408" s="7" t="s">
         <v>1129</v>
-      </c>
-      <c r="C408" s="7" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="7" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B409" s="7" t="s">
         <v>1131</v>
       </c>
-      <c r="B409" s="7" t="s">
+      <c r="C409" s="7" t="s">
         <v>1132</v>
-      </c>
-      <c r="C409" s="7" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="7" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B410" s="7" t="s">
         <v>1134</v>
       </c>
-      <c r="B410" s="7" t="s">
+      <c r="C410" s="7" t="s">
         <v>1135</v>
-      </c>
-      <c r="C410" s="7" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="7" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B411" s="7" t="s">
         <v>1137</v>
       </c>
-      <c r="B411" s="7" t="s">
+      <c r="C411" s="7" t="s">
         <v>1138</v>
-      </c>
-      <c r="C411" s="7" t="s">
-        <v>1139</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="7" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B412" s="7" t="s">
         <v>1140</v>
-      </c>
-      <c r="B412" s="7" t="s">
-        <v>1141</v>
       </c>
       <c r="C412" s="7" t="s">
         <v>594</v>
@@ -13175,879 +13183,879 @@
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="7" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B413" s="7" t="s">
         <v>1142</v>
       </c>
-      <c r="B413" s="7" t="s">
+      <c r="C413" s="7" t="s">
         <v>1143</v>
-      </c>
-      <c r="C413" s="7" t="s">
-        <v>1144</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="7" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B414" s="7" t="s">
         <v>1145</v>
       </c>
-      <c r="B414" s="7" t="s">
+      <c r="C414" s="7" t="s">
         <v>1146</v>
-      </c>
-      <c r="C414" s="7" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="7" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B415" s="7" t="s">
-        <v>2553</v>
+        <v>2540</v>
       </c>
       <c r="C415" s="7" t="s">
-        <v>2554</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="7" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>2555</v>
+        <v>2542</v>
       </c>
       <c r="C416" s="7" t="s">
-        <v>2556</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="7" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B417" s="7" t="s">
-        <v>2557</v>
+        <v>2544</v>
       </c>
       <c r="C417" s="7" t="s">
-        <v>2558</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="7" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B418" s="7" t="s">
         <v>1151</v>
       </c>
-      <c r="B418" s="7" t="s">
+      <c r="C418" s="7" t="s">
         <v>1152</v>
-      </c>
-      <c r="C418" s="7" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="7" t="s">
-        <v>2399</v>
+        <v>2390</v>
       </c>
       <c r="B419" s="7" t="s">
-        <v>2559</v>
+        <v>2546</v>
       </c>
       <c r="C419" s="7" t="s">
-        <v>2560</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B420" s="7" t="s">
         <v>1154</v>
       </c>
-      <c r="B420" s="7" t="s">
+      <c r="C420" s="7" t="s">
         <v>1155</v>
-      </c>
-      <c r="C420" s="7" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="7" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B421" s="7" t="s">
         <v>1157</v>
       </c>
-      <c r="B421" s="7" t="s">
+      <c r="C421" s="7" t="s">
         <v>1158</v>
-      </c>
-      <c r="C421" s="7" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B422" s="7" t="s">
-        <v>2561</v>
+        <v>2548</v>
       </c>
       <c r="C422" s="7" t="s">
-        <v>2562</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="7" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B423" s="7" t="s">
         <v>1161</v>
       </c>
-      <c r="B423" s="7" t="s">
+      <c r="C423" s="7" t="s">
         <v>1162</v>
-      </c>
-      <c r="C423" s="7" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="7" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B424" s="7" t="s">
         <v>1164</v>
       </c>
-      <c r="B424" s="7" t="s">
+      <c r="C424" s="7" t="s">
         <v>1165</v>
-      </c>
-      <c r="C424" s="7" t="s">
-        <v>1166</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="7" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B425" s="7" t="s">
         <v>1167</v>
       </c>
-      <c r="B425" s="7" t="s">
+      <c r="C425" s="7" t="s">
         <v>1168</v>
-      </c>
-      <c r="C425" s="7" t="s">
-        <v>1169</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="7" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B426" s="7" t="s">
         <v>1170</v>
       </c>
-      <c r="B426" s="7" t="s">
+      <c r="C426" s="7" t="s">
         <v>1171</v>
-      </c>
-      <c r="C426" s="7" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="7" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B427" s="7" t="s">
         <v>1173</v>
       </c>
-      <c r="B427" s="7" t="s">
+      <c r="C427" s="7" t="s">
         <v>1174</v>
-      </c>
-      <c r="C427" s="7" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="7" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B428" s="7" t="s">
         <v>1176</v>
       </c>
-      <c r="B428" s="7" t="s">
+      <c r="C428" s="7" t="s">
         <v>1177</v>
-      </c>
-      <c r="C428" s="7" t="s">
-        <v>1178</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="7" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B429" s="7" t="s">
         <v>1179</v>
       </c>
-      <c r="B429" s="7" t="s">
+      <c r="C429" s="7" t="s">
         <v>1180</v>
-      </c>
-      <c r="C429" s="7" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="7" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B430" s="7" t="s">
         <v>1182</v>
       </c>
-      <c r="B430" s="7" t="s">
+      <c r="C430" s="7" t="s">
         <v>1183</v>
-      </c>
-      <c r="C430" s="7" t="s">
-        <v>1184</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="7" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B431" s="7" t="s">
         <v>1185</v>
       </c>
-      <c r="B431" s="7" t="s">
+      <c r="C431" s="7" t="s">
         <v>1186</v>
-      </c>
-      <c r="C431" s="7" t="s">
-        <v>1187</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="7" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>2563</v>
+        <v>2550</v>
       </c>
       <c r="C432" s="7" t="s">
-        <v>2564</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="7" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B433" s="7" t="s">
-        <v>2565</v>
+        <v>2552</v>
       </c>
       <c r="C433" s="7" t="s">
-        <v>2566</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="7" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B434" s="7" t="s">
         <v>797</v>
       </c>
       <c r="C434" s="7" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="7" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B435" s="7" t="s">
         <v>806</v>
       </c>
       <c r="C435" s="7" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="7" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B436" s="7" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C436" s="7" t="s">
         <v>1194</v>
-      </c>
-      <c r="B436" s="7" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C436" s="7" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="7" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B437" s="7" t="s">
         <v>1196</v>
       </c>
-      <c r="B437" s="7" t="s">
+      <c r="C437" s="7" t="s">
         <v>1197</v>
-      </c>
-      <c r="C437" s="7" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="7" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>2567</v>
+        <v>2554</v>
       </c>
       <c r="C438" s="7" t="s">
-        <v>2568</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="7" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B439" s="7" t="s">
-        <v>2569</v>
+        <v>2556</v>
       </c>
       <c r="C439" s="7" t="s">
-        <v>2570</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="7" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B440" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="B440" s="7" t="s">
+      <c r="C440" s="7" t="s">
         <v>1202</v>
-      </c>
-      <c r="C440" s="7" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="7" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B441" s="7" t="s">
         <v>1204</v>
       </c>
-      <c r="B441" s="7" t="s">
+      <c r="C441" s="7" t="s">
         <v>1205</v>
-      </c>
-      <c r="C441" s="7" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="7" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B442" s="7" t="s">
         <v>1207</v>
       </c>
-      <c r="B442" s="7" t="s">
+      <c r="C442" s="7" t="s">
         <v>1208</v>
-      </c>
-      <c r="C442" s="7" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="7" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B443" s="7" t="s">
         <v>1210</v>
       </c>
-      <c r="B443" s="7" t="s">
+      <c r="C443" s="7" t="s">
         <v>1211</v>
-      </c>
-      <c r="C443" s="7" t="s">
-        <v>1212</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="7" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B444" s="7" t="s">
         <v>1213</v>
       </c>
-      <c r="B444" s="7" t="s">
+      <c r="C444" s="7" t="s">
         <v>1214</v>
-      </c>
-      <c r="C444" s="7" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="7" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B445" s="7" t="s">
         <v>1216</v>
       </c>
-      <c r="B445" s="7" t="s">
+      <c r="C445" s="7" t="s">
         <v>1217</v>
-      </c>
-      <c r="C445" s="7" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="7" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B446" s="7" t="s">
         <v>1219</v>
       </c>
-      <c r="B446" s="7" t="s">
+      <c r="C446" s="7" t="s">
         <v>1220</v>
-      </c>
-      <c r="C446" s="7" t="s">
-        <v>1221</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B447" s="7" t="s">
         <v>1222</v>
       </c>
-      <c r="B447" s="7" t="s">
+      <c r="C447" s="7" t="s">
         <v>1223</v>
-      </c>
-      <c r="C447" s="7" t="s">
-        <v>1224</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="7" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B448" s="7" t="s">
         <v>1225</v>
       </c>
-      <c r="B448" s="7" t="s">
+      <c r="C448" s="7" t="s">
         <v>1226</v>
-      </c>
-      <c r="C448" s="7" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="7" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B449" s="7" t="s">
         <v>1228</v>
       </c>
-      <c r="B449" s="7" t="s">
+      <c r="C449" s="7" t="s">
         <v>1229</v>
-      </c>
-      <c r="C449" s="7" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="7" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B450" s="7" t="s">
-        <v>2571</v>
+        <v>2558</v>
       </c>
       <c r="C450" s="7" t="s">
-        <v>2572</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="7" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B451" s="7" t="s">
-        <v>2573</v>
+        <v>2560</v>
       </c>
       <c r="C451" s="7" t="s">
-        <v>2574</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" s="7" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B452" s="7" t="s">
         <v>1233</v>
       </c>
-      <c r="B452" s="7" t="s">
+      <c r="C452" s="7" t="s">
         <v>1234</v>
-      </c>
-      <c r="C452" s="7" t="s">
-        <v>1235</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="7" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B453" s="7" t="s">
-        <v>2575</v>
+        <v>2562</v>
       </c>
       <c r="C453" s="7" t="s">
-        <v>2576</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="7" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>2577</v>
+        <v>2564</v>
       </c>
       <c r="C454" s="7" t="s">
-        <v>2578</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="7" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B455" s="7" t="s">
         <v>1238</v>
       </c>
-      <c r="B455" s="7" t="s">
+      <c r="C455" s="7" t="s">
         <v>1239</v>
-      </c>
-      <c r="C455" s="7" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="7" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B456" s="7" t="s">
         <v>1241</v>
       </c>
-      <c r="B456" s="7" t="s">
+      <c r="C456" s="7" t="s">
         <v>1242</v>
-      </c>
-      <c r="C456" s="7" t="s">
-        <v>1243</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="7" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B457" s="7" t="s">
         <v>1244</v>
       </c>
-      <c r="B457" s="7" t="s">
+      <c r="C457" s="7" t="s">
         <v>1245</v>
-      </c>
-      <c r="C457" s="7" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="7" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B458" s="7" t="s">
         <v>1247</v>
       </c>
-      <c r="B458" s="7" t="s">
+      <c r="C458" s="7" t="s">
         <v>1248</v>
-      </c>
-      <c r="C458" s="7" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="A459" s="7" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B459" s="7" t="s">
         <v>1250</v>
       </c>
-      <c r="B459" s="7" t="s">
+      <c r="C459" s="7" t="s">
         <v>1251</v>
-      </c>
-      <c r="C459" s="7" t="s">
-        <v>1252</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="7" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B460" s="7" t="s">
         <v>1253</v>
       </c>
-      <c r="B460" s="7" t="s">
+      <c r="C460" s="7" t="s">
         <v>1254</v>
-      </c>
-      <c r="C460" s="7" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" s="7" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B461" s="7" t="s">
         <v>1256</v>
       </c>
-      <c r="B461" s="7" t="s">
+      <c r="C461" s="7" t="s">
         <v>1257</v>
-      </c>
-      <c r="C461" s="7" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="7" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B462" s="7" t="s">
         <v>1259</v>
       </c>
-      <c r="B462" s="7" t="s">
+      <c r="C462" s="7" t="s">
         <v>1260</v>
-      </c>
-      <c r="C462" s="7" t="s">
-        <v>1261</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="7" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B463" s="7" t="s">
         <v>1262</v>
       </c>
-      <c r="B463" s="7" t="s">
+      <c r="C463" s="7" t="s">
         <v>1263</v>
-      </c>
-      <c r="C463" s="7" t="s">
-        <v>1264</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464" s="7" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B464" s="7" t="s">
-        <v>2579</v>
+        <v>2566</v>
       </c>
       <c r="C464" s="7" t="s">
-        <v>2580</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="7" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B465" s="7" t="s">
-        <v>2581</v>
+        <v>2568</v>
       </c>
       <c r="C465" s="7" t="s">
-        <v>2582</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="7" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B466" s="7" t="s">
         <v>1267</v>
       </c>
-      <c r="B466" s="7" t="s">
+      <c r="C466" s="7" t="s">
         <v>1268</v>
-      </c>
-      <c r="C466" s="7" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="7" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B467" s="7" t="s">
         <v>1270</v>
       </c>
-      <c r="B467" s="7" t="s">
+      <c r="C467" s="7" t="s">
         <v>1271</v>
-      </c>
-      <c r="C467" s="7" t="s">
-        <v>1272</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="7" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B468" s="7" t="s">
         <v>1273</v>
       </c>
-      <c r="B468" s="7" t="s">
+      <c r="C468" s="7" t="s">
         <v>1274</v>
-      </c>
-      <c r="C468" s="7" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="7" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B469" s="7" t="s">
         <v>1276</v>
       </c>
-      <c r="B469" s="7" t="s">
+      <c r="C469" s="7" t="s">
         <v>1277</v>
-      </c>
-      <c r="C469" s="7" t="s">
-        <v>1278</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470" s="7" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B470" s="7" t="s">
         <v>1279</v>
       </c>
-      <c r="B470" s="7" t="s">
+      <c r="C470" s="7" t="s">
         <v>1280</v>
-      </c>
-      <c r="C470" s="7" t="s">
-        <v>1281</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="7" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B471" s="7" t="s">
         <v>1282</v>
       </c>
-      <c r="B471" s="7" t="s">
+      <c r="C471" s="7" t="s">
         <v>1283</v>
-      </c>
-      <c r="C471" s="7" t="s">
-        <v>1284</v>
       </c>
     </row>
     <row r="472" spans="1:3">
       <c r="A472" s="7" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B472" s="7" t="s">
         <v>1285</v>
       </c>
-      <c r="B472" s="7" t="s">
+      <c r="C472" s="7" t="s">
         <v>1286</v>
-      </c>
-      <c r="C472" s="7" t="s">
-        <v>1287</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="7" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B473" s="7" t="s">
         <v>1288</v>
       </c>
-      <c r="B473" s="7" t="s">
+      <c r="C473" s="7" t="s">
         <v>1289</v>
-      </c>
-      <c r="C473" s="7" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474" s="7" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B474" s="7" t="s">
         <v>1291</v>
       </c>
-      <c r="B474" s="7" t="s">
+      <c r="C474" s="7" t="s">
         <v>1292</v>
-      </c>
-      <c r="C474" s="7" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="7" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B475" s="7" t="s">
         <v>1294</v>
       </c>
-      <c r="B475" s="7" t="s">
+      <c r="C475" s="7" t="s">
         <v>1295</v>
-      </c>
-      <c r="C475" s="7" t="s">
-        <v>1296</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476" s="7" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B476" s="7" t="s">
         <v>1297</v>
       </c>
-      <c r="B476" s="7" t="s">
+      <c r="C476" s="7" t="s">
         <v>1298</v>
-      </c>
-      <c r="C476" s="7" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="477" spans="1:3">
       <c r="A477" s="7" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B477" s="7" t="s">
-        <v>2583</v>
+        <v>2570</v>
       </c>
       <c r="C477" s="7" t="s">
-        <v>2584</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="7" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B478" s="7" t="s">
         <v>1301</v>
       </c>
-      <c r="B478" s="7" t="s">
+      <c r="C478" s="7" t="s">
         <v>1302</v>
-      </c>
-      <c r="C478" s="7" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B479" s="7" t="s">
         <v>1304</v>
       </c>
-      <c r="B479" s="7" t="s">
+      <c r="C479" s="7" t="s">
         <v>1305</v>
-      </c>
-      <c r="C479" s="7" t="s">
-        <v>1306</v>
       </c>
     </row>
     <row r="480" spans="1:3">
       <c r="A480" s="7" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B480" s="7" t="s">
         <v>1307</v>
       </c>
-      <c r="B480" s="7" t="s">
+      <c r="C480" s="7" t="s">
         <v>1308</v>
-      </c>
-      <c r="C480" s="7" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481" s="7" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B481" s="7" t="s">
         <v>1310</v>
       </c>
-      <c r="B481" s="7" t="s">
+      <c r="C481" s="7" t="s">
         <v>1311</v>
-      </c>
-      <c r="C481" s="7" t="s">
-        <v>1312</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="A482" s="7" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B482" s="7" t="s">
         <v>1313</v>
       </c>
-      <c r="B482" s="7" t="s">
+      <c r="C482" s="7" t="s">
         <v>1314</v>
-      </c>
-      <c r="C482" s="7" t="s">
-        <v>1315</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483" s="7" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B483" s="7" t="s">
         <v>1316</v>
       </c>
-      <c r="B483" s="7" t="s">
+      <c r="C483" s="7" t="s">
         <v>1317</v>
-      </c>
-      <c r="C483" s="7" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484" s="7" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B484" s="7" t="s">
         <v>1319</v>
       </c>
-      <c r="B484" s="7" t="s">
+      <c r="C484" s="7" t="s">
         <v>1320</v>
-      </c>
-      <c r="C484" s="7" t="s">
-        <v>1321</v>
       </c>
     </row>
     <row r="485" spans="1:3">
       <c r="A485" s="7" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B485" s="7" t="s">
         <v>1322</v>
       </c>
-      <c r="B485" s="7" t="s">
+      <c r="C485" s="7" t="s">
         <v>1323</v>
-      </c>
-      <c r="C485" s="7" t="s">
-        <v>1324</v>
       </c>
     </row>
     <row r="486" spans="1:3">
       <c r="A486" s="7" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B486" s="7" t="s">
         <v>1325</v>
       </c>
-      <c r="B486" s="7" t="s">
+      <c r="C486" s="7" t="s">
         <v>1326</v>
-      </c>
-      <c r="C486" s="7" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="A487" s="7" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B487" s="7" t="s">
         <v>1328</v>
       </c>
-      <c r="B487" s="7" t="s">
+      <c r="C487" s="7" t="s">
         <v>1329</v>
-      </c>
-      <c r="C487" s="7" t="s">
-        <v>1330</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="A488" s="7" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B488" s="7" t="s">
         <v>1331</v>
       </c>
-      <c r="B488" s="7" t="s">
+      <c r="C488" s="7" t="s">
         <v>1332</v>
-      </c>
-      <c r="C488" s="7" t="s">
-        <v>1333</v>
       </c>
     </row>
     <row r="489" spans="1:3">
       <c r="A489" s="7" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B489" s="7" t="s">
         <v>1334</v>
       </c>
-      <c r="B489" s="7" t="s">
+      <c r="C489" s="7" t="s">
         <v>1335</v>
-      </c>
-      <c r="C489" s="7" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="A490" s="7" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B490" s="7" t="s">
         <v>1337</v>
       </c>
-      <c r="B490" s="7" t="s">
+      <c r="C490" s="7" t="s">
         <v>1338</v>
-      </c>
-      <c r="C490" s="7" t="s">
-        <v>1339</v>
       </c>
     </row>
     <row r="491" spans="1:3">
       <c r="A491" s="7" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B491" s="7" t="s">
         <v>1340</v>
       </c>
-      <c r="B491" s="7" t="s">
+      <c r="C491" s="7" t="s">
         <v>1341</v>
-      </c>
-      <c r="C491" s="7" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="492" spans="1:3">
       <c r="A492" s="7" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B492" s="7" t="s">
         <v>1343</v>
-      </c>
-      <c r="B492" s="7" t="s">
-        <v>1344</v>
       </c>
       <c r="C492" s="7" t="s">
         <v>250</v>
@@ -14055,318 +14063,318 @@
     </row>
     <row r="493" spans="1:3">
       <c r="A493" s="7" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B493" s="7" t="s">
         <v>1345</v>
       </c>
-      <c r="B493" s="7" t="s">
+      <c r="C493" s="7" t="s">
         <v>1346</v>
-      </c>
-      <c r="C493" s="7" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="494" spans="1:3">
       <c r="A494" s="7" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B494" s="7" t="s">
         <v>1348</v>
       </c>
-      <c r="B494" s="7" t="s">
+      <c r="C494" s="7" t="s">
         <v>1349</v>
-      </c>
-      <c r="C494" s="7" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="A495" s="7" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B495" s="7" t="s">
         <v>1351</v>
       </c>
-      <c r="B495" s="7" t="s">
+      <c r="C495" s="7" t="s">
         <v>1352</v>
-      </c>
-      <c r="C495" s="7" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="A496" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B496" s="7" t="s">
         <v>1354</v>
       </c>
-      <c r="B496" s="7" t="s">
+      <c r="C496" s="7" t="s">
         <v>1355</v>
-      </c>
-      <c r="C496" s="7" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="A497" s="7" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B497" s="7" t="s">
         <v>1357</v>
       </c>
-      <c r="B497" s="7" t="s">
+      <c r="C497" s="7" t="s">
         <v>1358</v>
-      </c>
-      <c r="C497" s="7" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498" s="7" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B498" s="7" t="s">
         <v>1360</v>
       </c>
-      <c r="B498" s="7" t="s">
+      <c r="C498" s="7" t="s">
         <v>1361</v>
-      </c>
-      <c r="C498" s="7" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="499" spans="1:3">
       <c r="A499" s="7" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B499" s="7" t="s">
         <v>1363</v>
       </c>
-      <c r="B499" s="7" t="s">
+      <c r="C499" s="7" t="s">
         <v>1364</v>
-      </c>
-      <c r="C499" s="7" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500" s="7" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B500" s="7" t="s">
         <v>1366</v>
       </c>
-      <c r="B500" s="7" t="s">
+      <c r="C500" s="7" t="s">
         <v>1367</v>
-      </c>
-      <c r="C500" s="7" t="s">
-        <v>1368</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501" s="7" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B501" s="7" t="s">
         <v>1369</v>
       </c>
-      <c r="B501" s="7" t="s">
+      <c r="C501" s="7" t="s">
         <v>1370</v>
-      </c>
-      <c r="C501" s="7" t="s">
-        <v>1371</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="A502" s="7" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B502" s="7" t="s">
         <v>1372</v>
       </c>
-      <c r="B502" s="7" t="s">
+      <c r="C502" s="7" t="s">
         <v>1373</v>
-      </c>
-      <c r="C502" s="7" t="s">
-        <v>1374</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="A503" s="7" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B503" s="7" t="s">
         <v>1375</v>
       </c>
-      <c r="B503" s="7" t="s">
+      <c r="C503" s="7" t="s">
         <v>1376</v>
-      </c>
-      <c r="C503" s="7" t="s">
-        <v>1377</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="A504" s="7" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B504" s="7" t="s">
         <v>1378</v>
       </c>
-      <c r="B504" s="7" t="s">
+      <c r="C504" s="7" t="s">
         <v>1379</v>
-      </c>
-      <c r="C504" s="7" t="s">
-        <v>1380</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="A505" s="7" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B505" s="7" t="s">
         <v>1381</v>
       </c>
-      <c r="B505" s="7" t="s">
+      <c r="C505" s="7" t="s">
         <v>1382</v>
-      </c>
-      <c r="C505" s="7" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="506" spans="1:3">
       <c r="A506" s="7" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B506" s="7" t="s">
         <v>1384</v>
       </c>
-      <c r="B506" s="7" t="s">
+      <c r="C506" s="7" t="s">
         <v>1385</v>
-      </c>
-      <c r="C506" s="7" t="s">
-        <v>1386</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="A507" s="7" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B507" s="7" t="s">
-        <v>2585</v>
+        <v>2572</v>
       </c>
       <c r="C507" s="7" t="s">
-        <v>2586</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="508" spans="1:3">
       <c r="A508" s="7" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B508" s="7" t="s">
-        <v>2587</v>
+        <v>2574</v>
       </c>
       <c r="C508" s="7" t="s">
-        <v>2588</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="A509" s="7" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B509" s="7" t="s">
         <v>1389</v>
       </c>
-      <c r="B509" s="7" t="s">
+      <c r="C509" s="7" t="s">
         <v>1390</v>
-      </c>
-      <c r="C509" s="7" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="510" spans="1:3">
       <c r="A510" s="7" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B510" s="7" t="s">
         <v>1392</v>
       </c>
-      <c r="B510" s="7" t="s">
+      <c r="C510" s="7" t="s">
         <v>1393</v>
-      </c>
-      <c r="C510" s="7" t="s">
-        <v>1394</v>
       </c>
     </row>
     <row r="511" spans="1:3">
       <c r="A511" s="7" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B511" s="7" t="s">
         <v>1395</v>
       </c>
-      <c r="B511" s="7" t="s">
+      <c r="C511" s="7" t="s">
         <v>1396</v>
-      </c>
-      <c r="C511" s="7" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="512" spans="1:3">
       <c r="A512" s="7" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B512" s="7" t="s">
         <v>1398</v>
       </c>
-      <c r="B512" s="7" t="s">
+      <c r="C512" s="7" t="s">
         <v>1399</v>
-      </c>
-      <c r="C512" s="7" t="s">
-        <v>1400</v>
       </c>
     </row>
     <row r="513" spans="1:3">
       <c r="A513" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B513" s="7" t="s">
         <v>1401</v>
       </c>
-      <c r="B513" s="7" t="s">
+      <c r="C513" s="7" t="s">
         <v>1402</v>
-      </c>
-      <c r="C513" s="7" t="s">
-        <v>1403</v>
       </c>
     </row>
     <row r="514" spans="1:3">
       <c r="A514" s="7" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B514" s="7" t="s">
         <v>1404</v>
       </c>
-      <c r="B514" s="7" t="s">
+      <c r="C514" s="7" t="s">
         <v>1405</v>
-      </c>
-      <c r="C514" s="7" t="s">
-        <v>1406</v>
       </c>
     </row>
     <row r="515" spans="1:3">
       <c r="A515" s="7" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B515" s="7" t="s">
-        <v>2589</v>
+        <v>2576</v>
       </c>
       <c r="C515" s="7" t="s">
-        <v>2590</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="516" spans="1:3">
       <c r="A516" s="7" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B516" s="7" t="s">
         <v>1408</v>
       </c>
-      <c r="B516" s="7" t="s">
+      <c r="C516" s="7" t="s">
         <v>1409</v>
-      </c>
-      <c r="C516" s="7" t="s">
-        <v>1410</v>
       </c>
     </row>
     <row r="517" spans="1:3">
       <c r="A517" s="7" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B517" s="7" t="s">
         <v>1411</v>
       </c>
-      <c r="B517" s="7" t="s">
+      <c r="C517" s="7" t="s">
         <v>1412</v>
-      </c>
-      <c r="C517" s="7" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="518" spans="1:3">
       <c r="A518" s="7" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B518" s="7" t="s">
         <v>1414</v>
       </c>
-      <c r="B518" s="7" t="s">
-        <v>1415</v>
-      </c>
       <c r="C518" s="7" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="519" spans="1:3">
       <c r="A519" s="7" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B519" s="7" t="s">
         <v>1416</v>
       </c>
-      <c r="B519" s="7" t="s">
+      <c r="C519" s="7" t="s">
         <v>1417</v>
-      </c>
-      <c r="C519" s="7" t="s">
-        <v>1418</v>
       </c>
     </row>
     <row r="520" spans="1:3">
       <c r="A520" s="7" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B520" s="7" t="s">
         <v>1419</v>
       </c>
-      <c r="B520" s="7" t="s">
+      <c r="C520" s="7" t="s">
         <v>1420</v>
-      </c>
-      <c r="C520" s="7" t="s">
-        <v>1421</v>
       </c>
     </row>
     <row r="521" spans="1:3">
       <c r="A521" s="7" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B521" s="7" t="s">
         <v>1422</v>
-      </c>
-      <c r="B521" s="7" t="s">
-        <v>1423</v>
       </c>
       <c r="C521" s="7" t="s">
         <v>464</v>
@@ -14374,810 +14382,810 @@
     </row>
     <row r="522" spans="1:3">
       <c r="A522" s="7" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B522" s="7" t="s">
         <v>1424</v>
       </c>
-      <c r="B522" s="7" t="s">
+      <c r="C522" s="7" t="s">
         <v>1425</v>
-      </c>
-      <c r="C522" s="7" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="523" spans="1:3">
       <c r="A523" s="7" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B523" s="7" t="s">
         <v>1427</v>
       </c>
-      <c r="B523" s="7" t="s">
+      <c r="C523" s="7" t="s">
         <v>1428</v>
-      </c>
-      <c r="C523" s="7" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="524" spans="1:3">
       <c r="A524" s="7" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B524" s="7" t="s">
         <v>1430</v>
       </c>
-      <c r="B524" s="7" t="s">
+      <c r="C524" s="7" t="s">
         <v>1431</v>
-      </c>
-      <c r="C524" s="7" t="s">
-        <v>1432</v>
       </c>
     </row>
     <row r="525" spans="1:3">
       <c r="A525" s="7" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B525" s="7" t="s">
         <v>1433</v>
       </c>
-      <c r="B525" s="7" t="s">
+      <c r="C525" s="7" t="s">
         <v>1434</v>
-      </c>
-      <c r="C525" s="7" t="s">
-        <v>1435</v>
       </c>
     </row>
     <row r="526" spans="1:3">
       <c r="A526" s="7" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B526" s="7" t="s">
         <v>1436</v>
       </c>
-      <c r="B526" s="7" t="s">
+      <c r="C526" s="7" t="s">
         <v>1437</v>
-      </c>
-      <c r="C526" s="7" t="s">
-        <v>1438</v>
       </c>
     </row>
     <row r="527" spans="1:3">
       <c r="A527" s="7" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B527" s="7" t="s">
         <v>1439</v>
       </c>
-      <c r="B527" s="7" t="s">
+      <c r="C527" s="7" t="s">
         <v>1440</v>
-      </c>
-      <c r="C527" s="7" t="s">
-        <v>1441</v>
       </c>
     </row>
     <row r="528" spans="1:3">
       <c r="A528" s="7" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B528" s="7" t="s">
         <v>1442</v>
       </c>
-      <c r="B528" s="7" t="s">
+      <c r="C528" s="7" t="s">
         <v>1443</v>
-      </c>
-      <c r="C528" s="7" t="s">
-        <v>1444</v>
       </c>
     </row>
     <row r="529" spans="1:3">
       <c r="A529" s="7" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B529" s="7" t="s">
         <v>1445</v>
       </c>
-      <c r="B529" s="7" t="s">
+      <c r="C529" s="7" t="s">
         <v>1446</v>
-      </c>
-      <c r="C529" s="7" t="s">
-        <v>1447</v>
       </c>
     </row>
     <row r="530" spans="1:3">
       <c r="A530" s="7" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B530" s="7" t="s">
         <v>1448</v>
       </c>
-      <c r="B530" s="7" t="s">
+      <c r="C530" s="7" t="s">
         <v>1449</v>
-      </c>
-      <c r="C530" s="7" t="s">
-        <v>1450</v>
       </c>
     </row>
     <row r="531" spans="1:3">
       <c r="A531" s="7" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B531" s="7" t="s">
         <v>1451</v>
       </c>
-      <c r="B531" s="7" t="s">
+      <c r="C531" s="7" t="s">
         <v>1452</v>
-      </c>
-      <c r="C531" s="7" t="s">
-        <v>1453</v>
       </c>
     </row>
     <row r="532" spans="1:3">
       <c r="A532" s="7" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B532" s="7" t="s">
         <v>1454</v>
       </c>
-      <c r="B532" s="7" t="s">
+      <c r="C532" s="7" t="s">
         <v>1455</v>
-      </c>
-      <c r="C532" s="7" t="s">
-        <v>1456</v>
       </c>
     </row>
     <row r="533" spans="1:3">
       <c r="A533" s="7" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B533" s="7" t="s">
         <v>1457</v>
       </c>
-      <c r="B533" s="7" t="s">
+      <c r="C533" s="7" t="s">
         <v>1458</v>
-      </c>
-      <c r="C533" s="7" t="s">
-        <v>1459</v>
       </c>
     </row>
     <row r="534" spans="1:3">
       <c r="A534" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B534" s="7" t="s">
         <v>1460</v>
       </c>
-      <c r="B534" s="7" t="s">
+      <c r="C534" s="7" t="s">
         <v>1461</v>
-      </c>
-      <c r="C534" s="7" t="s">
-        <v>1462</v>
       </c>
     </row>
     <row r="535" spans="1:3">
       <c r="A535" s="7" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B535" s="7" t="s">
         <v>1463</v>
       </c>
-      <c r="B535" s="7" t="s">
+      <c r="C535" s="7" t="s">
         <v>1464</v>
-      </c>
-      <c r="C535" s="7" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="536" spans="1:3">
       <c r="A536" s="7" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B536" s="7" t="s">
         <v>1466</v>
       </c>
-      <c r="B536" s="7" t="s">
+      <c r="C536" s="7" t="s">
         <v>1467</v>
-      </c>
-      <c r="C536" s="7" t="s">
-        <v>1468</v>
       </c>
     </row>
     <row r="537" spans="1:3">
       <c r="A537" s="7" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B537" s="7" t="s">
         <v>1469</v>
       </c>
-      <c r="B537" s="7" t="s">
+      <c r="C537" s="7" t="s">
         <v>1470</v>
-      </c>
-      <c r="C537" s="7" t="s">
-        <v>1471</v>
       </c>
     </row>
     <row r="538" spans="1:3">
       <c r="A538" s="7" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B538" s="7" t="s">
         <v>1472</v>
       </c>
-      <c r="B538" s="7" t="s">
+      <c r="C538" s="7" t="s">
         <v>1473</v>
-      </c>
-      <c r="C538" s="7" t="s">
-        <v>1474</v>
       </c>
     </row>
     <row r="539" spans="1:3">
       <c r="A539" s="7" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B539" s="7" t="s">
         <v>1475</v>
       </c>
-      <c r="B539" s="7" t="s">
+      <c r="C539" s="7" t="s">
         <v>1476</v>
-      </c>
-      <c r="C539" s="7" t="s">
-        <v>1477</v>
       </c>
     </row>
     <row r="540" spans="1:3">
       <c r="A540" s="7" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B540" s="7" t="s">
         <v>1478</v>
       </c>
-      <c r="B540" s="7" t="s">
+      <c r="C540" s="7" t="s">
         <v>1479</v>
-      </c>
-      <c r="C540" s="7" t="s">
-        <v>1480</v>
       </c>
     </row>
     <row r="541" spans="1:3">
       <c r="A541" s="7" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B541" s="7" t="s">
         <v>1481</v>
       </c>
-      <c r="B541" s="7" t="s">
+      <c r="C541" s="7" t="s">
         <v>1482</v>
-      </c>
-      <c r="C541" s="7" t="s">
-        <v>1483</v>
       </c>
     </row>
     <row r="542" spans="1:3">
       <c r="A542" s="7" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B542" s="7" t="s">
         <v>1484</v>
       </c>
-      <c r="B542" s="7" t="s">
+      <c r="C542" s="7" t="s">
         <v>1485</v>
-      </c>
-      <c r="C542" s="7" t="s">
-        <v>1486</v>
       </c>
     </row>
     <row r="543" spans="1:3">
       <c r="A543" s="7" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B543" s="7" t="s">
         <v>1487</v>
       </c>
-      <c r="B543" s="7" t="s">
+      <c r="C543" s="7" t="s">
         <v>1488</v>
-      </c>
-      <c r="C543" s="7" t="s">
-        <v>1489</v>
       </c>
     </row>
     <row r="544" spans="1:3">
       <c r="A544" s="7" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B544" s="7" t="s">
         <v>1490</v>
       </c>
-      <c r="B544" s="7" t="s">
+      <c r="C544" s="7" t="s">
         <v>1491</v>
-      </c>
-      <c r="C544" s="7" t="s">
-        <v>1492</v>
       </c>
     </row>
     <row r="545" spans="1:3">
       <c r="A545" s="7" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B545" s="7" t="s">
         <v>1493</v>
       </c>
-      <c r="B545" s="7" t="s">
+      <c r="C545" s="7" t="s">
         <v>1494</v>
-      </c>
-      <c r="C545" s="7" t="s">
-        <v>1495</v>
       </c>
     </row>
     <row r="546" spans="1:3">
       <c r="A546" s="7" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B546" s="7" t="s">
         <v>1496</v>
       </c>
-      <c r="B546" s="7" t="s">
+      <c r="C546" s="7" t="s">
         <v>1497</v>
-      </c>
-      <c r="C546" s="7" t="s">
-        <v>1498</v>
       </c>
     </row>
     <row r="547" spans="1:3">
       <c r="A547" s="7" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B547" s="7" t="s">
         <v>1499</v>
       </c>
-      <c r="B547" s="7" t="s">
+      <c r="C547" s="7" t="s">
         <v>1500</v>
-      </c>
-      <c r="C547" s="7" t="s">
-        <v>1501</v>
       </c>
     </row>
     <row r="548" spans="1:3">
       <c r="A548" s="7" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B548" s="7" t="s">
         <v>1502</v>
       </c>
-      <c r="B548" s="7" t="s">
+      <c r="C548" s="7" t="s">
         <v>1503</v>
-      </c>
-      <c r="C548" s="7" t="s">
-        <v>1504</v>
       </c>
     </row>
     <row r="549" spans="1:3">
       <c r="A549" s="7" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B549" s="7" t="s">
-        <v>2591</v>
+        <v>2578</v>
       </c>
       <c r="C549" s="7" t="s">
-        <v>2592</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="550" spans="1:3">
       <c r="A550" s="7" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B550" s="7" t="s">
         <v>1506</v>
       </c>
-      <c r="B550" s="7" t="s">
+      <c r="C550" s="7" t="s">
         <v>1507</v>
-      </c>
-      <c r="C550" s="7" t="s">
-        <v>1508</v>
       </c>
     </row>
     <row r="551" spans="1:3">
       <c r="A551" s="7" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B551" s="7" t="s">
         <v>1509</v>
       </c>
-      <c r="B551" s="7" t="s">
+      <c r="C551" s="7" t="s">
         <v>1510</v>
-      </c>
-      <c r="C551" s="7" t="s">
-        <v>1511</v>
       </c>
     </row>
     <row r="552" spans="1:3">
       <c r="A552" s="7" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B552" s="7" t="s">
         <v>1512</v>
       </c>
-      <c r="B552" s="7" t="s">
+      <c r="C552" s="7" t="s">
         <v>1513</v>
-      </c>
-      <c r="C552" s="7" t="s">
-        <v>1514</v>
       </c>
     </row>
     <row r="553" spans="1:3">
       <c r="A553" s="7" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B553" s="7" t="s">
-        <v>2593</v>
+        <v>2580</v>
       </c>
       <c r="C553" s="7" t="s">
-        <v>2594</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="554" spans="1:3">
       <c r="A554" s="7" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B554" s="7" t="s">
         <v>1516</v>
       </c>
-      <c r="B554" s="7" t="s">
+      <c r="C554" s="7" t="s">
         <v>1517</v>
-      </c>
-      <c r="C554" s="7" t="s">
-        <v>1518</v>
       </c>
     </row>
     <row r="555" spans="1:3">
       <c r="A555" s="7" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B555" s="7" t="s">
         <v>1519</v>
       </c>
-      <c r="B555" s="7" t="s">
+      <c r="C555" s="7" t="s">
         <v>1520</v>
-      </c>
-      <c r="C555" s="7" t="s">
-        <v>1521</v>
       </c>
     </row>
     <row r="556" spans="1:3">
       <c r="A556" s="7" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B556" s="7" t="s">
         <v>1522</v>
       </c>
-      <c r="B556" s="7" t="s">
-        <v>1523</v>
-      </c>
       <c r="C556" s="7" t="s">
-        <v>1524</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="557" spans="1:3">
       <c r="A557" s="7" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B557" s="7" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C557" s="7" t="s">
         <v>1525</v>
-      </c>
-      <c r="B557" s="7" t="s">
-        <v>1526</v>
-      </c>
-      <c r="C557" s="7" t="s">
-        <v>1527</v>
       </c>
     </row>
     <row r="558" spans="1:3">
       <c r="A558" s="7" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B558" s="7" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C558" s="7" t="s">
         <v>1528</v>
-      </c>
-      <c r="B558" s="7" t="s">
-        <v>1529</v>
-      </c>
-      <c r="C558" s="7" t="s">
-        <v>1530</v>
       </c>
     </row>
     <row r="559" spans="1:3">
       <c r="A559" s="7" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B559" s="7" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C559" s="7" t="s">
         <v>1531</v>
-      </c>
-      <c r="B559" s="7" t="s">
-        <v>1532</v>
-      </c>
-      <c r="C559" s="7" t="s">
-        <v>1533</v>
       </c>
     </row>
     <row r="560" spans="1:3">
       <c r="A560" s="7" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B560" s="7" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C560" s="7" t="s">
         <v>1534</v>
-      </c>
-      <c r="B560" s="7" t="s">
-        <v>1535</v>
-      </c>
-      <c r="C560" s="7" t="s">
-        <v>1536</v>
       </c>
     </row>
     <row r="561" spans="1:3">
       <c r="A561" s="7" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B561" s="7" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C561" s="7" t="s">
         <v>1537</v>
-      </c>
-      <c r="B561" s="7" t="s">
-        <v>1538</v>
-      </c>
-      <c r="C561" s="7" t="s">
-        <v>1539</v>
       </c>
     </row>
     <row r="562" spans="1:3">
       <c r="A562" s="7" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B562" s="7" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C562" s="7" t="s">
         <v>1540</v>
-      </c>
-      <c r="B562" s="7" t="s">
-        <v>1541</v>
-      </c>
-      <c r="C562" s="7" t="s">
-        <v>1542</v>
       </c>
     </row>
     <row r="563" spans="1:3">
       <c r="A563" s="7" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B563" s="7" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C563" s="7" t="s">
         <v>1543</v>
-      </c>
-      <c r="B563" s="7" t="s">
-        <v>1544</v>
-      </c>
-      <c r="C563" s="7" t="s">
-        <v>1545</v>
       </c>
     </row>
     <row r="564" spans="1:3">
       <c r="A564" s="7" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B564" s="7" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C564" s="7" t="s">
         <v>1546</v>
-      </c>
-      <c r="B564" s="7" t="s">
-        <v>1547</v>
-      </c>
-      <c r="C564" s="7" t="s">
-        <v>1548</v>
       </c>
     </row>
     <row r="565" spans="1:3">
       <c r="A565" s="7" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B565" s="7" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C565" s="7" t="s">
         <v>1549</v>
-      </c>
-      <c r="B565" s="7" t="s">
-        <v>1550</v>
-      </c>
-      <c r="C565" s="7" t="s">
-        <v>1551</v>
       </c>
     </row>
     <row r="566" spans="1:3">
       <c r="A566" s="7" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B566" s="7" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C566" s="7" t="s">
         <v>1552</v>
-      </c>
-      <c r="B566" s="7" t="s">
-        <v>1553</v>
-      </c>
-      <c r="C566" s="7" t="s">
-        <v>1554</v>
       </c>
     </row>
     <row r="567" spans="1:3">
       <c r="A567" s="7" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B567" s="7" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C567" s="7" t="s">
         <v>1555</v>
-      </c>
-      <c r="B567" s="7" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C567" s="7" t="s">
-        <v>1557</v>
       </c>
     </row>
     <row r="568" spans="1:3">
       <c r="A568" s="7" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B568" s="7" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C568" s="7" t="s">
         <v>1558</v>
-      </c>
-      <c r="B568" s="7" t="s">
-        <v>1559</v>
-      </c>
-      <c r="C568" s="7" t="s">
-        <v>1560</v>
       </c>
     </row>
     <row r="569" spans="1:3">
       <c r="A569" s="7" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B569" s="7" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C569" s="7" t="s">
         <v>1561</v>
-      </c>
-      <c r="B569" s="7" t="s">
-        <v>1562</v>
-      </c>
-      <c r="C569" s="7" t="s">
-        <v>1563</v>
       </c>
     </row>
     <row r="570" spans="1:3">
       <c r="A570" s="7" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B570" s="7" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C570" s="7" t="s">
         <v>1564</v>
-      </c>
-      <c r="B570" s="7" t="s">
-        <v>1565</v>
-      </c>
-      <c r="C570" s="7" t="s">
-        <v>1566</v>
       </c>
     </row>
     <row r="571" spans="1:3">
       <c r="A571" s="7" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B571" s="7" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C571" s="7" t="s">
         <v>1567</v>
-      </c>
-      <c r="B571" s="7" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C571" s="7" t="s">
-        <v>1569</v>
       </c>
     </row>
     <row r="572" spans="1:3">
       <c r="A572" s="7" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B572" s="7" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C572" s="7" t="s">
         <v>1570</v>
-      </c>
-      <c r="B572" s="7" t="s">
-        <v>1571</v>
-      </c>
-      <c r="C572" s="7" t="s">
-        <v>1572</v>
       </c>
     </row>
     <row r="573" spans="1:3">
       <c r="A573" s="7" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B573" s="7" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C573" s="7" t="s">
         <v>1573</v>
-      </c>
-      <c r="B573" s="7" t="s">
-        <v>1574</v>
-      </c>
-      <c r="C573" s="7" t="s">
-        <v>1575</v>
       </c>
     </row>
     <row r="574" spans="1:3">
       <c r="A574" s="7" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B574" s="7" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C574" s="7" t="s">
         <v>1576</v>
-      </c>
-      <c r="B574" s="7" t="s">
-        <v>1577</v>
-      </c>
-      <c r="C574" s="7" t="s">
-        <v>1578</v>
       </c>
     </row>
     <row r="575" spans="1:3">
       <c r="A575" s="7" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B575" s="7" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C575" s="7" t="s">
         <v>1579</v>
-      </c>
-      <c r="B575" s="7" t="s">
-        <v>1580</v>
-      </c>
-      <c r="C575" s="7" t="s">
-        <v>1581</v>
       </c>
     </row>
     <row r="576" spans="1:3">
       <c r="A576" s="7" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B576" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C576" s="7" t="s">
         <v>1582</v>
-      </c>
-      <c r="B576" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="C576" s="7" t="s">
-        <v>1584</v>
       </c>
     </row>
     <row r="577" spans="1:3">
       <c r="A577" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B577" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C577" s="7" t="s">
         <v>1585</v>
-      </c>
-      <c r="B577" s="7" t="s">
-        <v>1586</v>
-      </c>
-      <c r="C577" s="7" t="s">
-        <v>1587</v>
       </c>
     </row>
     <row r="578" spans="1:3">
       <c r="A578" s="7" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B578" s="7" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C578" s="7" t="s">
         <v>1588</v>
-      </c>
-      <c r="B578" s="7" t="s">
-        <v>1589</v>
-      </c>
-      <c r="C578" s="7" t="s">
-        <v>1590</v>
       </c>
     </row>
     <row r="579" spans="1:3">
       <c r="A579" s="7" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B579" s="7" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C579" s="7" t="s">
         <v>1591</v>
-      </c>
-      <c r="B579" s="7" t="s">
-        <v>1592</v>
-      </c>
-      <c r="C579" s="7" t="s">
-        <v>1593</v>
       </c>
     </row>
     <row r="580" spans="1:3">
       <c r="A580" s="7" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B580" s="7" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C580" s="7" t="s">
         <v>1594</v>
-      </c>
-      <c r="B580" s="7" t="s">
-        <v>1595</v>
-      </c>
-      <c r="C580" s="7" t="s">
-        <v>1596</v>
       </c>
     </row>
     <row r="581" spans="1:3">
       <c r="A581" s="7" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B581" s="7" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C581" s="7" t="s">
         <v>1597</v>
-      </c>
-      <c r="B581" s="7" t="s">
-        <v>1598</v>
-      </c>
-      <c r="C581" s="7" t="s">
-        <v>1599</v>
       </c>
     </row>
     <row r="582" spans="1:3">
       <c r="A582" s="7" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B582" s="7" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C582" s="7" t="s">
         <v>1600</v>
-      </c>
-      <c r="B582" s="7" t="s">
-        <v>1601</v>
-      </c>
-      <c r="C582" s="7" t="s">
-        <v>1602</v>
       </c>
     </row>
     <row r="583" spans="1:3">
       <c r="A583" s="7" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B583" s="7" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C583" s="7" t="s">
         <v>1603</v>
-      </c>
-      <c r="B583" s="7" t="s">
-        <v>1604</v>
-      </c>
-      <c r="C583" s="7" t="s">
-        <v>1605</v>
       </c>
     </row>
     <row r="584" spans="1:3">
       <c r="A584" s="7" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B584" s="7" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C584" s="7" t="s">
         <v>1606</v>
-      </c>
-      <c r="B584" s="7" t="s">
-        <v>1607</v>
-      </c>
-      <c r="C584" s="7" t="s">
-        <v>1608</v>
       </c>
     </row>
     <row r="585" spans="1:3">
       <c r="A585" s="7" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B585" s="7" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C585" s="7" t="s">
         <v>1609</v>
-      </c>
-      <c r="B585" s="7" t="s">
-        <v>1610</v>
-      </c>
-      <c r="C585" s="7" t="s">
-        <v>1611</v>
       </c>
     </row>
     <row r="586" spans="1:3">
       <c r="A586" s="7" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B586" s="7" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C586" s="7" t="s">
         <v>1612</v>
-      </c>
-      <c r="B586" s="7" t="s">
-        <v>1613</v>
-      </c>
-      <c r="C586" s="7" t="s">
-        <v>1614</v>
       </c>
     </row>
     <row r="587" spans="1:3">
       <c r="A587" s="7" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B587" s="7" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C587" s="7" t="s">
         <v>1615</v>
-      </c>
-      <c r="B587" s="7" t="s">
-        <v>1616</v>
-      </c>
-      <c r="C587" s="7" t="s">
-        <v>1617</v>
       </c>
     </row>
     <row r="588" spans="1:3">
       <c r="A588" s="7" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="B588" s="7" t="s">
-        <v>2595</v>
+        <v>2582</v>
       </c>
       <c r="C588" s="7" t="s">
-        <v>2596</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="589" spans="1:3">
       <c r="A589" s="7" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B589" s="7" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C589" s="7" t="s">
         <v>1619</v>
-      </c>
-      <c r="B589" s="7" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C589" s="7" t="s">
-        <v>1621</v>
       </c>
     </row>
     <row r="590" spans="1:3">
       <c r="A590" s="7" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B590" s="7" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C590" s="7" t="s">
         <v>1622</v>
-      </c>
-      <c r="B590" s="7" t="s">
-        <v>1623</v>
-      </c>
-      <c r="C590" s="7" t="s">
-        <v>1624</v>
       </c>
     </row>
     <row r="591" spans="1:3">
       <c r="A591" s="7" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B591" s="7" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C591" s="7" t="s">
         <v>1625</v>
-      </c>
-      <c r="B591" s="7" t="s">
-        <v>1626</v>
-      </c>
-      <c r="C591" s="7" t="s">
-        <v>1627</v>
       </c>
     </row>
     <row r="592" spans="1:3">
       <c r="A592" s="7" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B592" s="7" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C592" s="7" t="s">
         <v>1628</v>
-      </c>
-      <c r="B592" s="7" t="s">
-        <v>1629</v>
-      </c>
-      <c r="C592" s="7" t="s">
-        <v>1630</v>
       </c>
     </row>
     <row r="593" spans="1:3">
       <c r="A593" s="7" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B593" s="7" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C593" s="7" t="s">
         <v>1631</v>
-      </c>
-      <c r="B593" s="7" t="s">
-        <v>1632</v>
-      </c>
-      <c r="C593" s="7" t="s">
-        <v>1633</v>
       </c>
     </row>
     <row r="594" spans="1:3">
       <c r="A594" s="7" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B594" s="7" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C594" s="7" t="s">
         <v>1634</v>
-      </c>
-      <c r="B594" s="7" t="s">
-        <v>1635</v>
-      </c>
-      <c r="C594" s="7" t="s">
-        <v>1636</v>
       </c>
     </row>
     <row r="595" spans="1:3">
       <c r="A595" s="7" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="B595" s="7" t="s">
         <v>379</v>
@@ -15188,450 +15196,450 @@
     </row>
     <row r="596" spans="1:3">
       <c r="A596" s="7" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B596" s="7" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C596" s="7" t="s">
         <v>1638</v>
-      </c>
-      <c r="B596" s="7" t="s">
-        <v>1639</v>
-      </c>
-      <c r="C596" s="7" t="s">
-        <v>1640</v>
       </c>
     </row>
     <row r="597" spans="1:3">
       <c r="A597" s="7" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="B597" s="7" t="s">
-        <v>2597</v>
+        <v>2584</v>
       </c>
       <c r="C597" s="7" t="s">
-        <v>2598</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="598" spans="1:3">
       <c r="A598" s="7" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B598" s="7" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C598" s="7" t="s">
         <v>1642</v>
-      </c>
-      <c r="B598" s="7" t="s">
-        <v>1643</v>
-      </c>
-      <c r="C598" s="7" t="s">
-        <v>1644</v>
       </c>
     </row>
     <row r="599" spans="1:3">
       <c r="A599" s="7" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="B599" s="7" t="s">
-        <v>2599</v>
+        <v>2586</v>
       </c>
       <c r="C599" s="7" t="s">
-        <v>2600</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="600" spans="1:3">
       <c r="A600" s="7" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B600" s="7" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C600" s="7" t="s">
         <v>1646</v>
-      </c>
-      <c r="B600" s="7" t="s">
-        <v>1647</v>
-      </c>
-      <c r="C600" s="7" t="s">
-        <v>1648</v>
       </c>
     </row>
     <row r="601" spans="1:3">
       <c r="A601" s="7" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B601" s="7" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C601" s="7" t="s">
         <v>1649</v>
-      </c>
-      <c r="B601" s="7" t="s">
-        <v>1650</v>
-      </c>
-      <c r="C601" s="7" t="s">
-        <v>1651</v>
       </c>
     </row>
     <row r="602" spans="1:3">
       <c r="A602" s="7" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B602" s="7" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C602" s="7" t="s">
         <v>1652</v>
-      </c>
-      <c r="B602" s="7" t="s">
-        <v>1653</v>
-      </c>
-      <c r="C602" s="7" t="s">
-        <v>1654</v>
       </c>
     </row>
     <row r="603" spans="1:3">
       <c r="A603" s="7" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B603" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C603" s="7" t="s">
         <v>1655</v>
-      </c>
-      <c r="B603" s="7" t="s">
-        <v>1656</v>
-      </c>
-      <c r="C603" s="7" t="s">
-        <v>1657</v>
       </c>
     </row>
     <row r="604" spans="1:3">
       <c r="A604" s="7" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="B604" s="7" t="s">
-        <v>2601</v>
+        <v>2588</v>
       </c>
       <c r="C604" s="7" t="s">
-        <v>2602</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="605" spans="1:3">
       <c r="A605" s="7" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="B605" s="7" t="s">
-        <v>2603</v>
+        <v>2590</v>
       </c>
       <c r="C605" s="7" t="s">
-        <v>2604</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="606" spans="1:3">
       <c r="A606" s="7" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B606" s="7" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C606" s="7" t="s">
         <v>1660</v>
-      </c>
-      <c r="B606" s="7" t="s">
-        <v>1661</v>
-      </c>
-      <c r="C606" s="7" t="s">
-        <v>1662</v>
       </c>
     </row>
     <row r="607" spans="1:3">
       <c r="A607" s="7" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="B607" s="7" t="s">
-        <v>2605</v>
+        <v>2592</v>
       </c>
       <c r="C607" s="7" t="s">
-        <v>2606</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="608" spans="1:3">
       <c r="A608" s="7" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="B608" s="7" t="s">
-        <v>2607</v>
+        <v>2594</v>
       </c>
       <c r="C608" s="7" t="s">
-        <v>2608</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="609" spans="1:3">
       <c r="A609" s="7" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="B609" s="7" t="s">
-        <v>2609</v>
+        <v>2596</v>
       </c>
       <c r="C609" s="7" t="s">
-        <v>2610</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="610" spans="1:3">
       <c r="A610" s="7" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="B610" s="7" t="s">
-        <v>2611</v>
+        <v>2598</v>
       </c>
       <c r="C610" s="7" t="s">
-        <v>2612</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="611" spans="1:3">
       <c r="A611" s="7" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B611" s="7" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C611" s="7" t="s">
         <v>1667</v>
-      </c>
-      <c r="B611" s="7" t="s">
-        <v>1668</v>
-      </c>
-      <c r="C611" s="7" t="s">
-        <v>1669</v>
       </c>
     </row>
     <row r="612" spans="1:3">
       <c r="A612" s="7" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B612" s="7" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C612" s="7" t="s">
         <v>1670</v>
-      </c>
-      <c r="B612" s="7" t="s">
-        <v>1671</v>
-      </c>
-      <c r="C612" s="7" t="s">
-        <v>1672</v>
       </c>
     </row>
     <row r="613" spans="1:3">
       <c r="A613" s="7" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B613" s="7" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C613" s="7" t="s">
         <v>1673</v>
-      </c>
-      <c r="B613" s="7" t="s">
-        <v>1674</v>
-      </c>
-      <c r="C613" s="7" t="s">
-        <v>1675</v>
       </c>
     </row>
     <row r="614" spans="1:3">
       <c r="A614" s="7" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B614" s="7" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C614" s="7" t="s">
         <v>1676</v>
-      </c>
-      <c r="B614" s="7" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C614" s="7" t="s">
-        <v>1678</v>
       </c>
     </row>
     <row r="615" spans="1:3">
       <c r="A615" s="7" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B615" s="7" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C615" s="7" t="s">
         <v>1679</v>
-      </c>
-      <c r="B615" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="C615" s="7" t="s">
-        <v>1681</v>
       </c>
     </row>
     <row r="616" spans="1:3">
       <c r="A616" s="7" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="B616" s="7" t="s">
-        <v>2613</v>
+        <v>2600</v>
       </c>
       <c r="C616" s="7" t="s">
-        <v>2614</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="617" spans="1:3">
       <c r="A617" s="7" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B617" s="7" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C617" s="7" t="s">
         <v>1683</v>
-      </c>
-      <c r="B617" s="7" t="s">
-        <v>1684</v>
-      </c>
-      <c r="C617" s="7" t="s">
-        <v>1685</v>
       </c>
     </row>
     <row r="618" spans="1:3">
       <c r="A618" s="7" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="B618" s="7" t="s">
-        <v>2615</v>
+        <v>2602</v>
       </c>
       <c r="C618" s="7" t="s">
-        <v>2616</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="619" spans="1:3">
       <c r="A619" s="7" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B619" s="7" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C619" s="7" t="s">
         <v>1687</v>
-      </c>
-      <c r="B619" s="7" t="s">
-        <v>1688</v>
-      </c>
-      <c r="C619" s="7" t="s">
-        <v>1689</v>
       </c>
     </row>
     <row r="620" spans="1:3">
       <c r="A620" s="7" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B620" s="7" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C620" s="7" t="s">
         <v>1690</v>
-      </c>
-      <c r="B620" s="7" t="s">
-        <v>1691</v>
-      </c>
-      <c r="C620" s="7" t="s">
-        <v>1692</v>
       </c>
     </row>
     <row r="621" spans="1:3">
       <c r="A621" s="7" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B621" s="7" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C621" s="7" t="s">
         <v>1693</v>
-      </c>
-      <c r="B621" s="7" t="s">
-        <v>1694</v>
-      </c>
-      <c r="C621" s="7" t="s">
-        <v>1695</v>
       </c>
     </row>
     <row r="622" spans="1:3">
       <c r="A622" s="7" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="B622" s="7" t="s">
-        <v>2617</v>
+        <v>2604</v>
       </c>
       <c r="C622" s="7" t="s">
-        <v>2618</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="623" spans="1:3">
       <c r="A623" s="7" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B623" s="7" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C623" s="7" t="s">
         <v>1697</v>
-      </c>
-      <c r="B623" s="7" t="s">
-        <v>1698</v>
-      </c>
-      <c r="C623" s="7" t="s">
-        <v>1699</v>
       </c>
     </row>
     <row r="624" spans="1:3">
       <c r="A624" s="7" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="B624" s="7" t="s">
-        <v>2619</v>
+        <v>2606</v>
       </c>
       <c r="C624" s="7" t="s">
-        <v>2620</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="625" spans="1:3">
       <c r="A625" s="7" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="B625" s="7" t="s">
-        <v>2621</v>
+        <v>2608</v>
       </c>
       <c r="C625" s="7" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="626" spans="1:3">
       <c r="A626" s="7" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B626" s="7" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C626" s="7" t="s">
         <v>1702</v>
-      </c>
-      <c r="B626" s="7" t="s">
-        <v>1703</v>
-      </c>
-      <c r="C626" s="7" t="s">
-        <v>1704</v>
       </c>
     </row>
     <row r="627" spans="1:3">
       <c r="A627" s="7" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="B627" s="7" t="s">
-        <v>2623</v>
+        <v>2610</v>
       </c>
       <c r="C627" s="7" t="s">
-        <v>2624</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="628" spans="1:3">
       <c r="A628" s="7" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="B628" s="7" t="s">
-        <v>2625</v>
+        <v>2612</v>
       </c>
       <c r="C628" s="7" t="s">
-        <v>2626</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="629" spans="1:3">
       <c r="A629" s="7" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B629" s="7" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C629" s="7" t="s">
         <v>1707</v>
-      </c>
-      <c r="B629" s="7" t="s">
-        <v>1708</v>
-      </c>
-      <c r="C629" s="7" t="s">
-        <v>1709</v>
       </c>
     </row>
     <row r="630" spans="1:3">
       <c r="A630" s="7" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B630" s="7" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C630" s="7" t="s">
         <v>1710</v>
-      </c>
-      <c r="B630" s="7" t="s">
-        <v>1711</v>
-      </c>
-      <c r="C630" s="7" t="s">
-        <v>1712</v>
       </c>
     </row>
     <row r="631" spans="1:3">
       <c r="A631" s="7" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B631" s="7" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C631" s="7" t="s">
         <v>1713</v>
-      </c>
-      <c r="B631" s="7" t="s">
-        <v>1714</v>
-      </c>
-      <c r="C631" s="7" t="s">
-        <v>1715</v>
       </c>
     </row>
     <row r="632" spans="1:3">
       <c r="A632" s="7" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="B632" s="7" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="C632" s="7" t="s">
-        <v>2434</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="633" spans="1:3">
       <c r="A633" s="7" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B633" s="7" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C633" s="7" t="s">
         <v>1718</v>
-      </c>
-      <c r="B633" s="7" t="s">
-        <v>1719</v>
-      </c>
-      <c r="C633" s="7" t="s">
-        <v>1720</v>
       </c>
     </row>
     <row r="634" spans="1:3">
       <c r="A634" s="7" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B634" s="7" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C634" s="7" t="s">
         <v>1721</v>
-      </c>
-      <c r="B634" s="7" t="s">
-        <v>1722</v>
-      </c>
-      <c r="C634" s="7" t="s">
-        <v>1723</v>
       </c>
     </row>
     <row r="635" spans="1:3">
       <c r="A635" s="7" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B635" s="7" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C635" s="7" t="s">
         <v>1724</v>
-      </c>
-      <c r="B635" s="7" t="s">
-        <v>1725</v>
-      </c>
-      <c r="C635" s="7" t="s">
-        <v>1726</v>
       </c>
     </row>
     <row r="636" spans="1:3">
       <c r="A636" s="7" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="B636" s="7" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="C636" s="7" t="s">
         <v>111</v>
@@ -15639,692 +15647,692 @@
     </row>
     <row r="637" spans="1:3">
       <c r="A637" s="7" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B637" s="7" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C637" s="7" t="s">
         <v>1729</v>
-      </c>
-      <c r="B637" s="7" t="s">
-        <v>1730</v>
-      </c>
-      <c r="C637" s="7" t="s">
-        <v>1731</v>
       </c>
     </row>
     <row r="638" spans="1:3">
       <c r="A638" s="7" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="B638" s="7" t="s">
-        <v>2627</v>
+        <v>2614</v>
       </c>
       <c r="C638" s="7" t="s">
-        <v>2628</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="639" spans="1:3">
       <c r="A639" s="7" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="B639" s="7" t="s">
-        <v>2629</v>
+        <v>2616</v>
       </c>
       <c r="C639" s="7" t="s">
-        <v>2630</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="640" spans="1:3">
       <c r="A640" s="7" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B640" s="7" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C640" s="7" t="s">
         <v>1734</v>
-      </c>
-      <c r="B640" s="7" t="s">
-        <v>1735</v>
-      </c>
-      <c r="C640" s="7" t="s">
-        <v>1736</v>
       </c>
     </row>
     <row r="641" spans="1:3">
       <c r="A641" s="7" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="B641" s="7" t="s">
-        <v>2631</v>
+        <v>2618</v>
       </c>
       <c r="C641" s="7" t="s">
-        <v>2632</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="642" spans="1:3">
       <c r="A642" s="7" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="B642" s="7" t="s">
-        <v>2633</v>
+        <v>2620</v>
       </c>
       <c r="C642" s="7" t="s">
-        <v>2634</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="643" spans="1:3">
       <c r="A643" s="7" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="B643" s="7" t="s">
-        <v>2635</v>
+        <v>2622</v>
       </c>
       <c r="C643" s="7" t="s">
-        <v>2636</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="644" spans="1:3">
       <c r="A644" s="7" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="B644" s="7" t="s">
-        <v>2637</v>
+        <v>2624</v>
       </c>
       <c r="C644" s="7" t="s">
-        <v>2638</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="645" spans="1:3">
       <c r="A645" s="7" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="B645" s="7" t="s">
-        <v>2639</v>
+        <v>2626</v>
       </c>
       <c r="C645" s="7" t="s">
-        <v>2640</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="646" spans="1:3">
       <c r="A646" s="7" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="B646" s="7" t="s">
-        <v>2641</v>
+        <v>2628</v>
       </c>
       <c r="C646" s="7" t="s">
-        <v>2642</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="647" spans="1:3">
       <c r="A647" s="7" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="B647" s="7" t="s">
-        <v>2643</v>
+        <v>2630</v>
       </c>
       <c r="C647" s="7" t="s">
-        <v>2644</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="648" spans="1:3">
       <c r="A648" s="7" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="B648" s="7" t="s">
-        <v>2645</v>
+        <v>2632</v>
       </c>
       <c r="C648" s="7" t="s">
-        <v>2646</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="649" spans="1:3">
       <c r="A649" s="7" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="B649" s="7" t="s">
-        <v>2647</v>
+        <v>2634</v>
       </c>
       <c r="C649" s="7" t="s">
-        <v>2648</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="650" spans="1:3">
       <c r="A650" s="7" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B650" s="7" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C650" s="7" t="s">
         <v>1746</v>
-      </c>
-      <c r="B650" s="7" t="s">
-        <v>1747</v>
-      </c>
-      <c r="C650" s="7" t="s">
-        <v>1748</v>
       </c>
     </row>
     <row r="651" spans="1:3">
       <c r="A651" s="7" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B651" s="7" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C651" s="7" t="s">
         <v>1749</v>
-      </c>
-      <c r="B651" s="7" t="s">
-        <v>1750</v>
-      </c>
-      <c r="C651" s="7" t="s">
-        <v>1751</v>
       </c>
     </row>
     <row r="652" spans="1:3">
       <c r="A652" s="7" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B652" s="7" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C652" s="7" t="s">
         <v>1752</v>
-      </c>
-      <c r="B652" s="7" t="s">
-        <v>1753</v>
-      </c>
-      <c r="C652" s="7" t="s">
-        <v>1754</v>
       </c>
     </row>
     <row r="653" spans="1:3">
       <c r="A653" s="7" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="B653" s="7" t="s">
-        <v>2435</v>
+        <v>2423</v>
       </c>
       <c r="C653" s="7" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="654" spans="1:3">
       <c r="A654" s="7" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B654" s="7" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C654" s="7" t="s">
         <v>1757</v>
-      </c>
-      <c r="B654" s="7" t="s">
-        <v>1758</v>
-      </c>
-      <c r="C654" s="7" t="s">
-        <v>1759</v>
       </c>
     </row>
     <row r="655" spans="1:3">
       <c r="A655" s="7" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B655" s="7" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C655" s="7" t="s">
         <v>1760</v>
-      </c>
-      <c r="B655" s="7" t="s">
-        <v>1761</v>
-      </c>
-      <c r="C655" s="7" t="s">
-        <v>1762</v>
       </c>
     </row>
     <row r="656" spans="1:3">
       <c r="A656" s="7" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B656" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C656" s="7" t="s">
         <v>1763</v>
-      </c>
-      <c r="B656" s="7" t="s">
-        <v>1764</v>
-      </c>
-      <c r="C656" s="7" t="s">
-        <v>1765</v>
       </c>
     </row>
     <row r="657" spans="1:3">
       <c r="A657" s="7" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B657" s="7" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C657" s="7" t="s">
         <v>1766</v>
-      </c>
-      <c r="B657" s="7" t="s">
-        <v>1767</v>
-      </c>
-      <c r="C657" s="7" t="s">
-        <v>1768</v>
       </c>
     </row>
     <row r="658" spans="1:3">
       <c r="A658" s="7" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B658" s="7" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C658" s="7" t="s">
         <v>1769</v>
-      </c>
-      <c r="B658" s="7" t="s">
-        <v>1770</v>
-      </c>
-      <c r="C658" s="7" t="s">
-        <v>1771</v>
       </c>
     </row>
     <row r="659" spans="1:3">
       <c r="A659" s="7" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B659" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C659" s="7" t="s">
         <v>1772</v>
-      </c>
-      <c r="B659" s="7" t="s">
-        <v>1773</v>
-      </c>
-      <c r="C659" s="7" t="s">
-        <v>1774</v>
       </c>
     </row>
     <row r="660" spans="1:3">
       <c r="A660" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B660" s="7" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C660" s="7" t="s">
         <v>1775</v>
-      </c>
-      <c r="B660" s="7" t="s">
-        <v>1776</v>
-      </c>
-      <c r="C660" s="7" t="s">
-        <v>1777</v>
       </c>
     </row>
     <row r="661" spans="1:3">
       <c r="A661" s="7" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B661" s="7" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C661" s="7" t="s">
         <v>1778</v>
-      </c>
-      <c r="B661" s="7" t="s">
-        <v>1779</v>
-      </c>
-      <c r="C661" s="7" t="s">
-        <v>1780</v>
       </c>
     </row>
     <row r="662" spans="1:3">
       <c r="A662" s="7" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B662" s="7" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C662" s="7" t="s">
         <v>1781</v>
-      </c>
-      <c r="B662" s="7" t="s">
-        <v>1782</v>
-      </c>
-      <c r="C662" s="7" t="s">
-        <v>1783</v>
       </c>
     </row>
     <row r="663" spans="1:3">
       <c r="A663" s="7" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B663" s="7" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C663" s="7" t="s">
         <v>1784</v>
-      </c>
-      <c r="B663" s="7" t="s">
-        <v>1785</v>
-      </c>
-      <c r="C663" s="7" t="s">
-        <v>1786</v>
       </c>
     </row>
     <row r="664" spans="1:3">
       <c r="A664" s="7" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B664" s="7" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C664" s="7" t="s">
         <v>1787</v>
-      </c>
-      <c r="B664" s="7" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C664" s="7" t="s">
-        <v>1789</v>
       </c>
     </row>
     <row r="665" spans="1:3">
       <c r="A665" s="7" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B665" s="7" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C665" s="7" t="s">
         <v>1790</v>
-      </c>
-      <c r="B665" s="7" t="s">
-        <v>1791</v>
-      </c>
-      <c r="C665" s="7" t="s">
-        <v>1792</v>
       </c>
     </row>
     <row r="666" spans="1:3">
       <c r="A666" s="7" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B666" s="7" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C666" s="7" t="s">
         <v>1793</v>
-      </c>
-      <c r="B666" s="7" t="s">
-        <v>1794</v>
-      </c>
-      <c r="C666" s="7" t="s">
-        <v>1795</v>
       </c>
     </row>
     <row r="667" spans="1:3">
       <c r="A667" s="7" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B667" s="7" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C667" s="7" t="s">
         <v>1796</v>
-      </c>
-      <c r="B667" s="7" t="s">
-        <v>1797</v>
-      </c>
-      <c r="C667" s="7" t="s">
-        <v>1798</v>
       </c>
     </row>
     <row r="668" spans="1:3">
       <c r="A668" s="7" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B668" s="7" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C668" s="7" t="s">
         <v>1799</v>
-      </c>
-      <c r="B668" s="7" t="s">
-        <v>1800</v>
-      </c>
-      <c r="C668" s="7" t="s">
-        <v>1801</v>
       </c>
     </row>
     <row r="669" spans="1:3">
       <c r="A669" s="7" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B669" s="7" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C669" s="7" t="s">
         <v>1802</v>
-      </c>
-      <c r="B669" s="7" t="s">
-        <v>1803</v>
-      </c>
-      <c r="C669" s="7" t="s">
-        <v>1804</v>
       </c>
     </row>
     <row r="670" spans="1:3">
       <c r="A670" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B670" s="7" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C670" s="7" t="s">
         <v>1805</v>
-      </c>
-      <c r="B670" s="7" t="s">
-        <v>1806</v>
-      </c>
-      <c r="C670" s="7" t="s">
-        <v>1807</v>
       </c>
     </row>
     <row r="671" spans="1:3">
       <c r="A671" s="7" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B671" s="7" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C671" s="7" t="s">
         <v>1808</v>
-      </c>
-      <c r="B671" s="7" t="s">
-        <v>1809</v>
-      </c>
-      <c r="C671" s="7" t="s">
-        <v>1810</v>
       </c>
     </row>
     <row r="672" spans="1:3">
       <c r="A672" s="7" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B672" s="7" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C672" s="7" t="s">
         <v>1811</v>
-      </c>
-      <c r="B672" s="7" t="s">
-        <v>1812</v>
-      </c>
-      <c r="C672" s="7" t="s">
-        <v>1813</v>
       </c>
     </row>
     <row r="673" spans="1:3">
       <c r="A673" s="7" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B673" s="7" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C673" s="7" t="s">
         <v>1814</v>
-      </c>
-      <c r="B673" s="7" t="s">
-        <v>1815</v>
-      </c>
-      <c r="C673" s="7" t="s">
-        <v>1816</v>
       </c>
     </row>
     <row r="674" spans="1:3">
       <c r="A674" s="7" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B674" s="7" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C674" s="7" t="s">
         <v>1817</v>
-      </c>
-      <c r="B674" s="7" t="s">
-        <v>1818</v>
-      </c>
-      <c r="C674" s="7" t="s">
-        <v>1819</v>
       </c>
     </row>
     <row r="675" spans="1:3">
       <c r="A675" s="7" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B675" s="7" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C675" s="7" t="s">
         <v>1820</v>
-      </c>
-      <c r="B675" s="7" t="s">
-        <v>1821</v>
-      </c>
-      <c r="C675" s="7" t="s">
-        <v>1822</v>
       </c>
     </row>
     <row r="676" spans="1:3">
       <c r="A676" s="7" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B676" s="7" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C676" s="7" t="s">
         <v>1823</v>
-      </c>
-      <c r="B676" s="7" t="s">
-        <v>1824</v>
-      </c>
-      <c r="C676" s="7" t="s">
-        <v>1825</v>
       </c>
     </row>
     <row r="677" spans="1:3">
       <c r="A677" s="7" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B677" s="7" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C677" s="7" t="s">
         <v>1826</v>
-      </c>
-      <c r="B677" s="7" t="s">
-        <v>1827</v>
-      </c>
-      <c r="C677" s="7" t="s">
-        <v>1828</v>
       </c>
     </row>
     <row r="678" spans="1:3">
       <c r="A678" s="7" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B678" s="7" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C678" s="7" t="s">
         <v>1829</v>
-      </c>
-      <c r="B678" s="7" t="s">
-        <v>1830</v>
-      </c>
-      <c r="C678" s="7" t="s">
-        <v>1831</v>
       </c>
     </row>
     <row r="679" spans="1:3">
       <c r="A679" s="7" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B679" s="7" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C679" s="7" t="s">
         <v>1832</v>
-      </c>
-      <c r="B679" s="7" t="s">
-        <v>1833</v>
-      </c>
-      <c r="C679" s="7" t="s">
-        <v>1834</v>
       </c>
     </row>
     <row r="680" spans="1:3">
       <c r="A680" s="7" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B680" s="7" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C680" s="7" t="s">
         <v>1835</v>
-      </c>
-      <c r="B680" s="7" t="s">
-        <v>1836</v>
-      </c>
-      <c r="C680" s="7" t="s">
-        <v>1837</v>
       </c>
     </row>
     <row r="681" spans="1:3">
       <c r="A681" s="7" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="B681" s="7" t="s">
-        <v>2649</v>
+        <v>2636</v>
       </c>
       <c r="C681" s="7" t="s">
-        <v>2650</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="682" spans="1:3">
       <c r="A682" s="7" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B682" s="7" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C682" s="7" t="s">
         <v>1839</v>
-      </c>
-      <c r="B682" s="7" t="s">
-        <v>1840</v>
-      </c>
-      <c r="C682" s="7" t="s">
-        <v>1841</v>
       </c>
     </row>
     <row r="683" spans="1:3">
       <c r="A683" s="7" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B683" s="7" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C683" s="7" t="s">
         <v>1842</v>
-      </c>
-      <c r="B683" s="7" t="s">
-        <v>1843</v>
-      </c>
-      <c r="C683" s="7" t="s">
-        <v>1844</v>
       </c>
     </row>
     <row r="684" spans="1:3">
       <c r="A684" s="7" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="B684" s="7" t="s">
-        <v>2651</v>
+        <v>2638</v>
       </c>
       <c r="C684" s="7" t="s">
-        <v>2652</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="685" spans="1:3">
       <c r="A685" s="7" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="B685" s="7" t="s">
-        <v>2653</v>
+        <v>2640</v>
       </c>
       <c r="C685" s="7" t="s">
-        <v>2654</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="686" spans="1:3">
       <c r="A686" s="7" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="B686" s="7" t="s">
-        <v>2655</v>
+        <v>2642</v>
       </c>
       <c r="C686" s="7" t="s">
-        <v>2656</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="687" spans="1:3">
       <c r="A687" s="7" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="B687" s="7" t="s">
-        <v>2657</v>
+        <v>2644</v>
       </c>
       <c r="C687" s="7" t="s">
-        <v>2658</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="688" spans="1:3">
       <c r="A688" s="7" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="B688" s="7" t="s">
-        <v>2659</v>
+        <v>2646</v>
       </c>
       <c r="C688" s="7" t="s">
-        <v>2660</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="689" spans="1:3">
       <c r="A689" s="7" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="B689" s="7" t="s">
-        <v>2661</v>
+        <v>2648</v>
       </c>
       <c r="C689" s="7" t="s">
-        <v>2662</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="690" spans="1:3">
       <c r="A690" s="7" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B690" s="7" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C690" s="7" t="s">
         <v>1851</v>
-      </c>
-      <c r="B690" s="7" t="s">
-        <v>1852</v>
-      </c>
-      <c r="C690" s="7" t="s">
-        <v>1853</v>
       </c>
     </row>
     <row r="691" spans="1:3">
       <c r="A691" s="7" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B691" s="7" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C691" s="7" t="s">
         <v>1854</v>
-      </c>
-      <c r="B691" s="7" t="s">
-        <v>1855</v>
-      </c>
-      <c r="C691" s="7" t="s">
-        <v>1856</v>
       </c>
     </row>
     <row r="692" spans="1:3">
       <c r="A692" s="7" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B692" s="7" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C692" s="7" t="s">
         <v>1857</v>
-      </c>
-      <c r="B692" s="7" t="s">
-        <v>1858</v>
-      </c>
-      <c r="C692" s="7" t="s">
-        <v>1859</v>
       </c>
     </row>
     <row r="693" spans="1:3">
       <c r="A693" s="7" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B693" s="7" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C693" s="7" t="s">
         <v>1860</v>
-      </c>
-      <c r="B693" s="7" t="s">
-        <v>1861</v>
-      </c>
-      <c r="C693" s="7" t="s">
-        <v>1862</v>
       </c>
     </row>
     <row r="694" spans="1:3">
       <c r="A694" s="7" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B694" s="7" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C694" s="7" t="s">
         <v>1863</v>
-      </c>
-      <c r="B694" s="7" t="s">
-        <v>1864</v>
-      </c>
-      <c r="C694" s="7" t="s">
-        <v>1865</v>
       </c>
     </row>
     <row r="695" spans="1:3">
       <c r="A695" s="7" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B695" s="7" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C695" s="7" t="s">
         <v>1866</v>
-      </c>
-      <c r="B695" s="7" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C695" s="7" t="s">
-        <v>1868</v>
       </c>
     </row>
     <row r="696" spans="1:3">
       <c r="A696" s="7" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B696" s="7" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C696" s="7" t="s">
         <v>1869</v>
-      </c>
-      <c r="B696" s="7" t="s">
-        <v>1870</v>
-      </c>
-      <c r="C696" s="7" t="s">
-        <v>1871</v>
       </c>
     </row>
     <row r="697" spans="1:3">
       <c r="A697" s="7" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B697" s="7" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C697" s="7" t="s">
         <v>1872</v>
-      </c>
-      <c r="B697" s="7" t="s">
-        <v>1873</v>
-      </c>
-      <c r="C697" s="7" t="s">
-        <v>1874</v>
       </c>
     </row>
     <row r="698" spans="1:3">
       <c r="A698" s="7" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B698" s="7" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C698" s="7" t="s">
         <v>1875</v>
-      </c>
-      <c r="B698" s="7" t="s">
-        <v>1876</v>
-      </c>
-      <c r="C698" s="7" t="s">
-        <v>1877</v>
       </c>
     </row>
     <row r="699" spans="1:3">
       <c r="A699" s="7" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="B699" s="7" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="C699" s="7" t="s">
         <v>689</v>
@@ -16332,384 +16340,384 @@
     </row>
     <row r="700" spans="1:3">
       <c r="A700" s="7" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B700" s="7" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C700" s="7" t="s">
         <v>1880</v>
-      </c>
-      <c r="B700" s="7" t="s">
-        <v>1881</v>
-      </c>
-      <c r="C700" s="7" t="s">
-        <v>1882</v>
       </c>
     </row>
     <row r="701" spans="1:3">
       <c r="A701" s="7" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B701" s="7" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C701" s="7" t="s">
         <v>1883</v>
-      </c>
-      <c r="B701" s="7" t="s">
-        <v>1884</v>
-      </c>
-      <c r="C701" s="7" t="s">
-        <v>1885</v>
       </c>
     </row>
     <row r="702" spans="1:3">
       <c r="A702" s="7" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B702" s="7" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C702" s="7" t="s">
         <v>1886</v>
-      </c>
-      <c r="B702" s="7" t="s">
-        <v>1887</v>
-      </c>
-      <c r="C702" s="7" t="s">
-        <v>1888</v>
       </c>
     </row>
     <row r="703" spans="1:3">
       <c r="A703" s="7" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B703" s="7" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C703" s="7" t="s">
         <v>1889</v>
-      </c>
-      <c r="B703" s="7" t="s">
-        <v>1890</v>
-      </c>
-      <c r="C703" s="7" t="s">
-        <v>1891</v>
       </c>
     </row>
     <row r="704" spans="1:3">
       <c r="A704" s="7" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B704" s="7" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C704" s="7" t="s">
         <v>1892</v>
-      </c>
-      <c r="B704" s="7" t="s">
-        <v>1893</v>
-      </c>
-      <c r="C704" s="7" t="s">
-        <v>1894</v>
       </c>
     </row>
     <row r="705" spans="1:3">
       <c r="A705" s="7" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B705" s="7" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C705" s="7" t="s">
         <v>1895</v>
-      </c>
-      <c r="B705" s="7" t="s">
-        <v>1896</v>
-      </c>
-      <c r="C705" s="7" t="s">
-        <v>1897</v>
       </c>
     </row>
     <row r="706" spans="1:3">
       <c r="A706" s="7" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B706" s="7" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C706" s="7" t="s">
         <v>1898</v>
-      </c>
-      <c r="B706" s="7" t="s">
-        <v>1899</v>
-      </c>
-      <c r="C706" s="7" t="s">
-        <v>1900</v>
       </c>
     </row>
     <row r="707" spans="1:3">
       <c r="A707" s="7" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B707" s="7" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C707" s="7" t="s">
         <v>1901</v>
-      </c>
-      <c r="B707" s="7" t="s">
-        <v>1902</v>
-      </c>
-      <c r="C707" s="7" t="s">
-        <v>1903</v>
       </c>
     </row>
     <row r="708" spans="1:3">
       <c r="A708" s="7" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B708" s="7" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C708" s="7" t="s">
         <v>1904</v>
-      </c>
-      <c r="B708" s="7" t="s">
-        <v>1905</v>
-      </c>
-      <c r="C708" s="7" t="s">
-        <v>1906</v>
       </c>
     </row>
     <row r="709" spans="1:3">
       <c r="A709" s="7" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B709" s="7" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C709" s="7" t="s">
         <v>1907</v>
-      </c>
-      <c r="B709" s="7" t="s">
-        <v>1908</v>
-      </c>
-      <c r="C709" s="7" t="s">
-        <v>1909</v>
       </c>
     </row>
     <row r="710" spans="1:3">
       <c r="A710" s="7" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B710" s="7" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C710" s="7" t="s">
         <v>1910</v>
-      </c>
-      <c r="B710" s="7" t="s">
-        <v>1911</v>
-      </c>
-      <c r="C710" s="7" t="s">
-        <v>1912</v>
       </c>
     </row>
     <row r="711" spans="1:3">
       <c r="A711" s="7" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B711" s="7" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C711" s="7" t="s">
         <v>1913</v>
-      </c>
-      <c r="B711" s="7" t="s">
-        <v>1914</v>
-      </c>
-      <c r="C711" s="7" t="s">
-        <v>1915</v>
       </c>
     </row>
     <row r="712" spans="1:3">
       <c r="A712" s="7" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B712" s="7" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C712" s="7" t="s">
         <v>1916</v>
-      </c>
-      <c r="B712" s="7" t="s">
-        <v>1917</v>
-      </c>
-      <c r="C712" s="7" t="s">
-        <v>1918</v>
       </c>
     </row>
     <row r="713" spans="1:3">
       <c r="A713" s="7" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B713" s="7" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C713" s="7" t="s">
         <v>1919</v>
-      </c>
-      <c r="B713" s="7" t="s">
-        <v>1920</v>
-      </c>
-      <c r="C713" s="7" t="s">
-        <v>1921</v>
       </c>
     </row>
     <row r="714" spans="1:3">
       <c r="A714" s="7" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B714" s="7" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C714" s="7" t="s">
         <v>1922</v>
-      </c>
-      <c r="B714" s="7" t="s">
-        <v>1923</v>
-      </c>
-      <c r="C714" s="7" t="s">
-        <v>1924</v>
       </c>
     </row>
     <row r="715" spans="1:3">
       <c r="A715" s="7" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B715" s="7" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C715" s="7" t="s">
         <v>1925</v>
-      </c>
-      <c r="B715" s="7" t="s">
-        <v>1926</v>
-      </c>
-      <c r="C715" s="7" t="s">
-        <v>1927</v>
       </c>
     </row>
     <row r="716" spans="1:3">
       <c r="A716" s="7" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B716" s="7" t="s">
+        <v>1927</v>
+      </c>
+      <c r="C716" s="7" t="s">
         <v>1928</v>
-      </c>
-      <c r="B716" s="7" t="s">
-        <v>1929</v>
-      </c>
-      <c r="C716" s="7" t="s">
-        <v>1930</v>
       </c>
     </row>
     <row r="717" spans="1:3">
       <c r="A717" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B717" s="7" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C717" s="7" t="s">
         <v>1931</v>
-      </c>
-      <c r="B717" s="7" t="s">
-        <v>1932</v>
-      </c>
-      <c r="C717" s="7" t="s">
-        <v>1933</v>
       </c>
     </row>
     <row r="718" spans="1:3">
       <c r="A718" s="7" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B718" s="7" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C718" s="7" t="s">
         <v>1934</v>
-      </c>
-      <c r="B718" s="7" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C718" s="7" t="s">
-        <v>1936</v>
       </c>
     </row>
     <row r="719" spans="1:3">
       <c r="A719" s="7" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B719" s="7" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C719" s="7" t="s">
         <v>1937</v>
-      </c>
-      <c r="B719" s="7" t="s">
-        <v>1938</v>
-      </c>
-      <c r="C719" s="7" t="s">
-        <v>1939</v>
       </c>
     </row>
     <row r="720" spans="1:3">
       <c r="A720" s="7" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B720" s="7" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C720" s="7" t="s">
         <v>1940</v>
-      </c>
-      <c r="B720" s="7" t="s">
-        <v>1941</v>
-      </c>
-      <c r="C720" s="7" t="s">
-        <v>1942</v>
       </c>
     </row>
     <row r="721" spans="1:3">
       <c r="A721" s="7" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B721" s="7" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C721" s="7" t="s">
         <v>1943</v>
-      </c>
-      <c r="B721" s="7" t="s">
-        <v>1944</v>
-      </c>
-      <c r="C721" s="7" t="s">
-        <v>1945</v>
       </c>
     </row>
     <row r="722" spans="1:3">
       <c r="A722" s="7" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B722" s="7" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C722" s="7" t="s">
         <v>1946</v>
-      </c>
-      <c r="B722" s="7" t="s">
-        <v>1947</v>
-      </c>
-      <c r="C722" s="7" t="s">
-        <v>1948</v>
       </c>
     </row>
     <row r="723" spans="1:3">
       <c r="A723" s="7" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="B723" s="7" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="C723" s="7" t="s">
-        <v>1951</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="724" spans="1:3">
       <c r="A724" s="7" t="s">
-        <v>1952</v>
+        <v>1949</v>
       </c>
       <c r="B724" s="7" t="s">
-        <v>1953</v>
+        <v>1950</v>
       </c>
       <c r="C724" s="7" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="725" spans="1:3">
       <c r="A725" s="7" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="B725" s="7" t="s">
-        <v>1956</v>
+        <v>1953</v>
       </c>
       <c r="C725" s="7" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="726" spans="1:3">
       <c r="A726" s="7" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="B726" s="7" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
       <c r="C726" s="7" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="727" spans="1:3">
       <c r="A727" s="7" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="B727" s="7" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="C727" s="7" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="728" spans="1:3">
       <c r="A728" s="7" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="B728" s="7" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="C728" s="7" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="729" spans="1:3">
       <c r="A729" s="7" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="B729" s="7" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="C729" s="7" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="730" spans="1:3">
       <c r="A730" s="7" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="B730" s="7" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="C730" s="7" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="731" spans="1:3">
       <c r="A731" s="7" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="B731" s="7" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="C731" s="7" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="732" spans="1:3">
       <c r="A732" s="7" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="B732" s="7" t="s">
-        <v>2663</v>
+        <v>2650</v>
       </c>
       <c r="C732" s="7" t="s">
-        <v>2664</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="733" spans="1:3">
       <c r="A733" s="7" t="s">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="B733" s="7" t="s">
-        <v>1978</v>
+        <v>1975</v>
       </c>
       <c r="C733" s="7" t="s">
-        <v>1979</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="734" spans="1:3">
       <c r="A734" s="7" t="s">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="B734" s="7" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="C734" s="7" t="s">
         <v>594</v>
@@ -16717,2004 +16725,2004 @@
     </row>
     <row r="735" spans="1:3">
       <c r="A735" s="7" t="s">
-        <v>1982</v>
+        <v>1979</v>
       </c>
       <c r="B735" s="7" t="s">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="C735" s="7" t="s">
-        <v>1984</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="736" spans="1:3">
       <c r="A736" s="7" t="s">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="B736" s="7" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="C736" s="7" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="737" spans="1:3">
       <c r="A737" s="7" t="s">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="B737" s="7" t="s">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="C737" s="7" t="s">
-        <v>1990</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="738" spans="1:3">
       <c r="A738" s="7" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="B738" s="7" t="s">
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="C738" s="7" t="s">
-        <v>1993</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="739" spans="1:3">
       <c r="A739" s="7" t="s">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="B739" s="7" t="s">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="C739" s="7" t="s">
-        <v>1996</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="740" spans="1:3">
       <c r="A740" s="7" t="s">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="B740" s="7" t="s">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="C740" s="7" t="s">
-        <v>1999</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="741" spans="1:3">
       <c r="A741" s="7" t="s">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B741" s="7" t="s">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="C741" s="7" t="s">
-        <v>2002</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="742" spans="1:3">
       <c r="A742" s="7" t="s">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="B742" s="7" t="s">
-        <v>2665</v>
+        <v>2652</v>
       </c>
       <c r="C742" s="7" t="s">
-        <v>2666</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="743" spans="1:3">
       <c r="A743" s="7" t="s">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B743" s="7" t="s">
-        <v>2667</v>
+        <v>2654</v>
       </c>
       <c r="C743" s="7" t="s">
-        <v>2668</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="744" spans="1:3">
       <c r="A744" s="7" t="s">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="B744" s="7" t="s">
-        <v>2669</v>
+        <v>2656</v>
       </c>
       <c r="C744" s="7" t="s">
-        <v>2670</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="745" spans="1:3">
       <c r="A745" s="7" t="s">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B745" s="7" t="s">
-        <v>2671</v>
+        <v>2658</v>
       </c>
       <c r="C745" s="7" t="s">
-        <v>2672</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="746" spans="1:3">
       <c r="A746" s="7" t="s">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="B746" s="7" t="s">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="C746" s="7" t="s">
-        <v>2009</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="747" spans="1:3">
       <c r="A747" s="7" t="s">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B747" s="7" t="s">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="C747" s="7" t="s">
-        <v>2012</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="748" spans="1:3">
       <c r="A748" s="7" t="s">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="B748" s="7" t="s">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C748" s="7" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="749" spans="1:3">
       <c r="A749" s="7" t="s">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B749" s="7" t="s">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C749" s="7" t="s">
-        <v>2018</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="750" spans="1:3">
       <c r="A750" s="7" t="s">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="B750" s="7" t="s">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C750" s="7" t="s">
-        <v>2021</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="751" spans="1:3">
       <c r="A751" s="7" t="s">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B751" s="7" t="s">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="C751" s="7" t="s">
-        <v>2024</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="752" spans="1:3">
       <c r="A752" s="7" t="s">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="B752" s="7" t="s">
-        <v>2026</v>
+        <v>2022</v>
       </c>
       <c r="C752" s="7" t="s">
-        <v>2027</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="753" spans="1:3">
       <c r="A753" s="7" t="s">
-        <v>2028</v>
+        <v>2024</v>
       </c>
       <c r="B753" s="7" t="s">
-        <v>2029</v>
+        <v>2025</v>
       </c>
       <c r="C753" s="7" t="s">
-        <v>2030</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="754" spans="1:3">
       <c r="A754" s="7" t="s">
-        <v>2031</v>
+        <v>2027</v>
       </c>
       <c r="B754" s="7" t="s">
-        <v>2032</v>
+        <v>2028</v>
       </c>
       <c r="C754" s="7" t="s">
-        <v>2033</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="755" spans="1:3">
       <c r="A755" s="7" t="s">
-        <v>2034</v>
+        <v>2030</v>
       </c>
       <c r="B755" s="7" t="s">
-        <v>2035</v>
+        <v>2031</v>
       </c>
       <c r="C755" s="7" t="s">
-        <v>2036</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="756" spans="1:3">
       <c r="A756" s="7" t="s">
-        <v>2037</v>
+        <v>2032</v>
       </c>
       <c r="B756" s="7" t="s">
-        <v>2038</v>
+        <v>2033</v>
       </c>
       <c r="C756" s="7" t="s">
-        <v>2039</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="757" spans="1:3">
       <c r="A757" s="7" t="s">
-        <v>2040</v>
+        <v>2034</v>
       </c>
       <c r="B757" s="7" t="s">
-        <v>2041</v>
+        <v>2035</v>
       </c>
       <c r="C757" s="7" t="s">
-        <v>2042</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="758" spans="1:3">
       <c r="A758" s="7" t="s">
-        <v>2043</v>
+        <v>2036</v>
       </c>
       <c r="B758" s="7" t="s">
-        <v>2044</v>
+        <v>2037</v>
       </c>
       <c r="C758" s="7" t="s">
-        <v>2045</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="759" spans="1:3">
       <c r="A759" s="7" t="s">
-        <v>2046</v>
+        <v>2039</v>
       </c>
       <c r="B759" s="7" t="s">
-        <v>2047</v>
+        <v>2040</v>
       </c>
       <c r="C759" s="7" t="s">
-        <v>2048</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="760" spans="1:3">
       <c r="A760" s="7" t="s">
-        <v>2049</v>
+        <v>2042</v>
       </c>
       <c r="B760" s="7" t="s">
-        <v>2050</v>
+        <v>2043</v>
       </c>
       <c r="C760" s="7" t="s">
-        <v>1979</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="761" spans="1:3">
       <c r="A761" s="7" t="s">
-        <v>2051</v>
+        <v>2044</v>
       </c>
       <c r="B761" s="7" t="s">
-        <v>2052</v>
+        <v>2045</v>
       </c>
       <c r="C761" s="7" t="s">
-        <v>2053</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="762" spans="1:3">
       <c r="A762" s="7" t="s">
-        <v>2054</v>
+        <v>2047</v>
       </c>
       <c r="B762" s="7" t="s">
-        <v>2055</v>
+        <v>2048</v>
       </c>
       <c r="C762" s="7" t="s">
-        <v>2056</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="763" spans="1:3">
       <c r="A763" s="7" t="s">
-        <v>2057</v>
+        <v>2050</v>
       </c>
       <c r="B763" s="7" t="s">
-        <v>2058</v>
+        <v>2051</v>
       </c>
       <c r="C763" s="7" t="s">
-        <v>2059</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="764" spans="1:3">
       <c r="A764" s="7" t="s">
-        <v>2060</v>
+        <v>2053</v>
       </c>
       <c r="B764" s="7" t="s">
-        <v>2061</v>
+        <v>2054</v>
       </c>
       <c r="C764" s="7" t="s">
-        <v>2062</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="765" spans="1:3">
       <c r="A765" s="7" t="s">
-        <v>2063</v>
+        <v>2056</v>
       </c>
       <c r="B765" s="7" t="s">
-        <v>2064</v>
+        <v>2057</v>
       </c>
       <c r="C765" s="7" t="s">
-        <v>2065</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="766" spans="1:3">
       <c r="A766" s="7" t="s">
-        <v>2066</v>
+        <v>2059</v>
       </c>
       <c r="B766" s="7" t="s">
-        <v>2067</v>
+        <v>2060</v>
       </c>
       <c r="C766" s="7" t="s">
-        <v>2068</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="767" spans="1:3">
       <c r="A767" s="7" t="s">
-        <v>2069</v>
+        <v>2062</v>
       </c>
       <c r="B767" s="7" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C767" s="7" t="s">
         <v>1367</v>
-      </c>
-      <c r="C767" s="7" t="s">
-        <v>1368</v>
       </c>
     </row>
     <row r="768" spans="1:3">
       <c r="A768" s="7" t="s">
-        <v>2070</v>
+        <v>2063</v>
       </c>
       <c r="B768" s="7" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C768" s="7" t="s">
         <v>1370</v>
-      </c>
-      <c r="C768" s="7" t="s">
-        <v>1371</v>
       </c>
     </row>
     <row r="769" spans="1:3">
       <c r="A769" s="7" t="s">
-        <v>2071</v>
+        <v>2064</v>
       </c>
       <c r="B769" s="7" t="s">
-        <v>2072</v>
+        <v>2065</v>
       </c>
       <c r="C769" s="7" t="s">
-        <v>2073</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="770" spans="1:3">
       <c r="A770" s="7" t="s">
-        <v>2074</v>
+        <v>2067</v>
       </c>
       <c r="B770" s="7" t="s">
-        <v>2075</v>
+        <v>2068</v>
       </c>
       <c r="C770" s="7" t="s">
-        <v>2076</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="771" spans="1:3">
       <c r="A771" s="7" t="s">
-        <v>2077</v>
+        <v>2070</v>
       </c>
       <c r="B771" s="7" t="s">
-        <v>2078</v>
+        <v>2071</v>
       </c>
       <c r="C771" s="7" t="s">
-        <v>2079</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="772" spans="1:3">
       <c r="A772" s="7" t="s">
-        <v>2080</v>
+        <v>2073</v>
       </c>
       <c r="B772" s="7" t="s">
-        <v>2081</v>
+        <v>2074</v>
       </c>
       <c r="C772" s="7" t="s">
-        <v>2082</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="773" spans="1:3">
       <c r="A773" s="7" t="s">
-        <v>2083</v>
+        <v>2076</v>
       </c>
       <c r="B773" s="7" t="s">
-        <v>2084</v>
+        <v>2077</v>
       </c>
       <c r="C773" s="7" t="s">
-        <v>2085</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="774" spans="1:3">
       <c r="A774" s="7" t="s">
-        <v>2086</v>
+        <v>2079</v>
       </c>
       <c r="B774" s="7" t="s">
-        <v>2087</v>
+        <v>2080</v>
       </c>
       <c r="C774" s="7" t="s">
-        <v>2088</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="775" spans="1:3">
       <c r="A775" s="7" t="s">
-        <v>2089</v>
+        <v>2082</v>
       </c>
       <c r="B775" s="7" t="s">
-        <v>2090</v>
+        <v>2083</v>
       </c>
       <c r="C775" s="7" t="s">
-        <v>2091</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="776" spans="1:3">
       <c r="A776" s="7" t="s">
-        <v>2092</v>
+        <v>2085</v>
       </c>
       <c r="B776" s="7" t="s">
-        <v>2093</v>
+        <v>2086</v>
       </c>
       <c r="C776" s="7" t="s">
-        <v>2094</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="777" spans="1:3">
       <c r="A777" s="7" t="s">
-        <v>2095</v>
+        <v>2088</v>
       </c>
       <c r="B777" s="7" t="s">
-        <v>2096</v>
+        <v>2089</v>
       </c>
       <c r="C777" s="7" t="s">
-        <v>2076</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="778" spans="1:3">
       <c r="A778" s="7" t="s">
-        <v>2097</v>
+        <v>2090</v>
       </c>
       <c r="B778" s="7" t="s">
-        <v>2098</v>
+        <v>2091</v>
       </c>
       <c r="C778" s="7" t="s">
-        <v>2099</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="779" spans="1:3">
       <c r="A779" s="7" t="s">
-        <v>2100</v>
+        <v>2093</v>
       </c>
       <c r="B779" s="7" t="s">
-        <v>2101</v>
+        <v>2094</v>
       </c>
       <c r="C779" s="7" t="s">
-        <v>2102</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="780" spans="1:3">
       <c r="A780" s="7" t="s">
-        <v>2103</v>
+        <v>2096</v>
       </c>
       <c r="B780" s="7" t="s">
-        <v>2104</v>
+        <v>2097</v>
       </c>
       <c r="C780" s="7" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="781" spans="1:3">
       <c r="A781" s="7" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="B781" s="7" t="s">
-        <v>2107</v>
+        <v>2100</v>
       </c>
       <c r="C781" s="7" t="s">
-        <v>2108</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="782" spans="1:3">
       <c r="A782" s="7" t="s">
-        <v>2109</v>
+        <v>2102</v>
       </c>
       <c r="B782" s="7" t="s">
-        <v>2110</v>
+        <v>2103</v>
       </c>
       <c r="C782" s="7" t="s">
-        <v>2111</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="783" spans="1:3">
       <c r="A783" s="7" t="s">
-        <v>2112</v>
+        <v>2105</v>
       </c>
       <c r="B783" s="7" t="s">
-        <v>2673</v>
+        <v>2660</v>
       </c>
       <c r="C783" s="7" t="s">
-        <v>2674</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="784" spans="1:3">
       <c r="A784" s="7" t="s">
-        <v>2113</v>
+        <v>2106</v>
       </c>
       <c r="B784" s="7" t="s">
-        <v>2675</v>
+        <v>2662</v>
       </c>
       <c r="C784" s="7" t="s">
-        <v>2676</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="785" spans="1:3">
       <c r="A785" s="7" t="s">
-        <v>2114</v>
+        <v>2107</v>
       </c>
       <c r="B785" s="7" t="s">
-        <v>2677</v>
+        <v>2664</v>
       </c>
       <c r="C785" s="7" t="s">
-        <v>2678</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="786" spans="1:3">
       <c r="A786" s="7" t="s">
-        <v>2115</v>
+        <v>2108</v>
       </c>
       <c r="B786" s="7" t="s">
-        <v>2679</v>
+        <v>2666</v>
       </c>
       <c r="C786" s="7" t="s">
-        <v>2680</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="787" spans="1:3">
       <c r="A787" s="7" t="s">
-        <v>2116</v>
+        <v>2109</v>
       </c>
       <c r="B787" s="7" t="s">
-        <v>2681</v>
+        <v>2667</v>
       </c>
       <c r="C787" s="7" t="s">
-        <v>2682</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="788" spans="1:3">
       <c r="A788" s="7" t="s">
-        <v>2117</v>
+        <v>2110</v>
       </c>
       <c r="B788" s="7" t="s">
-        <v>2118</v>
+        <v>2111</v>
       </c>
       <c r="C788" s="7" t="s">
-        <v>2119</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="789" spans="1:3">
       <c r="A789" s="7" t="s">
-        <v>2120</v>
+        <v>2113</v>
       </c>
       <c r="B789" s="7" t="s">
-        <v>2121</v>
+        <v>2114</v>
       </c>
       <c r="C789" s="7" t="s">
-        <v>2122</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="790" spans="1:3">
       <c r="A790" s="7" t="s">
-        <v>2123</v>
+        <v>2116</v>
       </c>
       <c r="B790" s="7" t="s">
-        <v>2683</v>
+        <v>2669</v>
       </c>
       <c r="C790" s="7" t="s">
-        <v>2684</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="791" spans="1:3">
       <c r="A791" s="7" t="s">
-        <v>2124</v>
+        <v>2117</v>
       </c>
       <c r="B791" s="7" t="s">
-        <v>2685</v>
+        <v>2671</v>
       </c>
       <c r="C791" s="7" t="s">
-        <v>2686</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="792" spans="1:3">
       <c r="A792" s="7" t="s">
-        <v>2125</v>
+        <v>2118</v>
       </c>
       <c r="B792" s="7" t="s">
-        <v>2126</v>
+        <v>2119</v>
       </c>
       <c r="C792" s="7" t="s">
-        <v>2127</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="793" spans="1:3">
       <c r="A793" s="7" t="s">
-        <v>2128</v>
+        <v>2121</v>
       </c>
       <c r="B793" s="7" t="s">
-        <v>2129</v>
+        <v>2122</v>
       </c>
       <c r="C793" s="7" t="s">
-        <v>2130</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="794" spans="1:3">
       <c r="A794" s="7" t="s">
-        <v>2131</v>
+        <v>2124</v>
       </c>
       <c r="B794" s="7" t="s">
-        <v>2132</v>
+        <v>2125</v>
       </c>
       <c r="C794" s="7" t="s">
-        <v>2133</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="795" spans="1:3">
       <c r="A795" s="7" t="s">
-        <v>2134</v>
+        <v>2127</v>
       </c>
       <c r="B795" s="7" t="s">
-        <v>2135</v>
+        <v>2128</v>
       </c>
       <c r="C795" s="7" t="s">
-        <v>2136</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="796" spans="1:3">
       <c r="A796" s="7" t="s">
-        <v>2137</v>
+        <v>2130</v>
       </c>
       <c r="B796" s="7" t="s">
-        <v>2138</v>
+        <v>2131</v>
       </c>
       <c r="C796" s="7" t="s">
-        <v>2139</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="797" spans="1:3">
       <c r="A797" s="7" t="s">
-        <v>2140</v>
+        <v>2133</v>
       </c>
       <c r="B797" s="7" t="s">
-        <v>2141</v>
+        <v>2134</v>
       </c>
       <c r="C797" s="7" t="s">
-        <v>2142</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="798" spans="1:3">
       <c r="A798" s="7" t="s">
-        <v>2143</v>
+        <v>2136</v>
       </c>
       <c r="B798" s="7" t="s">
-        <v>2144</v>
+        <v>2137</v>
       </c>
       <c r="C798" s="7" t="s">
-        <v>2145</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="799" spans="1:3">
       <c r="A799" s="7" t="s">
-        <v>2146</v>
+        <v>2139</v>
       </c>
       <c r="B799" s="7" t="s">
-        <v>2147</v>
+        <v>2140</v>
       </c>
       <c r="C799" s="7" t="s">
-        <v>2148</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="800" spans="1:3">
       <c r="A800" s="7" t="s">
-        <v>2149</v>
+        <v>2142</v>
       </c>
       <c r="B800" s="7" t="s">
-        <v>2150</v>
+        <v>2143</v>
       </c>
       <c r="C800" s="7" t="s">
-        <v>2151</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="801" spans="1:3">
       <c r="A801" s="7" t="s">
-        <v>2152</v>
+        <v>2145</v>
       </c>
       <c r="B801" s="7" t="s">
-        <v>2153</v>
+        <v>2146</v>
       </c>
       <c r="C801" s="7" t="s">
-        <v>2154</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="802" spans="1:3">
       <c r="A802" s="7" t="s">
-        <v>2155</v>
+        <v>2148</v>
       </c>
       <c r="B802" s="7" t="s">
-        <v>2156</v>
+        <v>2149</v>
       </c>
       <c r="C802" s="7" t="s">
-        <v>2157</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="803" spans="1:3">
       <c r="A803" s="7" t="s">
-        <v>2158</v>
+        <v>2151</v>
       </c>
       <c r="B803" s="7" t="s">
-        <v>2687</v>
+        <v>2673</v>
       </c>
       <c r="C803" s="7" t="s">
-        <v>2688</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="804" spans="1:3">
       <c r="A804" s="7" t="s">
-        <v>2159</v>
+        <v>2152</v>
       </c>
       <c r="B804" s="7" t="s">
-        <v>2160</v>
+        <v>2153</v>
       </c>
       <c r="C804" s="7" t="s">
-        <v>2161</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="805" spans="1:3">
       <c r="A805" s="7" t="s">
-        <v>2162</v>
+        <v>2155</v>
       </c>
       <c r="B805" s="7" t="s">
-        <v>2689</v>
+        <v>2675</v>
       </c>
       <c r="C805" s="7" t="s">
-        <v>2690</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="806" spans="1:3">
       <c r="A806" s="7" t="s">
-        <v>2163</v>
+        <v>2156</v>
       </c>
       <c r="B806" s="7" t="s">
-        <v>2164</v>
+        <v>2157</v>
       </c>
       <c r="C806" s="7" t="s">
-        <v>2165</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="807" spans="1:3">
       <c r="A807" s="7" t="s">
-        <v>2166</v>
+        <v>2159</v>
       </c>
       <c r="B807" s="7" t="s">
-        <v>2167</v>
+        <v>2160</v>
       </c>
       <c r="C807" s="7" t="s">
-        <v>2168</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="808" spans="1:3">
       <c r="A808" s="7" t="s">
-        <v>2169</v>
+        <v>2162</v>
       </c>
       <c r="B808" s="7" t="s">
-        <v>2170</v>
+        <v>2163</v>
       </c>
       <c r="C808" s="7" t="s">
-        <v>2171</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="809" spans="1:3">
       <c r="A809" s="7" t="s">
-        <v>2172</v>
+        <v>2165</v>
       </c>
       <c r="B809" s="7" t="s">
-        <v>2173</v>
+        <v>2166</v>
       </c>
       <c r="C809" s="7" t="s">
-        <v>2174</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="810" spans="1:3">
       <c r="A810" s="7" t="s">
-        <v>2175</v>
+        <v>2168</v>
       </c>
       <c r="B810" s="7" t="s">
-        <v>2691</v>
+        <v>2677</v>
       </c>
       <c r="C810" s="7" t="s">
-        <v>2691</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="811" spans="1:3">
       <c r="A811" s="7" t="s">
-        <v>2176</v>
+        <v>2169</v>
       </c>
       <c r="B811" s="7" t="s">
-        <v>2692</v>
+        <v>2678</v>
       </c>
       <c r="C811" s="7" t="s">
-        <v>2693</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="812" spans="1:3">
       <c r="A812" s="7" t="s">
-        <v>2177</v>
+        <v>2170</v>
       </c>
       <c r="B812" s="7" t="s">
-        <v>2178</v>
+        <v>2171</v>
       </c>
       <c r="C812" s="7" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="813" spans="1:3">
       <c r="A813" s="7" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="B813" s="7" t="s">
-        <v>2694</v>
+        <v>2680</v>
       </c>
       <c r="C813" s="7" t="s">
-        <v>2695</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="814" spans="1:3">
       <c r="A814" s="7" t="s">
-        <v>2180</v>
+        <v>2173</v>
       </c>
       <c r="B814" s="7" t="s">
-        <v>2181</v>
+        <v>2174</v>
       </c>
       <c r="C814" s="7" t="s">
-        <v>2182</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="815" spans="1:3">
       <c r="A815" s="7" t="s">
-        <v>2183</v>
+        <v>2176</v>
       </c>
       <c r="B815" s="7" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C815" s="7" t="s">
         <v>1208</v>
-      </c>
-      <c r="C815" s="7" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="816" spans="1:3">
       <c r="A816" s="7" t="s">
-        <v>2184</v>
+        <v>2177</v>
       </c>
       <c r="B816" s="7" t="s">
-        <v>2185</v>
+        <v>2178</v>
       </c>
       <c r="C816" s="7" t="s">
-        <v>2186</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="817" spans="1:3">
       <c r="A817" s="7" t="s">
-        <v>2187</v>
+        <v>2180</v>
       </c>
       <c r="B817" s="7" t="s">
-        <v>2188</v>
+        <v>2181</v>
       </c>
       <c r="C817" s="7" t="s">
-        <v>2189</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="818" spans="1:3">
       <c r="A818" s="7" t="s">
-        <v>2190</v>
+        <v>2183</v>
       </c>
       <c r="B818" s="7" t="s">
-        <v>2191</v>
+        <v>2184</v>
       </c>
       <c r="C818" s="7" t="s">
-        <v>2192</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="819" spans="1:3">
       <c r="A819" s="7" t="s">
-        <v>2193</v>
+        <v>2186</v>
       </c>
       <c r="B819" s="7" t="s">
-        <v>2194</v>
+        <v>2187</v>
       </c>
       <c r="C819" s="7" t="s">
-        <v>2195</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="820" spans="1:3">
       <c r="A820" s="7" t="s">
-        <v>2196</v>
+        <v>2189</v>
       </c>
       <c r="B820" s="7" t="s">
-        <v>2197</v>
+        <v>2190</v>
       </c>
       <c r="C820" s="7" t="s">
-        <v>2198</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="821" spans="1:3">
       <c r="A821" s="7" t="s">
-        <v>2199</v>
+        <v>2192</v>
       </c>
       <c r="B821" s="7" t="s">
-        <v>2200</v>
+        <v>2193</v>
       </c>
       <c r="C821" s="7" t="s">
-        <v>2201</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="822" spans="1:3">
       <c r="A822" s="7" t="s">
-        <v>2202</v>
+        <v>2195</v>
       </c>
       <c r="B822" s="7" t="s">
-        <v>2203</v>
+        <v>2196</v>
       </c>
       <c r="C822" s="7" t="s">
-        <v>2204</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="823" spans="1:3">
       <c r="A823" s="7" t="s">
-        <v>2205</v>
+        <v>2198</v>
       </c>
       <c r="B823" s="7" t="s">
-        <v>2206</v>
+        <v>2199</v>
       </c>
       <c r="C823" s="7" t="s">
-        <v>2207</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="824" spans="1:3">
       <c r="A824" s="7" t="s">
-        <v>2208</v>
+        <v>2201</v>
       </c>
       <c r="B824" s="7" t="s">
-        <v>2209</v>
+        <v>2202</v>
       </c>
       <c r="C824" s="7" t="s">
-        <v>2210</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="825" spans="1:3">
       <c r="A825" s="7" t="s">
-        <v>2211</v>
+        <v>2204</v>
       </c>
       <c r="B825" s="7" t="s">
-        <v>2212</v>
+        <v>2205</v>
       </c>
       <c r="C825" s="7" t="s">
-        <v>2213</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="826" spans="1:3">
       <c r="A826" s="7" t="s">
-        <v>2214</v>
+        <v>2207</v>
       </c>
       <c r="B826" s="7" t="s">
-        <v>2215</v>
+        <v>2208</v>
       </c>
       <c r="C826" s="7" t="s">
-        <v>2216</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="827" spans="1:3">
       <c r="A827" s="7" t="s">
-        <v>2217</v>
+        <v>2210</v>
       </c>
       <c r="B827" s="7" t="s">
-        <v>2218</v>
+        <v>2211</v>
       </c>
       <c r="C827" s="7" t="s">
-        <v>2219</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="828" spans="1:3">
       <c r="A828" s="7" t="s">
-        <v>2220</v>
+        <v>2213</v>
       </c>
       <c r="B828" s="7" t="s">
-        <v>2221</v>
+        <v>2214</v>
       </c>
       <c r="C828" s="7" t="s">
-        <v>2222</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="829" spans="1:3">
       <c r="A829" s="7" t="s">
-        <v>2223</v>
+        <v>2216</v>
       </c>
       <c r="B829" s="7" t="s">
-        <v>2224</v>
+        <v>2217</v>
       </c>
       <c r="C829" s="7" t="s">
-        <v>2225</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="830" spans="1:3">
       <c r="A830" s="7" t="s">
-        <v>2226</v>
+        <v>2219</v>
       </c>
       <c r="B830" s="7" t="s">
-        <v>2227</v>
+        <v>2220</v>
       </c>
       <c r="C830" s="7" t="s">
-        <v>2228</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="831" spans="1:3">
       <c r="A831" s="7" t="s">
-        <v>2229</v>
+        <v>2222</v>
       </c>
       <c r="B831" s="7" t="s">
-        <v>2230</v>
+        <v>2223</v>
       </c>
       <c r="C831" s="7" t="s">
-        <v>2231</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="832" spans="1:3">
       <c r="A832" s="7" t="s">
-        <v>2232</v>
+        <v>2225</v>
       </c>
       <c r="B832" s="7" t="s">
-        <v>2233</v>
+        <v>2226</v>
       </c>
       <c r="C832" s="7" t="s">
-        <v>2234</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="833" spans="1:3">
       <c r="A833" s="7" t="s">
-        <v>2235</v>
+        <v>2228</v>
       </c>
       <c r="B833" s="7" t="s">
-        <v>2236</v>
+        <v>2229</v>
       </c>
       <c r="C833" s="7" t="s">
-        <v>2237</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="834" spans="1:3">
       <c r="A834" s="7" t="s">
-        <v>2238</v>
+        <v>2231</v>
       </c>
       <c r="B834" s="7" t="s">
-        <v>2181</v>
+        <v>2174</v>
       </c>
       <c r="C834" s="7" t="s">
-        <v>2239</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="835" spans="1:3">
       <c r="A835" s="7" t="s">
-        <v>2240</v>
+        <v>2233</v>
       </c>
       <c r="B835" s="7" t="s">
-        <v>2241</v>
+        <v>2234</v>
       </c>
       <c r="C835" s="7" t="s">
-        <v>2242</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="836" spans="1:3">
       <c r="A836" s="7" t="s">
-        <v>2243</v>
+        <v>2236</v>
       </c>
       <c r="B836" s="7" t="s">
-        <v>2244</v>
+        <v>2237</v>
       </c>
       <c r="C836" s="7" t="s">
-        <v>2245</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="837" spans="1:3">
       <c r="A837" s="7" t="s">
-        <v>2246</v>
+        <v>2238</v>
       </c>
       <c r="B837" s="7" t="s">
-        <v>2247</v>
+        <v>2239</v>
       </c>
       <c r="C837" s="7" t="s">
-        <v>2248</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="838" spans="1:3">
       <c r="A838" s="7" t="s">
-        <v>2249</v>
+        <v>2241</v>
       </c>
       <c r="B838" s="7" t="s">
-        <v>2250</v>
+        <v>2242</v>
       </c>
       <c r="C838" s="7" t="s">
-        <v>2251</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="839" spans="1:3">
       <c r="A839" s="7" t="s">
-        <v>2252</v>
+        <v>2244</v>
       </c>
       <c r="B839" s="7" t="s">
-        <v>2253</v>
+        <v>2245</v>
       </c>
       <c r="C839" s="7" t="s">
-        <v>2254</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="840" spans="1:3">
       <c r="A840" s="7" t="s">
-        <v>2255</v>
+        <v>2247</v>
       </c>
       <c r="B840" s="7" t="s">
-        <v>2256</v>
+        <v>2248</v>
       </c>
       <c r="C840" s="7" t="s">
-        <v>2257</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="841" spans="1:3">
       <c r="A841" s="7" t="s">
-        <v>2258</v>
+        <v>2250</v>
       </c>
       <c r="B841" s="7" t="s">
-        <v>2259</v>
+        <v>2251</v>
       </c>
       <c r="C841" s="7" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="842" spans="1:3">
       <c r="A842" s="7" t="s">
-        <v>2260</v>
+        <v>2252</v>
       </c>
       <c r="B842" s="7" t="s">
-        <v>2261</v>
+        <v>2253</v>
       </c>
       <c r="C842" s="7" t="s">
-        <v>2262</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="843" spans="1:3">
       <c r="A843" s="7" t="s">
-        <v>2263</v>
+        <v>2255</v>
       </c>
       <c r="B843" s="7" t="s">
-        <v>2264</v>
+        <v>2256</v>
       </c>
       <c r="C843" s="7" t="s">
-        <v>2265</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="844" spans="1:3">
       <c r="A844" s="7" t="s">
-        <v>2266</v>
+        <v>2258</v>
       </c>
       <c r="B844" s="7" t="s">
-        <v>2267</v>
+        <v>2259</v>
       </c>
       <c r="C844" s="7" t="s">
-        <v>2268</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="845" spans="1:3">
       <c r="A845" s="7" t="s">
-        <v>2269</v>
+        <v>2261</v>
       </c>
       <c r="B845" s="7" t="s">
-        <v>2270</v>
+        <v>2262</v>
       </c>
       <c r="C845" s="7" t="s">
-        <v>2271</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="846" spans="1:3">
       <c r="A846" s="7" t="s">
-        <v>2272</v>
+        <v>2264</v>
       </c>
       <c r="B846" s="7" t="s">
-        <v>2696</v>
+        <v>2681</v>
       </c>
       <c r="C846" s="7" t="s">
-        <v>2697</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="847" spans="1:3">
       <c r="A847" s="7" t="s">
-        <v>2273</v>
+        <v>2265</v>
       </c>
       <c r="B847" s="7" t="s">
-        <v>2274</v>
+        <v>2266</v>
       </c>
       <c r="C847" s="7" t="s">
-        <v>2275</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="848" spans="1:3">
       <c r="A848" s="7" t="s">
-        <v>2276</v>
+        <v>2268</v>
       </c>
       <c r="B848" s="7" t="s">
-        <v>2277</v>
+        <v>2269</v>
       </c>
       <c r="C848" s="7" t="s">
-        <v>2278</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="849" spans="1:3">
       <c r="A849" s="7" t="s">
-        <v>2279</v>
+        <v>2271</v>
       </c>
       <c r="B849" s="7" t="s">
-        <v>2698</v>
+        <v>2683</v>
       </c>
       <c r="C849" s="7" t="s">
-        <v>2699</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="850" spans="1:3">
       <c r="A850" s="7" t="s">
-        <v>2280</v>
+        <v>2272</v>
       </c>
       <c r="B850" s="7" t="s">
-        <v>2700</v>
+        <v>2685</v>
       </c>
       <c r="C850" s="7" t="s">
-        <v>2701</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="851" spans="1:3">
       <c r="A851" s="7" t="s">
-        <v>2281</v>
+        <v>2273</v>
       </c>
       <c r="B851" s="7" t="s">
-        <v>2702</v>
+        <v>2687</v>
       </c>
       <c r="C851" s="7" t="s">
-        <v>2703</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="852" spans="1:3">
       <c r="A852" s="7" t="s">
-        <v>2282</v>
+        <v>2274</v>
       </c>
       <c r="B852" s="7" t="s">
-        <v>2283</v>
+        <v>2275</v>
       </c>
       <c r="C852" s="7" t="s">
-        <v>2284</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="853" spans="1:3">
       <c r="A853" s="7" t="s">
-        <v>2285</v>
+        <v>2277</v>
       </c>
       <c r="B853" s="7" t="s">
-        <v>2286</v>
+        <v>2278</v>
       </c>
       <c r="C853" s="7" t="s">
-        <v>2287</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="854" spans="1:3">
       <c r="A854" s="7" t="s">
-        <v>2288</v>
+        <v>2280</v>
       </c>
       <c r="B854" s="7" t="s">
-        <v>2289</v>
+        <v>2281</v>
       </c>
       <c r="C854" s="7" t="s">
-        <v>2290</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="855" spans="1:3">
       <c r="A855" s="7" t="s">
-        <v>2291</v>
+        <v>2283</v>
       </c>
       <c r="B855" s="7" t="s">
-        <v>2704</v>
+        <v>2689</v>
       </c>
       <c r="C855" s="7" t="s">
-        <v>2705</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="856" spans="1:3">
       <c r="A856" s="7" t="s">
-        <v>2292</v>
+        <v>2284</v>
       </c>
       <c r="B856" s="7" t="s">
-        <v>2293</v>
+        <v>2285</v>
       </c>
       <c r="C856" s="7" t="s">
-        <v>2294</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="857" spans="1:3">
       <c r="A857" s="7" t="s">
-        <v>2295</v>
+        <v>2287</v>
       </c>
       <c r="B857" s="7" t="s">
-        <v>2296</v>
+        <v>2288</v>
       </c>
       <c r="C857" s="7" t="s">
-        <v>2297</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="858" spans="1:3">
       <c r="A858" s="7" t="s">
-        <v>2298</v>
+        <v>2290</v>
       </c>
       <c r="B858" s="7" t="s">
-        <v>2299</v>
+        <v>2291</v>
       </c>
       <c r="C858" s="7" t="s">
-        <v>2300</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="859" spans="1:3">
       <c r="A859" s="7" t="s">
-        <v>2301</v>
+        <v>2293</v>
       </c>
       <c r="B859" s="7" t="s">
-        <v>2302</v>
+        <v>2294</v>
       </c>
       <c r="C859" s="7" t="s">
-        <v>2303</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="860" spans="1:3">
       <c r="A860" s="7" t="s">
-        <v>2304</v>
+        <v>2296</v>
       </c>
       <c r="B860" s="7" t="s">
-        <v>2305</v>
+        <v>2297</v>
       </c>
       <c r="C860" s="7" t="s">
-        <v>2306</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="861" spans="1:3">
       <c r="A861" s="7" t="s">
-        <v>2307</v>
+        <v>2299</v>
       </c>
       <c r="B861" s="7" t="s">
-        <v>2308</v>
+        <v>2300</v>
       </c>
       <c r="C861" s="7" t="s">
-        <v>2309</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="862" spans="1:3">
       <c r="A862" s="7" t="s">
-        <v>2310</v>
+        <v>2302</v>
       </c>
       <c r="B862" s="7" t="s">
-        <v>2311</v>
+        <v>2303</v>
       </c>
       <c r="C862" s="7" t="s">
-        <v>2312</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="863" spans="1:3">
       <c r="A863" s="7" t="s">
-        <v>2313</v>
+        <v>2305</v>
       </c>
       <c r="B863" s="7" t="s">
-        <v>2314</v>
+        <v>2306</v>
       </c>
       <c r="C863" s="7" t="s">
-        <v>2315</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="864" spans="1:3">
       <c r="A864" s="7" t="s">
-        <v>2316</v>
+        <v>2308</v>
       </c>
       <c r="B864" s="7" t="s">
-        <v>2317</v>
+        <v>2309</v>
       </c>
       <c r="C864" s="7" t="s">
-        <v>2318</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="865" spans="1:3">
       <c r="A865" s="7" t="s">
-        <v>2319</v>
+        <v>2311</v>
       </c>
       <c r="B865" s="7" t="s">
-        <v>2308</v>
+        <v>2300</v>
       </c>
       <c r="C865" s="7" t="s">
-        <v>2320</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="866" spans="1:3">
       <c r="A866" s="7" t="s">
-        <v>2321</v>
+        <v>2313</v>
       </c>
       <c r="B866" s="7" t="s">
-        <v>2322</v>
+        <v>2314</v>
       </c>
       <c r="C866" s="7" t="s">
-        <v>2323</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="867" spans="1:3">
       <c r="A867" s="7" t="s">
-        <v>2324</v>
+        <v>2316</v>
       </c>
       <c r="B867" s="7" t="s">
-        <v>2325</v>
+        <v>2317</v>
       </c>
       <c r="C867" s="7" t="s">
-        <v>2326</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="868" spans="1:3">
       <c r="A868" s="7" t="s">
-        <v>2327</v>
+        <v>2319</v>
       </c>
       <c r="B868" s="7" t="s">
-        <v>2328</v>
+        <v>2320</v>
       </c>
       <c r="C868" s="7" t="s">
-        <v>2329</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="869" spans="1:3">
       <c r="A869" s="7" t="s">
-        <v>2330</v>
+        <v>2322</v>
       </c>
       <c r="B869" s="7" t="s">
-        <v>2331</v>
+        <v>2323</v>
       </c>
       <c r="C869" s="7" t="s">
-        <v>2332</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="870" spans="1:3">
       <c r="A870" s="7" t="s">
-        <v>2333</v>
+        <v>2325</v>
       </c>
       <c r="B870" s="7" t="s">
-        <v>2334</v>
+        <v>2326</v>
       </c>
       <c r="C870" s="7" t="s">
-        <v>2335</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="871" spans="1:3">
       <c r="A871" s="7" t="s">
-        <v>2336</v>
+        <v>2328</v>
       </c>
       <c r="B871" s="7" t="s">
-        <v>2337</v>
+        <v>2329</v>
       </c>
       <c r="C871" s="7" t="s">
-        <v>2338</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="872" spans="1:3">
       <c r="A872" s="7" t="s">
-        <v>2339</v>
+        <v>2330</v>
       </c>
       <c r="B872" s="7" t="s">
-        <v>2436</v>
+        <v>2424</v>
       </c>
       <c r="C872" s="7" t="s">
-        <v>2340</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="873" spans="1:3">
       <c r="A873" s="7" t="s">
-        <v>2341</v>
+        <v>2332</v>
       </c>
       <c r="B873" s="7" t="s">
-        <v>2342</v>
+        <v>2333</v>
       </c>
       <c r="C873" s="7" t="s">
-        <v>2343</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="874" spans="1:3">
       <c r="A874" s="7" t="s">
-        <v>2344</v>
+        <v>2335</v>
       </c>
       <c r="B874" s="7" t="s">
-        <v>2706</v>
+        <v>2691</v>
       </c>
       <c r="C874" s="7" t="s">
-        <v>2707</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="875" spans="1:3">
       <c r="A875" s="7" t="s">
-        <v>2345</v>
+        <v>2336</v>
       </c>
       <c r="B875" s="7" t="s">
-        <v>2346</v>
+        <v>2337</v>
       </c>
       <c r="C875" s="7" t="s">
-        <v>2347</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="876" spans="1:3">
       <c r="A876" s="7" t="s">
-        <v>2348</v>
+        <v>2339</v>
       </c>
       <c r="B876" s="7" t="s">
-        <v>2349</v>
+        <v>2340</v>
       </c>
       <c r="C876" s="7" t="s">
-        <v>2350</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="877" spans="1:3">
       <c r="A877" s="7" t="s">
-        <v>2351</v>
+        <v>2342</v>
       </c>
       <c r="B877" s="7" t="s">
-        <v>2708</v>
+        <v>2693</v>
       </c>
       <c r="C877" s="7" t="s">
-        <v>2709</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="878" spans="1:3">
       <c r="A878" s="7" t="s">
-        <v>2352</v>
+        <v>2343</v>
       </c>
       <c r="B878" s="7" t="s">
-        <v>2710</v>
+        <v>2695</v>
       </c>
       <c r="C878" s="7" t="s">
-        <v>2711</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="879" spans="1:3">
       <c r="A879" s="7" t="s">
-        <v>2353</v>
+        <v>2344</v>
       </c>
       <c r="B879" s="7" t="s">
-        <v>2712</v>
+        <v>2697</v>
       </c>
       <c r="C879" s="7" t="s">
-        <v>2713</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="880" spans="1:3">
       <c r="A880" s="7" t="s">
-        <v>2354</v>
+        <v>2345</v>
       </c>
       <c r="B880" s="7" t="s">
-        <v>2714</v>
+        <v>2699</v>
       </c>
       <c r="C880" s="7" t="s">
-        <v>2715</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="881" spans="1:3">
       <c r="A881" s="7" t="s">
-        <v>2355</v>
+        <v>2346</v>
       </c>
       <c r="B881" s="7" t="s">
-        <v>2716</v>
+        <v>2701</v>
       </c>
       <c r="C881" s="7" t="s">
-        <v>2717</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="882" spans="1:3">
       <c r="A882" s="7" t="s">
-        <v>2356</v>
+        <v>2347</v>
       </c>
       <c r="B882" s="7" t="s">
-        <v>2357</v>
+        <v>2348</v>
       </c>
       <c r="C882" s="7" t="s">
-        <v>2358</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="883" spans="1:3">
       <c r="A883" s="7" t="s">
-        <v>2359</v>
+        <v>2350</v>
       </c>
       <c r="B883" s="7" t="s">
-        <v>2360</v>
+        <v>2351</v>
       </c>
       <c r="C883" s="7" t="s">
-        <v>2361</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="884" spans="1:3">
       <c r="A884" s="7" t="s">
-        <v>2362</v>
+        <v>2353</v>
       </c>
       <c r="B884" s="7" t="s">
-        <v>2363</v>
+        <v>2354</v>
       </c>
       <c r="C884" s="7" t="s">
-        <v>2364</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="885" spans="1:3">
       <c r="A885" s="7" t="s">
-        <v>2365</v>
+        <v>2356</v>
       </c>
       <c r="B885" s="7" t="s">
-        <v>2366</v>
+        <v>2357</v>
       </c>
       <c r="C885" s="7" t="s">
-        <v>2367</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="886" spans="1:3">
       <c r="A886" s="7" t="s">
-        <v>2368</v>
+        <v>2359</v>
       </c>
       <c r="B886" s="7" t="s">
-        <v>2369</v>
+        <v>2360</v>
       </c>
       <c r="C886" s="7" t="s">
-        <v>2370</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="887" spans="1:3">
       <c r="A887" s="7" t="s">
-        <v>2437</v>
+        <v>2425</v>
       </c>
       <c r="B887" s="7" t="s">
-        <v>2438</v>
+        <v>2426</v>
       </c>
       <c r="C887" s="7" t="s">
-        <v>2439</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="888" spans="1:3">
       <c r="A888" s="7" t="s">
-        <v>2440</v>
+        <v>2428</v>
       </c>
       <c r="B888" s="7" t="s">
-        <v>2441</v>
+        <v>2429</v>
       </c>
       <c r="C888" s="7" t="s">
-        <v>2442</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="889" spans="1:3">
       <c r="A889" s="7" t="s">
-        <v>2443</v>
+        <v>2431</v>
       </c>
       <c r="B889" s="7" t="s">
-        <v>2444</v>
+        <v>2432</v>
       </c>
       <c r="C889" s="7" t="s">
-        <v>2445</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="890" spans="1:3">
       <c r="A890" s="7" t="s">
-        <v>2446</v>
+        <v>2434</v>
       </c>
       <c r="B890" s="7" t="s">
-        <v>2447</v>
+        <v>2435</v>
       </c>
       <c r="C890" s="7" t="s">
-        <v>2448</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="891" spans="1:3">
       <c r="A891" s="7" t="s">
-        <v>2449</v>
+        <v>2437</v>
       </c>
       <c r="B891" s="7" t="s">
-        <v>2450</v>
+        <v>2438</v>
       </c>
       <c r="C891" s="7" t="s">
-        <v>2451</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="892" spans="1:3">
       <c r="A892" s="7" t="s">
-        <v>2452</v>
+        <v>2440</v>
       </c>
       <c r="B892" s="7" t="s">
-        <v>2453</v>
+        <v>2441</v>
       </c>
       <c r="C892" s="7" t="s">
-        <v>2454</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="893" spans="1:3">
       <c r="A893" s="7" t="s">
-        <v>2455</v>
+        <v>2443</v>
       </c>
       <c r="B893" s="7" t="s">
-        <v>2456</v>
+        <v>2444</v>
       </c>
       <c r="C893" s="7" t="s">
-        <v>2457</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="894" spans="1:3">
       <c r="A894" s="7" t="s">
-        <v>2458</v>
+        <v>2446</v>
       </c>
       <c r="B894" s="7" t="s">
-        <v>2459</v>
+        <v>2447</v>
       </c>
       <c r="C894" s="7" t="s">
-        <v>2460</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="895" spans="1:3">
       <c r="A895" s="7" t="s">
-        <v>2461</v>
+        <v>2449</v>
       </c>
       <c r="B895" s="7" t="s">
-        <v>2462</v>
+        <v>2450</v>
       </c>
       <c r="C895" s="7" t="s">
-        <v>2463</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="896" spans="1:3">
       <c r="A896" s="7" t="s">
-        <v>2464</v>
+        <v>2452</v>
       </c>
       <c r="B896" s="7" t="s">
-        <v>2465</v>
+        <v>2453</v>
       </c>
       <c r="C896" s="7" t="s">
-        <v>2466</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="897" spans="1:3">
       <c r="A897" s="7" t="s">
-        <v>2467</v>
+        <v>2455</v>
       </c>
       <c r="B897" s="7" t="s">
-        <v>2468</v>
+        <v>2456</v>
       </c>
       <c r="C897" s="7" t="s">
-        <v>2469</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="898" spans="1:3">
       <c r="A898" s="7" t="s">
-        <v>2470</v>
+        <v>2458</v>
       </c>
       <c r="B898" s="7" t="s">
-        <v>2718</v>
+        <v>2703</v>
       </c>
       <c r="C898" s="7" t="s">
-        <v>2719</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="899" spans="1:3">
       <c r="A899" s="7" t="s">
-        <v>2471</v>
+        <v>2459</v>
       </c>
       <c r="B899" s="7" t="s">
-        <v>2472</v>
+        <v>2460</v>
       </c>
       <c r="C899" s="7" t="s">
-        <v>2473</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="900" spans="1:3">
       <c r="A900" s="7" t="s">
-        <v>2474</v>
+        <v>2461</v>
       </c>
       <c r="B900" s="7" t="s">
-        <v>2475</v>
+        <v>2462</v>
       </c>
       <c r="C900" s="7" t="s">
-        <v>2476</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="901" spans="1:3">
       <c r="A901" s="7" t="s">
-        <v>2477</v>
+        <v>2464</v>
       </c>
       <c r="B901" s="7" t="s">
-        <v>2478</v>
+        <v>2465</v>
       </c>
       <c r="C901" s="7" t="s">
-        <v>2479</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="902" spans="1:3">
       <c r="A902" s="7" t="s">
-        <v>2480</v>
+        <v>2467</v>
       </c>
       <c r="B902" s="7" t="s">
-        <v>2720</v>
+        <v>2705</v>
       </c>
       <c r="C902" s="7" t="s">
-        <v>2721</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="903" spans="1:3">
       <c r="A903" s="7" t="s">
-        <v>2481</v>
+        <v>2468</v>
       </c>
       <c r="B903" s="7" t="s">
-        <v>2482</v>
+        <v>2469</v>
       </c>
       <c r="C903" s="7" t="s">
-        <v>2483</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="904" spans="1:3">
       <c r="A904" s="7" t="s">
-        <v>2484</v>
+        <v>2471</v>
       </c>
       <c r="B904" s="7" t="s">
-        <v>2485</v>
+        <v>2472</v>
       </c>
       <c r="C904" s="7" t="s">
-        <v>2486</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="905" spans="1:3">
       <c r="A905" s="7" t="s">
-        <v>2726</v>
+        <v>2707</v>
       </c>
       <c r="B905" s="7" t="s">
-        <v>2728</v>
+        <v>2709</v>
       </c>
       <c r="C905" s="7" t="s">
-        <v>2727</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="907" spans="1:3">
       <c r="A907" s="1" t="s">
-        <v>2371</v>
+        <v>2362</v>
       </c>
       <c r="B907" s="1" t="s">
-        <v>2372</v>
+        <v>2363</v>
       </c>
       <c r="C907" s="1" t="s">
-        <v>2373</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="908" spans="1:3">
       <c r="A908" s="1" t="s">
-        <v>2374</v>
+        <v>2365</v>
       </c>
       <c r="B908" s="1" t="s">
-        <v>2375</v>
+        <v>2366</v>
       </c>
       <c r="C908" s="1" t="s">
-        <v>2376</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="909" spans="1:3">
       <c r="A909" s="1" t="s">
-        <v>2377</v>
+        <v>2368</v>
       </c>
       <c r="B909" s="1" t="s">
-        <v>2378</v>
+        <v>2369</v>
       </c>
       <c r="C909" s="1" t="s">
-        <v>2379</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="910" spans="1:3">
       <c r="A910" s="1" t="s">
-        <v>2380</v>
+        <v>2371</v>
       </c>
       <c r="B910" s="1" t="s">
-        <v>2381</v>
+        <v>2372</v>
       </c>
       <c r="C910" s="1" t="s">
-        <v>2382</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="911" spans="1:3">
       <c r="A911" s="1" t="s">
-        <v>2383</v>
+        <v>2374</v>
       </c>
       <c r="B911" s="1" t="s">
-        <v>2384</v>
+        <v>2375</v>
       </c>
       <c r="C911" s="1" t="s">
-        <v>2385</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="912" spans="1:3">
       <c r="A912" s="1" t="s">
-        <v>2386</v>
-      </c>
-      <c r="B912" s="1" t="s">
-        <v>2722</v>
-      </c>
-      <c r="C912" s="1" t="s">
-        <v>2723</v>
+        <v>2377</v>
+      </c>
+      <c r="B912" s="8" t="s">
+        <v>2710</v>
+      </c>
+      <c r="C912" s="8" t="s">
+        <v>2711</v>
       </c>
     </row>
     <row r="913" spans="1:3">
       <c r="A913" s="1" t="s">
-        <v>2387</v>
+        <v>2378</v>
       </c>
       <c r="B913" s="2" t="s">
-        <v>2388</v>
+        <v>2379</v>
       </c>
       <c r="C913" s="1" t="s">
-        <v>2389</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="914" spans="1:3">
       <c r="A914" s="1" t="s">
-        <v>2390</v>
+        <v>2381</v>
       </c>
       <c r="B914" s="2" t="s">
-        <v>2391</v>
+        <v>2382</v>
       </c>
       <c r="C914" s="1" t="s">
-        <v>2392</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="915" spans="1:3">
       <c r="A915" s="1" t="s">
-        <v>2393</v>
-      </c>
-      <c r="B915" s="1" t="s">
-        <v>2724</v>
-      </c>
-      <c r="C915" s="1" t="s">
-        <v>2725</v>
+        <v>2384</v>
+      </c>
+      <c r="B915" s="8" t="s">
+        <v>2712</v>
+      </c>
+      <c r="C915" s="8" t="s">
+        <v>2713</v>
       </c>
     </row>
     <row r="916" spans="1:3">
       <c r="A916" s="2" t="s">
-        <v>2394</v>
+        <v>2385</v>
       </c>
       <c r="B916" s="1" t="s">
         <v>821</v>
       </c>
       <c r="C916" s="1" t="s">
-        <v>2395</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="917" spans="1:3">
       <c r="A917" s="3" t="s">
-        <v>2396</v>
+        <v>2387</v>
       </c>
       <c r="B917" s="3" t="s">
-        <v>2398</v>
+        <v>2389</v>
       </c>
       <c r="C917" s="3" t="s">
-        <v>2397</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="918" spans="1:3">
@@ -18722,131 +18730,131 @@
         <v>251</v>
       </c>
       <c r="B918" s="4" t="s">
-        <v>2400</v>
+        <v>2391</v>
       </c>
       <c r="C918" s="5" t="s">
-        <v>2403</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="919" spans="1:3">
       <c r="A919" s="4" t="s">
-        <v>2402</v>
+        <v>2393</v>
       </c>
       <c r="B919" s="4" t="s">
-        <v>2401</v>
+        <v>2392</v>
       </c>
       <c r="C919" s="5" t="s">
-        <v>2404</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="920" spans="1:3">
       <c r="A920" s="5" t="s">
-        <v>2405</v>
+        <v>2396</v>
       </c>
       <c r="B920" s="3" t="s">
-        <v>2406</v>
+        <v>2397</v>
       </c>
       <c r="C920" s="3" t="s">
-        <v>2407</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="921" spans="1:3">
       <c r="A921" s="5" t="s">
-        <v>2408</v>
+        <v>2398</v>
       </c>
       <c r="B921" s="6" t="s">
-        <v>2409</v>
+        <v>2399</v>
       </c>
       <c r="C921" s="5" t="s">
-        <v>2410</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="922" spans="1:3">
       <c r="A922" t="s">
-        <v>2411</v>
+        <v>2400</v>
       </c>
       <c r="B922" t="s">
-        <v>2413</v>
+        <v>2402</v>
       </c>
       <c r="C922" t="s">
-        <v>2415</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="923" spans="1:3">
       <c r="A923" t="s">
-        <v>2412</v>
+        <v>2401</v>
       </c>
       <c r="B923" t="s">
-        <v>2414</v>
+        <v>2403</v>
       </c>
       <c r="C923" t="s">
-        <v>2416</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="924" spans="1:3">
       <c r="A924" t="s">
-        <v>2418</v>
+        <v>2407</v>
       </c>
       <c r="B924" t="s">
-        <v>2419</v>
+        <v>2408</v>
       </c>
       <c r="C924" t="s">
-        <v>2421</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="925" spans="1:3">
       <c r="A925" t="s">
-        <v>2423</v>
+        <v>2412</v>
       </c>
       <c r="B925" t="s">
-        <v>2420</v>
+        <v>2409</v>
       </c>
       <c r="C925" t="s">
-        <v>2422</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="926" spans="1:3">
       <c r="A926" t="s">
-        <v>2424</v>
+        <v>2413</v>
       </c>
       <c r="B926" t="s">
-        <v>2425</v>
+        <v>2414</v>
       </c>
       <c r="C926" t="s">
-        <v>2426</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="927" spans="1:3">
       <c r="A927" t="s">
-        <v>2427</v>
+        <v>2416</v>
       </c>
       <c r="B927" t="s">
-        <v>2429</v>
+        <v>2418</v>
       </c>
       <c r="C927" t="s">
-        <v>2430</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="928" spans="1:3">
       <c r="A928" t="s">
-        <v>2428</v>
+        <v>2417</v>
       </c>
       <c r="B928" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C928" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="929" spans="1:3">
       <c r="A929" t="s">
-        <v>2431</v>
+        <v>2420</v>
       </c>
       <c r="B929" t="s">
-        <v>2432</v>
+        <v>2421</v>
       </c>
       <c r="C929" t="s">
-        <v>2433</v>
+        <v>2422</v>
       </c>
     </row>
   </sheetData>

--- a/Client/WebClient/lang/fibertest_strings.xlsx
+++ b/Client/WebClient/lang/fibertest_strings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VsGitProjects\Fibertest\Client\WebClient\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB42C05-EE60-4F04-9CD6-76AAA5A5452C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4088ED2-F813-4537-90F5-DC2F5CF24705}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4290" yWindow="1365" windowWidth="22275" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2784" uniqueCount="2729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2787" uniqueCount="2732">
   <si>
     <t>Name</t>
   </si>
@@ -8211,6 +8211,15 @@
   </si>
   <si>
     <t>О системе</t>
+  </si>
+  <si>
+    <t>Application closed</t>
+  </si>
+  <si>
+    <t>Приложение закрыто</t>
+  </si>
+  <si>
+    <t>SID_Application_closed</t>
   </si>
 </sst>
 </file>
@@ -8636,10 +8645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C929"/>
+  <dimension ref="A1:C930"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A543" workbookViewId="0">
-      <selection activeCell="C557" sqref="C557"/>
+    <sheetView tabSelected="1" topLeftCell="A913" workbookViewId="0">
+      <selection activeCell="A932" sqref="A932"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18857,6 +18866,17 @@
         <v>2422</v>
       </c>
     </row>
+    <row r="930" spans="1:3">
+      <c r="A930" t="s">
+        <v>2731</v>
+      </c>
+      <c r="B930" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C930" t="s">
+        <v>2730</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Client/WebClient/lang/fibertest_strings.xlsx
+++ b/Client/WebClient/lang/fibertest_strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VsGitProjects\Fibertest\Client\WebClient\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4088ED2-F813-4537-90F5-DC2F5CF24705}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC8E094-EE98-484D-B1EC-F427FE8B4645}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4290" yWindow="1365" windowWidth="22275" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8213,13 +8213,13 @@
     <t>О системе</t>
   </si>
   <si>
-    <t>Application closed</t>
-  </si>
-  <si>
-    <t>Приложение закрыто</t>
-  </si>
-  <si>
     <t>SID_Application_closed</t>
+  </si>
+  <si>
+    <t>Application closed.</t>
+  </si>
+  <si>
+    <t>Приложение закрыто.</t>
   </si>
 </sst>
 </file>
@@ -8648,7 +8648,7 @@
   <dimension ref="A1:C930"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A913" workbookViewId="0">
-      <selection activeCell="A932" sqref="A932"/>
+      <selection activeCell="B932" sqref="B932"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18868,13 +18868,13 @@
     </row>
     <row r="930" spans="1:3">
       <c r="A930" t="s">
+        <v>2729</v>
+      </c>
+      <c r="B930" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C930" t="s">
         <v>2731</v>
-      </c>
-      <c r="B930" t="s">
-        <v>2729</v>
-      </c>
-      <c r="C930" t="s">
-        <v>2730</v>
       </c>
     </row>
   </sheetData>

--- a/Client/WebClient/lang/fibertest_strings.xlsx
+++ b/Client/WebClient/lang/fibertest_strings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VsGitProjects\Fibertest\Client\WebClient\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC8E094-EE98-484D-B1EC-F427FE8B4645}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF070BE-561D-42CF-A6A0-416D865B8008}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="1365" windowWidth="22275" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23895" yWindow="1470" windowWidth="22275" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fibertest" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2787" uniqueCount="2732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2793" uniqueCount="2738">
   <si>
     <t>Name</t>
   </si>
@@ -8220,6 +8220,24 @@
   </si>
   <si>
     <t>Приложение закрыто.</t>
+  </si>
+  <si>
+    <t>SID_Versions_do_not_match</t>
+  </si>
+  <si>
+    <t>Client's version does not match server's one!</t>
+  </si>
+  <si>
+    <t>Версия клиента не совпадает с версией сервера</t>
+  </si>
+  <si>
+    <t>SID_Please_close_browser</t>
+  </si>
+  <si>
+    <t>Please close browser's tab and start Fibertest again.</t>
+  </si>
+  <si>
+    <t>Пожалуйста, закройте вкладку браузера и запустите Fibertest снова.</t>
   </si>
 </sst>
 </file>
@@ -8645,10 +8663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C930"/>
+  <dimension ref="A1:C932"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A913" workbookViewId="0">
-      <selection activeCell="B932" sqref="B932"/>
+      <selection activeCell="C933" sqref="C933"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18877,6 +18895,28 @@
         <v>2731</v>
       </c>
     </row>
+    <row r="931" spans="1:3">
+      <c r="A931" t="s">
+        <v>2732</v>
+      </c>
+      <c r="B931" t="s">
+        <v>2733</v>
+      </c>
+      <c r="C931" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="932" spans="1:3">
+      <c r="A932" t="s">
+        <v>2735</v>
+      </c>
+      <c r="B932" s="5" t="s">
+        <v>2736</v>
+      </c>
+      <c r="C932" s="5" t="s">
+        <v>2737</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Client/WebClient/lang/fibertest_strings.xlsx
+++ b/Client/WebClient/lang/fibertest_strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VsGitProjects\Fibertest\Client\WebClient\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF070BE-561D-42CF-A6A0-416D865B8008}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676919A4-EBD0-4A74-A8EB-CFFFB54951A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23895" yWindow="1470" windowWidth="22275" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2865" yWindow="1500" windowWidth="22275" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fibertest" sheetId="1" r:id="rId1"/>
@@ -8237,7 +8237,7 @@
     <t>Please close browser's tab and start Fibertest again.</t>
   </si>
   <si>
-    <t>Пожалуйста, закройте вкладку браузера и запустите Fibertest снова.</t>
+    <t>Пожалуйста, закройте вкладку браузера и повторите подключение в новой вкладке.</t>
   </si>
 </sst>
 </file>

--- a/Client/WebClient/lang/fibertest_strings.xlsx
+++ b/Client/WebClient/lang/fibertest_strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VsGitProjects\Fibertest20\Client\WebClient\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A130B6DD-DC14-4E7A-B363-C770084F146B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8966D19A-DC59-4432-AC97-DBDFBEE136C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="1605" windowWidth="25305" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fibertest" sheetId="1" r:id="rId1"/>
@@ -9973,16 +9973,16 @@
     <t>RTU {{0}} занят.</t>
   </si>
   <si>
-    <t xml:space="preserve">{{{{{{{{0}}}}}}}}: Monitoring Settings </t>
-  </si>
-  <si>
-    <t>{{{{{{{{0}}}}}}}}:  Настройки мониторинга</t>
-  </si>
-  <si>
-    <t>Cycle full time {{{{{{{{0}}}}}}}} sec</t>
-  </si>
-  <si>
-    <t>Полное время цикла {{{{{{{{0}}}}}}}} сек</t>
+    <t xml:space="preserve">{{0}}: Monitoring Settings </t>
+  </si>
+  <si>
+    <t>Cycle full time {{0}} sec</t>
+  </si>
+  <si>
+    <t>{{0}}:  Настройки мониторинга</t>
+  </si>
+  <si>
+    <t>Полное время цикла {{0}} сек</t>
   </si>
 </sst>
 </file>
@@ -10407,8 +10407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A415" sqref="A415"/>
+    <sheetView tabSelected="1" topLeftCell="A1103" workbookViewId="0">
+      <selection activeCell="C1105" sqref="C1105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20230,7 +20230,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="893" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
         <v>2408</v>
       </c>
@@ -22516,7 +22516,7 @@
         <v>3313</v>
       </c>
       <c r="C1101" s="2" t="s">
-        <v>3314</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="1102" spans="1:3" x14ac:dyDescent="0.25">
@@ -22546,7 +22546,7 @@
         <v>3002</v>
       </c>
       <c r="B1104" s="2" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="C1104" s="2" t="s">
         <v>3316</v>

--- a/Client/WebClient/lang/fibertest_strings.xlsx
+++ b/Client/WebClient/lang/fibertest_strings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VsGitProjects\Fibertest20\Client\WebClient\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8966D19A-DC59-4432-AC97-DBDFBEE136C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5116FF44-E638-4A13-B0EE-359EFF7F3BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="780" windowWidth="23430" windowHeight="13455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fibertest" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3360" uniqueCount="3317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3423" uniqueCount="3379">
   <si>
     <t>Name</t>
   </si>
@@ -4295,7 +4295,7 @@
     <t>Equipment title</t>
   </si>
   <si>
-    <t>Название оборуд.</t>
+    <t>Название оборудования</t>
   </si>
   <si>
     <t>SID_Go_to_the_fork</t>
@@ -8966,223 +8966,181 @@
     <t>Применяются настройки мониторинга</t>
   </si>
   <si>
-    <t>en-US</t>
-  </si>
-  <si>
-    <t>ru-RU</t>
-  </si>
-  <si>
-    <t>SID_Items_per_page</t>
-  </si>
-  <si>
-    <t>Items per page</t>
-  </si>
-  <si>
-    <t>Строк на странице</t>
-  </si>
-  <si>
-    <t>SID_Next_page</t>
-  </si>
-  <si>
-    <t>Next page</t>
-  </si>
-  <si>
-    <t>Следующая страница</t>
-  </si>
-  <si>
-    <t>SID_Previous_page</t>
-  </si>
-  <si>
-    <t>Previous page</t>
-  </si>
-  <si>
-    <t>Предыдущая страница</t>
-  </si>
-  <si>
-    <t>SID_of</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> of </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> из </t>
-  </si>
-  <si>
-    <t>SID_Responsive</t>
-  </si>
-  <si>
-    <t>Responsive</t>
-  </si>
-  <si>
-    <t>Отзывчивый</t>
-  </si>
-  <si>
-    <t>SID_Rtu_Moni_Settings</t>
-  </si>
-  <si>
-    <t>SID_measurement_frequency</t>
-  </si>
-  <si>
-    <t>measurement frequency</t>
-  </si>
-  <si>
-    <t>частота измерений</t>
-  </si>
-  <si>
-    <t>SID_saving_frequency</t>
-  </si>
-  <si>
-    <t>saving frequency</t>
-  </si>
-  <si>
-    <t>частота сохранения</t>
-  </si>
-  <si>
-    <t>SID_Cycle_full_time_sec</t>
-  </si>
-  <si>
-    <t>SID_Auto</t>
-  </si>
-  <si>
-    <t>Авто</t>
-  </si>
-  <si>
-    <t>SID_Landmark_count_does_not_match_graph</t>
-  </si>
-  <si>
-    <t>Landmark count on base ref does not match graph</t>
-  </si>
-  <si>
-    <t>Количество ориентиров на рефлектограмме не соответствует графу</t>
-  </si>
-  <si>
-    <t>Attach optical switch</t>
-  </si>
-  <si>
-    <t>Подключить оптический переключатель</t>
-  </si>
-  <si>
-    <t>SID_Optical_switch_s_IP_address</t>
-  </si>
-  <si>
-    <t>Optical switch's IP address</t>
-  </si>
-  <si>
-    <t>IP адрес оптического переключателя</t>
-  </si>
-  <si>
-    <t>SID_Web_Client_software_version</t>
-  </si>
-  <si>
-    <t>Web-Client software version</t>
-  </si>
-  <si>
-    <t>Версия ПК WebClient</t>
-  </si>
-  <si>
-    <t>SID_Web_Api_software_version</t>
-  </si>
-  <si>
-    <t>Web API software version</t>
-  </si>
-  <si>
-    <t>Верия ПК Web API</t>
-  </si>
-  <si>
-    <t>SID_Save_reflectogram</t>
-  </si>
-  <si>
-    <t>Save reflectogram</t>
-  </si>
-  <si>
-    <t>Сохранить рефлектограмму</t>
-  </si>
-  <si>
-    <t>SID_Save_ref_and_base</t>
-  </si>
-  <si>
-    <t>Save ref + base</t>
-  </si>
-  <si>
-    <t>Сохранить рефлектограмму + базовую</t>
-  </si>
-  <si>
-    <t>SID_Logout</t>
-  </si>
-  <si>
-    <t>Logout</t>
-  </si>
-  <si>
-    <t>Выйти</t>
-  </si>
-  <si>
-    <t>SID_RTU_Tree</t>
-  </si>
-  <si>
-    <t>RTUs</t>
-  </si>
-  <si>
-    <t>Модули</t>
-  </si>
-  <si>
-    <t>SID_Reject</t>
-  </si>
-  <si>
-    <t>Reject</t>
-  </si>
-  <si>
-    <t>Отклонить</t>
-  </si>
-  <si>
-    <t>SID_Yes</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Да</t>
-  </si>
-  <si>
-    <t>SID_No</t>
-  </si>
-  <si>
-    <t>SID_Device</t>
-  </si>
-  <si>
-    <t>Device</t>
-  </si>
-  <si>
-    <t>Устройство</t>
-  </si>
-  <si>
-    <t>SID_Application_closed</t>
-  </si>
-  <si>
-    <t>Application closed.</t>
-  </si>
-  <si>
-    <t>Приложение закрыто.</t>
-  </si>
-  <si>
-    <t>SID_Versions_do_not_match</t>
-  </si>
-  <si>
-    <t>Client's version does not match server's one!</t>
-  </si>
-  <si>
-    <t>Версия клиента не совпадает с версией сервера</t>
-  </si>
-  <si>
-    <t>SID_Please_close_browser</t>
-  </si>
-  <si>
-    <t>Please close browser's tab and start Fibertest again.</t>
-  </si>
-  <si>
-    <t>Пожалуйста, закройте вкладку браузера и повторите подключение в новой вкладке.</t>
-  </si>
-  <si>
-    <t>{{0}} without name</t>
+    <t>SID_There_is_a_TCE_with_the_same_name</t>
+  </si>
+  <si>
+    <t>There is a TCE with the same name</t>
+  </si>
+  <si>
+    <t>Существует TCE с таким же названием</t>
+  </si>
+  <si>
+    <t>SID_There_is_a_TCE_with_the_same_IP_address</t>
+  </si>
+  <si>
+    <t>There is a TCE with the same IP address</t>
+  </si>
+  <si>
+    <t>Существует TCE с таким же IP адресом</t>
+  </si>
+  <si>
+    <t>SID_ThresholdsAttention</t>
+  </si>
+  <si>
+    <t>Attention! The specified thresholds must be greater than the maximum values ​​in the inclusions on the trace</t>
+  </si>
+  <si>
+    <t>Внимание! Заданные пороги должны быть больше максимальных значений в неоднородностях на трассе</t>
+  </si>
+  <si>
+    <t>SID_Current_operation</t>
+  </si>
+  <si>
+    <t>Current operation</t>
+  </si>
+  <si>
+    <t>Текущая операция</t>
+  </si>
+  <si>
+    <t>SID_Operations_result</t>
+  </si>
+  <si>
+    <t>Operations result</t>
+  </si>
+  <si>
+    <t>Результаты операций</t>
+  </si>
+  <si>
+    <t>SID_Unauthorized_RTU_access</t>
+  </si>
+  <si>
+    <t>Unauthorized RTU access</t>
+  </si>
+  <si>
+    <t>Неавторизованный доступ к RTU</t>
+  </si>
+  <si>
+    <t>SID_Unauthorized_access_to_RTU__0__</t>
+  </si>
+  <si>
+    <t>SID_Please_enter_Platform_serial_number</t>
+  </si>
+  <si>
+    <t>Please enter Platform serial number</t>
+  </si>
+  <si>
+    <t>Пожалуйста, введите Серийный номер платформы</t>
+  </si>
+  <si>
+    <t>SID_Continue</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>Продолжить</t>
+  </si>
+  <si>
+    <t>SID_Initialize_and_synch</t>
+  </si>
+  <si>
+    <t>Initialize RTU and Synchronize base refs</t>
+  </si>
+  <si>
+    <t>Инициализировать RTU и синхронизировать базовые</t>
+  </si>
+  <si>
+    <t>SID_Sending_base_refs_for_port__0_</t>
+  </si>
+  <si>
+    <t>SID_Iit_address</t>
+  </si>
+  <si>
+    <t>220099, the Republic of Belarus, Minsk, Kazintsa st., 11A, office 304a</t>
+  </si>
+  <si>
+    <t>220099, Республика Беларусь, г. Минск, ул. Казинца, д. 11а, офис 304а</t>
+  </si>
+  <si>
+    <t>SID_Iit_Phone</t>
+  </si>
+  <si>
+    <t>Phone:  +375 17 2359048</t>
+  </si>
+  <si>
+    <t>Телефон: +375 17 2359048</t>
+  </si>
+  <si>
+    <t>SID_All_rights_reserved</t>
+  </si>
+  <si>
+    <t>All rights reserved</t>
+  </si>
+  <si>
+    <t>Все права защищены</t>
+  </si>
+  <si>
+    <t>SID_Optical_km</t>
+  </si>
+  <si>
+    <t>Optical, km</t>
+  </si>
+  <si>
+    <t>Оптич, км</t>
+  </si>
+  <si>
+    <t>SID_Gps_km</t>
+  </si>
+  <si>
+    <t>GPS, km</t>
+  </si>
+  <si>
+    <t>GPS, км</t>
+  </si>
+  <si>
+    <t>SID_Cable_reserve_m</t>
+  </si>
+  <si>
+    <t>Cable reserve, m</t>
+  </si>
+  <si>
+    <t>Запас кабеля, м</t>
+  </si>
+  <si>
+    <t>SID_Gps_section_km</t>
+  </si>
+  <si>
+    <t>GPS section, km</t>
+  </si>
+  <si>
+    <t>Участок по GPS, км</t>
+  </si>
+  <si>
+    <t>SID_Optical_section_km</t>
+  </si>
+  <si>
+    <t>Optical section, km</t>
+  </si>
+  <si>
+    <t>Оптический участок, км</t>
+  </si>
+  <si>
+    <t>SID_Edit_node</t>
+  </si>
+  <si>
+    <t>Edit node</t>
+  </si>
+  <si>
+    <t>Редактировать узел</t>
+  </si>
+  <si>
+    <t>SID_Edit_fiber</t>
+  </si>
+  <si>
+    <t>Edit fiber</t>
+  </si>
+  <si>
+    <t>Редактировать участок</t>
   </si>
   <si>
     <t>{{0}} без имени</t>
@@ -9973,16 +9931,244 @@
     <t>RTU {{0}} занят.</t>
   </si>
   <si>
+    <t>Unauthorized access to RTU {{0}}.</t>
+  </si>
+  <si>
+    <t>Неавторизованный доступ к RTU {{0}}.</t>
+  </si>
+  <si>
+    <t>Sending base refs for port {{0}}</t>
+  </si>
+  <si>
+    <t>Пересылка базовых для порта {{0}}</t>
+  </si>
+  <si>
+    <t>en-US</t>
+  </si>
+  <si>
+    <t>ru-RU</t>
+  </si>
+  <si>
+    <t>SID_Items_per_page</t>
+  </si>
+  <si>
+    <t>Items per page</t>
+  </si>
+  <si>
+    <t>Строк на странице</t>
+  </si>
+  <si>
+    <t>SID_Next_page</t>
+  </si>
+  <si>
+    <t>Next page</t>
+  </si>
+  <si>
+    <t>Следующая страница</t>
+  </si>
+  <si>
+    <t>SID_Previous_page</t>
+  </si>
+  <si>
+    <t>Previous page</t>
+  </si>
+  <si>
+    <t>Предыдущая страница</t>
+  </si>
+  <si>
+    <t>SID_of</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> of </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> из </t>
+  </si>
+  <si>
+    <t>SID_Responsive</t>
+  </si>
+  <si>
+    <t>Responsive</t>
+  </si>
+  <si>
+    <t>Отзывчивый</t>
+  </si>
+  <si>
+    <t>SID_Rtu_Moni_Settings</t>
+  </si>
+  <si>
     <t xml:space="preserve">{{0}}: Monitoring Settings </t>
   </si>
   <si>
+    <t>{{0}}:  Настройки мониторинга</t>
+  </si>
+  <si>
+    <t>SID_measurement_frequency</t>
+  </si>
+  <si>
+    <t>measurement frequency</t>
+  </si>
+  <si>
+    <t>частота измерений</t>
+  </si>
+  <si>
+    <t>SID_saving_frequency</t>
+  </si>
+  <si>
+    <t>saving frequency</t>
+  </si>
+  <si>
+    <t>частота сохранения</t>
+  </si>
+  <si>
+    <t>SID_Cycle_full_time_sec</t>
+  </si>
+  <si>
     <t>Cycle full time {{0}} sec</t>
   </si>
   <si>
-    <t>{{0}}:  Настройки мониторинга</t>
-  </si>
-  <si>
     <t>Полное время цикла {{0}} сек</t>
+  </si>
+  <si>
+    <t>SID_Auto</t>
+  </si>
+  <si>
+    <t>Авто</t>
+  </si>
+  <si>
+    <t>SID_Landmark_count_does_not_match_graph</t>
+  </si>
+  <si>
+    <t>Landmark count on base ref does not match graph</t>
+  </si>
+  <si>
+    <t>Количество ориентиров на рефлектограмме не соответствует графу</t>
+  </si>
+  <si>
+    <t>Attach optical switch</t>
+  </si>
+  <si>
+    <t>Подключить оптический переключатель</t>
+  </si>
+  <si>
+    <t>SID_Optical_switch_s_IP_address</t>
+  </si>
+  <si>
+    <t>Optical switch's IP address</t>
+  </si>
+  <si>
+    <t>IP адрес оптического переключателя</t>
+  </si>
+  <si>
+    <t>SID_Web_Client_software_version</t>
+  </si>
+  <si>
+    <t>Web-Client software version</t>
+  </si>
+  <si>
+    <t>Версия ПК WebClient</t>
+  </si>
+  <si>
+    <t>SID_Web_Api_software_version</t>
+  </si>
+  <si>
+    <t>Web API software version</t>
+  </si>
+  <si>
+    <t>Верия ПК Web API</t>
+  </si>
+  <si>
+    <t>SID_Save_reflectogram</t>
+  </si>
+  <si>
+    <t>Save reflectogram</t>
+  </si>
+  <si>
+    <t>Сохранить рефлектограмму</t>
+  </si>
+  <si>
+    <t>SID_Save_ref_and_base</t>
+  </si>
+  <si>
+    <t>Save ref + base</t>
+  </si>
+  <si>
+    <t>Сохранить рефлектограмму + базовую</t>
+  </si>
+  <si>
+    <t>SID_Logout</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>Выйти</t>
+  </si>
+  <si>
+    <t>SID_RTU_Tree</t>
+  </si>
+  <si>
+    <t>RTUs</t>
+  </si>
+  <si>
+    <t>Модули</t>
+  </si>
+  <si>
+    <t>SID_Reject</t>
+  </si>
+  <si>
+    <t>Reject</t>
+  </si>
+  <si>
+    <t>Отклонить</t>
+  </si>
+  <si>
+    <t>SID_Yes</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>SID_No</t>
+  </si>
+  <si>
+    <t>SID_Device</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Устройство</t>
+  </si>
+  <si>
+    <t>SID_Application_closed</t>
+  </si>
+  <si>
+    <t>Application closed.</t>
+  </si>
+  <si>
+    <t>Приложение закрыто.</t>
+  </si>
+  <si>
+    <t>SID_Versions_do_not_match</t>
+  </si>
+  <si>
+    <t>Client's version does not match server's one!</t>
+  </si>
+  <si>
+    <t>Версия клиента не совпадает с версией сервера</t>
+  </si>
+  <si>
+    <t>SID_Please_close_browser</t>
+  </si>
+  <si>
+    <t>Please close browser's tab and start Fibertest again.</t>
+  </si>
+  <si>
+    <t>Пожалуйста, закройте вкладку браузера и повторите подключение в новой вкладке.</t>
   </si>
 </sst>
 </file>
@@ -10042,7 +10228,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -10065,7 +10255,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{2724B5CE-EA8B-4F35-99AA-1909AD3275B3}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{EA2CA503-63F4-4FDA-864F-6D7DC7B1698C}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -10092,7 +10282,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{BE1CCAA9-EACA-482A-8BE0-0C2A4791B817}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{89DFD66E-20F5-4815-9697-4EC48308C5E6}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -10405,28 +10595,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1121"/>
+  <dimension ref="A1:C1142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1103" workbookViewId="0">
-      <selection activeCell="C1105" sqref="C1105"/>
+    <sheetView tabSelected="1" topLeftCell="A1111" workbookViewId="0">
+      <selection activeCell="D1121" sqref="D1121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.85546875" customWidth="1"/>
-    <col min="2" max="2" width="99.28515625" customWidth="1"/>
-    <col min="3" max="3" width="243.140625" customWidth="1"/>
+    <col min="1" max="1" width="44.7109375" customWidth="1"/>
+    <col min="2" max="2" width="52" customWidth="1"/>
+    <col min="3" max="3" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2978</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2979</v>
+      <c r="B1" t="s">
+        <v>3303</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3304</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -10863,10 +11053,10 @@
         <v>118</v>
       </c>
       <c r="B41" t="s">
-        <v>3050</v>
+        <v>118</v>
       </c>
       <c r="C41" t="s">
-        <v>3051</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -10896,10 +11086,10 @@
         <v>125</v>
       </c>
       <c r="B44" t="s">
-        <v>3052</v>
+        <v>3038</v>
       </c>
       <c r="C44" t="s">
-        <v>3052</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -10907,10 +11097,10 @@
         <v>126</v>
       </c>
       <c r="B45" t="s">
-        <v>3053</v>
+        <v>3039</v>
       </c>
       <c r="C45" t="s">
-        <v>3054</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -11149,10 +11339,10 @@
         <v>190</v>
       </c>
       <c r="B67" t="s">
-        <v>3055</v>
+        <v>3041</v>
       </c>
       <c r="C67" t="s">
-        <v>3055</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -11754,10 +11944,10 @@
         <v>353</v>
       </c>
       <c r="B122" t="s">
-        <v>3056</v>
+        <v>3042</v>
       </c>
       <c r="C122" t="s">
-        <v>3057</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -11765,10 +11955,10 @@
         <v>354</v>
       </c>
       <c r="B123" t="s">
-        <v>3058</v>
+        <v>3044</v>
       </c>
       <c r="C123" t="s">
-        <v>3059</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -12139,10 +12329,10 @@
         <v>449</v>
       </c>
       <c r="B157" t="s">
-        <v>3060</v>
+        <v>3046</v>
       </c>
       <c r="C157" t="s">
-        <v>3060</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -12381,10 +12571,10 @@
         <v>511</v>
       </c>
       <c r="B179" t="s">
-        <v>3061</v>
+        <v>3047</v>
       </c>
       <c r="C179" t="s">
-        <v>3062</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -12821,10 +13011,10 @@
         <v>629</v>
       </c>
       <c r="B219" t="s">
-        <v>3063</v>
+        <v>3049</v>
       </c>
       <c r="C219" t="s">
-        <v>3064</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -12865,10 +13055,10 @@
         <v>639</v>
       </c>
       <c r="B223" t="s">
-        <v>3065</v>
+        <v>3051</v>
       </c>
       <c r="C223" t="s">
-        <v>3066</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -12876,10 +13066,10 @@
         <v>640</v>
       </c>
       <c r="B224" t="s">
-        <v>3067</v>
+        <v>3053</v>
       </c>
       <c r="C224" t="s">
-        <v>3068</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -12920,10 +13110,10 @@
         <v>650</v>
       </c>
       <c r="B228" t="s">
-        <v>3069</v>
+        <v>3055</v>
       </c>
       <c r="C228" t="s">
-        <v>3070</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -12931,10 +13121,10 @@
         <v>651</v>
       </c>
       <c r="B229" t="s">
-        <v>3071</v>
+        <v>3057</v>
       </c>
       <c r="C229" t="s">
-        <v>3072</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -12964,10 +13154,10 @@
         <v>657</v>
       </c>
       <c r="B232" t="s">
-        <v>3073</v>
+        <v>3059</v>
       </c>
       <c r="C232" t="s">
-        <v>3073</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -13008,10 +13198,10 @@
         <v>664</v>
       </c>
       <c r="B236" t="s">
-        <v>3074</v>
+        <v>3060</v>
       </c>
       <c r="C236" t="s">
-        <v>3074</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -13019,10 +13209,10 @@
         <v>665</v>
       </c>
       <c r="B237" t="s">
-        <v>3075</v>
+        <v>3061</v>
       </c>
       <c r="C237" t="s">
-        <v>3075</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -13030,10 +13220,10 @@
         <v>666</v>
       </c>
       <c r="B238" t="s">
-        <v>3076</v>
+        <v>3062</v>
       </c>
       <c r="C238" t="s">
-        <v>3076</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -13074,10 +13264,10 @@
         <v>674</v>
       </c>
       <c r="B242" t="s">
-        <v>3077</v>
+        <v>3063</v>
       </c>
       <c r="C242" t="s">
-        <v>3077</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -13283,10 +13473,10 @@
         <v>729</v>
       </c>
       <c r="B261" t="s">
-        <v>3078</v>
+        <v>3064</v>
       </c>
       <c r="C261" t="s">
-        <v>3079</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -13294,10 +13484,10 @@
         <v>730</v>
       </c>
       <c r="B262" t="s">
-        <v>3080</v>
+        <v>3066</v>
       </c>
       <c r="C262" t="s">
-        <v>3081</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -13305,10 +13495,10 @@
         <v>731</v>
       </c>
       <c r="B263" t="s">
-        <v>3082</v>
+        <v>3068</v>
       </c>
       <c r="C263" t="s">
-        <v>3083</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -13316,10 +13506,10 @@
         <v>732</v>
       </c>
       <c r="B264" t="s">
-        <v>3084</v>
+        <v>3070</v>
       </c>
       <c r="C264" t="s">
-        <v>3085</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -13404,10 +13594,10 @@
         <v>754</v>
       </c>
       <c r="B272" t="s">
-        <v>3086</v>
+        <v>3072</v>
       </c>
       <c r="C272" t="s">
-        <v>3087</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -13415,10 +13605,10 @@
         <v>755</v>
       </c>
       <c r="B273" t="s">
-        <v>3088</v>
+        <v>3074</v>
       </c>
       <c r="C273" t="s">
-        <v>3089</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -13426,10 +13616,10 @@
         <v>756</v>
       </c>
       <c r="B274" t="s">
-        <v>3090</v>
+        <v>3076</v>
       </c>
       <c r="C274" t="s">
-        <v>3091</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -13723,10 +13913,10 @@
         <v>835</v>
       </c>
       <c r="B301" t="s">
-        <v>3092</v>
+        <v>3078</v>
       </c>
       <c r="C301" t="s">
-        <v>3093</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -13734,10 +13924,10 @@
         <v>836</v>
       </c>
       <c r="B302" t="s">
-        <v>3094</v>
+        <v>3080</v>
       </c>
       <c r="C302" t="s">
-        <v>3095</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -13822,10 +14012,10 @@
         <v>858</v>
       </c>
       <c r="B310" t="s">
-        <v>3096</v>
+        <v>3082</v>
       </c>
       <c r="C310" t="s">
-        <v>3097</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -13833,10 +14023,10 @@
         <v>859</v>
       </c>
       <c r="B311" t="s">
-        <v>3098</v>
+        <v>3084</v>
       </c>
       <c r="C311" t="s">
-        <v>3099</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -13844,10 +14034,10 @@
         <v>860</v>
       </c>
       <c r="B312" t="s">
-        <v>3100</v>
+        <v>3086</v>
       </c>
       <c r="C312" t="s">
-        <v>3101</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -13855,10 +14045,10 @@
         <v>861</v>
       </c>
       <c r="B313" t="s">
-        <v>3102</v>
+        <v>3088</v>
       </c>
       <c r="C313" t="s">
-        <v>3103</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -13976,10 +14166,10 @@
         <v>892</v>
       </c>
       <c r="B324" t="s">
-        <v>3104</v>
+        <v>3090</v>
       </c>
       <c r="C324" t="s">
-        <v>3105</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -14020,10 +14210,10 @@
         <v>902</v>
       </c>
       <c r="B328" t="s">
-        <v>3106</v>
+        <v>3092</v>
       </c>
       <c r="C328" t="s">
-        <v>3107</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -14042,10 +14232,10 @@
         <v>906</v>
       </c>
       <c r="B330" t="s">
-        <v>3108</v>
+        <v>3094</v>
       </c>
       <c r="C330" t="s">
-        <v>3109</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -14570,10 +14760,10 @@
         <v>1048</v>
       </c>
       <c r="B378" t="s">
-        <v>3110</v>
+        <v>3096</v>
       </c>
       <c r="C378" t="s">
-        <v>3111</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -14933,10 +15123,10 @@
         <v>1144</v>
       </c>
       <c r="B411" t="s">
-        <v>3112</v>
+        <v>3098</v>
       </c>
       <c r="C411" t="s">
-        <v>3113</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -14944,10 +15134,10 @@
         <v>1145</v>
       </c>
       <c r="B412" t="s">
-        <v>3114</v>
+        <v>3100</v>
       </c>
       <c r="C412" t="s">
-        <v>3115</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -14955,10 +15145,10 @@
         <v>1146</v>
       </c>
       <c r="B413" t="s">
-        <v>3116</v>
+        <v>3102</v>
       </c>
       <c r="C413" t="s">
-        <v>3117</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -14977,10 +15167,10 @@
         <v>1150</v>
       </c>
       <c r="B415" t="s">
-        <v>3118</v>
+        <v>3104</v>
       </c>
       <c r="C415" t="s">
-        <v>3119</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -15010,10 +15200,10 @@
         <v>1157</v>
       </c>
       <c r="B418" t="s">
-        <v>3120</v>
+        <v>3106</v>
       </c>
       <c r="C418" t="s">
-        <v>3121</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -15120,10 +15310,10 @@
         <v>1185</v>
       </c>
       <c r="B428" t="s">
-        <v>3122</v>
+        <v>3108</v>
       </c>
       <c r="C428" t="s">
-        <v>3123</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
@@ -15131,10 +15321,10 @@
         <v>1186</v>
       </c>
       <c r="B429" t="s">
-        <v>3124</v>
+        <v>3110</v>
       </c>
       <c r="C429" t="s">
-        <v>3125</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -15153,10 +15343,10 @@
         <v>1190</v>
       </c>
       <c r="B431" t="s">
-        <v>3126</v>
+        <v>3112</v>
       </c>
       <c r="C431" t="s">
-        <v>3127</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -15164,10 +15354,10 @@
         <v>1191</v>
       </c>
       <c r="B432" t="s">
-        <v>3128</v>
+        <v>3114</v>
       </c>
       <c r="C432" t="s">
-        <v>3129</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -15285,10 +15475,10 @@
         <v>1222</v>
       </c>
       <c r="B443" t="s">
-        <v>3130</v>
+        <v>3116</v>
       </c>
       <c r="C443" t="s">
-        <v>3131</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -15296,10 +15486,10 @@
         <v>1223</v>
       </c>
       <c r="B444" t="s">
-        <v>3132</v>
+        <v>3118</v>
       </c>
       <c r="C444" t="s">
-        <v>3133</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -15318,10 +15508,10 @@
         <v>1227</v>
       </c>
       <c r="B446" t="s">
-        <v>3134</v>
+        <v>3120</v>
       </c>
       <c r="C446" t="s">
-        <v>3135</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -15329,10 +15519,10 @@
         <v>1228</v>
       </c>
       <c r="B447" t="s">
-        <v>3136</v>
+        <v>3122</v>
       </c>
       <c r="C447" t="s">
-        <v>3137</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -15439,10 +15629,10 @@
         <v>1256</v>
       </c>
       <c r="B457" t="s">
-        <v>3138</v>
+        <v>3124</v>
       </c>
       <c r="C457" t="s">
-        <v>3139</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
@@ -15450,10 +15640,10 @@
         <v>1257</v>
       </c>
       <c r="B458" t="s">
-        <v>3140</v>
+        <v>3126</v>
       </c>
       <c r="C458" t="s">
-        <v>3141</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
@@ -15582,10 +15772,10 @@
         <v>1291</v>
       </c>
       <c r="B470" t="s">
-        <v>3142</v>
+        <v>3128</v>
       </c>
       <c r="C470" t="s">
-        <v>3143</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
@@ -15912,10 +16102,10 @@
         <v>1378</v>
       </c>
       <c r="B500" t="s">
-        <v>3144</v>
+        <v>3130</v>
       </c>
       <c r="C500" t="s">
-        <v>3145</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -15923,10 +16113,10 @@
         <v>1379</v>
       </c>
       <c r="B501" t="s">
-        <v>3146</v>
+        <v>3132</v>
       </c>
       <c r="C501" t="s">
-        <v>3147</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
@@ -16000,10 +16190,10 @@
         <v>1398</v>
       </c>
       <c r="B508" t="s">
-        <v>3148</v>
+        <v>3134</v>
       </c>
       <c r="C508" t="s">
-        <v>3149</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
@@ -16374,10 +16564,10 @@
         <v>1496</v>
       </c>
       <c r="B542" t="s">
-        <v>3150</v>
+        <v>3136</v>
       </c>
       <c r="C542" t="s">
-        <v>3151</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
@@ -16418,10 +16608,10 @@
         <v>1506</v>
       </c>
       <c r="B546" t="s">
-        <v>3152</v>
+        <v>3138</v>
       </c>
       <c r="C546" t="s">
-        <v>3153</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
@@ -16803,10 +16993,10 @@
         <v>1609</v>
       </c>
       <c r="B581" t="s">
-        <v>3154</v>
+        <v>3140</v>
       </c>
       <c r="C581" t="s">
-        <v>3155</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
@@ -16891,10 +17081,10 @@
         <v>1631</v>
       </c>
       <c r="B589" t="s">
-        <v>3156</v>
+        <v>3142</v>
       </c>
       <c r="C589" t="s">
-        <v>3157</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
@@ -16913,10 +17103,10 @@
         <v>1635</v>
       </c>
       <c r="B591" t="s">
-        <v>3158</v>
+        <v>3144</v>
       </c>
       <c r="C591" t="s">
-        <v>3159</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
@@ -16968,10 +17158,10 @@
         <v>1648</v>
       </c>
       <c r="B596" t="s">
-        <v>3160</v>
+        <v>3146</v>
       </c>
       <c r="C596" t="s">
-        <v>3161</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
@@ -16979,10 +17169,10 @@
         <v>1649</v>
       </c>
       <c r="B597" t="s">
-        <v>3162</v>
+        <v>3148</v>
       </c>
       <c r="C597" t="s">
-        <v>3163</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
@@ -17001,10 +17191,10 @@
         <v>1653</v>
       </c>
       <c r="B599" t="s">
-        <v>3164</v>
+        <v>3150</v>
       </c>
       <c r="C599" t="s">
-        <v>3165</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
@@ -17012,10 +17202,10 @@
         <v>1654</v>
       </c>
       <c r="B600" t="s">
-        <v>3166</v>
+        <v>3152</v>
       </c>
       <c r="C600" t="s">
-        <v>3167</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
@@ -17023,10 +17213,10 @@
         <v>1655</v>
       </c>
       <c r="B601" t="s">
-        <v>3168</v>
+        <v>3154</v>
       </c>
       <c r="C601" t="s">
-        <v>3169</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
@@ -17034,10 +17224,10 @@
         <v>1656</v>
       </c>
       <c r="B602" t="s">
-        <v>3170</v>
+        <v>3156</v>
       </c>
       <c r="C602" t="s">
-        <v>3171</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
@@ -17100,10 +17290,10 @@
         <v>1672</v>
       </c>
       <c r="B608" t="s">
-        <v>3172</v>
+        <v>3158</v>
       </c>
       <c r="C608" t="s">
-        <v>3173</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
@@ -17122,10 +17312,10 @@
         <v>1676</v>
       </c>
       <c r="B610" t="s">
-        <v>3174</v>
+        <v>3160</v>
       </c>
       <c r="C610" t="s">
-        <v>3175</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
@@ -17166,10 +17356,10 @@
         <v>1686</v>
       </c>
       <c r="B614" t="s">
-        <v>3176</v>
+        <v>3162</v>
       </c>
       <c r="C614" t="s">
-        <v>3177</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
@@ -17188,10 +17378,10 @@
         <v>1690</v>
       </c>
       <c r="B616" t="s">
-        <v>3178</v>
+        <v>3164</v>
       </c>
       <c r="C616" t="s">
-        <v>3179</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
@@ -17199,10 +17389,10 @@
         <v>1691</v>
       </c>
       <c r="B617" t="s">
-        <v>3180</v>
+        <v>3166</v>
       </c>
       <c r="C617" t="s">
-        <v>3181</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
@@ -17221,10 +17411,10 @@
         <v>1695</v>
       </c>
       <c r="B619" t="s">
-        <v>3182</v>
+        <v>3168</v>
       </c>
       <c r="C619" t="s">
-        <v>3183</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
@@ -17232,10 +17422,10 @@
         <v>1696</v>
       </c>
       <c r="B620" t="s">
-        <v>3184</v>
+        <v>3170</v>
       </c>
       <c r="C620" t="s">
-        <v>3185</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
@@ -17342,10 +17532,10 @@
         <v>1723</v>
       </c>
       <c r="B630" t="s">
-        <v>3186</v>
+        <v>3172</v>
       </c>
       <c r="C630" t="s">
-        <v>3187</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
@@ -17353,10 +17543,10 @@
         <v>1724</v>
       </c>
       <c r="B631" t="s">
-        <v>3188</v>
+        <v>3174</v>
       </c>
       <c r="C631" t="s">
-        <v>3189</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
@@ -17375,10 +17565,10 @@
         <v>1728</v>
       </c>
       <c r="B633" t="s">
-        <v>3190</v>
+        <v>3176</v>
       </c>
       <c r="C633" t="s">
-        <v>3191</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
@@ -17386,10 +17576,10 @@
         <v>1729</v>
       </c>
       <c r="B634" t="s">
-        <v>3192</v>
+        <v>3178</v>
       </c>
       <c r="C634" t="s">
-        <v>3193</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
@@ -17397,10 +17587,10 @@
         <v>1730</v>
       </c>
       <c r="B635" t="s">
-        <v>3194</v>
+        <v>3180</v>
       </c>
       <c r="C635" t="s">
-        <v>3195</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
@@ -17408,10 +17598,10 @@
         <v>1731</v>
       </c>
       <c r="B636" t="s">
-        <v>3196</v>
+        <v>3182</v>
       </c>
       <c r="C636" t="s">
-        <v>3197</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
@@ -17419,10 +17609,10 @@
         <v>1732</v>
       </c>
       <c r="B637" t="s">
-        <v>3198</v>
+        <v>3184</v>
       </c>
       <c r="C637" t="s">
-        <v>3199</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
@@ -17430,10 +17620,10 @@
         <v>1733</v>
       </c>
       <c r="B638" t="s">
-        <v>3200</v>
+        <v>3186</v>
       </c>
       <c r="C638" t="s">
-        <v>3201</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.25">
@@ -17441,10 +17631,10 @@
         <v>1734</v>
       </c>
       <c r="B639" t="s">
-        <v>3202</v>
+        <v>3188</v>
       </c>
       <c r="C639" t="s">
-        <v>3203</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
@@ -17452,10 +17642,10 @@
         <v>1735</v>
       </c>
       <c r="B640" t="s">
-        <v>3204</v>
+        <v>3190</v>
       </c>
       <c r="C640" t="s">
-        <v>3205</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
@@ -17463,10 +17653,10 @@
         <v>1736</v>
       </c>
       <c r="B641" t="s">
-        <v>3206</v>
+        <v>3192</v>
       </c>
       <c r="C641" t="s">
-        <v>3207</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
@@ -17815,10 +18005,10 @@
         <v>1830</v>
       </c>
       <c r="B673" t="s">
-        <v>3208</v>
+        <v>3194</v>
       </c>
       <c r="C673" t="s">
-        <v>3209</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.25">
@@ -17848,10 +18038,10 @@
         <v>1837</v>
       </c>
       <c r="B676" t="s">
-        <v>3210</v>
+        <v>3196</v>
       </c>
       <c r="C676" t="s">
-        <v>3211</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.25">
@@ -17859,10 +18049,10 @@
         <v>1838</v>
       </c>
       <c r="B677" t="s">
-        <v>3212</v>
+        <v>3198</v>
       </c>
       <c r="C677" t="s">
-        <v>3213</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.25">
@@ -17870,10 +18060,10 @@
         <v>1839</v>
       </c>
       <c r="B678" t="s">
-        <v>3214</v>
+        <v>3200</v>
       </c>
       <c r="C678" t="s">
-        <v>3215</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.25">
@@ -17881,10 +18071,10 @@
         <v>1840</v>
       </c>
       <c r="B679" t="s">
-        <v>3216</v>
+        <v>3202</v>
       </c>
       <c r="C679" t="s">
-        <v>3217</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.25">
@@ -17892,10 +18082,10 @@
         <v>1841</v>
       </c>
       <c r="B680" t="s">
-        <v>3218</v>
+        <v>3204</v>
       </c>
       <c r="C680" t="s">
-        <v>3219</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.25">
@@ -17903,10 +18093,10 @@
         <v>1842</v>
       </c>
       <c r="B681" t="s">
-        <v>3220</v>
+        <v>3206</v>
       </c>
       <c r="C681" t="s">
-        <v>3221</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.25">
@@ -18376,10 +18566,10 @@
         <v>1968</v>
       </c>
       <c r="B724" t="s">
-        <v>3222</v>
+        <v>3208</v>
       </c>
       <c r="C724" t="s">
-        <v>3223</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.25">
@@ -18486,10 +18676,10 @@
         <v>1995</v>
       </c>
       <c r="B734" t="s">
-        <v>3224</v>
+        <v>3210</v>
       </c>
       <c r="C734" t="s">
-        <v>3225</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.25">
@@ -18497,10 +18687,10 @@
         <v>1996</v>
       </c>
       <c r="B735" t="s">
-        <v>3226</v>
+        <v>3212</v>
       </c>
       <c r="C735" t="s">
-        <v>3227</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.25">
@@ -18508,10 +18698,10 @@
         <v>1997</v>
       </c>
       <c r="B736" t="s">
-        <v>3228</v>
+        <v>3214</v>
       </c>
       <c r="C736" t="s">
-        <v>3229</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.25">
@@ -18519,10 +18709,10 @@
         <v>1998</v>
       </c>
       <c r="B737" t="s">
-        <v>3230</v>
+        <v>3216</v>
       </c>
       <c r="C737" t="s">
-        <v>3231</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.25">
@@ -18915,10 +19105,10 @@
         <v>2102</v>
       </c>
       <c r="B773" t="s">
-        <v>3232</v>
+        <v>3218</v>
       </c>
       <c r="C773" t="s">
-        <v>3233</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.25">
@@ -18926,10 +19116,10 @@
         <v>2103</v>
       </c>
       <c r="B774" t="s">
-        <v>3234</v>
+        <v>3220</v>
       </c>
       <c r="C774" t="s">
-        <v>3235</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.25">
@@ -18937,10 +19127,10 @@
         <v>2104</v>
       </c>
       <c r="B775" t="s">
-        <v>3236</v>
+        <v>3222</v>
       </c>
       <c r="C775" t="s">
-        <v>3237</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.25">
@@ -18948,10 +19138,10 @@
         <v>2105</v>
       </c>
       <c r="B776" t="s">
-        <v>3238</v>
+        <v>3224</v>
       </c>
       <c r="C776" t="s">
-        <v>3239</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.25">
@@ -18959,10 +19149,10 @@
         <v>2106</v>
       </c>
       <c r="B777" t="s">
-        <v>3240</v>
+        <v>3226</v>
       </c>
       <c r="C777" t="s">
-        <v>3241</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.25">
@@ -18992,10 +19182,10 @@
         <v>2113</v>
       </c>
       <c r="B780" t="s">
-        <v>3242</v>
+        <v>3228</v>
       </c>
       <c r="C780" t="s">
-        <v>3243</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.25">
@@ -19003,10 +19193,10 @@
         <v>2114</v>
       </c>
       <c r="B781" t="s">
-        <v>3244</v>
+        <v>3230</v>
       </c>
       <c r="C781" t="s">
-        <v>3245</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.25">
@@ -19135,10 +19325,10 @@
         <v>2148</v>
       </c>
       <c r="B793" t="s">
-        <v>3246</v>
+        <v>3232</v>
       </c>
       <c r="C793" t="s">
-        <v>3247</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.25">
@@ -19157,10 +19347,10 @@
         <v>2152</v>
       </c>
       <c r="B795" t="s">
-        <v>3248</v>
+        <v>3234</v>
       </c>
       <c r="C795" t="s">
-        <v>3249</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.25">
@@ -19212,10 +19402,10 @@
         <v>2165</v>
       </c>
       <c r="B800" t="s">
-        <v>3250</v>
+        <v>3236</v>
       </c>
       <c r="C800" t="s">
-        <v>3250</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.25">
@@ -19223,10 +19413,10 @@
         <v>2166</v>
       </c>
       <c r="B801" t="s">
-        <v>3251</v>
+        <v>3237</v>
       </c>
       <c r="C801" t="s">
-        <v>3252</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.25">
@@ -19245,10 +19435,10 @@
         <v>2169</v>
       </c>
       <c r="B803" t="s">
-        <v>3253</v>
+        <v>3239</v>
       </c>
       <c r="C803" t="s">
-        <v>3254</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.25">
@@ -19564,10 +19754,10 @@
         <v>2253</v>
       </c>
       <c r="B832" t="s">
-        <v>3255</v>
+        <v>3241</v>
       </c>
       <c r="C832" t="s">
-        <v>3256</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.25">
@@ -19597,10 +19787,10 @@
         <v>2260</v>
       </c>
       <c r="B835" t="s">
-        <v>3257</v>
+        <v>3243</v>
       </c>
       <c r="C835" t="s">
-        <v>3258</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.25">
@@ -19608,10 +19798,10 @@
         <v>2261</v>
       </c>
       <c r="B836" t="s">
-        <v>3259</v>
+        <v>3245</v>
       </c>
       <c r="C836" t="s">
-        <v>3260</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.25">
@@ -19619,10 +19809,10 @@
         <v>2262</v>
       </c>
       <c r="B837" t="s">
-        <v>3261</v>
+        <v>3247</v>
       </c>
       <c r="C837" t="s">
-        <v>3262</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.25">
@@ -19652,10 +19842,10 @@
         <v>2269</v>
       </c>
       <c r="B840" t="s">
-        <v>3263</v>
+        <v>3249</v>
       </c>
       <c r="C840" t="s">
-        <v>3264</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.25">
@@ -19839,10 +20029,10 @@
         <v>2318</v>
       </c>
       <c r="B857" t="s">
-        <v>3265</v>
+        <v>3251</v>
       </c>
       <c r="C857" t="s">
-        <v>3266</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.25">
@@ -19872,10 +20062,10 @@
         <v>2325</v>
       </c>
       <c r="B860" t="s">
-        <v>3267</v>
+        <v>3253</v>
       </c>
       <c r="C860" t="s">
-        <v>3268</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.25">
@@ -19883,10 +20073,10 @@
         <v>2326</v>
       </c>
       <c r="B861" t="s">
-        <v>3269</v>
+        <v>3255</v>
       </c>
       <c r="C861" t="s">
-        <v>3270</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.25">
@@ -19894,10 +20084,10 @@
         <v>2327</v>
       </c>
       <c r="B862" t="s">
-        <v>3271</v>
+        <v>3257</v>
       </c>
       <c r="C862" t="s">
-        <v>3272</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.25">
@@ -19905,10 +20095,10 @@
         <v>2328</v>
       </c>
       <c r="B863" t="s">
-        <v>3273</v>
+        <v>3259</v>
       </c>
       <c r="C863" t="s">
-        <v>3274</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.25">
@@ -19916,10 +20106,10 @@
         <v>2329</v>
       </c>
       <c r="B864" t="s">
-        <v>3275</v>
+        <v>3261</v>
       </c>
       <c r="C864" t="s">
-        <v>3276</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.25">
@@ -20103,10 +20293,10 @@
         <v>2378</v>
       </c>
       <c r="B881" t="s">
-        <v>3277</v>
+        <v>3263</v>
       </c>
       <c r="C881" t="s">
-        <v>3278</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.25">
@@ -20147,10 +20337,10 @@
         <v>2388</v>
       </c>
       <c r="B885" t="s">
-        <v>3279</v>
+        <v>3265</v>
       </c>
       <c r="C885" t="s">
-        <v>3280</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="886" spans="1:3" x14ac:dyDescent="0.25">
@@ -20180,10 +20370,10 @@
         <v>2395</v>
       </c>
       <c r="B888" t="s">
-        <v>3281</v>
+        <v>3267</v>
       </c>
       <c r="C888" t="s">
-        <v>3282</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="889" spans="1:3" x14ac:dyDescent="0.25">
@@ -20230,15 +20420,15 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="893" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
         <v>2408</v>
       </c>
       <c r="B893" s="1" t="s">
-        <v>3283</v>
+        <v>3269</v>
       </c>
       <c r="C893" s="1" t="s">
-        <v>3284</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="894" spans="1:3" x14ac:dyDescent="0.25">
@@ -20554,10 +20744,10 @@
         <v>2493</v>
       </c>
       <c r="B922" t="s">
-        <v>3285</v>
+        <v>3271</v>
       </c>
       <c r="C922" t="s">
-        <v>3286</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="923" spans="1:3" x14ac:dyDescent="0.25">
@@ -20851,10 +21041,10 @@
         <v>2571</v>
       </c>
       <c r="B949" t="s">
-        <v>3287</v>
+        <v>3273</v>
       </c>
       <c r="C949" t="s">
-        <v>3288</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="950" spans="1:3" x14ac:dyDescent="0.25">
@@ -20939,10 +21129,10 @@
         <v>2593</v>
       </c>
       <c r="B957" t="s">
-        <v>3289</v>
+        <v>3275</v>
       </c>
       <c r="C957" t="s">
-        <v>3290</v>
+        <v>3276</v>
       </c>
     </row>
     <row r="958" spans="1:3" x14ac:dyDescent="0.25">
@@ -21005,10 +21195,10 @@
         <v>2609</v>
       </c>
       <c r="B963" t="s">
-        <v>3291</v>
+        <v>3277</v>
       </c>
       <c r="C963" t="s">
-        <v>3292</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="964" spans="1:3" x14ac:dyDescent="0.25">
@@ -21016,10 +21206,10 @@
         <v>2610</v>
       </c>
       <c r="B964" t="s">
-        <v>3293</v>
+        <v>3279</v>
       </c>
       <c r="C964" t="s">
-        <v>3294</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="965" spans="1:3" x14ac:dyDescent="0.25">
@@ -21126,10 +21316,10 @@
         <v>2638</v>
       </c>
       <c r="B974" t="s">
-        <v>3295</v>
+        <v>3281</v>
       </c>
       <c r="C974" t="s">
-        <v>3296</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="975" spans="1:3" x14ac:dyDescent="0.25">
@@ -21137,10 +21327,10 @@
         <v>2639</v>
       </c>
       <c r="B975" t="s">
-        <v>3297</v>
+        <v>3283</v>
       </c>
       <c r="C975" t="s">
-        <v>3298</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="976" spans="1:3" x14ac:dyDescent="0.25">
@@ -21192,10 +21382,10 @@
         <v>2652</v>
       </c>
       <c r="B980" t="s">
-        <v>3299</v>
+        <v>3285</v>
       </c>
       <c r="C980" t="s">
-        <v>3300</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="981" spans="1:3" x14ac:dyDescent="0.25">
@@ -21236,10 +21426,10 @@
         <v>2661</v>
       </c>
       <c r="B984" t="s">
-        <v>3301</v>
+        <v>3287</v>
       </c>
       <c r="C984" t="s">
-        <v>3302</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="985" spans="1:3" x14ac:dyDescent="0.25">
@@ -21335,10 +21525,10 @@
         <v>2686</v>
       </c>
       <c r="B993" t="s">
-        <v>3303</v>
+        <v>3289</v>
       </c>
       <c r="C993" t="s">
-        <v>3304</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="994" spans="1:3" x14ac:dyDescent="0.25">
@@ -21808,10 +21998,10 @@
         <v>2809</v>
       </c>
       <c r="B1036" t="s">
-        <v>3305</v>
+        <v>3291</v>
       </c>
       <c r="C1036" t="s">
-        <v>3306</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="1037" spans="1:3" x14ac:dyDescent="0.25">
@@ -22094,10 +22284,10 @@
         <v>2885</v>
       </c>
       <c r="B1062" t="s">
-        <v>3307</v>
+        <v>3293</v>
       </c>
       <c r="C1062" t="s">
-        <v>3308</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="1063" spans="1:3" x14ac:dyDescent="0.25">
@@ -22127,10 +22317,10 @@
         <v>2892</v>
       </c>
       <c r="B1065" t="s">
-        <v>3309</v>
+        <v>3295</v>
       </c>
       <c r="C1065" t="s">
-        <v>3310</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="1066" spans="1:3" x14ac:dyDescent="0.25">
@@ -22424,10 +22614,10 @@
         <v>2971</v>
       </c>
       <c r="B1092" t="s">
-        <v>3311</v>
+        <v>3297</v>
       </c>
       <c r="C1092" t="s">
-        <v>3312</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="1093" spans="1:3" x14ac:dyDescent="0.25">
@@ -22452,291 +22642,526 @@
         <v>2977</v>
       </c>
     </row>
-    <row r="1095" spans="1:3" ht="134.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1095" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1095" t="s">
+        <v>2978</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>2979</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>2980</v>
+      </c>
+    </row>
     <row r="1096" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1096" s="2" t="s">
-        <v>2980</v>
-      </c>
-      <c r="B1096" s="2" t="s">
+      <c r="A1096" t="s">
         <v>2981</v>
       </c>
-      <c r="C1096" s="2" t="s">
+      <c r="B1096" t="s">
         <v>2982</v>
       </c>
+      <c r="C1096" t="s">
+        <v>2983</v>
+      </c>
     </row>
     <row r="1097" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1097" s="2" t="s">
-        <v>2983</v>
-      </c>
-      <c r="B1097" s="2" t="s">
+      <c r="A1097" t="s">
         <v>2984</v>
       </c>
-      <c r="C1097" s="2" t="s">
+      <c r="B1097" t="s">
         <v>2985</v>
       </c>
+      <c r="C1097" t="s">
+        <v>2986</v>
+      </c>
     </row>
     <row r="1098" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1098" s="2" t="s">
-        <v>2986</v>
-      </c>
-      <c r="B1098" s="2" t="s">
+      <c r="A1098" t="s">
         <v>2987</v>
       </c>
-      <c r="C1098" s="2" t="s">
+      <c r="B1098" t="s">
         <v>2988</v>
       </c>
+      <c r="C1098" t="s">
+        <v>2989</v>
+      </c>
     </row>
     <row r="1099" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1099" s="2" t="s">
-        <v>2989</v>
-      </c>
-      <c r="B1099" s="2" t="s">
+      <c r="A1099" t="s">
         <v>2990</v>
       </c>
-      <c r="C1099" s="2" t="s">
+      <c r="B1099" t="s">
         <v>2991</v>
       </c>
+      <c r="C1099" t="s">
+        <v>2992</v>
+      </c>
     </row>
     <row r="1100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1100" s="2" t="s">
-        <v>2992</v>
-      </c>
-      <c r="B1100" s="2" t="s">
+      <c r="A1100" t="s">
         <v>2993</v>
       </c>
-      <c r="C1100" s="2" t="s">
+      <c r="B1100" t="s">
         <v>2994</v>
       </c>
+      <c r="C1100" t="s">
+        <v>2995</v>
+      </c>
     </row>
     <row r="1101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1101" s="2" t="s">
-        <v>2995</v>
-      </c>
-      <c r="B1101" s="2" t="s">
+      <c r="A1101" t="s">
+        <v>2996</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>3299</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1102" t="s">
+        <v>2997</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>2998</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1103" t="s">
+        <v>3000</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>3001</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1104" t="s">
+        <v>3003</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1105" t="s">
+        <v>3006</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>3301</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1106" t="s">
+        <v>3007</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>3008</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1107" t="s">
+        <v>3010</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>3011</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1108" t="s">
+        <v>3013</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>3014</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1109" t="s">
+        <v>3016</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>3017</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1110" t="s">
+        <v>3019</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>3020</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1111" t="s">
+        <v>3022</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>3023</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1112" t="s">
+        <v>3025</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>3026</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1113" t="s">
+        <v>3028</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>3029</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1114" t="s">
+        <v>3031</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>3032</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1115" t="s">
+        <v>3034</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>3035</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:3" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1116" s="2"/>
+      <c r="B1116" s="2"/>
+      <c r="C1116" s="2"/>
+    </row>
+    <row r="1117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1117" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="B1117" s="4" t="s">
+        <v>3306</v>
+      </c>
+      <c r="C1117" s="4" t="s">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1118" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="B1118" s="4" t="s">
+        <v>3309</v>
+      </c>
+      <c r="C1118" s="4" t="s">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1119" s="4" t="s">
+        <v>3311</v>
+      </c>
+      <c r="B1119" s="4" t="s">
+        <v>3312</v>
+      </c>
+      <c r="C1119" s="4" t="s">
         <v>3313</v>
       </c>
-      <c r="C1101" s="2" t="s">
+    </row>
+    <row r="1120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1120" s="4" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B1120" s="4" t="s">
         <v>3315</v>
       </c>
-    </row>
-    <row r="1102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1102" s="2" t="s">
-        <v>2996</v>
-      </c>
-      <c r="B1102" s="3" t="s">
-        <v>2997</v>
-      </c>
-      <c r="C1102" s="2" t="s">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="1103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1103" s="2" t="s">
-        <v>2999</v>
-      </c>
-      <c r="B1103" s="3" t="s">
-        <v>3000</v>
-      </c>
-      <c r="C1103" s="2" t="s">
-        <v>3001</v>
-      </c>
-    </row>
-    <row r="1104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1104" s="2" t="s">
-        <v>3002</v>
-      </c>
-      <c r="B1104" s="2" t="s">
-        <v>3314</v>
-      </c>
-      <c r="C1104" s="2" t="s">
+      <c r="C1120" s="4" t="s">
         <v>3316</v>
       </c>
     </row>
-    <row r="1105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1105" s="3" t="s">
-        <v>3003</v>
-      </c>
-      <c r="B1105" s="2" t="s">
+    <row r="1121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1121" s="4" t="s">
+        <v>3317</v>
+      </c>
+      <c r="B1121" s="4" t="s">
+        <v>3318</v>
+      </c>
+      <c r="C1121" s="4" t="s">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1122" s="4" t="s">
+        <v>3320</v>
+      </c>
+      <c r="B1122" s="4" t="s">
+        <v>3321</v>
+      </c>
+      <c r="C1122" s="4" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1123" s="4" t="s">
+        <v>3323</v>
+      </c>
+      <c r="B1123" s="5" t="s">
+        <v>3324</v>
+      </c>
+      <c r="C1123" s="4" t="s">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1124" s="4" t="s">
+        <v>3326</v>
+      </c>
+      <c r="B1124" s="5" t="s">
+        <v>3327</v>
+      </c>
+      <c r="C1124" s="4" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1125" s="4" t="s">
+        <v>3329</v>
+      </c>
+      <c r="B1125" s="4" t="s">
+        <v>3330</v>
+      </c>
+      <c r="C1125" s="4" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1126" s="5" t="s">
+        <v>3332</v>
+      </c>
+      <c r="B1126" s="4" t="s">
         <v>821</v>
       </c>
-      <c r="C1105" s="2" t="s">
-        <v>3004</v>
-      </c>
-    </row>
-    <row r="1106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1106" s="2" t="s">
-        <v>3005</v>
-      </c>
-      <c r="B1106" s="2" t="s">
-        <v>3006</v>
-      </c>
-      <c r="C1106" s="2" t="s">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="1107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1107" s="4" t="s">
+      <c r="C1126" s="4" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1127" s="4" t="s">
+        <v>3334</v>
+      </c>
+      <c r="B1127" s="4" t="s">
+        <v>3335</v>
+      </c>
+      <c r="C1127" s="4" t="s">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1128" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="B1107" s="4" t="s">
-        <v>3008</v>
-      </c>
-      <c r="C1107" s="5" t="s">
-        <v>3009</v>
-      </c>
-    </row>
-    <row r="1108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1108" s="4" t="s">
-        <v>3010</v>
-      </c>
-      <c r="B1108" s="4" t="s">
-        <v>3011</v>
-      </c>
-      <c r="C1108" s="5" t="s">
-        <v>3012</v>
-      </c>
-    </row>
-    <row r="1109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1109" s="5" t="s">
-        <v>3013</v>
-      </c>
-      <c r="B1109" s="2" t="s">
-        <v>3014</v>
-      </c>
-      <c r="C1109" s="2" t="s">
-        <v>3015</v>
-      </c>
-    </row>
-    <row r="1110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1110" s="5" t="s">
-        <v>3016</v>
-      </c>
-      <c r="B1110" s="6" t="s">
-        <v>3017</v>
-      </c>
-      <c r="C1110" s="5" t="s">
-        <v>3018</v>
-      </c>
-    </row>
-    <row r="1111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1111" s="1" t="s">
-        <v>3019</v>
-      </c>
-      <c r="B1111" s="1" t="s">
-        <v>3020</v>
-      </c>
-      <c r="C1111" s="1" t="s">
-        <v>3021</v>
-      </c>
-    </row>
-    <row r="1112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1112" s="1" t="s">
-        <v>3022</v>
-      </c>
-      <c r="B1112" s="1" t="s">
-        <v>3023</v>
-      </c>
-      <c r="C1112" s="1" t="s">
-        <v>3024</v>
-      </c>
-    </row>
-    <row r="1113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1113" s="1" t="s">
-        <v>3025</v>
-      </c>
-      <c r="B1113" s="1" t="s">
-        <v>3026</v>
-      </c>
-      <c r="C1113" s="1" t="s">
-        <v>3027</v>
-      </c>
-    </row>
-    <row r="1114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1114" s="1" t="s">
-        <v>3028</v>
-      </c>
-      <c r="B1114" s="1" t="s">
-        <v>3029</v>
-      </c>
-      <c r="C1114" s="1" t="s">
-        <v>3030</v>
-      </c>
-    </row>
-    <row r="1115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1115" s="1" t="s">
-        <v>3031</v>
-      </c>
-      <c r="B1115" s="1" t="s">
-        <v>3032</v>
-      </c>
-      <c r="C1115" s="1" t="s">
-        <v>3033</v>
-      </c>
-    </row>
-    <row r="1116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1116" s="1" t="s">
-        <v>3034</v>
-      </c>
-      <c r="B1116" s="1" t="s">
-        <v>3035</v>
-      </c>
-      <c r="C1116" s="1" t="s">
-        <v>3036</v>
-      </c>
-    </row>
-    <row r="1117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1117" s="1" t="s">
-        <v>3037</v>
-      </c>
-      <c r="B1117" s="1" t="s">
+      <c r="B1128" s="6" t="s">
+        <v>3337</v>
+      </c>
+      <c r="C1128" s="7" t="s">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1129" s="6" t="s">
+        <v>3339</v>
+      </c>
+      <c r="B1129" s="6" t="s">
+        <v>3340</v>
+      </c>
+      <c r="C1129" s="7" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1130" s="7" t="s">
+        <v>3342</v>
+      </c>
+      <c r="B1130" s="4" t="s">
+        <v>3343</v>
+      </c>
+      <c r="C1130" s="4" t="s">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1131" s="7" t="s">
+        <v>3345</v>
+      </c>
+      <c r="B1131" s="8" t="s">
+        <v>3346</v>
+      </c>
+      <c r="C1131" s="7" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1132" s="3" t="s">
+        <v>3348</v>
+      </c>
+      <c r="B1132" s="3" t="s">
+        <v>3349</v>
+      </c>
+      <c r="C1132" s="3" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1133" s="3" t="s">
+        <v>3351</v>
+      </c>
+      <c r="B1133" s="3" t="s">
+        <v>3352</v>
+      </c>
+      <c r="C1133" s="3" t="s">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1134" s="3" t="s">
+        <v>3354</v>
+      </c>
+      <c r="B1134" s="3" t="s">
+        <v>3355</v>
+      </c>
+      <c r="C1134" s="3" t="s">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1135" s="3" t="s">
+        <v>3357</v>
+      </c>
+      <c r="B1135" s="3" t="s">
+        <v>3358</v>
+      </c>
+      <c r="C1135" s="3" t="s">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1136" s="3" t="s">
+        <v>3360</v>
+      </c>
+      <c r="B1136" s="3" t="s">
+        <v>3361</v>
+      </c>
+      <c r="C1136" s="3" t="s">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1137" s="3" t="s">
+        <v>3363</v>
+      </c>
+      <c r="B1137" s="3" t="s">
+        <v>3364</v>
+      </c>
+      <c r="C1137" s="3" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1138" s="3" t="s">
+        <v>3366</v>
+      </c>
+      <c r="B1138" s="3" t="s">
         <v>998</v>
       </c>
-      <c r="C1117" s="1" t="s">
+      <c r="C1138" s="3" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="1118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1118" s="1" t="s">
-        <v>3038</v>
-      </c>
-      <c r="B1118" s="1" t="s">
-        <v>3039</v>
-      </c>
-      <c r="C1118" s="1" t="s">
-        <v>3040</v>
-      </c>
-    </row>
-    <row r="1119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1119" s="1" t="s">
-        <v>3041</v>
-      </c>
-      <c r="B1119" s="1" t="s">
-        <v>3042</v>
-      </c>
-      <c r="C1119" s="1" t="s">
-        <v>3043</v>
-      </c>
-    </row>
-    <row r="1120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1120" s="1" t="s">
-        <v>3044</v>
-      </c>
-      <c r="B1120" s="1" t="s">
-        <v>3045</v>
-      </c>
-      <c r="C1120" s="1" t="s">
-        <v>3046</v>
-      </c>
-    </row>
-    <row r="1121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1121" s="1" t="s">
-        <v>3047</v>
-      </c>
-      <c r="B1121" s="5" t="s">
-        <v>3048</v>
-      </c>
-      <c r="C1121" s="5" t="s">
-        <v>3049</v>
+    <row r="1139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1139" s="3" t="s">
+        <v>3367</v>
+      </c>
+      <c r="B1139" s="3" t="s">
+        <v>3368</v>
+      </c>
+      <c r="C1139" s="3" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1140" s="3" t="s">
+        <v>3370</v>
+      </c>
+      <c r="B1140" s="3" t="s">
+        <v>3371</v>
+      </c>
+      <c r="C1140" s="3" t="s">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1141" s="3" t="s">
+        <v>3373</v>
+      </c>
+      <c r="B1141" s="3" t="s">
+        <v>3374</v>
+      </c>
+      <c r="C1141" s="3" t="s">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1142" s="3" t="s">
+        <v>3376</v>
+      </c>
+      <c r="B1142" s="7" t="s">
+        <v>3377</v>
+      </c>
+      <c r="C1142" s="7" t="s">
+        <v>3378</v>
       </c>
     </row>
   </sheetData>

--- a/Client/WebClient/lang/fibertest_strings.xlsx
+++ b/Client/WebClient/lang/fibertest_strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VsGitProjects\Fibertest20\Client\WebClient\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516A1E2D-C698-42D1-A766-A9A162346BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EBEF2D-198C-4D1E-AA8C-40C399B82BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10630,7 +10630,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -10649,9 +10649,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10998,15 +10995,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A1156" workbookViewId="0">
+      <selection activeCell="A1167" sqref="A1167:XFD1167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="97" customWidth="1"/>
-    <col min="2" max="2" width="120.28515625" customWidth="1"/>
-    <col min="3" max="3" width="243.140625" customWidth="1"/>
+    <col min="1" max="1" width="67.7109375" customWidth="1"/>
+    <col min="2" max="2" width="77.42578125" customWidth="1"/>
+    <col min="3" max="3" width="93.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -23824,7 +23821,7 @@
         <v>3161</v>
       </c>
     </row>
-    <row r="1166" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1166" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1167" s="2" t="s">
         <v>3162</v>
@@ -23991,117 +23988,117 @@
       </c>
     </row>
     <row r="1182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1182" s="7" t="s">
+      <c r="A1182" s="1" t="s">
         <v>3205</v>
       </c>
-      <c r="B1182" s="7" t="s">
+      <c r="B1182" s="1" t="s">
         <v>3206</v>
       </c>
-      <c r="C1182" s="7" t="s">
+      <c r="C1182" s="1" t="s">
         <v>3207</v>
       </c>
     </row>
     <row r="1183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1183" s="7" t="s">
+      <c r="A1183" s="1" t="s">
         <v>3208</v>
       </c>
-      <c r="B1183" s="7" t="s">
+      <c r="B1183" s="1" t="s">
         <v>3209</v>
       </c>
-      <c r="C1183" s="7" t="s">
+      <c r="C1183" s="1" t="s">
         <v>3210</v>
       </c>
     </row>
     <row r="1184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1184" s="7" t="s">
+      <c r="A1184" s="1" t="s">
         <v>3211</v>
       </c>
-      <c r="B1184" s="7" t="s">
+      <c r="B1184" s="1" t="s">
         <v>3212</v>
       </c>
-      <c r="C1184" s="7" t="s">
+      <c r="C1184" s="1" t="s">
         <v>3213</v>
       </c>
     </row>
     <row r="1185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1185" s="7" t="s">
+      <c r="A1185" s="1" t="s">
         <v>3214</v>
       </c>
-      <c r="B1185" s="7" t="s">
+      <c r="B1185" s="1" t="s">
         <v>3215</v>
       </c>
-      <c r="C1185" s="7" t="s">
+      <c r="C1185" s="1" t="s">
         <v>3216</v>
       </c>
     </row>
     <row r="1186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1186" s="7" t="s">
+      <c r="A1186" s="1" t="s">
         <v>3217</v>
       </c>
-      <c r="B1186" s="7" t="s">
+      <c r="B1186" s="1" t="s">
         <v>3218</v>
       </c>
-      <c r="C1186" s="7" t="s">
+      <c r="C1186" s="1" t="s">
         <v>3219</v>
       </c>
     </row>
     <row r="1187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1187" s="7" t="s">
+      <c r="A1187" s="1" t="s">
         <v>3220</v>
       </c>
-      <c r="B1187" s="7" t="s">
+      <c r="B1187" s="1" t="s">
         <v>3221</v>
       </c>
-      <c r="C1187" s="7" t="s">
+      <c r="C1187" s="1" t="s">
         <v>3222</v>
       </c>
     </row>
     <row r="1188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1188" s="7" t="s">
+      <c r="A1188" s="1" t="s">
         <v>3223</v>
       </c>
-      <c r="B1188" s="7" t="s">
+      <c r="B1188" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="C1188" s="7" t="s">
+      <c r="C1188" s="1" t="s">
         <v>1131</v>
       </c>
     </row>
     <row r="1189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1189" s="7" t="s">
+      <c r="A1189" s="1" t="s">
         <v>3224</v>
       </c>
-      <c r="B1189" s="7" t="s">
+      <c r="B1189" s="1" t="s">
         <v>3225</v>
       </c>
-      <c r="C1189" s="7" t="s">
+      <c r="C1189" s="1" t="s">
         <v>3226</v>
       </c>
     </row>
     <row r="1190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1190" s="7" t="s">
+      <c r="A1190" s="1" t="s">
         <v>3227</v>
       </c>
-      <c r="B1190" s="7" t="s">
+      <c r="B1190" s="1" t="s">
         <v>3228</v>
       </c>
-      <c r="C1190" s="7" t="s">
+      <c r="C1190" s="1" t="s">
         <v>3229</v>
       </c>
     </row>
     <row r="1191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1191" s="7" t="s">
+      <c r="A1191" s="1" t="s">
         <v>3230</v>
       </c>
-      <c r="B1191" s="7" t="s">
+      <c r="B1191" s="1" t="s">
         <v>3231</v>
       </c>
-      <c r="C1191" s="7" t="s">
+      <c r="C1191" s="1" t="s">
         <v>3232</v>
       </c>
     </row>
     <row r="1192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1192" s="7" t="s">
+      <c r="A1192" s="1" t="s">
         <v>3233</v>
       </c>
       <c r="B1192" s="5" t="s">

--- a/Client/WebClient/lang/fibertest_strings.xlsx
+++ b/Client/WebClient/lang/fibertest_strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VsGitProjects\Fibertest20\Client\WebClient\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EBEF2D-198C-4D1E-AA8C-40C399B82BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4707DF70-39DB-4561-8F43-DF6020A6A15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8690,12 +8690,6 @@
     <t>SID_Measurement_completed_successfully</t>
   </si>
   <si>
-    <t>Measurement completed successfully</t>
-  </si>
-  <si>
-    <t>Измерение завершено успешно</t>
-  </si>
-  <si>
     <t>SID_Base_refs_assigned_successfully</t>
   </si>
   <si>
@@ -10571,6 +10565,12 @@
   </si>
   <si>
     <t>ru-RU</t>
+  </si>
+  <si>
+    <t>Measurement and analysis completed successfully</t>
+  </si>
+  <si>
+    <t>Измерение и анализ завершены успешно</t>
   </si>
 </sst>
 </file>
@@ -10630,7 +10630,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -10650,6 +10650,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10995,8 +10996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1156" workbookViewId="0">
-      <selection activeCell="A1167" sqref="A1167:XFD1167"/>
+    <sheetView tabSelected="1" topLeftCell="A1048" workbookViewId="0">
+      <selection activeCell="C1068" sqref="C1068"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11011,10 +11012,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3511</v>
+        <v>3509</v>
       </c>
       <c r="C1" t="s">
-        <v>3512</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -11451,10 +11452,10 @@
         <v>118</v>
       </c>
       <c r="B41" t="s">
-        <v>3236</v>
+        <v>3234</v>
       </c>
       <c r="C41" t="s">
-        <v>3237</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -11484,10 +11485,10 @@
         <v>125</v>
       </c>
       <c r="B44" t="s">
-        <v>3238</v>
+        <v>3236</v>
       </c>
       <c r="C44" t="s">
-        <v>3238</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -11495,10 +11496,10 @@
         <v>126</v>
       </c>
       <c r="B45" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
       <c r="C45" t="s">
-        <v>3240</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -11737,10 +11738,10 @@
         <v>190</v>
       </c>
       <c r="B67" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
       <c r="C67" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -12342,10 +12343,10 @@
         <v>353</v>
       </c>
       <c r="B122" t="s">
-        <v>3242</v>
+        <v>3240</v>
       </c>
       <c r="C122" t="s">
-        <v>3243</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -12353,10 +12354,10 @@
         <v>354</v>
       </c>
       <c r="B123" t="s">
-        <v>3244</v>
+        <v>3242</v>
       </c>
       <c r="C123" t="s">
-        <v>3245</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -12727,10 +12728,10 @@
         <v>449</v>
       </c>
       <c r="B157" t="s">
-        <v>3246</v>
+        <v>3244</v>
       </c>
       <c r="C157" t="s">
-        <v>3246</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -12969,10 +12970,10 @@
         <v>511</v>
       </c>
       <c r="B179" t="s">
-        <v>3247</v>
+        <v>3245</v>
       </c>
       <c r="C179" t="s">
-        <v>3248</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -13420,10 +13421,10 @@
         <v>630</v>
       </c>
       <c r="B220" t="s">
-        <v>3249</v>
+        <v>3247</v>
       </c>
       <c r="C220" t="s">
-        <v>3250</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -13464,10 +13465,10 @@
         <v>640</v>
       </c>
       <c r="B224" t="s">
-        <v>3251</v>
+        <v>3249</v>
       </c>
       <c r="C224" t="s">
-        <v>3252</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -13475,10 +13476,10 @@
         <v>641</v>
       </c>
       <c r="B225" t="s">
-        <v>3253</v>
+        <v>3251</v>
       </c>
       <c r="C225" t="s">
-        <v>3254</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -13519,10 +13520,10 @@
         <v>651</v>
       </c>
       <c r="B229" t="s">
-        <v>3255</v>
+        <v>3253</v>
       </c>
       <c r="C229" t="s">
-        <v>3256</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -13530,10 +13531,10 @@
         <v>652</v>
       </c>
       <c r="B230" t="s">
-        <v>3257</v>
+        <v>3255</v>
       </c>
       <c r="C230" t="s">
-        <v>3258</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -13563,10 +13564,10 @@
         <v>658</v>
       </c>
       <c r="B233" t="s">
-        <v>3259</v>
+        <v>3257</v>
       </c>
       <c r="C233" t="s">
-        <v>3259</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -13607,10 +13608,10 @@
         <v>665</v>
       </c>
       <c r="B237" t="s">
-        <v>3260</v>
+        <v>3258</v>
       </c>
       <c r="C237" t="s">
-        <v>3260</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -13618,10 +13619,10 @@
         <v>666</v>
       </c>
       <c r="B238" t="s">
-        <v>3261</v>
+        <v>3259</v>
       </c>
       <c r="C238" t="s">
-        <v>3261</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -13629,10 +13630,10 @@
         <v>667</v>
       </c>
       <c r="B239" t="s">
-        <v>3262</v>
+        <v>3260</v>
       </c>
       <c r="C239" t="s">
-        <v>3262</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -13673,10 +13674,10 @@
         <v>675</v>
       </c>
       <c r="B243" t="s">
-        <v>3263</v>
+        <v>3261</v>
       </c>
       <c r="C243" t="s">
-        <v>3263</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -13882,10 +13883,10 @@
         <v>730</v>
       </c>
       <c r="B262" t="s">
-        <v>3264</v>
+        <v>3262</v>
       </c>
       <c r="C262" t="s">
-        <v>3265</v>
+        <v>3263</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -13893,10 +13894,10 @@
         <v>731</v>
       </c>
       <c r="B263" t="s">
-        <v>3266</v>
+        <v>3264</v>
       </c>
       <c r="C263" t="s">
-        <v>3267</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -13904,10 +13905,10 @@
         <v>732</v>
       </c>
       <c r="B264" t="s">
-        <v>3268</v>
+        <v>3266</v>
       </c>
       <c r="C264" t="s">
-        <v>3269</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -13915,10 +13916,10 @@
         <v>733</v>
       </c>
       <c r="B265" t="s">
-        <v>3270</v>
+        <v>3268</v>
       </c>
       <c r="C265" t="s">
-        <v>3271</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -14003,10 +14004,10 @@
         <v>755</v>
       </c>
       <c r="B273" t="s">
-        <v>3272</v>
+        <v>3270</v>
       </c>
       <c r="C273" t="s">
-        <v>3273</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -14014,10 +14015,10 @@
         <v>756</v>
       </c>
       <c r="B274" t="s">
-        <v>3274</v>
+        <v>3272</v>
       </c>
       <c r="C274" t="s">
-        <v>3275</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -14025,10 +14026,10 @@
         <v>757</v>
       </c>
       <c r="B275" t="s">
-        <v>3276</v>
+        <v>3274</v>
       </c>
       <c r="C275" t="s">
-        <v>3277</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -14322,10 +14323,10 @@
         <v>836</v>
       </c>
       <c r="B302" t="s">
-        <v>3278</v>
+        <v>3276</v>
       </c>
       <c r="C302" t="s">
-        <v>3279</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -14333,10 +14334,10 @@
         <v>837</v>
       </c>
       <c r="B303" t="s">
-        <v>3280</v>
+        <v>3278</v>
       </c>
       <c r="C303" t="s">
-        <v>3281</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -14421,10 +14422,10 @@
         <v>859</v>
       </c>
       <c r="B311" t="s">
-        <v>3282</v>
+        <v>3280</v>
       </c>
       <c r="C311" t="s">
-        <v>3283</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -14432,10 +14433,10 @@
         <v>860</v>
       </c>
       <c r="B312" t="s">
-        <v>3284</v>
+        <v>3282</v>
       </c>
       <c r="C312" t="s">
-        <v>3285</v>
+        <v>3283</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -14443,10 +14444,10 @@
         <v>861</v>
       </c>
       <c r="B313" t="s">
-        <v>3286</v>
+        <v>3284</v>
       </c>
       <c r="C313" t="s">
-        <v>3287</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -14454,10 +14455,10 @@
         <v>862</v>
       </c>
       <c r="B314" t="s">
-        <v>3288</v>
+        <v>3286</v>
       </c>
       <c r="C314" t="s">
-        <v>3289</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -14575,10 +14576,10 @@
         <v>893</v>
       </c>
       <c r="B325" t="s">
-        <v>3290</v>
+        <v>3288</v>
       </c>
       <c r="C325" t="s">
-        <v>3291</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -14619,10 +14620,10 @@
         <v>903</v>
       </c>
       <c r="B329" t="s">
-        <v>3292</v>
+        <v>3290</v>
       </c>
       <c r="C329" t="s">
-        <v>3293</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -14641,10 +14642,10 @@
         <v>907</v>
       </c>
       <c r="B331" t="s">
-        <v>3294</v>
+        <v>3292</v>
       </c>
       <c r="C331" t="s">
-        <v>3295</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -15180,10 +15181,10 @@
         <v>1050</v>
       </c>
       <c r="B380" t="s">
-        <v>3296</v>
+        <v>3294</v>
       </c>
       <c r="C380" t="s">
-        <v>3297</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -15543,10 +15544,10 @@
         <v>1146</v>
       </c>
       <c r="B413" t="s">
-        <v>3298</v>
+        <v>3296</v>
       </c>
       <c r="C413" t="s">
-        <v>3299</v>
+        <v>3297</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -15554,10 +15555,10 @@
         <v>1147</v>
       </c>
       <c r="B414" t="s">
-        <v>3300</v>
+        <v>3298</v>
       </c>
       <c r="C414" t="s">
-        <v>3301</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -15565,10 +15566,10 @@
         <v>1148</v>
       </c>
       <c r="B415" t="s">
-        <v>3302</v>
+        <v>3300</v>
       </c>
       <c r="C415" t="s">
-        <v>3303</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -15587,10 +15588,10 @@
         <v>1152</v>
       </c>
       <c r="B417" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="C417" t="s">
-        <v>3305</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -15620,10 +15621,10 @@
         <v>1159</v>
       </c>
       <c r="B420" t="s">
-        <v>3306</v>
+        <v>3304</v>
       </c>
       <c r="C420" t="s">
-        <v>3307</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -15730,10 +15731,10 @@
         <v>1187</v>
       </c>
       <c r="B430" t="s">
-        <v>3308</v>
+        <v>3306</v>
       </c>
       <c r="C430" t="s">
-        <v>3309</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -15741,10 +15742,10 @@
         <v>1188</v>
       </c>
       <c r="B431" t="s">
-        <v>3310</v>
+        <v>3308</v>
       </c>
       <c r="C431" t="s">
-        <v>3311</v>
+        <v>3309</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -15796,10 +15797,10 @@
         <v>1198</v>
       </c>
       <c r="B436" t="s">
-        <v>3312</v>
+        <v>3310</v>
       </c>
       <c r="C436" t="s">
-        <v>3313</v>
+        <v>3311</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -15807,10 +15808,10 @@
         <v>1199</v>
       </c>
       <c r="B437" t="s">
-        <v>3314</v>
+        <v>3312</v>
       </c>
       <c r="C437" t="s">
-        <v>3315</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -15928,10 +15929,10 @@
         <v>1230</v>
       </c>
       <c r="B448" t="s">
-        <v>3316</v>
+        <v>3314</v>
       </c>
       <c r="C448" t="s">
-        <v>3317</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -15939,10 +15940,10 @@
         <v>1231</v>
       </c>
       <c r="B449" t="s">
-        <v>3318</v>
+        <v>3316</v>
       </c>
       <c r="C449" t="s">
-        <v>3319</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -15961,10 +15962,10 @@
         <v>1235</v>
       </c>
       <c r="B451" t="s">
-        <v>3320</v>
+        <v>3318</v>
       </c>
       <c r="C451" t="s">
-        <v>3321</v>
+        <v>3319</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -15972,10 +15973,10 @@
         <v>1236</v>
       </c>
       <c r="B452" t="s">
-        <v>3322</v>
+        <v>3320</v>
       </c>
       <c r="C452" t="s">
-        <v>3323</v>
+        <v>3321</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -16082,10 +16083,10 @@
         <v>1264</v>
       </c>
       <c r="B462" t="s">
-        <v>3324</v>
+        <v>3322</v>
       </c>
       <c r="C462" t="s">
-        <v>3325</v>
+        <v>3323</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -16093,10 +16094,10 @@
         <v>1265</v>
       </c>
       <c r="B463" t="s">
-        <v>3326</v>
+        <v>3324</v>
       </c>
       <c r="C463" t="s">
-        <v>3327</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
@@ -16225,10 +16226,10 @@
         <v>1299</v>
       </c>
       <c r="B475" t="s">
-        <v>3328</v>
+        <v>3326</v>
       </c>
       <c r="C475" t="s">
-        <v>3329</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
@@ -16555,10 +16556,10 @@
         <v>1386</v>
       </c>
       <c r="B505" t="s">
-        <v>3330</v>
+        <v>3328</v>
       </c>
       <c r="C505" t="s">
-        <v>3331</v>
+        <v>3329</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
@@ -16566,10 +16567,10 @@
         <v>1387</v>
       </c>
       <c r="B506" t="s">
-        <v>3332</v>
+        <v>3330</v>
       </c>
       <c r="C506" t="s">
-        <v>3333</v>
+        <v>3331</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
@@ -16643,10 +16644,10 @@
         <v>1406</v>
       </c>
       <c r="B513" t="s">
-        <v>3334</v>
+        <v>3332</v>
       </c>
       <c r="C513" t="s">
-        <v>3335</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
@@ -17017,10 +17018,10 @@
         <v>1504</v>
       </c>
       <c r="B547" t="s">
-        <v>3336</v>
+        <v>3334</v>
       </c>
       <c r="C547" t="s">
-        <v>3337</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
@@ -17061,10 +17062,10 @@
         <v>1514</v>
       </c>
       <c r="B551" t="s">
-        <v>3338</v>
+        <v>3336</v>
       </c>
       <c r="C551" t="s">
-        <v>3339</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
@@ -17446,10 +17447,10 @@
         <v>1617</v>
       </c>
       <c r="B586" t="s">
-        <v>3340</v>
+        <v>3338</v>
       </c>
       <c r="C586" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
@@ -17545,10 +17546,10 @@
         <v>1640</v>
       </c>
       <c r="B595" t="s">
-        <v>3342</v>
+        <v>3340</v>
       </c>
       <c r="C595" t="s">
-        <v>3343</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
@@ -17567,10 +17568,10 @@
         <v>1644</v>
       </c>
       <c r="B597" t="s">
-        <v>3344</v>
+        <v>3342</v>
       </c>
       <c r="C597" t="s">
-        <v>3345</v>
+        <v>3343</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
@@ -17622,10 +17623,10 @@
         <v>1657</v>
       </c>
       <c r="B602" t="s">
-        <v>3346</v>
+        <v>3344</v>
       </c>
       <c r="C602" t="s">
-        <v>3347</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
@@ -17633,10 +17634,10 @@
         <v>1658</v>
       </c>
       <c r="B603" t="s">
-        <v>3348</v>
+        <v>3346</v>
       </c>
       <c r="C603" t="s">
-        <v>3349</v>
+        <v>3347</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
@@ -17655,10 +17656,10 @@
         <v>1662</v>
       </c>
       <c r="B605" t="s">
-        <v>3350</v>
+        <v>3348</v>
       </c>
       <c r="C605" t="s">
-        <v>3351</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
@@ -17666,10 +17667,10 @@
         <v>1663</v>
       </c>
       <c r="B606" t="s">
-        <v>3352</v>
+        <v>3350</v>
       </c>
       <c r="C606" t="s">
-        <v>3353</v>
+        <v>3351</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
@@ -17677,10 +17678,10 @@
         <v>1664</v>
       </c>
       <c r="B607" t="s">
-        <v>3354</v>
+        <v>3352</v>
       </c>
       <c r="C607" t="s">
-        <v>3355</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
@@ -17688,10 +17689,10 @@
         <v>1665</v>
       </c>
       <c r="B608" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="C608" t="s">
-        <v>3357</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
@@ -17754,10 +17755,10 @@
         <v>1681</v>
       </c>
       <c r="B614" t="s">
-        <v>3358</v>
+        <v>3356</v>
       </c>
       <c r="C614" t="s">
-        <v>3359</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
@@ -17776,10 +17777,10 @@
         <v>1685</v>
       </c>
       <c r="B616" t="s">
-        <v>3360</v>
+        <v>3358</v>
       </c>
       <c r="C616" t="s">
-        <v>3361</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
@@ -17820,10 +17821,10 @@
         <v>1695</v>
       </c>
       <c r="B620" t="s">
-        <v>3362</v>
+        <v>3360</v>
       </c>
       <c r="C620" t="s">
-        <v>3363</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
@@ -17842,10 +17843,10 @@
         <v>1699</v>
       </c>
       <c r="B622" t="s">
-        <v>3364</v>
+        <v>3362</v>
       </c>
       <c r="C622" t="s">
-        <v>3365</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
@@ -17853,10 +17854,10 @@
         <v>1700</v>
       </c>
       <c r="B623" t="s">
-        <v>3366</v>
+        <v>3364</v>
       </c>
       <c r="C623" t="s">
-        <v>3367</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
@@ -17875,10 +17876,10 @@
         <v>1704</v>
       </c>
       <c r="B625" t="s">
-        <v>3368</v>
+        <v>3366</v>
       </c>
       <c r="C625" t="s">
-        <v>3369</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
@@ -17886,10 +17887,10 @@
         <v>1705</v>
       </c>
       <c r="B626" t="s">
-        <v>3370</v>
+        <v>3368</v>
       </c>
       <c r="C626" t="s">
-        <v>3371</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
@@ -17996,10 +17997,10 @@
         <v>1732</v>
       </c>
       <c r="B636" t="s">
-        <v>3372</v>
+        <v>3370</v>
       </c>
       <c r="C636" t="s">
-        <v>3373</v>
+        <v>3371</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
@@ -18007,10 +18008,10 @@
         <v>1733</v>
       </c>
       <c r="B637" t="s">
-        <v>3374</v>
+        <v>3372</v>
       </c>
       <c r="C637" t="s">
-        <v>3375</v>
+        <v>3373</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
@@ -18029,10 +18030,10 @@
         <v>1737</v>
       </c>
       <c r="B639" t="s">
-        <v>3376</v>
+        <v>3374</v>
       </c>
       <c r="C639" t="s">
-        <v>3377</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
@@ -18040,10 +18041,10 @@
         <v>1738</v>
       </c>
       <c r="B640" t="s">
-        <v>3378</v>
+        <v>3376</v>
       </c>
       <c r="C640" t="s">
-        <v>3379</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
@@ -18051,10 +18052,10 @@
         <v>1739</v>
       </c>
       <c r="B641" t="s">
-        <v>3380</v>
+        <v>3378</v>
       </c>
       <c r="C641" t="s">
-        <v>3381</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
@@ -18062,10 +18063,10 @@
         <v>1740</v>
       </c>
       <c r="B642" t="s">
-        <v>3382</v>
+        <v>3380</v>
       </c>
       <c r="C642" t="s">
-        <v>3383</v>
+        <v>3381</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.25">
@@ -18073,10 +18074,10 @@
         <v>1741</v>
       </c>
       <c r="B643" t="s">
-        <v>3384</v>
+        <v>3382</v>
       </c>
       <c r="C643" t="s">
-        <v>3385</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
@@ -18084,10 +18085,10 @@
         <v>1742</v>
       </c>
       <c r="B644" t="s">
-        <v>3386</v>
+        <v>3384</v>
       </c>
       <c r="C644" t="s">
-        <v>3387</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
@@ -18095,10 +18096,10 @@
         <v>1743</v>
       </c>
       <c r="B645" t="s">
-        <v>3388</v>
+        <v>3386</v>
       </c>
       <c r="C645" t="s">
-        <v>3389</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.25">
@@ -18106,10 +18107,10 @@
         <v>1744</v>
       </c>
       <c r="B646" t="s">
-        <v>3390</v>
+        <v>3388</v>
       </c>
       <c r="C646" t="s">
-        <v>3391</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
@@ -18117,10 +18118,10 @@
         <v>1745</v>
       </c>
       <c r="B647" t="s">
-        <v>3392</v>
+        <v>3390</v>
       </c>
       <c r="C647" t="s">
-        <v>3393</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
@@ -18469,10 +18470,10 @@
         <v>1839</v>
       </c>
       <c r="B679" t="s">
-        <v>3394</v>
+        <v>3392</v>
       </c>
       <c r="C679" t="s">
-        <v>3395</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.25">
@@ -18502,10 +18503,10 @@
         <v>1846</v>
       </c>
       <c r="B682" t="s">
-        <v>3396</v>
+        <v>3394</v>
       </c>
       <c r="C682" t="s">
-        <v>3397</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.25">
@@ -18513,10 +18514,10 @@
         <v>1847</v>
       </c>
       <c r="B683" t="s">
-        <v>3398</v>
+        <v>3396</v>
       </c>
       <c r="C683" t="s">
-        <v>3399</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.25">
@@ -18524,10 +18525,10 @@
         <v>1848</v>
       </c>
       <c r="B684" t="s">
-        <v>3400</v>
+        <v>3398</v>
       </c>
       <c r="C684" t="s">
-        <v>3401</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.25">
@@ -18535,10 +18536,10 @@
         <v>1849</v>
       </c>
       <c r="B685" t="s">
-        <v>3402</v>
+        <v>3400</v>
       </c>
       <c r="C685" t="s">
-        <v>3403</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.25">
@@ -18546,10 +18547,10 @@
         <v>1850</v>
       </c>
       <c r="B686" t="s">
-        <v>3404</v>
+        <v>3402</v>
       </c>
       <c r="C686" t="s">
-        <v>3405</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.25">
@@ -18557,10 +18558,10 @@
         <v>1851</v>
       </c>
       <c r="B687" t="s">
-        <v>3406</v>
+        <v>3404</v>
       </c>
       <c r="C687" t="s">
-        <v>3407</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.25">
@@ -19030,10 +19031,10 @@
         <v>1977</v>
       </c>
       <c r="B730" t="s">
-        <v>3408</v>
+        <v>3406</v>
       </c>
       <c r="C730" t="s">
-        <v>3409</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.25">
@@ -19140,10 +19141,10 @@
         <v>2004</v>
       </c>
       <c r="B740" t="s">
-        <v>3410</v>
+        <v>3408</v>
       </c>
       <c r="C740" t="s">
-        <v>3411</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.25">
@@ -19151,10 +19152,10 @@
         <v>2005</v>
       </c>
       <c r="B741" t="s">
-        <v>3412</v>
+        <v>3410</v>
       </c>
       <c r="C741" t="s">
-        <v>3413</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.25">
@@ -19162,10 +19163,10 @@
         <v>2006</v>
       </c>
       <c r="B742" t="s">
-        <v>3414</v>
+        <v>3412</v>
       </c>
       <c r="C742" t="s">
-        <v>3415</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.25">
@@ -19173,10 +19174,10 @@
         <v>2007</v>
       </c>
       <c r="B743" t="s">
-        <v>3416</v>
+        <v>3414</v>
       </c>
       <c r="C743" t="s">
-        <v>3417</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.25">
@@ -19591,10 +19592,10 @@
         <v>2113</v>
       </c>
       <c r="B781" t="s">
-        <v>3418</v>
+        <v>3416</v>
       </c>
       <c r="C781" t="s">
-        <v>3419</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.25">
@@ -19602,10 +19603,10 @@
         <v>2114</v>
       </c>
       <c r="B782" t="s">
-        <v>3420</v>
+        <v>3418</v>
       </c>
       <c r="C782" t="s">
-        <v>3421</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.25">
@@ -19613,10 +19614,10 @@
         <v>2115</v>
       </c>
       <c r="B783" t="s">
-        <v>3422</v>
+        <v>3420</v>
       </c>
       <c r="C783" t="s">
-        <v>3423</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.25">
@@ -19624,10 +19625,10 @@
         <v>2116</v>
       </c>
       <c r="B784" t="s">
-        <v>3424</v>
+        <v>3422</v>
       </c>
       <c r="C784" t="s">
-        <v>3425</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.25">
@@ -19635,10 +19636,10 @@
         <v>2117</v>
       </c>
       <c r="B785" t="s">
-        <v>3426</v>
+        <v>3424</v>
       </c>
       <c r="C785" t="s">
-        <v>3427</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.25">
@@ -19668,10 +19669,10 @@
         <v>2124</v>
       </c>
       <c r="B788" t="s">
-        <v>3428</v>
+        <v>3426</v>
       </c>
       <c r="C788" t="s">
-        <v>3429</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.25">
@@ -19679,10 +19680,10 @@
         <v>2125</v>
       </c>
       <c r="B789" t="s">
-        <v>3430</v>
+        <v>3428</v>
       </c>
       <c r="C789" t="s">
-        <v>3431</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.25">
@@ -19811,10 +19812,10 @@
         <v>2159</v>
       </c>
       <c r="B801" t="s">
-        <v>3432</v>
+        <v>3430</v>
       </c>
       <c r="C801" t="s">
-        <v>3433</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.25">
@@ -19833,10 +19834,10 @@
         <v>2163</v>
       </c>
       <c r="B803" t="s">
-        <v>3434</v>
+        <v>3432</v>
       </c>
       <c r="C803" t="s">
-        <v>3435</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.25">
@@ -19888,10 +19889,10 @@
         <v>2176</v>
       </c>
       <c r="B808" t="s">
-        <v>3436</v>
+        <v>3434</v>
       </c>
       <c r="C808" t="s">
-        <v>3436</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.25">
@@ -19899,10 +19900,10 @@
         <v>2177</v>
       </c>
       <c r="B809" t="s">
-        <v>3437</v>
+        <v>3435</v>
       </c>
       <c r="C809" t="s">
-        <v>3438</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.25">
@@ -19921,10 +19922,10 @@
         <v>2180</v>
       </c>
       <c r="B811" t="s">
-        <v>3439</v>
+        <v>3437</v>
       </c>
       <c r="C811" t="s">
-        <v>3440</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.25">
@@ -20251,10 +20252,10 @@
         <v>2266</v>
       </c>
       <c r="B841" t="s">
-        <v>3441</v>
+        <v>3439</v>
       </c>
       <c r="C841" t="s">
-        <v>3442</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.25">
@@ -20284,10 +20285,10 @@
         <v>2273</v>
       </c>
       <c r="B844" t="s">
-        <v>3443</v>
+        <v>3441</v>
       </c>
       <c r="C844" t="s">
-        <v>3444</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.25">
@@ -20295,10 +20296,10 @@
         <v>2274</v>
       </c>
       <c r="B845" t="s">
-        <v>3445</v>
+        <v>3443</v>
       </c>
       <c r="C845" t="s">
-        <v>3446</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.25">
@@ -20306,10 +20307,10 @@
         <v>2275</v>
       </c>
       <c r="B846" t="s">
-        <v>3447</v>
+        <v>3445</v>
       </c>
       <c r="C846" t="s">
-        <v>3448</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.25">
@@ -20339,10 +20340,10 @@
         <v>2282</v>
       </c>
       <c r="B849" t="s">
-        <v>3449</v>
+        <v>3447</v>
       </c>
       <c r="C849" t="s">
-        <v>3450</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.25">
@@ -20537,10 +20538,10 @@
         <v>2333</v>
       </c>
       <c r="B867" t="s">
-        <v>3451</v>
+        <v>3449</v>
       </c>
       <c r="C867" t="s">
-        <v>3452</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.25">
@@ -20570,10 +20571,10 @@
         <v>2340</v>
       </c>
       <c r="B870" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
       <c r="C870" t="s">
-        <v>3454</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="871" spans="1:3" x14ac:dyDescent="0.25">
@@ -20581,10 +20582,10 @@
         <v>2341</v>
       </c>
       <c r="B871" t="s">
-        <v>3455</v>
+        <v>3453</v>
       </c>
       <c r="C871" t="s">
-        <v>3456</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.25">
@@ -20592,10 +20593,10 @@
         <v>2342</v>
       </c>
       <c r="B872" t="s">
-        <v>3457</v>
+        <v>3455</v>
       </c>
       <c r="C872" t="s">
-        <v>3458</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.25">
@@ -20603,10 +20604,10 @@
         <v>2343</v>
       </c>
       <c r="B873" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="C873" t="s">
-        <v>3460</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.25">
@@ -20614,10 +20615,10 @@
         <v>2344</v>
       </c>
       <c r="B874" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
       <c r="C874" t="s">
-        <v>3462</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="875" spans="1:3" x14ac:dyDescent="0.25">
@@ -20801,10 +20802,10 @@
         <v>2393</v>
       </c>
       <c r="B891" t="s">
-        <v>3463</v>
+        <v>3461</v>
       </c>
       <c r="C891" t="s">
-        <v>3464</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="892" spans="1:3" x14ac:dyDescent="0.25">
@@ -20845,10 +20846,10 @@
         <v>2403</v>
       </c>
       <c r="B895" t="s">
-        <v>3465</v>
+        <v>3463</v>
       </c>
       <c r="C895" t="s">
-        <v>3466</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="896" spans="1:3" x14ac:dyDescent="0.25">
@@ -20878,10 +20879,10 @@
         <v>2410</v>
       </c>
       <c r="B898" t="s">
-        <v>3467</v>
+        <v>3465</v>
       </c>
       <c r="C898" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="899" spans="1:3" x14ac:dyDescent="0.25">
@@ -20933,10 +20934,10 @@
         <v>2423</v>
       </c>
       <c r="B903" s="1" t="s">
-        <v>3469</v>
+        <v>3467</v>
       </c>
       <c r="C903" s="1" t="s">
-        <v>3470</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="904" spans="1:3" x14ac:dyDescent="0.25">
@@ -21252,10 +21253,10 @@
         <v>2508</v>
       </c>
       <c r="B932" t="s">
-        <v>3471</v>
+        <v>3469</v>
       </c>
       <c r="C932" t="s">
-        <v>3472</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="933" spans="1:3" x14ac:dyDescent="0.25">
@@ -21549,10 +21550,10 @@
         <v>2586</v>
       </c>
       <c r="B959" t="s">
-        <v>3473</v>
+        <v>3471</v>
       </c>
       <c r="C959" t="s">
-        <v>3474</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="960" spans="1:3" x14ac:dyDescent="0.25">
@@ -21637,10 +21638,10 @@
         <v>2608</v>
       </c>
       <c r="B967" t="s">
-        <v>3475</v>
+        <v>3473</v>
       </c>
       <c r="C967" t="s">
-        <v>3476</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="968" spans="1:3" x14ac:dyDescent="0.25">
@@ -21703,10 +21704,10 @@
         <v>2624</v>
       </c>
       <c r="B973" t="s">
-        <v>3477</v>
+        <v>3475</v>
       </c>
       <c r="C973" t="s">
-        <v>3478</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="974" spans="1:3" x14ac:dyDescent="0.25">
@@ -21714,10 +21715,10 @@
         <v>2625</v>
       </c>
       <c r="B974" t="s">
-        <v>3479</v>
+        <v>3477</v>
       </c>
       <c r="C974" t="s">
-        <v>3480</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="975" spans="1:3" x14ac:dyDescent="0.25">
@@ -21824,10 +21825,10 @@
         <v>2653</v>
       </c>
       <c r="B984" t="s">
-        <v>3481</v>
+        <v>3479</v>
       </c>
       <c r="C984" t="s">
-        <v>3482</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="985" spans="1:3" x14ac:dyDescent="0.25">
@@ -21835,10 +21836,10 @@
         <v>2654</v>
       </c>
       <c r="B985" t="s">
-        <v>3483</v>
+        <v>3481</v>
       </c>
       <c r="C985" t="s">
-        <v>3484</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="986" spans="1:3" x14ac:dyDescent="0.25">
@@ -21890,10 +21891,10 @@
         <v>2667</v>
       </c>
       <c r="B990" t="s">
-        <v>3485</v>
+        <v>3483</v>
       </c>
       <c r="C990" t="s">
-        <v>3486</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="991" spans="1:3" x14ac:dyDescent="0.25">
@@ -21934,10 +21935,10 @@
         <v>2676</v>
       </c>
       <c r="B994" t="s">
-        <v>3487</v>
+        <v>3485</v>
       </c>
       <c r="C994" t="s">
-        <v>3488</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="995" spans="1:3" x14ac:dyDescent="0.25">
@@ -22033,10 +22034,10 @@
         <v>2701</v>
       </c>
       <c r="B1003" t="s">
-        <v>3489</v>
+        <v>3487</v>
       </c>
       <c r="C1003" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="1004" spans="1:3" x14ac:dyDescent="0.25">
@@ -22506,10 +22507,10 @@
         <v>2824</v>
       </c>
       <c r="B1046" t="s">
-        <v>3491</v>
+        <v>3489</v>
       </c>
       <c r="C1046" t="s">
-        <v>3492</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="1047" spans="1:3" x14ac:dyDescent="0.25">
@@ -22736,1211 +22737,1211 @@
       <c r="A1067" t="s">
         <v>2885</v>
       </c>
-      <c r="B1067" t="s">
-        <v>2886</v>
-      </c>
-      <c r="C1067" t="s">
-        <v>2887</v>
+      <c r="B1067" s="7" t="s">
+        <v>3511</v>
+      </c>
+      <c r="C1067" s="7" t="s">
+        <v>3512</v>
       </c>
     </row>
     <row r="1068" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1068" t="s">
+        <v>2886</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>2887</v>
+      </c>
+      <c r="C1068" t="s">
         <v>2888</v>
-      </c>
-      <c r="B1068" t="s">
-        <v>2889</v>
-      </c>
-      <c r="C1068" t="s">
-        <v>2890</v>
       </c>
     </row>
     <row r="1069" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1069" t="s">
+        <v>2889</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>2890</v>
+      </c>
+      <c r="C1069" t="s">
         <v>2891</v>
-      </c>
-      <c r="B1069" t="s">
-        <v>2892</v>
-      </c>
-      <c r="C1069" t="s">
-        <v>2893</v>
       </c>
     </row>
     <row r="1070" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1070" t="s">
+        <v>2892</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>2893</v>
+      </c>
+      <c r="C1070" t="s">
         <v>2894</v>
-      </c>
-      <c r="B1070" t="s">
-        <v>2895</v>
-      </c>
-      <c r="C1070" t="s">
-        <v>2896</v>
       </c>
     </row>
     <row r="1071" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1071" t="s">
+        <v>2895</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>2896</v>
+      </c>
+      <c r="C1071" t="s">
         <v>2897</v>
-      </c>
-      <c r="B1071" t="s">
-        <v>2898</v>
-      </c>
-      <c r="C1071" t="s">
-        <v>2899</v>
       </c>
     </row>
     <row r="1072" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1072" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
       <c r="B1072" t="s">
-        <v>3493</v>
+        <v>3491</v>
       </c>
       <c r="C1072" t="s">
-        <v>3494</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="1073" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1073" t="s">
+        <v>2899</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>2900</v>
+      </c>
+      <c r="C1073" t="s">
         <v>2901</v>
-      </c>
-      <c r="B1073" t="s">
-        <v>2902</v>
-      </c>
-      <c r="C1073" t="s">
-        <v>2903</v>
       </c>
     </row>
     <row r="1074" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1074" t="s">
+        <v>2902</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>2903</v>
+      </c>
+      <c r="C1074" t="s">
         <v>2904</v>
-      </c>
-      <c r="B1074" t="s">
-        <v>2905</v>
-      </c>
-      <c r="C1074" t="s">
-        <v>2906</v>
       </c>
     </row>
     <row r="1075" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1075" t="s">
-        <v>2907</v>
+        <v>2905</v>
       </c>
       <c r="B1075" t="s">
-        <v>3495</v>
+        <v>3493</v>
       </c>
       <c r="C1075" t="s">
-        <v>3496</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="1076" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1076" t="s">
+        <v>2906</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>2907</v>
+      </c>
+      <c r="C1076" t="s">
         <v>2908</v>
-      </c>
-      <c r="B1076" t="s">
-        <v>2909</v>
-      </c>
-      <c r="C1076" t="s">
-        <v>2910</v>
       </c>
     </row>
     <row r="1077" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1077" t="s">
+        <v>2909</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>2910</v>
+      </c>
+      <c r="C1077" t="s">
         <v>2911</v>
-      </c>
-      <c r="B1077" t="s">
-        <v>2912</v>
-      </c>
-      <c r="C1077" t="s">
-        <v>2913</v>
       </c>
     </row>
     <row r="1078" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1078" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>2913</v>
+      </c>
+      <c r="C1078" t="s">
         <v>2914</v>
-      </c>
-      <c r="B1078" t="s">
-        <v>2915</v>
-      </c>
-      <c r="C1078" t="s">
-        <v>2916</v>
       </c>
     </row>
     <row r="1079" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1079" t="s">
+        <v>2915</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1079" t="s">
         <v>2917</v>
-      </c>
-      <c r="B1079" t="s">
-        <v>2918</v>
-      </c>
-      <c r="C1079" t="s">
-        <v>2919</v>
       </c>
     </row>
     <row r="1080" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1080" t="s">
+        <v>2918</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>2919</v>
+      </c>
+      <c r="C1080" t="s">
         <v>2920</v>
-      </c>
-      <c r="B1080" t="s">
-        <v>2921</v>
-      </c>
-      <c r="C1080" t="s">
-        <v>2922</v>
       </c>
     </row>
     <row r="1081" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1081" t="s">
+        <v>2921</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>2922</v>
+      </c>
+      <c r="C1081" t="s">
         <v>2923</v>
-      </c>
-      <c r="B1081" t="s">
-        <v>2924</v>
-      </c>
-      <c r="C1081" t="s">
-        <v>2925</v>
       </c>
     </row>
     <row r="1082" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1082" t="s">
+        <v>2924</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>2925</v>
+      </c>
+      <c r="C1082" t="s">
         <v>2926</v>
-      </c>
-      <c r="B1082" t="s">
-        <v>2927</v>
-      </c>
-      <c r="C1082" t="s">
-        <v>2928</v>
       </c>
     </row>
     <row r="1083" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1083" t="s">
+        <v>2927</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>2928</v>
+      </c>
+      <c r="C1083" t="s">
         <v>2929</v>
-      </c>
-      <c r="B1083" t="s">
-        <v>2930</v>
-      </c>
-      <c r="C1083" t="s">
-        <v>2931</v>
       </c>
     </row>
     <row r="1084" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1084" t="s">
+        <v>2930</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>2931</v>
+      </c>
+      <c r="C1084" t="s">
         <v>2932</v>
-      </c>
-      <c r="B1084" t="s">
-        <v>2933</v>
-      </c>
-      <c r="C1084" t="s">
-        <v>2934</v>
       </c>
     </row>
     <row r="1085" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1085" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>2934</v>
+      </c>
+      <c r="C1085" t="s">
         <v>2935</v>
-      </c>
-      <c r="B1085" t="s">
-        <v>2936</v>
-      </c>
-      <c r="C1085" t="s">
-        <v>2937</v>
       </c>
     </row>
     <row r="1086" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1086" t="s">
+        <v>2936</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>2937</v>
+      </c>
+      <c r="C1086" t="s">
         <v>2938</v>
-      </c>
-      <c r="B1086" t="s">
-        <v>2939</v>
-      </c>
-      <c r="C1086" t="s">
-        <v>2940</v>
       </c>
     </row>
     <row r="1087" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1087" t="s">
+        <v>2939</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>2940</v>
+      </c>
+      <c r="C1087" t="s">
         <v>2941</v>
-      </c>
-      <c r="B1087" t="s">
-        <v>2942</v>
-      </c>
-      <c r="C1087" t="s">
-        <v>2943</v>
       </c>
     </row>
     <row r="1088" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1088" t="s">
+        <v>2942</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>2943</v>
+      </c>
+      <c r="C1088" t="s">
         <v>2944</v>
-      </c>
-      <c r="B1088" t="s">
-        <v>2945</v>
-      </c>
-      <c r="C1088" t="s">
-        <v>2946</v>
       </c>
     </row>
     <row r="1089" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1089" t="s">
+        <v>2945</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>2946</v>
+      </c>
+      <c r="C1089" t="s">
         <v>2947</v>
-      </c>
-      <c r="B1089" t="s">
-        <v>2948</v>
-      </c>
-      <c r="C1089" t="s">
-        <v>2949</v>
       </c>
     </row>
     <row r="1090" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1090" t="s">
+        <v>2948</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>2949</v>
+      </c>
+      <c r="C1090" t="s">
         <v>2950</v>
-      </c>
-      <c r="B1090" t="s">
-        <v>2951</v>
-      </c>
-      <c r="C1090" t="s">
-        <v>2952</v>
       </c>
     </row>
     <row r="1091" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1091" t="s">
+        <v>2951</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>2952</v>
+      </c>
+      <c r="C1091" t="s">
         <v>2953</v>
-      </c>
-      <c r="B1091" t="s">
-        <v>2954</v>
-      </c>
-      <c r="C1091" t="s">
-        <v>2955</v>
       </c>
     </row>
     <row r="1092" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1092" t="s">
+        <v>2954</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>2955</v>
+      </c>
+      <c r="C1092" t="s">
         <v>2956</v>
-      </c>
-      <c r="B1092" t="s">
-        <v>2957</v>
-      </c>
-      <c r="C1092" t="s">
-        <v>2958</v>
       </c>
     </row>
     <row r="1093" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1093" t="s">
+        <v>2957</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>2958</v>
+      </c>
+      <c r="C1093" t="s">
         <v>2959</v>
-      </c>
-      <c r="B1093" t="s">
-        <v>2960</v>
-      </c>
-      <c r="C1093" t="s">
-        <v>2961</v>
       </c>
     </row>
     <row r="1094" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1094" t="s">
+        <v>2960</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>2961</v>
+      </c>
+      <c r="C1094" t="s">
         <v>2962</v>
-      </c>
-      <c r="B1094" t="s">
-        <v>2963</v>
-      </c>
-      <c r="C1094" t="s">
-        <v>2964</v>
       </c>
     </row>
     <row r="1095" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1095" t="s">
+        <v>2963</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>2964</v>
+      </c>
+      <c r="C1095" t="s">
         <v>2965</v>
-      </c>
-      <c r="B1095" t="s">
-        <v>2966</v>
-      </c>
-      <c r="C1095" t="s">
-        <v>2967</v>
       </c>
     </row>
     <row r="1096" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1096" t="s">
+        <v>2966</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>2967</v>
+      </c>
+      <c r="C1096" t="s">
         <v>2968</v>
-      </c>
-      <c r="B1096" t="s">
-        <v>2969</v>
-      </c>
-      <c r="C1096" t="s">
-        <v>2970</v>
       </c>
     </row>
     <row r="1097" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1097" t="s">
+        <v>2969</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>2970</v>
+      </c>
+      <c r="C1097" t="s">
         <v>2971</v>
-      </c>
-      <c r="B1097" t="s">
-        <v>2972</v>
-      </c>
-      <c r="C1097" t="s">
-        <v>2973</v>
       </c>
     </row>
     <row r="1098" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1098" t="s">
+        <v>2972</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>2973</v>
+      </c>
+      <c r="C1098" t="s">
         <v>2974</v>
-      </c>
-      <c r="B1098" t="s">
-        <v>2975</v>
-      </c>
-      <c r="C1098" t="s">
-        <v>2976</v>
       </c>
     </row>
     <row r="1099" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1099" t="s">
+        <v>2975</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>2976</v>
+      </c>
+      <c r="C1099" t="s">
         <v>2977</v>
-      </c>
-      <c r="B1099" t="s">
-        <v>2978</v>
-      </c>
-      <c r="C1099" t="s">
-        <v>2979</v>
       </c>
     </row>
     <row r="1100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1100" t="s">
+        <v>2978</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>2979</v>
+      </c>
+      <c r="C1100" t="s">
         <v>2980</v>
-      </c>
-      <c r="B1100" t="s">
-        <v>2981</v>
-      </c>
-      <c r="C1100" t="s">
-        <v>2982</v>
       </c>
     </row>
     <row r="1101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1101" t="s">
+        <v>2981</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>2982</v>
+      </c>
+      <c r="C1101" t="s">
         <v>2983</v>
-      </c>
-      <c r="B1101" t="s">
-        <v>2984</v>
-      </c>
-      <c r="C1101" t="s">
-        <v>2985</v>
       </c>
     </row>
     <row r="1102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1102" t="s">
-        <v>2986</v>
+        <v>2984</v>
       </c>
       <c r="B1102" t="s">
-        <v>3497</v>
+        <v>3495</v>
       </c>
       <c r="C1102" t="s">
-        <v>3498</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="1103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1103" t="s">
+        <v>2985</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>2986</v>
+      </c>
+      <c r="C1103" t="s">
         <v>2987</v>
-      </c>
-      <c r="B1103" t="s">
-        <v>2988</v>
-      </c>
-      <c r="C1103" t="s">
-        <v>2989</v>
       </c>
     </row>
     <row r="1104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1104" t="s">
+        <v>2988</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>2989</v>
+      </c>
+      <c r="C1104" t="s">
         <v>2990</v>
-      </c>
-      <c r="B1104" t="s">
-        <v>2991</v>
-      </c>
-      <c r="C1104" t="s">
-        <v>2992</v>
       </c>
     </row>
     <row r="1105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1105" t="s">
+        <v>2991</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C1105" t="s">
         <v>2993</v>
-      </c>
-      <c r="B1105" t="s">
-        <v>2994</v>
-      </c>
-      <c r="C1105" t="s">
-        <v>2995</v>
       </c>
     </row>
     <row r="1106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1106" t="s">
+        <v>2994</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>2995</v>
+      </c>
+      <c r="C1106" t="s">
         <v>2996</v>
-      </c>
-      <c r="B1106" t="s">
-        <v>2997</v>
-      </c>
-      <c r="C1106" t="s">
-        <v>2998</v>
       </c>
     </row>
     <row r="1107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1107" t="s">
+        <v>2997</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>2998</v>
+      </c>
+      <c r="C1107" t="s">
         <v>2999</v>
-      </c>
-      <c r="B1107" t="s">
-        <v>3000</v>
-      </c>
-      <c r="C1107" t="s">
-        <v>3001</v>
       </c>
     </row>
     <row r="1108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1108" t="s">
+        <v>3000</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>3001</v>
+      </c>
+      <c r="C1108" t="s">
         <v>3002</v>
-      </c>
-      <c r="B1108" t="s">
-        <v>3003</v>
-      </c>
-      <c r="C1108" t="s">
-        <v>3004</v>
       </c>
     </row>
     <row r="1109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1109" t="s">
+        <v>3003</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1109" t="s">
         <v>3005</v>
-      </c>
-      <c r="B1109" t="s">
-        <v>3006</v>
-      </c>
-      <c r="C1109" t="s">
-        <v>3007</v>
       </c>
     </row>
     <row r="1110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1110" t="s">
+        <v>3006</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>3007</v>
+      </c>
+      <c r="C1110" t="s">
         <v>3008</v>
-      </c>
-      <c r="B1110" t="s">
-        <v>3009</v>
-      </c>
-      <c r="C1110" t="s">
-        <v>3010</v>
       </c>
     </row>
     <row r="1111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1111" t="s">
-        <v>3011</v>
+        <v>3009</v>
       </c>
       <c r="B1111" t="s">
-        <v>3499</v>
+        <v>3497</v>
       </c>
       <c r="C1111" t="s">
-        <v>3500</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="1112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1112" t="s">
+        <v>3010</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>3011</v>
+      </c>
+      <c r="C1112" t="s">
         <v>3012</v>
-      </c>
-      <c r="B1112" t="s">
-        <v>3013</v>
-      </c>
-      <c r="C1112" t="s">
-        <v>3014</v>
       </c>
     </row>
     <row r="1113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1113" t="s">
+        <v>3013</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>3014</v>
+      </c>
+      <c r="C1113" t="s">
         <v>3015</v>
-      </c>
-      <c r="B1113" t="s">
-        <v>3016</v>
-      </c>
-      <c r="C1113" t="s">
-        <v>3017</v>
       </c>
     </row>
     <row r="1114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1114" t="s">
+        <v>3016</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>3017</v>
+      </c>
+      <c r="C1114" t="s">
         <v>3018</v>
-      </c>
-      <c r="B1114" t="s">
-        <v>3019</v>
-      </c>
-      <c r="C1114" t="s">
-        <v>3020</v>
       </c>
     </row>
     <row r="1115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1115" t="s">
-        <v>3021</v>
+        <v>3019</v>
       </c>
       <c r="B1115" t="s">
-        <v>3501</v>
+        <v>3499</v>
       </c>
       <c r="C1115" t="s">
-        <v>3502</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="1116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1116" t="s">
+        <v>3020</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>3021</v>
+      </c>
+      <c r="C1116" t="s">
         <v>3022</v>
-      </c>
-      <c r="B1116" t="s">
-        <v>3023</v>
-      </c>
-      <c r="C1116" t="s">
-        <v>3024</v>
       </c>
     </row>
     <row r="1117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1117" t="s">
+        <v>3023</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>3024</v>
+      </c>
+      <c r="C1117" t="s">
         <v>3025</v>
-      </c>
-      <c r="B1117" t="s">
-        <v>3026</v>
-      </c>
-      <c r="C1117" t="s">
-        <v>3027</v>
       </c>
     </row>
     <row r="1118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1118" t="s">
+        <v>3026</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>3027</v>
+      </c>
+      <c r="C1118" t="s">
         <v>3028</v>
-      </c>
-      <c r="B1118" t="s">
-        <v>3029</v>
-      </c>
-      <c r="C1118" t="s">
-        <v>3030</v>
       </c>
     </row>
     <row r="1119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1119" t="s">
+        <v>3029</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>3030</v>
+      </c>
+      <c r="C1119" t="s">
         <v>3031</v>
-      </c>
-      <c r="B1119" t="s">
-        <v>3032</v>
-      </c>
-      <c r="C1119" t="s">
-        <v>3033</v>
       </c>
     </row>
     <row r="1120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1120" t="s">
+        <v>3032</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>3033</v>
+      </c>
+      <c r="C1120" t="s">
         <v>3034</v>
-      </c>
-      <c r="B1120" t="s">
-        <v>3035</v>
-      </c>
-      <c r="C1120" t="s">
-        <v>3036</v>
       </c>
     </row>
     <row r="1121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1121" t="s">
+        <v>3035</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>3036</v>
+      </c>
+      <c r="C1121" t="s">
         <v>3037</v>
-      </c>
-      <c r="B1121" t="s">
-        <v>3038</v>
-      </c>
-      <c r="C1121" t="s">
-        <v>3039</v>
       </c>
     </row>
     <row r="1122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1122" t="s">
+        <v>3038</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>3039</v>
+      </c>
+      <c r="C1122" t="s">
         <v>3040</v>
-      </c>
-      <c r="B1122" t="s">
-        <v>3041</v>
-      </c>
-      <c r="C1122" t="s">
-        <v>3042</v>
       </c>
     </row>
     <row r="1123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1123" t="s">
+        <v>3041</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>3042</v>
+      </c>
+      <c r="C1123" t="s">
         <v>3043</v>
-      </c>
-      <c r="B1123" t="s">
-        <v>3044</v>
-      </c>
-      <c r="C1123" t="s">
-        <v>3045</v>
       </c>
     </row>
     <row r="1124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1124" t="s">
+        <v>3044</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>3045</v>
+      </c>
+      <c r="C1124" t="s">
         <v>3046</v>
-      </c>
-      <c r="B1124" t="s">
-        <v>3047</v>
-      </c>
-      <c r="C1124" t="s">
-        <v>3048</v>
       </c>
     </row>
     <row r="1125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1125" t="s">
+        <v>3047</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>3048</v>
+      </c>
+      <c r="C1125" t="s">
         <v>3049</v>
-      </c>
-      <c r="B1125" t="s">
-        <v>3050</v>
-      </c>
-      <c r="C1125" t="s">
-        <v>3051</v>
       </c>
     </row>
     <row r="1126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1126" t="s">
-        <v>3052</v>
+        <v>3050</v>
       </c>
       <c r="B1126" t="s">
-        <v>3044</v>
+        <v>3042</v>
       </c>
       <c r="C1126" t="s">
-        <v>3053</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="1127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1127" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>3053</v>
+      </c>
+      <c r="C1127" t="s">
         <v>3054</v>
-      </c>
-      <c r="B1127" t="s">
-        <v>3055</v>
-      </c>
-      <c r="C1127" t="s">
-        <v>3056</v>
       </c>
     </row>
     <row r="1128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1128" t="s">
+        <v>3055</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>3056</v>
+      </c>
+      <c r="C1128" t="s">
         <v>3057</v>
-      </c>
-      <c r="B1128" t="s">
-        <v>3058</v>
-      </c>
-      <c r="C1128" t="s">
-        <v>3059</v>
       </c>
     </row>
     <row r="1129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1129" t="s">
+        <v>3058</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>3059</v>
+      </c>
+      <c r="C1129" t="s">
         <v>3060</v>
-      </c>
-      <c r="B1129" t="s">
-        <v>3061</v>
-      </c>
-      <c r="C1129" t="s">
-        <v>3062</v>
       </c>
     </row>
     <row r="1130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1130" t="s">
+        <v>3061</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>3062</v>
+      </c>
+      <c r="C1130" t="s">
         <v>3063</v>
-      </c>
-      <c r="B1130" t="s">
-        <v>3064</v>
-      </c>
-      <c r="C1130" t="s">
-        <v>3065</v>
       </c>
     </row>
     <row r="1131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1131" t="s">
+        <v>3064</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>3065</v>
+      </c>
+      <c r="C1131" t="s">
         <v>3066</v>
-      </c>
-      <c r="B1131" t="s">
-        <v>3067</v>
-      </c>
-      <c r="C1131" t="s">
-        <v>3068</v>
       </c>
     </row>
     <row r="1132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1132" t="s">
+        <v>3067</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>3068</v>
+      </c>
+      <c r="C1132" t="s">
         <v>3069</v>
-      </c>
-      <c r="B1132" t="s">
-        <v>3070</v>
-      </c>
-      <c r="C1132" t="s">
-        <v>3071</v>
       </c>
     </row>
     <row r="1133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1133" t="s">
-        <v>3072</v>
+        <v>3070</v>
       </c>
       <c r="B1133" t="s">
-        <v>3503</v>
+        <v>3501</v>
       </c>
       <c r="C1133" t="s">
-        <v>3504</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="1134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1134" t="s">
-        <v>3073</v>
+        <v>3071</v>
       </c>
       <c r="B1134" t="s">
-        <v>3505</v>
+        <v>3503</v>
       </c>
       <c r="C1134" t="s">
-        <v>3506</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="1135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1135" t="s">
+        <v>3072</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>3073</v>
+      </c>
+      <c r="C1135" t="s">
         <v>3074</v>
-      </c>
-      <c r="B1135" t="s">
-        <v>3075</v>
-      </c>
-      <c r="C1135" t="s">
-        <v>3076</v>
       </c>
     </row>
     <row r="1136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1136" t="s">
+        <v>3075</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>3076</v>
+      </c>
+      <c r="C1136" t="s">
         <v>3077</v>
-      </c>
-      <c r="B1136" t="s">
-        <v>3078</v>
-      </c>
-      <c r="C1136" t="s">
-        <v>3079</v>
       </c>
     </row>
     <row r="1137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1137" t="s">
+        <v>3078</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>3079</v>
+      </c>
+      <c r="C1137" t="s">
         <v>3080</v>
-      </c>
-      <c r="B1137" t="s">
-        <v>3081</v>
-      </c>
-      <c r="C1137" t="s">
-        <v>3082</v>
       </c>
     </row>
     <row r="1138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1138" t="s">
+        <v>3081</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>3082</v>
+      </c>
+      <c r="C1138" t="s">
         <v>3083</v>
-      </c>
-      <c r="B1138" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C1138" t="s">
-        <v>3085</v>
       </c>
     </row>
     <row r="1139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1139" t="s">
+        <v>3084</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>3085</v>
+      </c>
+      <c r="C1139" t="s">
         <v>3086</v>
-      </c>
-      <c r="B1139" t="s">
-        <v>3087</v>
-      </c>
-      <c r="C1139" t="s">
-        <v>3088</v>
       </c>
     </row>
     <row r="1140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1140" t="s">
+        <v>3087</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>3088</v>
+      </c>
+      <c r="C1140" t="s">
         <v>3089</v>
-      </c>
-      <c r="B1140" t="s">
-        <v>3090</v>
-      </c>
-      <c r="C1140" t="s">
-        <v>3091</v>
       </c>
     </row>
     <row r="1141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1141" t="s">
+        <v>3090</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>3091</v>
+      </c>
+      <c r="C1141" t="s">
         <v>3092</v>
-      </c>
-      <c r="B1141" t="s">
-        <v>3093</v>
-      </c>
-      <c r="C1141" t="s">
-        <v>3094</v>
       </c>
     </row>
     <row r="1142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1142" t="s">
+        <v>3093</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>3094</v>
+      </c>
+      <c r="C1142" t="s">
         <v>3095</v>
-      </c>
-      <c r="B1142" t="s">
-        <v>3096</v>
-      </c>
-      <c r="C1142" t="s">
-        <v>3097</v>
       </c>
     </row>
     <row r="1143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1143" t="s">
+        <v>3096</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>3097</v>
+      </c>
+      <c r="C1143" t="s">
         <v>3098</v>
-      </c>
-      <c r="B1143" t="s">
-        <v>3099</v>
-      </c>
-      <c r="C1143" t="s">
-        <v>3100</v>
       </c>
     </row>
     <row r="1144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1144" t="s">
+        <v>3099</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>3100</v>
+      </c>
+      <c r="C1144" t="s">
         <v>3101</v>
-      </c>
-      <c r="B1144" t="s">
-        <v>3102</v>
-      </c>
-      <c r="C1144" t="s">
-        <v>3103</v>
       </c>
     </row>
     <row r="1145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1145" t="s">
+        <v>3102</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>3103</v>
+      </c>
+      <c r="C1145" t="s">
         <v>3104</v>
-      </c>
-      <c r="B1145" t="s">
-        <v>3105</v>
-      </c>
-      <c r="C1145" t="s">
-        <v>3106</v>
       </c>
     </row>
     <row r="1146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1146" t="s">
+        <v>3105</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>3106</v>
+      </c>
+      <c r="C1146" t="s">
         <v>3107</v>
-      </c>
-      <c r="B1146" t="s">
-        <v>3108</v>
-      </c>
-      <c r="C1146" t="s">
-        <v>3109</v>
       </c>
     </row>
     <row r="1147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1147" t="s">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="B1147" t="s">
-        <v>3507</v>
+        <v>3505</v>
       </c>
       <c r="C1147" t="s">
-        <v>3508</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="1148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1148" t="s">
+        <v>3109</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>3110</v>
+      </c>
+      <c r="C1148" t="s">
         <v>3111</v>
-      </c>
-      <c r="B1148" t="s">
-        <v>3112</v>
-      </c>
-      <c r="C1148" t="s">
-        <v>3113</v>
       </c>
     </row>
     <row r="1149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1149" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C1149" t="s">
         <v>3114</v>
-      </c>
-      <c r="B1149" t="s">
-        <v>3115</v>
-      </c>
-      <c r="C1149" t="s">
-        <v>3116</v>
       </c>
     </row>
     <row r="1150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1150" t="s">
+        <v>3115</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>3116</v>
+      </c>
+      <c r="C1150" t="s">
         <v>3117</v>
-      </c>
-      <c r="B1150" t="s">
-        <v>3118</v>
-      </c>
-      <c r="C1150" t="s">
-        <v>3119</v>
       </c>
     </row>
     <row r="1151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1151" t="s">
+        <v>3118</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>3119</v>
+      </c>
+      <c r="C1151" t="s">
         <v>3120</v>
-      </c>
-      <c r="B1151" t="s">
-        <v>3121</v>
-      </c>
-      <c r="C1151" t="s">
-        <v>3122</v>
       </c>
     </row>
     <row r="1152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1152" t="s">
+        <v>3121</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>3122</v>
+      </c>
+      <c r="C1152" t="s">
         <v>3123</v>
-      </c>
-      <c r="B1152" t="s">
-        <v>3124</v>
-      </c>
-      <c r="C1152" t="s">
-        <v>3125</v>
       </c>
     </row>
     <row r="1153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1153" t="s">
+        <v>3124</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>3125</v>
+      </c>
+      <c r="C1153" t="s">
         <v>3126</v>
-      </c>
-      <c r="B1153" t="s">
-        <v>3127</v>
-      </c>
-      <c r="C1153" t="s">
-        <v>3128</v>
       </c>
     </row>
     <row r="1154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1154" t="s">
-        <v>3129</v>
+        <v>3127</v>
       </c>
       <c r="B1154" t="s">
-        <v>3509</v>
+        <v>3507</v>
       </c>
       <c r="C1154" t="s">
-        <v>3510</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="1155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1155" t="s">
+        <v>3128</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>3129</v>
+      </c>
+      <c r="C1155" t="s">
         <v>3130</v>
-      </c>
-      <c r="B1155" t="s">
-        <v>3131</v>
-      </c>
-      <c r="C1155" t="s">
-        <v>3132</v>
       </c>
     </row>
     <row r="1156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1156" t="s">
+        <v>3131</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>3132</v>
+      </c>
+      <c r="C1156" t="s">
         <v>3133</v>
-      </c>
-      <c r="B1156" t="s">
-        <v>3134</v>
-      </c>
-      <c r="C1156" t="s">
-        <v>3135</v>
       </c>
     </row>
     <row r="1157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1157" t="s">
+        <v>3134</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>3135</v>
+      </c>
+      <c r="C1157" t="s">
         <v>3136</v>
-      </c>
-      <c r="B1157" t="s">
-        <v>3137</v>
-      </c>
-      <c r="C1157" t="s">
-        <v>3138</v>
       </c>
     </row>
     <row r="1158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1158" t="s">
+        <v>3137</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>3138</v>
+      </c>
+      <c r="C1158" t="s">
         <v>3139</v>
-      </c>
-      <c r="B1158" t="s">
-        <v>3140</v>
-      </c>
-      <c r="C1158" t="s">
-        <v>3141</v>
       </c>
     </row>
     <row r="1159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1159" t="s">
+        <v>3140</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>3141</v>
+      </c>
+      <c r="C1159" t="s">
         <v>3142</v>
-      </c>
-      <c r="B1159" t="s">
-        <v>3143</v>
-      </c>
-      <c r="C1159" t="s">
-        <v>3144</v>
       </c>
     </row>
     <row r="1160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1160" t="s">
+        <v>3143</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>3144</v>
+      </c>
+      <c r="C1160" t="s">
         <v>3145</v>
-      </c>
-      <c r="B1160" t="s">
-        <v>3146</v>
-      </c>
-      <c r="C1160" t="s">
-        <v>3147</v>
       </c>
     </row>
     <row r="1161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1161" t="s">
-        <v>3148</v>
+        <v>3146</v>
       </c>
       <c r="B1161" t="s">
-        <v>3149</v>
+        <v>3147</v>
       </c>
       <c r="C1161" t="s">
-        <v>3149</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="1162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1162" t="s">
+        <v>3148</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C1162" t="s">
         <v>3150</v>
-      </c>
-      <c r="B1162" t="s">
-        <v>3151</v>
-      </c>
-      <c r="C1162" t="s">
-        <v>3152</v>
       </c>
     </row>
     <row r="1163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1163" t="s">
+        <v>3151</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>3152</v>
+      </c>
+      <c r="C1163" t="s">
         <v>3153</v>
-      </c>
-      <c r="B1163" t="s">
-        <v>3154</v>
-      </c>
-      <c r="C1163" t="s">
-        <v>3155</v>
       </c>
     </row>
     <row r="1164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1164" t="s">
+        <v>3154</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>3155</v>
+      </c>
+      <c r="C1164" t="s">
         <v>3156</v>
-      </c>
-      <c r="B1164" t="s">
-        <v>3157</v>
-      </c>
-      <c r="C1164" t="s">
-        <v>3158</v>
       </c>
     </row>
     <row r="1165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1165" t="s">
+        <v>3157</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>3158</v>
+      </c>
+      <c r="C1165" t="s">
         <v>3159</v>
-      </c>
-      <c r="B1165" t="s">
-        <v>3160</v>
-      </c>
-      <c r="C1165" t="s">
-        <v>3161</v>
       </c>
     </row>
     <row r="1166" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1167" s="2" t="s">
+        <v>3160</v>
+      </c>
+      <c r="B1167" s="2" t="s">
+        <v>3161</v>
+      </c>
+      <c r="C1167" s="2" t="s">
         <v>3162</v>
-      </c>
-      <c r="B1167" s="2" t="s">
-        <v>3163</v>
-      </c>
-      <c r="C1167" s="2" t="s">
-        <v>3164</v>
       </c>
     </row>
     <row r="1168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1168" s="2" t="s">
+        <v>3163</v>
+      </c>
+      <c r="B1168" s="2" t="s">
+        <v>3164</v>
+      </c>
+      <c r="C1168" s="2" t="s">
         <v>3165</v>
-      </c>
-      <c r="B1168" s="2" t="s">
-        <v>3166</v>
-      </c>
-      <c r="C1168" s="2" t="s">
-        <v>3167</v>
       </c>
     </row>
     <row r="1169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1169" s="2" t="s">
+        <v>3166</v>
+      </c>
+      <c r="B1169" s="2" t="s">
+        <v>3167</v>
+      </c>
+      <c r="C1169" s="2" t="s">
         <v>3168</v>
-      </c>
-      <c r="B1169" s="2" t="s">
-        <v>3169</v>
-      </c>
-      <c r="C1169" s="2" t="s">
-        <v>3170</v>
       </c>
     </row>
     <row r="1170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1170" s="2" t="s">
+        <v>3169</v>
+      </c>
+      <c r="B1170" s="2" t="s">
+        <v>3170</v>
+      </c>
+      <c r="C1170" s="2" t="s">
         <v>3171</v>
-      </c>
-      <c r="B1170" s="2" t="s">
-        <v>3172</v>
-      </c>
-      <c r="C1170" s="2" t="s">
-        <v>3173</v>
       </c>
     </row>
     <row r="1171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1171" s="2" t="s">
+        <v>3172</v>
+      </c>
+      <c r="B1171" s="2" t="s">
+        <v>3173</v>
+      </c>
+      <c r="C1171" s="2" t="s">
         <v>3174</v>
-      </c>
-      <c r="B1171" s="2" t="s">
-        <v>3175</v>
-      </c>
-      <c r="C1171" s="2" t="s">
-        <v>3176</v>
       </c>
     </row>
     <row r="1172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1172" s="2" t="s">
+        <v>3175</v>
+      </c>
+      <c r="B1172" s="2" t="s">
+        <v>3176</v>
+      </c>
+      <c r="C1172" s="2" t="s">
         <v>3177</v>
-      </c>
-      <c r="B1172" s="2" t="s">
-        <v>3178</v>
-      </c>
-      <c r="C1172" s="2" t="s">
-        <v>3179</v>
       </c>
     </row>
     <row r="1173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1173" s="2" t="s">
+        <v>3178</v>
+      </c>
+      <c r="B1173" s="3" t="s">
+        <v>3179</v>
+      </c>
+      <c r="C1173" s="2" t="s">
         <v>3180</v>
-      </c>
-      <c r="B1173" s="3" t="s">
-        <v>3181</v>
-      </c>
-      <c r="C1173" s="2" t="s">
-        <v>3182</v>
       </c>
     </row>
     <row r="1174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1174" s="2" t="s">
+        <v>3181</v>
+      </c>
+      <c r="B1174" s="3" t="s">
+        <v>3182</v>
+      </c>
+      <c r="C1174" s="2" t="s">
         <v>3183</v>
-      </c>
-      <c r="B1174" s="3" t="s">
-        <v>3184</v>
-      </c>
-      <c r="C1174" s="2" t="s">
-        <v>3185</v>
       </c>
     </row>
     <row r="1175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1175" s="2" t="s">
+        <v>3184</v>
+      </c>
+      <c r="B1175" s="2" t="s">
+        <v>3185</v>
+      </c>
+      <c r="C1175" s="2" t="s">
         <v>3186</v>
-      </c>
-      <c r="B1175" s="2" t="s">
-        <v>3187</v>
-      </c>
-      <c r="C1175" s="2" t="s">
-        <v>3188</v>
       </c>
     </row>
     <row r="1176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1176" s="3" t="s">
-        <v>3189</v>
+        <v>3187</v>
       </c>
       <c r="B1176" s="2" t="s">
         <v>822</v>
       </c>
       <c r="C1176" s="2" t="s">
-        <v>3190</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="1177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1177" s="2" t="s">
+        <v>3189</v>
+      </c>
+      <c r="B1177" s="2" t="s">
+        <v>3190</v>
+      </c>
+      <c r="C1177" s="2" t="s">
         <v>3191</v>
-      </c>
-      <c r="B1177" s="2" t="s">
-        <v>3192</v>
-      </c>
-      <c r="C1177" s="2" t="s">
-        <v>3193</v>
       </c>
     </row>
     <row r="1178" spans="1:3" x14ac:dyDescent="0.25">
@@ -23948,114 +23949,114 @@
         <v>251</v>
       </c>
       <c r="B1178" s="4" t="s">
-        <v>3194</v>
+        <v>3192</v>
       </c>
       <c r="C1178" s="5" t="s">
-        <v>3195</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="1179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1179" s="4" t="s">
+        <v>3194</v>
+      </c>
+      <c r="B1179" s="4" t="s">
+        <v>3195</v>
+      </c>
+      <c r="C1179" s="5" t="s">
         <v>3196</v>
-      </c>
-      <c r="B1179" s="4" t="s">
-        <v>3197</v>
-      </c>
-      <c r="C1179" s="5" t="s">
-        <v>3198</v>
       </c>
     </row>
     <row r="1180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1180" s="5" t="s">
+        <v>3197</v>
+      </c>
+      <c r="B1180" s="2" t="s">
+        <v>3198</v>
+      </c>
+      <c r="C1180" s="2" t="s">
         <v>3199</v>
-      </c>
-      <c r="B1180" s="2" t="s">
-        <v>3200</v>
-      </c>
-      <c r="C1180" s="2" t="s">
-        <v>3201</v>
       </c>
     </row>
     <row r="1181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1181" s="5" t="s">
+        <v>3200</v>
+      </c>
+      <c r="B1181" s="6" t="s">
+        <v>3201</v>
+      </c>
+      <c r="C1181" s="5" t="s">
         <v>3202</v>
-      </c>
-      <c r="B1181" s="6" t="s">
-        <v>3203</v>
-      </c>
-      <c r="C1181" s="5" t="s">
-        <v>3204</v>
       </c>
     </row>
     <row r="1182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1182" s="1" t="s">
+        <v>3203</v>
+      </c>
+      <c r="B1182" s="1" t="s">
+        <v>3204</v>
+      </c>
+      <c r="C1182" s="1" t="s">
         <v>3205</v>
-      </c>
-      <c r="B1182" s="1" t="s">
-        <v>3206</v>
-      </c>
-      <c r="C1182" s="1" t="s">
-        <v>3207</v>
       </c>
     </row>
     <row r="1183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1183" s="1" t="s">
+        <v>3206</v>
+      </c>
+      <c r="B1183" s="1" t="s">
+        <v>3207</v>
+      </c>
+      <c r="C1183" s="1" t="s">
         <v>3208</v>
-      </c>
-      <c r="B1183" s="1" t="s">
-        <v>3209</v>
-      </c>
-      <c r="C1183" s="1" t="s">
-        <v>3210</v>
       </c>
     </row>
     <row r="1184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1184" s="1" t="s">
+        <v>3209</v>
+      </c>
+      <c r="B1184" s="1" t="s">
+        <v>3210</v>
+      </c>
+      <c r="C1184" s="1" t="s">
         <v>3211</v>
-      </c>
-      <c r="B1184" s="1" t="s">
-        <v>3212</v>
-      </c>
-      <c r="C1184" s="1" t="s">
-        <v>3213</v>
       </c>
     </row>
     <row r="1185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1185" s="1" t="s">
+        <v>3212</v>
+      </c>
+      <c r="B1185" s="1" t="s">
+        <v>3213</v>
+      </c>
+      <c r="C1185" s="1" t="s">
         <v>3214</v>
-      </c>
-      <c r="B1185" s="1" t="s">
-        <v>3215</v>
-      </c>
-      <c r="C1185" s="1" t="s">
-        <v>3216</v>
       </c>
     </row>
     <row r="1186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1186" s="1" t="s">
+        <v>3215</v>
+      </c>
+      <c r="B1186" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="C1186" s="1" t="s">
         <v>3217</v>
-      </c>
-      <c r="B1186" s="1" t="s">
-        <v>3218</v>
-      </c>
-      <c r="C1186" s="1" t="s">
-        <v>3219</v>
       </c>
     </row>
     <row r="1187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1187" s="1" t="s">
+        <v>3218</v>
+      </c>
+      <c r="B1187" s="1" t="s">
+        <v>3219</v>
+      </c>
+      <c r="C1187" s="1" t="s">
         <v>3220</v>
-      </c>
-      <c r="B1187" s="1" t="s">
-        <v>3221</v>
-      </c>
-      <c r="C1187" s="1" t="s">
-        <v>3222</v>
       </c>
     </row>
     <row r="1188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1188" s="1" t="s">
-        <v>3223</v>
+        <v>3221</v>
       </c>
       <c r="B1188" s="1" t="s">
         <v>999</v>
@@ -24066,49 +24067,50 @@
     </row>
     <row r="1189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1189" s="1" t="s">
+        <v>3222</v>
+      </c>
+      <c r="B1189" s="1" t="s">
+        <v>3223</v>
+      </c>
+      <c r="C1189" s="1" t="s">
         <v>3224</v>
-      </c>
-      <c r="B1189" s="1" t="s">
-        <v>3225</v>
-      </c>
-      <c r="C1189" s="1" t="s">
-        <v>3226</v>
       </c>
     </row>
     <row r="1190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1190" s="1" t="s">
+        <v>3225</v>
+      </c>
+      <c r="B1190" s="1" t="s">
+        <v>3226</v>
+      </c>
+      <c r="C1190" s="1" t="s">
         <v>3227</v>
-      </c>
-      <c r="B1190" s="1" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C1190" s="1" t="s">
-        <v>3229</v>
       </c>
     </row>
     <row r="1191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1191" s="1" t="s">
+        <v>3228</v>
+      </c>
+      <c r="B1191" s="1" t="s">
+        <v>3229</v>
+      </c>
+      <c r="C1191" s="1" t="s">
         <v>3230</v>
-      </c>
-      <c r="B1191" s="1" t="s">
-        <v>3231</v>
-      </c>
-      <c r="C1191" s="1" t="s">
-        <v>3232</v>
       </c>
     </row>
     <row r="1192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1192" s="1" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B1192" s="5" t="s">
+        <v>3232</v>
+      </c>
+      <c r="C1192" s="5" t="s">
         <v>3233</v>
-      </c>
-      <c r="B1192" s="5" t="s">
-        <v>3234</v>
-      </c>
-      <c r="C1192" s="5" t="s">
-        <v>3235</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Client/WebClient/lang/fibertest_strings.xlsx
+++ b/Client/WebClient/lang/fibertest_strings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VsGitProjects\Fibertest20\Client\WebClient\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4707DF70-39DB-4561-8F43-DF6020A6A15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7099E6D-8CBC-4EB8-9FCA-C0E15DABADB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3573" uniqueCount="3513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3672" uniqueCount="3611">
   <si>
     <t>Name</t>
   </si>
@@ -6131,31 +6131,13 @@
     <t>Резервный канал - Ok</t>
   </si>
   <si>
-    <t>SID_Data-center_software_version</t>
-  </si>
-  <si>
-    <t>Data-center software version</t>
-  </si>
-  <si>
-    <t>Версия ПК Сервер</t>
-  </si>
-  <si>
     <t>SID_Client_software_version</t>
   </si>
   <si>
     <t>Client software version</t>
   </si>
   <si>
-    <t>Версия ПК Клиент</t>
-  </si>
-  <si>
-    <t>SID_RTUs_software_version</t>
-  </si>
-  <si>
-    <t>RTUs software version</t>
-  </si>
-  <si>
-    <t>Версии ПК RTU менеджер</t>
+    <t>Версия ПК Client</t>
   </si>
   <si>
     <t>SID_Users_guide</t>
@@ -6635,10 +6617,10 @@
     <t>SID_Network_events_in_Db</t>
   </si>
   <si>
-    <t>Network events:</t>
-  </si>
-  <si>
-    <t>Сетевых событий:</t>
+    <t>Network events RTU and BOP:</t>
+  </si>
+  <si>
+    <t>Сетевых событий RTU и БОП:</t>
   </si>
   <si>
     <t>SID_Db_drive_total_size</t>
@@ -6680,10 +6662,10 @@
     <t>SID_Network_events_0</t>
   </si>
   <si>
-    <t>Network events</t>
-  </si>
-  <si>
-    <t>Сетевые события</t>
+    <t>Network events RTU and BOP</t>
+  </si>
+  <si>
+    <t>Сетевые события RTU и БОП</t>
   </si>
   <si>
     <t>SID_Up_to_and_including</t>
@@ -8690,6 +8672,12 @@
     <t>SID_Measurement_completed_successfully</t>
   </si>
   <si>
+    <t>Measurement and analysis completed successfully</t>
+  </si>
+  <si>
+    <t>Измерение и анализ завершены успешно</t>
+  </si>
+  <si>
     <t>SID_Base_refs_assigned_successfully</t>
   </si>
   <si>
@@ -8939,15 +8927,6 @@
     <t>Идет завершение процесса. Пожалуйста, подождите...</t>
   </si>
   <si>
-    <t>SID_Do_not_signal_about_Suspicion</t>
-  </si>
-  <si>
-    <t>Do not signal about `Suspicion`</t>
-  </si>
-  <si>
-    <t>Не сигнализировать о `Подозрение`</t>
-  </si>
-  <si>
     <t>SID_Suspicion_off</t>
   </si>
   <si>
@@ -9095,7 +9074,7 @@
     <t>SID_Iit_address</t>
   </si>
   <si>
-    <t>220099, the Republic of Belarus, Minsk, Kazintsa st., 11A, office 304a</t>
+    <t>220099, the Republic of Belarus, Minsk, Kazintsa st., 11A, office a304</t>
   </si>
   <si>
     <t>220099, Республика Беларусь, г. Минск, ул. Казинца, д. 11а, офис a304</t>
@@ -9512,226 +9491,283 @@
     <t>Ошибка сравнения с базовой рефлектограммой</t>
   </si>
   <si>
-    <t>SID_Items_per_page</t>
-  </si>
-  <si>
-    <t>Items per page</t>
-  </si>
-  <si>
-    <t>Строк на странице</t>
-  </si>
-  <si>
-    <t>SID_Next_page</t>
-  </si>
-  <si>
-    <t>Next page</t>
-  </si>
-  <si>
-    <t>Следующая страница</t>
-  </si>
-  <si>
-    <t>SID_Previous_page</t>
-  </si>
-  <si>
-    <t>Previous page</t>
-  </si>
-  <si>
-    <t>Предыдущая страница</t>
-  </si>
-  <si>
-    <t>SID_of</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> of </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> из </t>
-  </si>
-  <si>
-    <t>SID_Responsive</t>
-  </si>
-  <si>
-    <t>Responsive</t>
-  </si>
-  <si>
-    <t>Отзывчивый</t>
-  </si>
-  <si>
-    <t>SID_Rtu_Moni_Settings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{0}}: Monitoring Settings </t>
-  </si>
-  <si>
-    <t>{{0}}:  Настройки мониторинга</t>
-  </si>
-  <si>
-    <t>SID_measurement_frequency</t>
-  </si>
-  <si>
-    <t>measurement frequency</t>
-  </si>
-  <si>
-    <t>частота измерений</t>
-  </si>
-  <si>
-    <t>SID_saving_frequency</t>
-  </si>
-  <si>
-    <t>saving frequency</t>
-  </si>
-  <si>
-    <t>частота сохранения</t>
-  </si>
-  <si>
-    <t>SID_Cycle_full_time_sec</t>
-  </si>
-  <si>
-    <t>Cycle full time {{0}} sec</t>
-  </si>
-  <si>
-    <t>Полное время цикла {{0}} сек</t>
-  </si>
-  <si>
-    <t>SID_Auto</t>
-  </si>
-  <si>
-    <t>Авто</t>
-  </si>
-  <si>
-    <t>SID_Landmark_count_does_not_match_graph</t>
-  </si>
-  <si>
-    <t>Landmark count on base ref does not match graph</t>
-  </si>
-  <si>
-    <t>Количество ориентиров на рефлектограмме не соответствует графу</t>
-  </si>
-  <si>
-    <t>Attach optical switch</t>
-  </si>
-  <si>
-    <t>Подключить оптический переключатель</t>
-  </si>
-  <si>
-    <t>SID_Optical_switch_s_IP_address</t>
-  </si>
-  <si>
-    <t>Optical switch's IP address</t>
-  </si>
-  <si>
-    <t>IP адрес оптического переключателя</t>
-  </si>
-  <si>
-    <t>SID_Web_Client_software_version</t>
-  </si>
-  <si>
-    <t>Web-Client software version</t>
-  </si>
-  <si>
-    <t>Версия ПК WebClient</t>
-  </si>
-  <si>
-    <t>SID_Web_Api_software_version</t>
-  </si>
-  <si>
-    <t>Web API software version</t>
-  </si>
-  <si>
-    <t>Верия ПК Web API</t>
-  </si>
-  <si>
-    <t>SID_Save_reflectogram</t>
-  </si>
-  <si>
-    <t>Save reflectogram</t>
-  </si>
-  <si>
-    <t>Сохранить рефлектограмму</t>
-  </si>
-  <si>
-    <t>SID_Save_ref_and_base</t>
-  </si>
-  <si>
-    <t>Save ref + base</t>
-  </si>
-  <si>
-    <t>Сохранить рефлектограмму + базовую</t>
-  </si>
-  <si>
-    <t>SID_Logout</t>
-  </si>
-  <si>
-    <t>Logout</t>
-  </si>
-  <si>
-    <t>Выйти</t>
-  </si>
-  <si>
-    <t>SID_RTU_Tree</t>
-  </si>
-  <si>
-    <t>RTUs</t>
-  </si>
-  <si>
-    <t>Модули</t>
-  </si>
-  <si>
-    <t>SID_Reject</t>
-  </si>
-  <si>
-    <t>Reject</t>
-  </si>
-  <si>
-    <t>Отклонить</t>
-  </si>
-  <si>
-    <t>SID_Yes</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Да</t>
-  </si>
-  <si>
-    <t>SID_No</t>
-  </si>
-  <si>
-    <t>SID_Device</t>
-  </si>
-  <si>
-    <t>Device</t>
-  </si>
-  <si>
-    <t>Устройство</t>
-  </si>
-  <si>
-    <t>SID_Application_closed</t>
-  </si>
-  <si>
-    <t>Application closed.</t>
-  </si>
-  <si>
-    <t>Приложение закрыто.</t>
-  </si>
-  <si>
-    <t>SID_Versions_do_not_match</t>
-  </si>
-  <si>
-    <t>Client's version does not match server's one!</t>
-  </si>
-  <si>
-    <t>Версия клиента не совпадает с версией сервера</t>
-  </si>
-  <si>
-    <t>SID_Please_close_browser</t>
-  </si>
-  <si>
-    <t>Please close browser's tab and start Fibertest again.</t>
-  </si>
-  <si>
-    <t>Пожалуйста, закройте вкладку браузера и повторите подключение в новой вкладке.</t>
+    <t>SID_Select_client_software_version</t>
+  </si>
+  <si>
+    <t>Select Client software version</t>
+  </si>
+  <si>
+    <t>Выбрать версию ПК Client</t>
+  </si>
+  <si>
+    <t>SID_Server_info</t>
+  </si>
+  <si>
+    <t>Server info</t>
+  </si>
+  <si>
+    <t>Данные сервера</t>
+  </si>
+  <si>
+    <t>SID_Test_connection</t>
+  </si>
+  <si>
+    <t>Test connection</t>
+  </si>
+  <si>
+    <t>SID_Server_software_version</t>
+  </si>
+  <si>
+    <t>Server software version</t>
+  </si>
+  <si>
+    <t>Версия ПК Server</t>
+  </si>
+  <si>
+    <t>SID_Client_software_versions</t>
+  </si>
+  <si>
+    <t>Client software versions</t>
+  </si>
+  <si>
+    <t>Версии ПК Client</t>
+  </si>
+  <si>
+    <t>SID_Remote_Server_software_version_is_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remote Server software version is </t>
+  </si>
+  <si>
+    <t>На удаленном сервере версия ПК Server</t>
+  </si>
+  <si>
+    <t>SID_Matching_version_of_Client_software</t>
+  </si>
+  <si>
+    <t>Matching version of Client software</t>
+  </si>
+  <si>
+    <t>Соответствующая версия ПК "Client"</t>
+  </si>
+  <si>
+    <t>SID_found_</t>
+  </si>
+  <si>
+    <t>found!</t>
+  </si>
+  <si>
+    <t>найдена!</t>
+  </si>
+  <si>
+    <t>SID_not_found_</t>
+  </si>
+  <si>
+    <t>not found!</t>
+  </si>
+  <si>
+    <t>не найдена!</t>
+  </si>
+  <si>
+    <t>SID_The_version_of_the_Client_software</t>
+  </si>
+  <si>
+    <t>The version of the Client software</t>
+  </si>
+  <si>
+    <t>Версия ПК "Client"</t>
+  </si>
+  <si>
+    <t>SID_Check_server_settings__please_</t>
+  </si>
+  <si>
+    <t>Check server settings, please.</t>
+  </si>
+  <si>
+    <t>Пожалуйста, проверьте настройки сервера.</t>
+  </si>
+  <si>
+    <t>SID_to_connect_to_this_server_is</t>
+  </si>
+  <si>
+    <t>to connect to this server is</t>
+  </si>
+  <si>
+    <t>для соединения с данным сервером</t>
+  </si>
+  <si>
+    <t>SID_not_specified_</t>
+  </si>
+  <si>
+    <t>not specified.</t>
+  </si>
+  <si>
+    <t>не указана.</t>
+  </si>
+  <si>
+    <t>SID_Specified_folder_of_the_Client_software</t>
+  </si>
+  <si>
+    <t>Specified folder of the Client software</t>
+  </si>
+  <si>
+    <t>Указанная папка с ПК "Client"</t>
+  </si>
+  <si>
+    <t>SID_does_not_exist_</t>
+  </si>
+  <si>
+    <t>does not exist!</t>
+  </si>
+  <si>
+    <t>не существует!</t>
+  </si>
+  <si>
+    <t>SID_Client_software_folder</t>
+  </si>
+  <si>
+    <t>Client software folder</t>
+  </si>
+  <si>
+    <t>Папка ПК Client</t>
+  </si>
+  <si>
+    <t>SID_Versions_of_Client_software_installed_at_the_workplace_</t>
+  </si>
+  <si>
+    <t>Versions of Client software installed at the workplace:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Установленные на рабочем месте версии ПК Client: </t>
+  </si>
+  <si>
+    <t>SID_Can_t_get_current_assembly_path</t>
+  </si>
+  <si>
+    <t>Can't get current assembly path</t>
+  </si>
+  <si>
+    <t>Не удалось получить путь к файлам запущенной программы</t>
+  </si>
+  <si>
+    <t>SID_Can_t_find_base_folder__0_</t>
+  </si>
+  <si>
+    <t>SID_Can_t_find_any_Client_software_installation_in__0_</t>
+  </si>
+  <si>
+    <t>SID_Invalid_installation_in_folder__0_</t>
+  </si>
+  <si>
+    <t>SID_Version__0__in_folder__1_</t>
+  </si>
+  <si>
+    <t>SID_Turn_off_the_audible_and_visual_alarms_about_Suspicion</t>
+  </si>
+  <si>
+    <t>Turn off the audible and visual alarms about Suspicion</t>
+  </si>
+  <si>
+    <t>Отключить звуковую и визуальную сигнализацию о появлении "Подозрение"</t>
+  </si>
+  <si>
+    <t>SID_Turn_off_the_audible_and_visual_alarms_about_events</t>
+  </si>
+  <si>
+    <t>Turn off the audible and visual alarms about events</t>
+  </si>
+  <si>
+    <t>Отключить звуковую и визуальную сигнализацию о появлении событий</t>
+  </si>
+  <si>
+    <t>SID_Rtu_status_events_off</t>
+  </si>
+  <si>
+    <t>RTU status events off</t>
+  </si>
+  <si>
+    <t>События состояния RTU выкл.</t>
+  </si>
+  <si>
+    <t>SID_RTU_status_events_in_Db</t>
+  </si>
+  <si>
+    <t>RTU status events:</t>
+  </si>
+  <si>
+    <t>Cобытий состояния RTU:</t>
+  </si>
+  <si>
+    <t>SID_Database_compression</t>
+  </si>
+  <si>
+    <t>Database compression</t>
+  </si>
+  <si>
+    <t>Сжатие базы данных</t>
+  </si>
+  <si>
+    <t>SID_Status_changed__RTU_substitution_detected</t>
+  </si>
+  <si>
+    <t>Status changed, RTU substitution detected</t>
+  </si>
+  <si>
+    <t>Состояние изменено, обнаружена замена RTU</t>
+  </si>
+  <si>
+    <t>SID_Measurement__Cleared</t>
+  </si>
+  <si>
+    <t>Measurement: Cleared</t>
+  </si>
+  <si>
+    <t>Измерение: Очищено</t>
+  </si>
+  <si>
+    <t>SID__0__base_ref_not_found</t>
+  </si>
+  <si>
+    <t>SID_Trace___0_____1__at__2_</t>
+  </si>
+  <si>
+    <t>SID_RTU___0_____1__at__2_</t>
+  </si>
+  <si>
+    <t>SID_RTU_re_initialization</t>
+  </si>
+  <si>
+    <t>RTU re-initialization</t>
+  </si>
+  <si>
+    <t>Переинициализация RTU</t>
+  </si>
+  <si>
+    <t>SID_Cleared__ID___0_</t>
+  </si>
+  <si>
+    <t>SID_RTU_initialized_and_base_refs_transferred_successfully</t>
+  </si>
+  <si>
+    <t>RTU initialized and base refs transferred successfully</t>
+  </si>
+  <si>
+    <t>RTU инициализирован и базовые пересланны успешно</t>
+  </si>
+  <si>
+    <t>SID_RTU_initialized_but_failed_to_send_base_refs</t>
+  </si>
+  <si>
+    <t>RTU initialized but failed to send base refs</t>
+  </si>
+  <si>
+    <t>RTU инициализирован. Не удалось переслать базовые рефлектограммы</t>
+  </si>
+  <si>
+    <t>en-US</t>
+  </si>
+  <si>
+    <t>ru-RU</t>
   </si>
   <si>
     <t>{{0}} without name</t>
@@ -10561,16 +10597,274 @@
     <t>Не удалось применить параметры из {{0}} базовой</t>
   </si>
   <si>
-    <t>en-US</t>
-  </si>
-  <si>
-    <t>ru-RU</t>
-  </si>
-  <si>
-    <t>Measurement and analysis completed successfully</t>
-  </si>
-  <si>
-    <t>Измерение и анализ завершены успешно</t>
+    <t>Can't find base folder {{0}}</t>
+  </si>
+  <si>
+    <t>Не найдена базовая папка {{0}}</t>
+  </si>
+  <si>
+    <t>Can't find any Client software installation in {{0}}</t>
+  </si>
+  <si>
+    <t>Не найдены установки ПК Client в {{0}}</t>
+  </si>
+  <si>
+    <t>Invalid installation in folder {{0}}</t>
+  </si>
+  <si>
+    <t>Не корректная установка в папке {{0}}</t>
+  </si>
+  <si>
+    <t>Version {{0}} in folder {{1}}</t>
+  </si>
+  <si>
+    <t>Версия {{0}} в папке {{1}}</t>
+  </si>
+  <si>
+    <t>{{0}} base ref not found</t>
+  </si>
+  <si>
+    <t>{{0}} базовая не найдена</t>
+  </si>
+  <si>
+    <t>Trace '{{0}}'. {{1}} at {{2}}</t>
+  </si>
+  <si>
+    <t>Трасса '{{0}}'. {{1}} в {{2}}</t>
+  </si>
+  <si>
+    <t>RTU '{{0}}'. {{1}} at {{2}}</t>
+  </si>
+  <si>
+    <t>RTU '{{0}}'. {{1}} в {{2}}</t>
+  </si>
+  <si>
+    <t>Cleared: ID  {{0}}</t>
+  </si>
+  <si>
+    <t>Очищено: ID {{0}}</t>
+  </si>
+  <si>
+    <t>SID_Items_per_page</t>
+  </si>
+  <si>
+    <t>Items per page</t>
+  </si>
+  <si>
+    <t>Строк на странице</t>
+  </si>
+  <si>
+    <t>SID_Next_page</t>
+  </si>
+  <si>
+    <t>Next page</t>
+  </si>
+  <si>
+    <t>Следующая страница</t>
+  </si>
+  <si>
+    <t>SID_Previous_page</t>
+  </si>
+  <si>
+    <t>Previous page</t>
+  </si>
+  <si>
+    <t>Предыдущая страница</t>
+  </si>
+  <si>
+    <t>SID_of</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> of </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> из </t>
+  </si>
+  <si>
+    <t>SID_Responsive</t>
+  </si>
+  <si>
+    <t>Responsive</t>
+  </si>
+  <si>
+    <t>Отзывчивый</t>
+  </si>
+  <si>
+    <t>SID_Rtu_Moni_Settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{0}}: Monitoring Settings </t>
+  </si>
+  <si>
+    <t>{{0}}:  Настройки мониторинга</t>
+  </si>
+  <si>
+    <t>SID_measurement_frequency</t>
+  </si>
+  <si>
+    <t>measurement frequency</t>
+  </si>
+  <si>
+    <t>частота измерений</t>
+  </si>
+  <si>
+    <t>SID_saving_frequency</t>
+  </si>
+  <si>
+    <t>saving frequency</t>
+  </si>
+  <si>
+    <t>частота сохранения</t>
+  </si>
+  <si>
+    <t>SID_Cycle_full_time_sec</t>
+  </si>
+  <si>
+    <t>Cycle full time {{0}} sec</t>
+  </si>
+  <si>
+    <t>Полное время цикла {{0}} сек</t>
+  </si>
+  <si>
+    <t>SID_Auto</t>
+  </si>
+  <si>
+    <t>Авто</t>
+  </si>
+  <si>
+    <t>SID_Landmark_count_does_not_match_graph</t>
+  </si>
+  <si>
+    <t>Landmark count on base ref does not match graph</t>
+  </si>
+  <si>
+    <t>Количество ориентиров на рефлектограмме не соответствует графу</t>
+  </si>
+  <si>
+    <t>Attach optical switch</t>
+  </si>
+  <si>
+    <t>Подключить оптический переключатель</t>
+  </si>
+  <si>
+    <t>SID_Optical_switch_s_IP_address</t>
+  </si>
+  <si>
+    <t>Optical switch's IP address</t>
+  </si>
+  <si>
+    <t>IP адрес оптического переключателя</t>
+  </si>
+  <si>
+    <t>SID_Web_Client_software_version</t>
+  </si>
+  <si>
+    <t>Web-Client software version</t>
+  </si>
+  <si>
+    <t>Версия ПК WebClient</t>
+  </si>
+  <si>
+    <t>SID_Web_Api_software_version</t>
+  </si>
+  <si>
+    <t>Web API software version</t>
+  </si>
+  <si>
+    <t>Верия ПК Web API</t>
+  </si>
+  <si>
+    <t>SID_Save_reflectogram</t>
+  </si>
+  <si>
+    <t>Save reflectogram</t>
+  </si>
+  <si>
+    <t>Сохранить рефлектограмму</t>
+  </si>
+  <si>
+    <t>SID_Save_ref_and_base</t>
+  </si>
+  <si>
+    <t>Save ref + base</t>
+  </si>
+  <si>
+    <t>Сохранить рефлектограмму + базовую</t>
+  </si>
+  <si>
+    <t>SID_Logout</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>Выйти</t>
+  </si>
+  <si>
+    <t>SID_RTU_Tree</t>
+  </si>
+  <si>
+    <t>RTUs</t>
+  </si>
+  <si>
+    <t>Модули</t>
+  </si>
+  <si>
+    <t>SID_Reject</t>
+  </si>
+  <si>
+    <t>Reject</t>
+  </si>
+  <si>
+    <t>Отклонить</t>
+  </si>
+  <si>
+    <t>SID_Yes</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>SID_No</t>
+  </si>
+  <si>
+    <t>SID_Device</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Устройство</t>
+  </si>
+  <si>
+    <t>SID_Application_closed</t>
+  </si>
+  <si>
+    <t>Application closed.</t>
+  </si>
+  <si>
+    <t>Приложение закрыто.</t>
+  </si>
+  <si>
+    <t>SID_Versions_do_not_match</t>
+  </si>
+  <si>
+    <t>Client's version does not match server's one!</t>
+  </si>
+  <si>
+    <t>Версия клиента не совпадает с версией сервера</t>
+  </si>
+  <si>
+    <t>SID_Please_close_browser</t>
+  </si>
+  <si>
+    <t>Please close browser's tab and start Fibertest again.</t>
+  </si>
+  <si>
+    <t>Пожалуйста, закройте вкладку браузера и повторите подключение в новой вкладке.</t>
   </si>
 </sst>
 </file>
@@ -10630,7 +10924,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -10650,11 +10948,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{B01E8D0C-E0C2-45ED-9CB5-FB111D5749F5}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{A3B747F1-C93F-4209-BEC1-093C94C22B2E}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -10681,7 +10978,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{96F3562E-E770-4E56-929F-31FCB5FBF659}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{2C5511F1-49E8-47C5-9680-2CF6D887A89A}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -10994,17 +11291,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1192"/>
+  <dimension ref="A1:C1225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1048" workbookViewId="0">
-      <selection activeCell="C1068" sqref="C1068"/>
+    <sheetView tabSelected="1" topLeftCell="A1202" workbookViewId="0">
+      <selection activeCell="A1208" sqref="A1208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.7109375" customWidth="1"/>
-    <col min="2" max="2" width="77.42578125" customWidth="1"/>
-    <col min="3" max="3" width="93.85546875" customWidth="1"/>
+    <col min="1" max="1" width="97" customWidth="1"/>
+    <col min="2" max="2" width="120.28515625" customWidth="1"/>
+    <col min="3" max="3" width="243.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -11012,10 +11309,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3509</v>
+        <v>3244</v>
       </c>
       <c r="C1" t="s">
-        <v>3510</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -11452,10 +11749,10 @@
         <v>118</v>
       </c>
       <c r="B41" t="s">
-        <v>3234</v>
+        <v>3246</v>
       </c>
       <c r="C41" t="s">
-        <v>3235</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -11485,10 +11782,10 @@
         <v>125</v>
       </c>
       <c r="B44" t="s">
-        <v>3236</v>
+        <v>3248</v>
       </c>
       <c r="C44" t="s">
-        <v>3236</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -11496,10 +11793,10 @@
         <v>126</v>
       </c>
       <c r="B45" t="s">
-        <v>3237</v>
+        <v>3249</v>
       </c>
       <c r="C45" t="s">
-        <v>3238</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -11738,10 +12035,10 @@
         <v>190</v>
       </c>
       <c r="B67" t="s">
-        <v>3239</v>
+        <v>3251</v>
       </c>
       <c r="C67" t="s">
-        <v>3239</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -12343,10 +12640,10 @@
         <v>353</v>
       </c>
       <c r="B122" t="s">
-        <v>3240</v>
+        <v>3252</v>
       </c>
       <c r="C122" t="s">
-        <v>3241</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -12354,10 +12651,10 @@
         <v>354</v>
       </c>
       <c r="B123" t="s">
-        <v>3242</v>
+        <v>3254</v>
       </c>
       <c r="C123" t="s">
-        <v>3243</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -12728,10 +13025,10 @@
         <v>449</v>
       </c>
       <c r="B157" t="s">
-        <v>3244</v>
+        <v>3256</v>
       </c>
       <c r="C157" t="s">
-        <v>3244</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -12970,10 +13267,10 @@
         <v>511</v>
       </c>
       <c r="B179" t="s">
-        <v>3245</v>
+        <v>3257</v>
       </c>
       <c r="C179" t="s">
-        <v>3246</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -13421,10 +13718,10 @@
         <v>630</v>
       </c>
       <c r="B220" t="s">
-        <v>3247</v>
+        <v>3259</v>
       </c>
       <c r="C220" t="s">
-        <v>3248</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -13465,10 +13762,10 @@
         <v>640</v>
       </c>
       <c r="B224" t="s">
-        <v>3249</v>
+        <v>3261</v>
       </c>
       <c r="C224" t="s">
-        <v>3250</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -13476,10 +13773,10 @@
         <v>641</v>
       </c>
       <c r="B225" t="s">
-        <v>3251</v>
+        <v>3263</v>
       </c>
       <c r="C225" t="s">
-        <v>3252</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -13520,10 +13817,10 @@
         <v>651</v>
       </c>
       <c r="B229" t="s">
-        <v>3253</v>
+        <v>3265</v>
       </c>
       <c r="C229" t="s">
-        <v>3254</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -13531,10 +13828,10 @@
         <v>652</v>
       </c>
       <c r="B230" t="s">
-        <v>3255</v>
+        <v>3267</v>
       </c>
       <c r="C230" t="s">
-        <v>3256</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -13564,10 +13861,10 @@
         <v>658</v>
       </c>
       <c r="B233" t="s">
-        <v>3257</v>
+        <v>3269</v>
       </c>
       <c r="C233" t="s">
-        <v>3257</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -13608,10 +13905,10 @@
         <v>665</v>
       </c>
       <c r="B237" t="s">
-        <v>3258</v>
+        <v>3270</v>
       </c>
       <c r="C237" t="s">
-        <v>3258</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -13619,10 +13916,10 @@
         <v>666</v>
       </c>
       <c r="B238" t="s">
-        <v>3259</v>
+        <v>3271</v>
       </c>
       <c r="C238" t="s">
-        <v>3259</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -13630,10 +13927,10 @@
         <v>667</v>
       </c>
       <c r="B239" t="s">
-        <v>3260</v>
+        <v>3272</v>
       </c>
       <c r="C239" t="s">
-        <v>3260</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -13674,10 +13971,10 @@
         <v>675</v>
       </c>
       <c r="B243" t="s">
-        <v>3261</v>
+        <v>3273</v>
       </c>
       <c r="C243" t="s">
-        <v>3261</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -13883,10 +14180,10 @@
         <v>730</v>
       </c>
       <c r="B262" t="s">
-        <v>3262</v>
+        <v>3274</v>
       </c>
       <c r="C262" t="s">
-        <v>3263</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -13894,10 +14191,10 @@
         <v>731</v>
       </c>
       <c r="B263" t="s">
-        <v>3264</v>
+        <v>3276</v>
       </c>
       <c r="C263" t="s">
-        <v>3265</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -13905,10 +14202,10 @@
         <v>732</v>
       </c>
       <c r="B264" t="s">
-        <v>3266</v>
+        <v>3278</v>
       </c>
       <c r="C264" t="s">
-        <v>3267</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -13916,10 +14213,10 @@
         <v>733</v>
       </c>
       <c r="B265" t="s">
-        <v>3268</v>
+        <v>3280</v>
       </c>
       <c r="C265" t="s">
-        <v>3269</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -14004,10 +14301,10 @@
         <v>755</v>
       </c>
       <c r="B273" t="s">
-        <v>3270</v>
+        <v>3282</v>
       </c>
       <c r="C273" t="s">
-        <v>3271</v>
+        <v>3283</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -14015,10 +14312,10 @@
         <v>756</v>
       </c>
       <c r="B274" t="s">
-        <v>3272</v>
+        <v>3284</v>
       </c>
       <c r="C274" t="s">
-        <v>3273</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -14026,10 +14323,10 @@
         <v>757</v>
       </c>
       <c r="B275" t="s">
-        <v>3274</v>
+        <v>3286</v>
       </c>
       <c r="C275" t="s">
-        <v>3275</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -14323,10 +14620,10 @@
         <v>836</v>
       </c>
       <c r="B302" t="s">
-        <v>3276</v>
+        <v>3288</v>
       </c>
       <c r="C302" t="s">
-        <v>3277</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -14334,10 +14631,10 @@
         <v>837</v>
       </c>
       <c r="B303" t="s">
-        <v>3278</v>
+        <v>3290</v>
       </c>
       <c r="C303" t="s">
-        <v>3279</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -14422,10 +14719,10 @@
         <v>859</v>
       </c>
       <c r="B311" t="s">
-        <v>3280</v>
+        <v>3292</v>
       </c>
       <c r="C311" t="s">
-        <v>3281</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -14433,10 +14730,10 @@
         <v>860</v>
       </c>
       <c r="B312" t="s">
-        <v>3282</v>
+        <v>3294</v>
       </c>
       <c r="C312" t="s">
-        <v>3283</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -14444,10 +14741,10 @@
         <v>861</v>
       </c>
       <c r="B313" t="s">
-        <v>3284</v>
+        <v>3296</v>
       </c>
       <c r="C313" t="s">
-        <v>3285</v>
+        <v>3297</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -14455,10 +14752,10 @@
         <v>862</v>
       </c>
       <c r="B314" t="s">
-        <v>3286</v>
+        <v>3298</v>
       </c>
       <c r="C314" t="s">
-        <v>3287</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -14576,10 +14873,10 @@
         <v>893</v>
       </c>
       <c r="B325" t="s">
-        <v>3288</v>
+        <v>3300</v>
       </c>
       <c r="C325" t="s">
-        <v>3289</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -14620,10 +14917,10 @@
         <v>903</v>
       </c>
       <c r="B329" t="s">
-        <v>3290</v>
+        <v>3302</v>
       </c>
       <c r="C329" t="s">
-        <v>3291</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -14642,10 +14939,10 @@
         <v>907</v>
       </c>
       <c r="B331" t="s">
-        <v>3292</v>
+        <v>3304</v>
       </c>
       <c r="C331" t="s">
-        <v>3293</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -15181,10 +15478,10 @@
         <v>1050</v>
       </c>
       <c r="B380" t="s">
-        <v>3294</v>
+        <v>3306</v>
       </c>
       <c r="C380" t="s">
-        <v>3295</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -15544,10 +15841,10 @@
         <v>1146</v>
       </c>
       <c r="B413" t="s">
-        <v>3296</v>
+        <v>3308</v>
       </c>
       <c r="C413" t="s">
-        <v>3297</v>
+        <v>3309</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -15555,10 +15852,10 @@
         <v>1147</v>
       </c>
       <c r="B414" t="s">
-        <v>3298</v>
+        <v>3310</v>
       </c>
       <c r="C414" t="s">
-        <v>3299</v>
+        <v>3311</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -15566,10 +15863,10 @@
         <v>1148</v>
       </c>
       <c r="B415" t="s">
-        <v>3300</v>
+        <v>3312</v>
       </c>
       <c r="C415" t="s">
-        <v>3301</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -15588,10 +15885,10 @@
         <v>1152</v>
       </c>
       <c r="B417" t="s">
-        <v>3302</v>
+        <v>3314</v>
       </c>
       <c r="C417" t="s">
-        <v>3303</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -15621,10 +15918,10 @@
         <v>1159</v>
       </c>
       <c r="B420" t="s">
-        <v>3304</v>
+        <v>3316</v>
       </c>
       <c r="C420" t="s">
-        <v>3305</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -15731,10 +16028,10 @@
         <v>1187</v>
       </c>
       <c r="B430" t="s">
-        <v>3306</v>
+        <v>3318</v>
       </c>
       <c r="C430" t="s">
-        <v>3307</v>
+        <v>3319</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -15742,10 +16039,10 @@
         <v>1188</v>
       </c>
       <c r="B431" t="s">
-        <v>3308</v>
+        <v>3320</v>
       </c>
       <c r="C431" t="s">
-        <v>3309</v>
+        <v>3321</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -15797,10 +16094,10 @@
         <v>1198</v>
       </c>
       <c r="B436" t="s">
-        <v>3310</v>
+        <v>3322</v>
       </c>
       <c r="C436" t="s">
-        <v>3311</v>
+        <v>3323</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -15808,10 +16105,10 @@
         <v>1199</v>
       </c>
       <c r="B437" t="s">
-        <v>3312</v>
+        <v>3324</v>
       </c>
       <c r="C437" t="s">
-        <v>3313</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -15929,10 +16226,10 @@
         <v>1230</v>
       </c>
       <c r="B448" t="s">
-        <v>3314</v>
+        <v>3326</v>
       </c>
       <c r="C448" t="s">
-        <v>3315</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -15940,10 +16237,10 @@
         <v>1231</v>
       </c>
       <c r="B449" t="s">
-        <v>3316</v>
+        <v>3328</v>
       </c>
       <c r="C449" t="s">
-        <v>3317</v>
+        <v>3329</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -15962,10 +16259,10 @@
         <v>1235</v>
       </c>
       <c r="B451" t="s">
-        <v>3318</v>
+        <v>3330</v>
       </c>
       <c r="C451" t="s">
-        <v>3319</v>
+        <v>3331</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -15973,10 +16270,10 @@
         <v>1236</v>
       </c>
       <c r="B452" t="s">
-        <v>3320</v>
+        <v>3332</v>
       </c>
       <c r="C452" t="s">
-        <v>3321</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -16083,10 +16380,10 @@
         <v>1264</v>
       </c>
       <c r="B462" t="s">
-        <v>3322</v>
+        <v>3334</v>
       </c>
       <c r="C462" t="s">
-        <v>3323</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -16094,10 +16391,10 @@
         <v>1265</v>
       </c>
       <c r="B463" t="s">
-        <v>3324</v>
+        <v>3336</v>
       </c>
       <c r="C463" t="s">
-        <v>3325</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
@@ -16226,10 +16523,10 @@
         <v>1299</v>
       </c>
       <c r="B475" t="s">
-        <v>3326</v>
+        <v>3338</v>
       </c>
       <c r="C475" t="s">
-        <v>3327</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
@@ -16556,10 +16853,10 @@
         <v>1386</v>
       </c>
       <c r="B505" t="s">
-        <v>3328</v>
+        <v>3340</v>
       </c>
       <c r="C505" t="s">
-        <v>3329</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
@@ -16567,10 +16864,10 @@
         <v>1387</v>
       </c>
       <c r="B506" t="s">
-        <v>3330</v>
+        <v>3342</v>
       </c>
       <c r="C506" t="s">
-        <v>3331</v>
+        <v>3343</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
@@ -16644,10 +16941,10 @@
         <v>1406</v>
       </c>
       <c r="B513" t="s">
-        <v>3332</v>
+        <v>3344</v>
       </c>
       <c r="C513" t="s">
-        <v>3333</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
@@ -17018,10 +17315,10 @@
         <v>1504</v>
       </c>
       <c r="B547" t="s">
-        <v>3334</v>
+        <v>3346</v>
       </c>
       <c r="C547" t="s">
-        <v>3335</v>
+        <v>3347</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
@@ -17062,10 +17359,10 @@
         <v>1514</v>
       </c>
       <c r="B551" t="s">
-        <v>3336</v>
+        <v>3348</v>
       </c>
       <c r="C551" t="s">
-        <v>3337</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
@@ -17447,10 +17744,10 @@
         <v>1617</v>
       </c>
       <c r="B586" t="s">
-        <v>3338</v>
+        <v>3350</v>
       </c>
       <c r="C586" t="s">
-        <v>3339</v>
+        <v>3351</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
@@ -17546,10 +17843,10 @@
         <v>1640</v>
       </c>
       <c r="B595" t="s">
-        <v>3340</v>
+        <v>3352</v>
       </c>
       <c r="C595" t="s">
-        <v>3341</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
@@ -17568,10 +17865,10 @@
         <v>1644</v>
       </c>
       <c r="B597" t="s">
-        <v>3342</v>
+        <v>3354</v>
       </c>
       <c r="C597" t="s">
-        <v>3343</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
@@ -17623,10 +17920,10 @@
         <v>1657</v>
       </c>
       <c r="B602" t="s">
-        <v>3344</v>
+        <v>3356</v>
       </c>
       <c r="C602" t="s">
-        <v>3345</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
@@ -17634,10 +17931,10 @@
         <v>1658</v>
       </c>
       <c r="B603" t="s">
-        <v>3346</v>
+        <v>3358</v>
       </c>
       <c r="C603" t="s">
-        <v>3347</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
@@ -17656,10 +17953,10 @@
         <v>1662</v>
       </c>
       <c r="B605" t="s">
-        <v>3348</v>
+        <v>3360</v>
       </c>
       <c r="C605" t="s">
-        <v>3349</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
@@ -17667,10 +17964,10 @@
         <v>1663</v>
       </c>
       <c r="B606" t="s">
-        <v>3350</v>
+        <v>3362</v>
       </c>
       <c r="C606" t="s">
-        <v>3351</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
@@ -17678,10 +17975,10 @@
         <v>1664</v>
       </c>
       <c r="B607" t="s">
-        <v>3352</v>
+        <v>3364</v>
       </c>
       <c r="C607" t="s">
-        <v>3353</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
@@ -17689,10 +17986,10 @@
         <v>1665</v>
       </c>
       <c r="B608" t="s">
-        <v>3354</v>
+        <v>3366</v>
       </c>
       <c r="C608" t="s">
-        <v>3355</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
@@ -17755,10 +18052,10 @@
         <v>1681</v>
       </c>
       <c r="B614" t="s">
-        <v>3356</v>
+        <v>3368</v>
       </c>
       <c r="C614" t="s">
-        <v>3357</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
@@ -17777,10 +18074,10 @@
         <v>1685</v>
       </c>
       <c r="B616" t="s">
-        <v>3358</v>
+        <v>3370</v>
       </c>
       <c r="C616" t="s">
-        <v>3359</v>
+        <v>3371</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
@@ -17821,10 +18118,10 @@
         <v>1695</v>
       </c>
       <c r="B620" t="s">
-        <v>3360</v>
+        <v>3372</v>
       </c>
       <c r="C620" t="s">
-        <v>3361</v>
+        <v>3373</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
@@ -17843,10 +18140,10 @@
         <v>1699</v>
       </c>
       <c r="B622" t="s">
-        <v>3362</v>
+        <v>3374</v>
       </c>
       <c r="C622" t="s">
-        <v>3363</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
@@ -17854,10 +18151,10 @@
         <v>1700</v>
       </c>
       <c r="B623" t="s">
-        <v>3364</v>
+        <v>3376</v>
       </c>
       <c r="C623" t="s">
-        <v>3365</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
@@ -17876,10 +18173,10 @@
         <v>1704</v>
       </c>
       <c r="B625" t="s">
-        <v>3366</v>
+        <v>3378</v>
       </c>
       <c r="C625" t="s">
-        <v>3367</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
@@ -17887,10 +18184,10 @@
         <v>1705</v>
       </c>
       <c r="B626" t="s">
-        <v>3368</v>
+        <v>3380</v>
       </c>
       <c r="C626" t="s">
-        <v>3369</v>
+        <v>3381</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
@@ -17997,10 +18294,10 @@
         <v>1732</v>
       </c>
       <c r="B636" t="s">
-        <v>3370</v>
+        <v>3382</v>
       </c>
       <c r="C636" t="s">
-        <v>3371</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
@@ -18008,10 +18305,10 @@
         <v>1733</v>
       </c>
       <c r="B637" t="s">
-        <v>3372</v>
+        <v>3384</v>
       </c>
       <c r="C637" t="s">
-        <v>3373</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
@@ -18030,10 +18327,10 @@
         <v>1737</v>
       </c>
       <c r="B639" t="s">
-        <v>3374</v>
+        <v>3386</v>
       </c>
       <c r="C639" t="s">
-        <v>3375</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
@@ -18041,10 +18338,10 @@
         <v>1738</v>
       </c>
       <c r="B640" t="s">
-        <v>3376</v>
+        <v>3388</v>
       </c>
       <c r="C640" t="s">
-        <v>3377</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
@@ -18052,10 +18349,10 @@
         <v>1739</v>
       </c>
       <c r="B641" t="s">
-        <v>3378</v>
+        <v>3390</v>
       </c>
       <c r="C641" t="s">
-        <v>3379</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
@@ -18063,10 +18360,10 @@
         <v>1740</v>
       </c>
       <c r="B642" t="s">
-        <v>3380</v>
+        <v>3392</v>
       </c>
       <c r="C642" t="s">
-        <v>3381</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.25">
@@ -18074,10 +18371,10 @@
         <v>1741</v>
       </c>
       <c r="B643" t="s">
-        <v>3382</v>
+        <v>3394</v>
       </c>
       <c r="C643" t="s">
-        <v>3383</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
@@ -18085,10 +18382,10 @@
         <v>1742</v>
       </c>
       <c r="B644" t="s">
-        <v>3384</v>
+        <v>3396</v>
       </c>
       <c r="C644" t="s">
-        <v>3385</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
@@ -18096,10 +18393,10 @@
         <v>1743</v>
       </c>
       <c r="B645" t="s">
-        <v>3386</v>
+        <v>3398</v>
       </c>
       <c r="C645" t="s">
-        <v>3387</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.25">
@@ -18107,10 +18404,10 @@
         <v>1744</v>
       </c>
       <c r="B646" t="s">
-        <v>3388</v>
+        <v>3400</v>
       </c>
       <c r="C646" t="s">
-        <v>3389</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
@@ -18118,10 +18415,10 @@
         <v>1745</v>
       </c>
       <c r="B647" t="s">
-        <v>3390</v>
+        <v>3402</v>
       </c>
       <c r="C647" t="s">
-        <v>3391</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
@@ -18470,10 +18767,10 @@
         <v>1839</v>
       </c>
       <c r="B679" t="s">
-        <v>3392</v>
+        <v>3404</v>
       </c>
       <c r="C679" t="s">
-        <v>3393</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.25">
@@ -18503,10 +18800,10 @@
         <v>1846</v>
       </c>
       <c r="B682" t="s">
-        <v>3394</v>
+        <v>3406</v>
       </c>
       <c r="C682" t="s">
-        <v>3395</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.25">
@@ -18514,10 +18811,10 @@
         <v>1847</v>
       </c>
       <c r="B683" t="s">
-        <v>3396</v>
+        <v>3408</v>
       </c>
       <c r="C683" t="s">
-        <v>3397</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.25">
@@ -18525,10 +18822,10 @@
         <v>1848</v>
       </c>
       <c r="B684" t="s">
-        <v>3398</v>
+        <v>3410</v>
       </c>
       <c r="C684" t="s">
-        <v>3399</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.25">
@@ -18536,10 +18833,10 @@
         <v>1849</v>
       </c>
       <c r="B685" t="s">
-        <v>3400</v>
+        <v>3412</v>
       </c>
       <c r="C685" t="s">
-        <v>3401</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.25">
@@ -18547,10 +18844,10 @@
         <v>1850</v>
       </c>
       <c r="B686" t="s">
-        <v>3402</v>
+        <v>3414</v>
       </c>
       <c r="C686" t="s">
-        <v>3403</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.25">
@@ -18558,10 +18855,10 @@
         <v>1851</v>
       </c>
       <c r="B687" t="s">
-        <v>3404</v>
+        <v>3416</v>
       </c>
       <c r="C687" t="s">
-        <v>3405</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.25">
@@ -19031,10 +19328,10 @@
         <v>1977</v>
       </c>
       <c r="B730" t="s">
-        <v>3406</v>
+        <v>3418</v>
       </c>
       <c r="C730" t="s">
-        <v>3407</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.25">
@@ -19141,10 +19438,10 @@
         <v>2004</v>
       </c>
       <c r="B740" t="s">
-        <v>3408</v>
+        <v>3420</v>
       </c>
       <c r="C740" t="s">
-        <v>3409</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.25">
@@ -19152,10 +19449,10 @@
         <v>2005</v>
       </c>
       <c r="B741" t="s">
-        <v>3410</v>
+        <v>3422</v>
       </c>
       <c r="C741" t="s">
-        <v>3411</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.25">
@@ -19163,10 +19460,10 @@
         <v>2006</v>
       </c>
       <c r="B742" t="s">
-        <v>3412</v>
+        <v>3424</v>
       </c>
       <c r="C742" t="s">
-        <v>3413</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.25">
@@ -19174,10 +19471,10 @@
         <v>2007</v>
       </c>
       <c r="B743" t="s">
-        <v>3414</v>
+        <v>3426</v>
       </c>
       <c r="C743" t="s">
-        <v>3415</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.25">
@@ -19320,29 +19617,29 @@
         <v>2045</v>
       </c>
       <c r="C756" t="s">
-        <v>2046</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B757" t="s">
         <v>2047</v>
       </c>
-      <c r="B757" t="s">
+      <c r="C757" t="s">
         <v>2048</v>
-      </c>
-      <c r="C757" t="s">
-        <v>2049</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B758" t="s">
         <v>2050</v>
       </c>
-      <c r="B758" t="s">
+      <c r="C758" t="s">
         <v>2051</v>
-      </c>
-      <c r="C758" t="s">
-        <v>1980</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.25">
@@ -19394,43 +19691,43 @@
         <v>2064</v>
       </c>
       <c r="B763" t="s">
-        <v>2065</v>
+        <v>1366</v>
       </c>
       <c r="C763" t="s">
-        <v>2066</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="B764" t="s">
-        <v>2068</v>
+        <v>1369</v>
       </c>
       <c r="C764" t="s">
-        <v>2069</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
-        <v>2070</v>
+        <v>2066</v>
       </c>
       <c r="B765" t="s">
-        <v>1366</v>
+        <v>2067</v>
       </c>
       <c r="C765" t="s">
-        <v>1367</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B766" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C766" t="s">
         <v>2071</v>
-      </c>
-      <c r="B766" t="s">
-        <v>1369</v>
-      </c>
-      <c r="C766" t="s">
-        <v>1370</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.25">
@@ -19507,29 +19804,29 @@
         <v>2091</v>
       </c>
       <c r="C773" t="s">
-        <v>2092</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B774" t="s">
         <v>2093</v>
       </c>
-      <c r="B774" t="s">
+      <c r="C774" t="s">
         <v>2094</v>
-      </c>
-      <c r="C774" t="s">
-        <v>2095</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B775" t="s">
         <v>2096</v>
       </c>
-      <c r="B775" t="s">
+      <c r="C775" t="s">
         <v>2097</v>
-      </c>
-      <c r="C775" t="s">
-        <v>2077</v>
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.25">
@@ -19570,76 +19867,76 @@
         <v>2107</v>
       </c>
       <c r="B779" t="s">
-        <v>2108</v>
+        <v>3428</v>
       </c>
       <c r="C779" t="s">
-        <v>2109</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="B780" t="s">
-        <v>2111</v>
+        <v>3430</v>
       </c>
       <c r="C780" t="s">
-        <v>2112</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
-        <v>2113</v>
+        <v>2109</v>
       </c>
       <c r="B781" t="s">
-        <v>3416</v>
+        <v>3432</v>
       </c>
       <c r="C781" t="s">
-        <v>3417</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
-        <v>2114</v>
+        <v>2110</v>
       </c>
       <c r="B782" t="s">
-        <v>3418</v>
+        <v>3434</v>
       </c>
       <c r="C782" t="s">
-        <v>3419</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
-        <v>2115</v>
+        <v>2111</v>
       </c>
       <c r="B783" t="s">
-        <v>3420</v>
+        <v>3436</v>
       </c>
       <c r="C783" t="s">
-        <v>3421</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
-        <v>2116</v>
+        <v>2112</v>
       </c>
       <c r="B784" t="s">
-        <v>3422</v>
+        <v>2113</v>
       </c>
       <c r="C784" t="s">
-        <v>3423</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B785" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C785" t="s">
         <v>2117</v>
-      </c>
-      <c r="B785" t="s">
-        <v>3424</v>
-      </c>
-      <c r="C785" t="s">
-        <v>3425</v>
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.25">
@@ -19647,43 +19944,43 @@
         <v>2118</v>
       </c>
       <c r="B786" t="s">
-        <v>2119</v>
+        <v>3438</v>
       </c>
       <c r="C786" t="s">
-        <v>2120</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="B787" t="s">
-        <v>2122</v>
+        <v>3440</v>
       </c>
       <c r="C787" t="s">
-        <v>2123</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
-        <v>2124</v>
+        <v>2120</v>
       </c>
       <c r="B788" t="s">
-        <v>3426</v>
+        <v>2121</v>
       </c>
       <c r="C788" t="s">
-        <v>3427</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B789" t="s">
+        <v>2124</v>
+      </c>
+      <c r="C789" t="s">
         <v>2125</v>
-      </c>
-      <c r="B789" t="s">
-        <v>3428</v>
-      </c>
-      <c r="C789" t="s">
-        <v>3429</v>
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.25">
@@ -19790,54 +20087,54 @@
         <v>2153</v>
       </c>
       <c r="B799" t="s">
-        <v>2154</v>
+        <v>3442</v>
       </c>
       <c r="C799" t="s">
-        <v>2155</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B800" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C800" t="s">
         <v>2156</v>
-      </c>
-      <c r="B800" t="s">
-        <v>2157</v>
-      </c>
-      <c r="C800" t="s">
-        <v>2158</v>
       </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="B801" t="s">
-        <v>3430</v>
+        <v>3444</v>
       </c>
       <c r="C801" t="s">
-        <v>3431</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B802" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C802" t="s">
         <v>2160</v>
-      </c>
-      <c r="B802" t="s">
-        <v>2161</v>
-      </c>
-      <c r="C802" t="s">
-        <v>2162</v>
       </c>
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B803" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C803" t="s">
         <v>2163</v>
-      </c>
-      <c r="B803" t="s">
-        <v>3432</v>
-      </c>
-      <c r="C803" t="s">
-        <v>3433</v>
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.25">
@@ -19867,65 +20164,65 @@
         <v>2170</v>
       </c>
       <c r="B806" t="s">
-        <v>2171</v>
+        <v>3446</v>
       </c>
       <c r="C806" t="s">
-        <v>2172</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="B807" t="s">
-        <v>2174</v>
+        <v>3447</v>
       </c>
       <c r="C807" t="s">
-        <v>2175</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
-        <v>2176</v>
+        <v>2172</v>
       </c>
       <c r="B808" t="s">
-        <v>3434</v>
+        <v>2173</v>
       </c>
       <c r="C808" t="s">
-        <v>3434</v>
+        <v>988</v>
       </c>
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
-        <v>2177</v>
+        <v>2174</v>
       </c>
       <c r="B809" t="s">
-        <v>3435</v>
+        <v>3449</v>
       </c>
       <c r="C809" t="s">
-        <v>3436</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
-        <v>2178</v>
+        <v>2175</v>
       </c>
       <c r="B810" t="s">
-        <v>2179</v>
+        <v>2176</v>
       </c>
       <c r="C810" t="s">
-        <v>988</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B811" t="s">
+        <v>2179</v>
+      </c>
+      <c r="C811" t="s">
         <v>2180</v>
-      </c>
-      <c r="B811" t="s">
-        <v>3437</v>
-      </c>
-      <c r="C811" t="s">
-        <v>3438</v>
       </c>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.25">
@@ -20109,29 +20406,29 @@
         <v>2229</v>
       </c>
       <c r="B828" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C828" t="s">
         <v>2230</v>
-      </c>
-      <c r="C828" t="s">
-        <v>2231</v>
       </c>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B829" t="s">
         <v>2232</v>
       </c>
-      <c r="B829" t="s">
+      <c r="C829" t="s">
         <v>2233</v>
-      </c>
-      <c r="C829" t="s">
-        <v>2234</v>
       </c>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B830" t="s">
         <v>2235</v>
-      </c>
-      <c r="B830" t="s">
-        <v>2182</v>
       </c>
       <c r="C830" t="s">
         <v>2236</v>
@@ -20189,29 +20486,29 @@
         <v>2250</v>
       </c>
       <c r="C835" t="s">
-        <v>2251</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B836" t="s">
         <v>2252</v>
       </c>
-      <c r="B836" t="s">
+      <c r="C836" t="s">
         <v>2253</v>
-      </c>
-      <c r="C836" t="s">
-        <v>2254</v>
       </c>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B837" t="s">
         <v>2255</v>
       </c>
-      <c r="B837" t="s">
+      <c r="C837" t="s">
         <v>2256</v>
-      </c>
-      <c r="C837" t="s">
-        <v>1796</v>
       </c>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.25">
@@ -20230,32 +20527,32 @@
         <v>2260</v>
       </c>
       <c r="B839" t="s">
-        <v>2261</v>
+        <v>3451</v>
       </c>
       <c r="C839" t="s">
-        <v>2262</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B840" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C840" t="s">
         <v>2263</v>
-      </c>
-      <c r="B840" t="s">
-        <v>2264</v>
-      </c>
-      <c r="C840" t="s">
-        <v>2265</v>
       </c>
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B841" t="s">
+        <v>2265</v>
+      </c>
+      <c r="C841" t="s">
         <v>2266</v>
-      </c>
-      <c r="B841" t="s">
-        <v>3439</v>
-      </c>
-      <c r="C841" t="s">
-        <v>3440</v>
       </c>
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.25">
@@ -20263,54 +20560,54 @@
         <v>2267</v>
       </c>
       <c r="B842" t="s">
-        <v>2268</v>
+        <v>3453</v>
       </c>
       <c r="C842" t="s">
-        <v>2269</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="B843" t="s">
-        <v>2271</v>
+        <v>3455</v>
       </c>
       <c r="C843" t="s">
-        <v>2272</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
-        <v>2273</v>
+        <v>2269</v>
       </c>
       <c r="B844" t="s">
-        <v>3441</v>
+        <v>3457</v>
       </c>
       <c r="C844" t="s">
-        <v>3442</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
-        <v>2274</v>
+        <v>2270</v>
       </c>
       <c r="B845" t="s">
-        <v>3443</v>
+        <v>2271</v>
       </c>
       <c r="C845" t="s">
-        <v>3444</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B846" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C846" t="s">
         <v>2275</v>
-      </c>
-      <c r="B846" t="s">
-        <v>3445</v>
-      </c>
-      <c r="C846" t="s">
-        <v>3446</v>
       </c>
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.25">
@@ -20318,32 +20615,32 @@
         <v>2276</v>
       </c>
       <c r="B847" t="s">
-        <v>2277</v>
+        <v>3459</v>
       </c>
       <c r="C847" t="s">
-        <v>2278</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B848" t="s">
+        <v>2278</v>
+      </c>
+      <c r="C848" t="s">
         <v>2279</v>
-      </c>
-      <c r="B848" t="s">
-        <v>2280</v>
-      </c>
-      <c r="C848" t="s">
-        <v>2281</v>
       </c>
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B849" t="s">
+        <v>2281</v>
+      </c>
+      <c r="C849" t="s">
         <v>2282</v>
-      </c>
-      <c r="B849" t="s">
-        <v>3447</v>
-      </c>
-      <c r="C849" t="s">
-        <v>3448</v>
       </c>
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.25">
@@ -20417,29 +20714,29 @@
         <v>2301</v>
       </c>
       <c r="B856" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C856" t="s">
         <v>2302</v>
-      </c>
-      <c r="C856" t="s">
-        <v>2303</v>
       </c>
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B857" t="s">
         <v>2304</v>
       </c>
-      <c r="B857" t="s">
+      <c r="C857" t="s">
         <v>2305</v>
-      </c>
-      <c r="C857" t="s">
-        <v>2306</v>
       </c>
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
+        <v>2306</v>
+      </c>
+      <c r="B858" t="s">
         <v>2307</v>
-      </c>
-      <c r="B858" t="s">
-        <v>2296</v>
       </c>
       <c r="C858" t="s">
         <v>2308</v>
@@ -20516,32 +20813,32 @@
         <v>2327</v>
       </c>
       <c r="B865" t="s">
-        <v>2328</v>
+        <v>3461</v>
       </c>
       <c r="C865" t="s">
-        <v>2329</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B866" t="s">
+        <v>2329</v>
+      </c>
+      <c r="C866" t="s">
         <v>2330</v>
-      </c>
-      <c r="B866" t="s">
-        <v>2331</v>
-      </c>
-      <c r="C866" t="s">
-        <v>2332</v>
       </c>
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B867" t="s">
+        <v>2332</v>
+      </c>
+      <c r="C867" t="s">
         <v>2333</v>
-      </c>
-      <c r="B867" t="s">
-        <v>3449</v>
-      </c>
-      <c r="C867" t="s">
-        <v>3450</v>
       </c>
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.25">
@@ -20549,76 +20846,76 @@
         <v>2334</v>
       </c>
       <c r="B868" t="s">
-        <v>2335</v>
+        <v>3463</v>
       </c>
       <c r="C868" t="s">
-        <v>2336</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="869" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="B869" t="s">
-        <v>2338</v>
+        <v>3465</v>
       </c>
       <c r="C869" t="s">
-        <v>2339</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
-        <v>2340</v>
+        <v>2336</v>
       </c>
       <c r="B870" t="s">
-        <v>3451</v>
+        <v>3467</v>
       </c>
       <c r="C870" t="s">
-        <v>3452</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="871" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
-        <v>2341</v>
+        <v>2337</v>
       </c>
       <c r="B871" t="s">
-        <v>3453</v>
+        <v>3469</v>
       </c>
       <c r="C871" t="s">
-        <v>3454</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
-        <v>2342</v>
+        <v>2338</v>
       </c>
       <c r="B872" t="s">
-        <v>3455</v>
+        <v>3471</v>
       </c>
       <c r="C872" t="s">
-        <v>3456</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
-        <v>2343</v>
+        <v>2339</v>
       </c>
       <c r="B873" t="s">
-        <v>3457</v>
+        <v>2340</v>
       </c>
       <c r="C873" t="s">
-        <v>3458</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B874" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C874" t="s">
         <v>2344</v>
-      </c>
-      <c r="B874" t="s">
-        <v>3459</v>
-      </c>
-      <c r="C874" t="s">
-        <v>3460</v>
       </c>
     </row>
     <row r="875" spans="1:3" x14ac:dyDescent="0.25">
@@ -20780,32 +21077,32 @@
         <v>2387</v>
       </c>
       <c r="B889" t="s">
-        <v>2388</v>
+        <v>3473</v>
       </c>
       <c r="C889" t="s">
-        <v>2389</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="890" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B890" t="s">
+        <v>2389</v>
+      </c>
+      <c r="C890" t="s">
         <v>2390</v>
-      </c>
-      <c r="B890" t="s">
-        <v>2391</v>
-      </c>
-      <c r="C890" t="s">
-        <v>2392</v>
       </c>
     </row>
     <row r="891" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
+        <v>2391</v>
+      </c>
+      <c r="B891" t="s">
+        <v>2392</v>
+      </c>
+      <c r="C891" t="s">
         <v>2393</v>
-      </c>
-      <c r="B891" t="s">
-        <v>3461</v>
-      </c>
-      <c r="C891" t="s">
-        <v>3462</v>
       </c>
     </row>
     <row r="892" spans="1:3" x14ac:dyDescent="0.25">
@@ -20824,32 +21121,32 @@
         <v>2397</v>
       </c>
       <c r="B893" t="s">
-        <v>2398</v>
+        <v>3475</v>
       </c>
       <c r="C893" t="s">
-        <v>2399</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="894" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
+        <v>2398</v>
+      </c>
+      <c r="B894" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C894" t="s">
         <v>2400</v>
-      </c>
-      <c r="B894" t="s">
-        <v>2401</v>
-      </c>
-      <c r="C894" t="s">
-        <v>2402</v>
       </c>
     </row>
     <row r="895" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
+        <v>2401</v>
+      </c>
+      <c r="B895" t="s">
+        <v>2402</v>
+      </c>
+      <c r="C895" t="s">
         <v>2403</v>
-      </c>
-      <c r="B895" t="s">
-        <v>3463</v>
-      </c>
-      <c r="C895" t="s">
-        <v>3464</v>
       </c>
     </row>
     <row r="896" spans="1:3" x14ac:dyDescent="0.25">
@@ -20857,32 +21154,32 @@
         <v>2404</v>
       </c>
       <c r="B896" t="s">
-        <v>2405</v>
+        <v>3477</v>
       </c>
       <c r="C896" t="s">
-        <v>2406</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="897" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
+        <v>2405</v>
+      </c>
+      <c r="B897" t="s">
+        <v>2406</v>
+      </c>
+      <c r="C897" t="s">
         <v>2407</v>
-      </c>
-      <c r="B897" t="s">
-        <v>2408</v>
-      </c>
-      <c r="C897" t="s">
-        <v>2409</v>
       </c>
     </row>
     <row r="898" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
+        <v>2408</v>
+      </c>
+      <c r="B898" t="s">
+        <v>2409</v>
+      </c>
+      <c r="C898" t="s">
         <v>2410</v>
-      </c>
-      <c r="B898" t="s">
-        <v>3465</v>
-      </c>
-      <c r="C898" t="s">
-        <v>3466</v>
       </c>
     </row>
     <row r="899" spans="1:3" x14ac:dyDescent="0.25">
@@ -20907,37 +21204,37 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="901" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
         <v>2417</v>
       </c>
-      <c r="B901" t="s">
-        <v>2418</v>
-      </c>
-      <c r="C901" t="s">
-        <v>2419</v>
+      <c r="B901" s="1" t="s">
+        <v>3479</v>
+      </c>
+      <c r="C901" s="1" t="s">
+        <v>3480</v>
       </c>
     </row>
     <row r="902" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
+        <v>2418</v>
+      </c>
+      <c r="B902" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C902" t="s">
         <v>2420</v>
       </c>
-      <c r="B902" t="s">
+    </row>
+    <row r="903" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A903" t="s">
         <v>2421</v>
       </c>
-      <c r="C902" t="s">
+      <c r="B903" t="s">
         <v>2422</v>
       </c>
-    </row>
-    <row r="903" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A903" t="s">
+      <c r="C903" t="s">
         <v>2423</v>
-      </c>
-      <c r="B903" s="1" t="s">
-        <v>3467</v>
-      </c>
-      <c r="C903" s="1" t="s">
-        <v>3468</v>
       </c>
     </row>
     <row r="904" spans="1:3" x14ac:dyDescent="0.25">
@@ -21231,32 +21528,32 @@
         <v>2502</v>
       </c>
       <c r="B930" t="s">
-        <v>2503</v>
+        <v>3481</v>
       </c>
       <c r="C930" t="s">
-        <v>2504</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="931" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B931" t="s">
+        <v>2504</v>
+      </c>
+      <c r="C931" t="s">
         <v>2505</v>
-      </c>
-      <c r="B931" t="s">
-        <v>2506</v>
-      </c>
-      <c r="C931" t="s">
-        <v>2507</v>
       </c>
     </row>
     <row r="932" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
+        <v>2506</v>
+      </c>
+      <c r="B932" t="s">
+        <v>2507</v>
+      </c>
+      <c r="C932" t="s">
         <v>2508</v>
-      </c>
-      <c r="B932" t="s">
-        <v>3469</v>
-      </c>
-      <c r="C932" t="s">
-        <v>3470</v>
       </c>
     </row>
     <row r="933" spans="1:3" x14ac:dyDescent="0.25">
@@ -21388,29 +21685,29 @@
         <v>2543</v>
       </c>
       <c r="C944" t="s">
-        <v>2544</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="945" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
+        <v>2544</v>
+      </c>
+      <c r="B945" t="s">
         <v>2545</v>
       </c>
-      <c r="B945" t="s">
+      <c r="C945" t="s">
         <v>2546</v>
-      </c>
-      <c r="C945" t="s">
-        <v>2547</v>
       </c>
     </row>
     <row r="946" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
+        <v>2547</v>
+      </c>
+      <c r="B946" t="s">
         <v>2548</v>
       </c>
-      <c r="B946" t="s">
+      <c r="C946" t="s">
         <v>2549</v>
-      </c>
-      <c r="C946" t="s">
-        <v>2013</v>
       </c>
     </row>
     <row r="947" spans="1:3" x14ac:dyDescent="0.25">
@@ -21528,32 +21825,32 @@
         <v>2580</v>
       </c>
       <c r="B957" t="s">
-        <v>2581</v>
+        <v>3483</v>
       </c>
       <c r="C957" t="s">
-        <v>2582</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="958" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
+        <v>2581</v>
+      </c>
+      <c r="B958" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C958" t="s">
         <v>2583</v>
-      </c>
-      <c r="B958" t="s">
-        <v>2584</v>
-      </c>
-      <c r="C958" t="s">
-        <v>2585</v>
       </c>
     </row>
     <row r="959" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
+        <v>2584</v>
+      </c>
+      <c r="B959" t="s">
+        <v>2585</v>
+      </c>
+      <c r="C959" t="s">
         <v>2586</v>
-      </c>
-      <c r="B959" t="s">
-        <v>3471</v>
-      </c>
-      <c r="C959" t="s">
-        <v>3472</v>
       </c>
     </row>
     <row r="960" spans="1:3" x14ac:dyDescent="0.25">
@@ -21616,32 +21913,32 @@
         <v>2602</v>
       </c>
       <c r="B965" t="s">
-        <v>2603</v>
+        <v>3485</v>
       </c>
       <c r="C965" t="s">
-        <v>2604</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="966" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
+        <v>2603</v>
+      </c>
+      <c r="B966" t="s">
+        <v>2604</v>
+      </c>
+      <c r="C966" t="s">
         <v>2605</v>
-      </c>
-      <c r="B966" t="s">
-        <v>2606</v>
-      </c>
-      <c r="C966" t="s">
-        <v>2607</v>
       </c>
     </row>
     <row r="967" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
+        <v>2606</v>
+      </c>
+      <c r="B967" t="s">
+        <v>2607</v>
+      </c>
+      <c r="C967" t="s">
         <v>2608</v>
-      </c>
-      <c r="B967" t="s">
-        <v>3473</v>
-      </c>
-      <c r="C967" t="s">
-        <v>3474</v>
       </c>
     </row>
     <row r="968" spans="1:3" x14ac:dyDescent="0.25">
@@ -21682,43 +21979,43 @@
         <v>2618</v>
       </c>
       <c r="B971" t="s">
-        <v>2619</v>
+        <v>3487</v>
       </c>
       <c r="C971" t="s">
-        <v>2620</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="972" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A972" t="s">
-        <v>2621</v>
+        <v>2619</v>
       </c>
       <c r="B972" t="s">
-        <v>2622</v>
+        <v>3489</v>
       </c>
       <c r="C972" t="s">
-        <v>2623</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="973" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A973" t="s">
-        <v>2624</v>
+        <v>2620</v>
       </c>
       <c r="B973" t="s">
-        <v>3475</v>
+        <v>2621</v>
       </c>
       <c r="C973" t="s">
-        <v>3476</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="974" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
+        <v>2623</v>
+      </c>
+      <c r="B974" t="s">
+        <v>2624</v>
+      </c>
+      <c r="C974" t="s">
         <v>2625</v>
-      </c>
-      <c r="B974" t="s">
-        <v>3477</v>
-      </c>
-      <c r="C974" t="s">
-        <v>3478</v>
       </c>
     </row>
     <row r="975" spans="1:3" x14ac:dyDescent="0.25">
@@ -21803,43 +22100,43 @@
         <v>2647</v>
       </c>
       <c r="B982" t="s">
-        <v>2648</v>
+        <v>3491</v>
       </c>
       <c r="C982" t="s">
-        <v>2649</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="983" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
-        <v>2650</v>
+        <v>2648</v>
       </c>
       <c r="B983" t="s">
-        <v>2651</v>
+        <v>3493</v>
       </c>
       <c r="C983" t="s">
-        <v>2652</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="984" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A984" t="s">
-        <v>2653</v>
+        <v>2649</v>
       </c>
       <c r="B984" t="s">
-        <v>3479</v>
+        <v>2650</v>
       </c>
       <c r="C984" t="s">
-        <v>3480</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="985" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A985" t="s">
+        <v>2652</v>
+      </c>
+      <c r="B985" t="s">
+        <v>2653</v>
+      </c>
+      <c r="C985" t="s">
         <v>2654</v>
-      </c>
-      <c r="B985" t="s">
-        <v>3481</v>
-      </c>
-      <c r="C985" t="s">
-        <v>3482</v>
       </c>
     </row>
     <row r="986" spans="1:3" x14ac:dyDescent="0.25">
@@ -21869,76 +22166,76 @@
         <v>2661</v>
       </c>
       <c r="B988" t="s">
-        <v>2662</v>
+        <v>3495</v>
       </c>
       <c r="C988" t="s">
-        <v>2663</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="989" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
+        <v>2662</v>
+      </c>
+      <c r="B989" t="s">
+        <v>2663</v>
+      </c>
+      <c r="C989" t="s">
         <v>2664</v>
-      </c>
-      <c r="B989" t="s">
-        <v>2665</v>
-      </c>
-      <c r="C989" t="s">
-        <v>2666</v>
       </c>
     </row>
     <row r="990" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A990" t="s">
-        <v>2667</v>
+        <v>2665</v>
       </c>
       <c r="B990" t="s">
-        <v>3483</v>
+        <v>2666</v>
       </c>
       <c r="C990" t="s">
-        <v>3484</v>
+        <v>21</v>
       </c>
     </row>
     <row r="991" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A991" t="s">
+        <v>2667</v>
+      </c>
+      <c r="B991" t="s">
         <v>2668</v>
       </c>
-      <c r="B991" t="s">
+      <c r="C991" t="s">
         <v>2669</v>
-      </c>
-      <c r="C991" t="s">
-        <v>2670</v>
       </c>
     </row>
     <row r="992" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="B992" t="s">
-        <v>2672</v>
+        <v>3497</v>
       </c>
       <c r="C992" t="s">
-        <v>21</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="993" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B993" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C993" t="s">
         <v>2673</v>
-      </c>
-      <c r="B993" t="s">
-        <v>2674</v>
-      </c>
-      <c r="C993" t="s">
-        <v>2675</v>
       </c>
     </row>
     <row r="994" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B994" t="s">
+        <v>2675</v>
+      </c>
+      <c r="C994" t="s">
         <v>2676</v>
-      </c>
-      <c r="B994" t="s">
-        <v>3485</v>
-      </c>
-      <c r="C994" t="s">
-        <v>3486</v>
       </c>
     </row>
     <row r="995" spans="1:3" x14ac:dyDescent="0.25">
@@ -22012,54 +22309,54 @@
         <v>2695</v>
       </c>
       <c r="B1001" t="s">
-        <v>2696</v>
+        <v>3499</v>
       </c>
       <c r="C1001" t="s">
-        <v>2697</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="1002" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1002" t="s">
+        <v>2696</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>2697</v>
+      </c>
+      <c r="C1002" t="s">
         <v>2698</v>
-      </c>
-      <c r="B1002" t="s">
-        <v>2699</v>
-      </c>
-      <c r="C1002" t="s">
-        <v>2700</v>
       </c>
     </row>
     <row r="1003" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1003" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
       <c r="B1003" t="s">
-        <v>3487</v>
+        <v>2700</v>
       </c>
       <c r="C1003" t="s">
-        <v>3488</v>
+        <v>235</v>
       </c>
     </row>
     <row r="1004" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1004" t="s">
+        <v>2701</v>
+      </c>
+      <c r="B1004" t="s">
         <v>2702</v>
       </c>
-      <c r="B1004" t="s">
+      <c r="C1004" t="s">
         <v>2703</v>
-      </c>
-      <c r="C1004" t="s">
-        <v>2704</v>
       </c>
     </row>
     <row r="1005" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1005" t="s">
+        <v>2704</v>
+      </c>
+      <c r="B1005" t="s">
         <v>2705</v>
       </c>
-      <c r="B1005" t="s">
+      <c r="C1005" t="s">
         <v>2706</v>
-      </c>
-      <c r="C1005" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="1006" spans="1:3" x14ac:dyDescent="0.25">
@@ -22257,51 +22554,51 @@
         <v>2759</v>
       </c>
       <c r="C1023" t="s">
-        <v>2760</v>
+        <v>541</v>
       </c>
     </row>
     <row r="1024" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1024" t="s">
+        <v>2760</v>
+      </c>
+      <c r="B1024" t="s">
         <v>2761</v>
       </c>
-      <c r="B1024" t="s">
-        <v>2762</v>
-      </c>
       <c r="C1024" t="s">
-        <v>2763</v>
+        <v>538</v>
       </c>
     </row>
     <row r="1025" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1025" t="s">
-        <v>2764</v>
+        <v>2762</v>
       </c>
       <c r="B1025" t="s">
-        <v>2765</v>
+        <v>2763</v>
       </c>
       <c r="C1025" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="1026" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1026" t="s">
+        <v>2764</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>2765</v>
+      </c>
+      <c r="C1026" t="s">
         <v>2766</v>
-      </c>
-      <c r="B1026" t="s">
-        <v>2767</v>
-      </c>
-      <c r="C1026" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="1027" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1027" t="s">
+        <v>2767</v>
+      </c>
+      <c r="B1027" t="s">
         <v>2768</v>
       </c>
-      <c r="B1027" t="s">
+      <c r="C1027" t="s">
         <v>2769</v>
-      </c>
-      <c r="C1027" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="1028" spans="1:3" x14ac:dyDescent="0.25">
@@ -22485,32 +22782,32 @@
         <v>2818</v>
       </c>
       <c r="B1044" t="s">
-        <v>2819</v>
+        <v>3501</v>
       </c>
       <c r="C1044" t="s">
-        <v>2820</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="1045" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1045" t="s">
+        <v>2819</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>2820</v>
+      </c>
+      <c r="C1045" t="s">
         <v>2821</v>
-      </c>
-      <c r="B1045" t="s">
-        <v>2822</v>
-      </c>
-      <c r="C1045" t="s">
-        <v>2823</v>
       </c>
     </row>
     <row r="1046" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1046" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>2823</v>
+      </c>
+      <c r="C1046" t="s">
         <v>2824</v>
-      </c>
-      <c r="B1046" t="s">
-        <v>3489</v>
-      </c>
-      <c r="C1046" t="s">
-        <v>3490</v>
       </c>
     </row>
     <row r="1047" spans="1:3" x14ac:dyDescent="0.25">
@@ -22737,44 +23034,44 @@
       <c r="A1067" t="s">
         <v>2885</v>
       </c>
-      <c r="B1067" s="7" t="s">
-        <v>3511</v>
-      </c>
-      <c r="C1067" s="7" t="s">
-        <v>3512</v>
+      <c r="B1067" t="s">
+        <v>2886</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>2887</v>
       </c>
     </row>
     <row r="1068" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1068" t="s">
-        <v>2886</v>
+        <v>2888</v>
       </c>
       <c r="B1068" t="s">
-        <v>2887</v>
+        <v>2889</v>
       </c>
       <c r="C1068" t="s">
-        <v>2888</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="1069" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1069" t="s">
-        <v>2889</v>
+        <v>2891</v>
       </c>
       <c r="B1069" t="s">
-        <v>2890</v>
+        <v>2892</v>
       </c>
       <c r="C1069" t="s">
-        <v>2891</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1070" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1070" t="s">
-        <v>2892</v>
+        <v>2894</v>
       </c>
       <c r="B1070" t="s">
-        <v>2893</v>
+        <v>3503</v>
       </c>
       <c r="C1070" t="s">
-        <v>2894</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="1071" spans="1:3" x14ac:dyDescent="0.25">
@@ -22793,21 +23090,21 @@
         <v>2898</v>
       </c>
       <c r="B1072" t="s">
-        <v>3491</v>
+        <v>2899</v>
       </c>
       <c r="C1072" t="s">
-        <v>3492</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="1073" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1073" t="s">
-        <v>2899</v>
+        <v>2901</v>
       </c>
       <c r="B1073" t="s">
-        <v>2900</v>
+        <v>3505</v>
       </c>
       <c r="C1073" t="s">
-        <v>2901</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="1074" spans="1:3" x14ac:dyDescent="0.25">
@@ -22826,274 +23123,274 @@
         <v>2905</v>
       </c>
       <c r="B1075" t="s">
-        <v>3493</v>
+        <v>2906</v>
       </c>
       <c r="C1075" t="s">
-        <v>3494</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="1076" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1076" t="s">
-        <v>2906</v>
+        <v>2908</v>
       </c>
       <c r="B1076" t="s">
-        <v>2907</v>
+        <v>2909</v>
       </c>
       <c r="C1076" t="s">
-        <v>2908</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="1077" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1077" t="s">
-        <v>2909</v>
+        <v>2911</v>
       </c>
       <c r="B1077" t="s">
-        <v>2910</v>
+        <v>2912</v>
       </c>
       <c r="C1077" t="s">
-        <v>2911</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="1078" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1078" t="s">
-        <v>2912</v>
+        <v>2914</v>
       </c>
       <c r="B1078" t="s">
-        <v>2913</v>
+        <v>2915</v>
       </c>
       <c r="C1078" t="s">
-        <v>2914</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="1079" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1079" t="s">
-        <v>2915</v>
+        <v>2917</v>
       </c>
       <c r="B1079" t="s">
-        <v>2916</v>
+        <v>2918</v>
       </c>
       <c r="C1079" t="s">
-        <v>2917</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="1080" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1080" t="s">
-        <v>2918</v>
+        <v>2920</v>
       </c>
       <c r="B1080" t="s">
-        <v>2919</v>
+        <v>2921</v>
       </c>
       <c r="C1080" t="s">
-        <v>2920</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="1081" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1081" t="s">
-        <v>2921</v>
+        <v>2923</v>
       </c>
       <c r="B1081" t="s">
-        <v>2922</v>
+        <v>2924</v>
       </c>
       <c r="C1081" t="s">
-        <v>2923</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="1082" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1082" t="s">
-        <v>2924</v>
+        <v>2926</v>
       </c>
       <c r="B1082" t="s">
-        <v>2925</v>
+        <v>2927</v>
       </c>
       <c r="C1082" t="s">
-        <v>2926</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="1083" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1083" t="s">
-        <v>2927</v>
+        <v>2929</v>
       </c>
       <c r="B1083" t="s">
-        <v>2928</v>
+        <v>2930</v>
       </c>
       <c r="C1083" t="s">
-        <v>2929</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="1084" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1084" t="s">
-        <v>2930</v>
+        <v>2932</v>
       </c>
       <c r="B1084" t="s">
-        <v>2931</v>
+        <v>2933</v>
       </c>
       <c r="C1084" t="s">
-        <v>2932</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="1085" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1085" t="s">
-        <v>2933</v>
+        <v>2935</v>
       </c>
       <c r="B1085" t="s">
-        <v>2934</v>
+        <v>2936</v>
       </c>
       <c r="C1085" t="s">
-        <v>2935</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="1086" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1086" t="s">
-        <v>2936</v>
+        <v>2938</v>
       </c>
       <c r="B1086" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="C1086" t="s">
-        <v>2938</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="1087" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1087" t="s">
-        <v>2939</v>
+        <v>2941</v>
       </c>
       <c r="B1087" t="s">
-        <v>2940</v>
+        <v>2942</v>
       </c>
       <c r="C1087" t="s">
-        <v>2941</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="1088" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1088" t="s">
-        <v>2942</v>
+        <v>2944</v>
       </c>
       <c r="B1088" t="s">
-        <v>2943</v>
+        <v>2945</v>
       </c>
       <c r="C1088" t="s">
-        <v>2944</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="1089" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1089" t="s">
-        <v>2945</v>
+        <v>2947</v>
       </c>
       <c r="B1089" t="s">
-        <v>2946</v>
+        <v>2948</v>
       </c>
       <c r="C1089" t="s">
-        <v>2947</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="1090" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1090" t="s">
-        <v>2948</v>
+        <v>2950</v>
       </c>
       <c r="B1090" t="s">
-        <v>2949</v>
+        <v>2951</v>
       </c>
       <c r="C1090" t="s">
-        <v>2950</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="1091" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1091" t="s">
-        <v>2951</v>
+        <v>2953</v>
       </c>
       <c r="B1091" t="s">
-        <v>2952</v>
+        <v>2954</v>
       </c>
       <c r="C1091" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="1092" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1092" t="s">
-        <v>2954</v>
+        <v>2956</v>
       </c>
       <c r="B1092" t="s">
-        <v>2955</v>
+        <v>2957</v>
       </c>
       <c r="C1092" t="s">
-        <v>2956</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="1093" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1093" t="s">
-        <v>2957</v>
+        <v>2959</v>
       </c>
       <c r="B1093" t="s">
-        <v>2958</v>
+        <v>2960</v>
       </c>
       <c r="C1093" t="s">
-        <v>2959</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="1094" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1094" t="s">
-        <v>2960</v>
+        <v>2962</v>
       </c>
       <c r="B1094" t="s">
-        <v>2961</v>
+        <v>2963</v>
       </c>
       <c r="C1094" t="s">
-        <v>2962</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="1095" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1095" t="s">
-        <v>2963</v>
+        <v>2965</v>
       </c>
       <c r="B1095" t="s">
-        <v>2964</v>
+        <v>2966</v>
       </c>
       <c r="C1095" t="s">
-        <v>2965</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="1096" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1096" t="s">
-        <v>2966</v>
+        <v>2968</v>
       </c>
       <c r="B1096" t="s">
-        <v>2967</v>
+        <v>2969</v>
       </c>
       <c r="C1096" t="s">
-        <v>2968</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="1097" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1097" t="s">
-        <v>2969</v>
+        <v>2971</v>
       </c>
       <c r="B1097" t="s">
-        <v>2970</v>
+        <v>2972</v>
       </c>
       <c r="C1097" t="s">
-        <v>2971</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="1098" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1098" t="s">
-        <v>2972</v>
+        <v>2974</v>
       </c>
       <c r="B1098" t="s">
-        <v>2973</v>
+        <v>2975</v>
       </c>
       <c r="C1098" t="s">
-        <v>2974</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="1099" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1099" t="s">
-        <v>2975</v>
+        <v>2977</v>
       </c>
       <c r="B1099" t="s">
-        <v>2976</v>
+        <v>3507</v>
       </c>
       <c r="C1099" t="s">
-        <v>2977</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="1100" spans="1:3" x14ac:dyDescent="0.25">
@@ -23123,76 +23420,76 @@
         <v>2984</v>
       </c>
       <c r="B1102" t="s">
-        <v>3495</v>
+        <v>2985</v>
       </c>
       <c r="C1102" t="s">
-        <v>3496</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="1103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1103" t="s">
-        <v>2985</v>
+        <v>2987</v>
       </c>
       <c r="B1103" t="s">
-        <v>2986</v>
+        <v>2988</v>
       </c>
       <c r="C1103" t="s">
-        <v>2987</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="1104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1104" t="s">
-        <v>2988</v>
+        <v>2990</v>
       </c>
       <c r="B1104" t="s">
-        <v>2989</v>
+        <v>2991</v>
       </c>
       <c r="C1104" t="s">
-        <v>2990</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="1105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1105" t="s">
-        <v>2991</v>
+        <v>2993</v>
       </c>
       <c r="B1105" t="s">
-        <v>2992</v>
+        <v>2994</v>
       </c>
       <c r="C1105" t="s">
-        <v>2993</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="1106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1106" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="B1106" t="s">
-        <v>2995</v>
+        <v>2997</v>
       </c>
       <c r="C1106" t="s">
-        <v>2996</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="1107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1107" t="s">
-        <v>2997</v>
+        <v>2999</v>
       </c>
       <c r="B1107" t="s">
-        <v>2998</v>
+        <v>3000</v>
       </c>
       <c r="C1107" t="s">
-        <v>2999</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="1108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1108" t="s">
-        <v>3000</v>
+        <v>3002</v>
       </c>
       <c r="B1108" t="s">
-        <v>3001</v>
+        <v>3509</v>
       </c>
       <c r="C1108" t="s">
-        <v>3002</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="1109" spans="1:3" x14ac:dyDescent="0.25">
@@ -23222,21 +23519,21 @@
         <v>3009</v>
       </c>
       <c r="B1111" t="s">
-        <v>3497</v>
+        <v>3010</v>
       </c>
       <c r="C1111" t="s">
-        <v>3498</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="1112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1112" t="s">
-        <v>3010</v>
+        <v>3012</v>
       </c>
       <c r="B1112" t="s">
-        <v>3011</v>
+        <v>3511</v>
       </c>
       <c r="C1112" t="s">
-        <v>3012</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="1113" spans="1:3" x14ac:dyDescent="0.25">
@@ -23266,175 +23563,175 @@
         <v>3019</v>
       </c>
       <c r="B1115" t="s">
-        <v>3499</v>
+        <v>3020</v>
       </c>
       <c r="C1115" t="s">
-        <v>3500</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="1116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1116" t="s">
-        <v>3020</v>
+        <v>3022</v>
       </c>
       <c r="B1116" t="s">
-        <v>3021</v>
+        <v>3023</v>
       </c>
       <c r="C1116" t="s">
-        <v>3022</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="1117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1117" t="s">
-        <v>3023</v>
+        <v>3025</v>
       </c>
       <c r="B1117" t="s">
-        <v>3024</v>
+        <v>3026</v>
       </c>
       <c r="C1117" t="s">
-        <v>3025</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="1118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1118" t="s">
-        <v>3026</v>
+        <v>3028</v>
       </c>
       <c r="B1118" t="s">
-        <v>3027</v>
+        <v>3029</v>
       </c>
       <c r="C1118" t="s">
-        <v>3028</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="1119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1119" t="s">
-        <v>3029</v>
+        <v>3031</v>
       </c>
       <c r="B1119" t="s">
-        <v>3030</v>
+        <v>3032</v>
       </c>
       <c r="C1119" t="s">
-        <v>3031</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="1120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1120" t="s">
-        <v>3032</v>
+        <v>3034</v>
       </c>
       <c r="B1120" t="s">
-        <v>3033</v>
+        <v>3035</v>
       </c>
       <c r="C1120" t="s">
-        <v>3034</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="1121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1121" t="s">
-        <v>3035</v>
+        <v>3037</v>
       </c>
       <c r="B1121" t="s">
-        <v>3036</v>
+        <v>3038</v>
       </c>
       <c r="C1121" t="s">
-        <v>3037</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="1122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1122" t="s">
-        <v>3038</v>
+        <v>3040</v>
       </c>
       <c r="B1122" t="s">
-        <v>3039</v>
+        <v>3041</v>
       </c>
       <c r="C1122" t="s">
-        <v>3040</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="1123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1123" t="s">
-        <v>3041</v>
+        <v>3043</v>
       </c>
       <c r="B1123" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
       <c r="C1123" t="s">
-        <v>3043</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="1124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1124" t="s">
-        <v>3044</v>
+        <v>3045</v>
       </c>
       <c r="B1124" t="s">
-        <v>3045</v>
+        <v>3046</v>
       </c>
       <c r="C1124" t="s">
-        <v>3046</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="1125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1125" t="s">
-        <v>3047</v>
+        <v>3048</v>
       </c>
       <c r="B1125" t="s">
-        <v>3048</v>
+        <v>3049</v>
       </c>
       <c r="C1125" t="s">
-        <v>3049</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="1126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1126" t="s">
-        <v>3050</v>
+        <v>3051</v>
       </c>
       <c r="B1126" t="s">
-        <v>3042</v>
+        <v>3052</v>
       </c>
       <c r="C1126" t="s">
-        <v>3051</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="1127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1127" t="s">
-        <v>3052</v>
+        <v>3054</v>
       </c>
       <c r="B1127" t="s">
-        <v>3053</v>
+        <v>3055</v>
       </c>
       <c r="C1127" t="s">
-        <v>3054</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="1128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1128" t="s">
-        <v>3055</v>
+        <v>3057</v>
       </c>
       <c r="B1128" t="s">
-        <v>3056</v>
+        <v>3058</v>
       </c>
       <c r="C1128" t="s">
-        <v>3057</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="1129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1129" t="s">
-        <v>3058</v>
+        <v>3060</v>
       </c>
       <c r="B1129" t="s">
-        <v>3059</v>
+        <v>3061</v>
       </c>
       <c r="C1129" t="s">
-        <v>3060</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="1130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1130" t="s">
-        <v>3061</v>
+        <v>3063</v>
       </c>
       <c r="B1130" t="s">
-        <v>3062</v>
+        <v>3513</v>
       </c>
       <c r="C1130" t="s">
-        <v>3063</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="1131" spans="1:3" x14ac:dyDescent="0.25">
@@ -23442,32 +23739,32 @@
         <v>3064</v>
       </c>
       <c r="B1131" t="s">
-        <v>3065</v>
+        <v>3515</v>
       </c>
       <c r="C1131" t="s">
-        <v>3066</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="1132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1132" t="s">
+        <v>3065</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>3066</v>
+      </c>
+      <c r="C1132" t="s">
         <v>3067</v>
-      </c>
-      <c r="B1132" t="s">
-        <v>3068</v>
-      </c>
-      <c r="C1132" t="s">
-        <v>3069</v>
       </c>
     </row>
     <row r="1133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1133" t="s">
+        <v>3068</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C1133" t="s">
         <v>3070</v>
-      </c>
-      <c r="B1133" t="s">
-        <v>3501</v>
-      </c>
-      <c r="C1133" t="s">
-        <v>3502</v>
       </c>
     </row>
     <row r="1134" spans="1:3" x14ac:dyDescent="0.25">
@@ -23475,120 +23772,120 @@
         <v>3071</v>
       </c>
       <c r="B1134" t="s">
-        <v>3503</v>
+        <v>3072</v>
       </c>
       <c r="C1134" t="s">
-        <v>3504</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="1135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1135" t="s">
-        <v>3072</v>
+        <v>3074</v>
       </c>
       <c r="B1135" t="s">
-        <v>3073</v>
+        <v>3075</v>
       </c>
       <c r="C1135" t="s">
-        <v>3074</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="1136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1136" t="s">
-        <v>3075</v>
+        <v>3077</v>
       </c>
       <c r="B1136" t="s">
-        <v>3076</v>
+        <v>3078</v>
       </c>
       <c r="C1136" t="s">
-        <v>3077</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="1137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1137" t="s">
-        <v>3078</v>
+        <v>3080</v>
       </c>
       <c r="B1137" t="s">
-        <v>3079</v>
+        <v>3081</v>
       </c>
       <c r="C1137" t="s">
-        <v>3080</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="1138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1138" t="s">
-        <v>3081</v>
+        <v>3083</v>
       </c>
       <c r="B1138" t="s">
-        <v>3082</v>
+        <v>3084</v>
       </c>
       <c r="C1138" t="s">
-        <v>3083</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="1139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1139" t="s">
-        <v>3084</v>
+        <v>3086</v>
       </c>
       <c r="B1139" t="s">
-        <v>3085</v>
+        <v>3087</v>
       </c>
       <c r="C1139" t="s">
-        <v>3086</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="1140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1140" t="s">
-        <v>3087</v>
+        <v>3089</v>
       </c>
       <c r="B1140" t="s">
-        <v>3088</v>
+        <v>3090</v>
       </c>
       <c r="C1140" t="s">
-        <v>3089</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="1141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1141" t="s">
-        <v>3090</v>
+        <v>3092</v>
       </c>
       <c r="B1141" t="s">
-        <v>3091</v>
+        <v>3093</v>
       </c>
       <c r="C1141" t="s">
-        <v>3092</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="1142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1142" t="s">
-        <v>3093</v>
+        <v>3095</v>
       </c>
       <c r="B1142" t="s">
-        <v>3094</v>
+        <v>3096</v>
       </c>
       <c r="C1142" t="s">
-        <v>3095</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="1143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1143" t="s">
-        <v>3096</v>
+        <v>3098</v>
       </c>
       <c r="B1143" t="s">
-        <v>3097</v>
+        <v>3099</v>
       </c>
       <c r="C1143" t="s">
-        <v>3098</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="1144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1144" t="s">
-        <v>3099</v>
+        <v>3101</v>
       </c>
       <c r="B1144" t="s">
-        <v>3100</v>
+        <v>3517</v>
       </c>
       <c r="C1144" t="s">
-        <v>3101</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="1145" spans="1:3" x14ac:dyDescent="0.25">
@@ -23618,54 +23915,54 @@
         <v>3108</v>
       </c>
       <c r="B1147" t="s">
-        <v>3505</v>
+        <v>3109</v>
       </c>
       <c r="C1147" t="s">
-        <v>3506</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="1148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1148" t="s">
-        <v>3109</v>
+        <v>3111</v>
       </c>
       <c r="B1148" t="s">
-        <v>3110</v>
+        <v>3112</v>
       </c>
       <c r="C1148" t="s">
-        <v>3111</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="1149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1149" t="s">
-        <v>3112</v>
+        <v>3114</v>
       </c>
       <c r="B1149" t="s">
-        <v>3113</v>
+        <v>3115</v>
       </c>
       <c r="C1149" t="s">
-        <v>3114</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="1150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1150" t="s">
-        <v>3115</v>
+        <v>3117</v>
       </c>
       <c r="B1150" t="s">
-        <v>3116</v>
+        <v>3118</v>
       </c>
       <c r="C1150" t="s">
-        <v>3117</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="1151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1151" t="s">
-        <v>3118</v>
+        <v>3120</v>
       </c>
       <c r="B1151" t="s">
-        <v>3119</v>
+        <v>3519</v>
       </c>
       <c r="C1151" t="s">
-        <v>3120</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="1152" spans="1:3" x14ac:dyDescent="0.25">
@@ -23695,422 +23992,788 @@
         <v>3127</v>
       </c>
       <c r="B1154" t="s">
-        <v>3507</v>
+        <v>3128</v>
       </c>
       <c r="C1154" t="s">
-        <v>3508</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="1155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1155" t="s">
-        <v>3128</v>
+        <v>3130</v>
       </c>
       <c r="B1155" t="s">
-        <v>3129</v>
+        <v>3131</v>
       </c>
       <c r="C1155" t="s">
-        <v>3130</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="1156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1156" t="s">
-        <v>3131</v>
+        <v>3133</v>
       </c>
       <c r="B1156" t="s">
-        <v>3132</v>
+        <v>3134</v>
       </c>
       <c r="C1156" t="s">
-        <v>3133</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="1157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1157" t="s">
-        <v>3134</v>
+        <v>3136</v>
       </c>
       <c r="B1157" t="s">
-        <v>3135</v>
+        <v>3137</v>
       </c>
       <c r="C1157" t="s">
-        <v>3136</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="1158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1158" t="s">
-        <v>3137</v>
+        <v>3139</v>
       </c>
       <c r="B1158" t="s">
-        <v>3138</v>
+        <v>3140</v>
       </c>
       <c r="C1158" t="s">
-        <v>3139</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="1159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1159" t="s">
-        <v>3140</v>
+        <v>3141</v>
       </c>
       <c r="B1159" t="s">
-        <v>3141</v>
+        <v>3142</v>
       </c>
       <c r="C1159" t="s">
-        <v>3142</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="1160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1160" t="s">
-        <v>3143</v>
+        <v>3144</v>
       </c>
       <c r="B1160" t="s">
-        <v>3144</v>
+        <v>3145</v>
       </c>
       <c r="C1160" t="s">
-        <v>3145</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="1161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1161" t="s">
-        <v>3146</v>
+        <v>3147</v>
       </c>
       <c r="B1161" t="s">
-        <v>3147</v>
+        <v>3148</v>
       </c>
       <c r="C1161" t="s">
-        <v>3147</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="1162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1162" t="s">
-        <v>3148</v>
+        <v>3150</v>
       </c>
       <c r="B1162" t="s">
-        <v>3149</v>
+        <v>3151</v>
       </c>
       <c r="C1162" t="s">
-        <v>3150</v>
+        <v>3152</v>
       </c>
     </row>
     <row r="1163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1163" t="s">
-        <v>3151</v>
+        <v>3153</v>
       </c>
       <c r="B1163" t="s">
-        <v>3152</v>
+        <v>3154</v>
       </c>
       <c r="C1163" t="s">
-        <v>3153</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="1164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1164" t="s">
-        <v>3154</v>
+        <v>3156</v>
       </c>
       <c r="B1164" t="s">
-        <v>3155</v>
+        <v>3157</v>
       </c>
       <c r="C1164" t="s">
-        <v>3156</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="1165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1165" t="s">
-        <v>3157</v>
+        <v>3159</v>
       </c>
       <c r="B1165" t="s">
-        <v>3158</v>
+        <v>3160</v>
       </c>
       <c r="C1165" t="s">
-        <v>3159</v>
-      </c>
-    </row>
-    <row r="1166" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>868</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1166" t="s">
+        <v>3161</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>3162</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>3163</v>
+      </c>
+    </row>
     <row r="1167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1167" s="2" t="s">
-        <v>3160</v>
-      </c>
-      <c r="B1167" s="2" t="s">
-        <v>3161</v>
-      </c>
-      <c r="C1167" s="2" t="s">
-        <v>3162</v>
+      <c r="A1167" t="s">
+        <v>3164</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>3165</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>3166</v>
       </c>
     </row>
     <row r="1168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1168" s="2" t="s">
-        <v>3163</v>
-      </c>
-      <c r="B1168" s="2" t="s">
-        <v>3164</v>
-      </c>
-      <c r="C1168" s="2" t="s">
-        <v>3165</v>
+      <c r="A1168" t="s">
+        <v>3167</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>3168</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>3169</v>
       </c>
     </row>
     <row r="1169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1169" s="2" t="s">
-        <v>3166</v>
-      </c>
-      <c r="B1169" s="2" t="s">
-        <v>3167</v>
-      </c>
-      <c r="C1169" s="2" t="s">
-        <v>3168</v>
+      <c r="A1169" t="s">
+        <v>3170</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>3171</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>3172</v>
       </c>
     </row>
     <row r="1170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1170" s="2" t="s">
-        <v>3169</v>
-      </c>
-      <c r="B1170" s="2" t="s">
-        <v>3170</v>
-      </c>
-      <c r="C1170" s="2" t="s">
-        <v>3171</v>
+      <c r="A1170" t="s">
+        <v>3173</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>3174</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>3175</v>
       </c>
     </row>
     <row r="1171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1171" s="2" t="s">
-        <v>3172</v>
-      </c>
-      <c r="B1171" s="2" t="s">
-        <v>3173</v>
-      </c>
-      <c r="C1171" s="2" t="s">
-        <v>3174</v>
+      <c r="A1171" t="s">
+        <v>3176</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>3177</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>3178</v>
       </c>
     </row>
     <row r="1172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1172" s="2" t="s">
-        <v>3175</v>
-      </c>
-      <c r="B1172" s="2" t="s">
-        <v>3176</v>
-      </c>
-      <c r="C1172" s="2" t="s">
-        <v>3177</v>
+      <c r="A1172" t="s">
+        <v>3179</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>3180</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>3181</v>
       </c>
     </row>
     <row r="1173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1173" s="2" t="s">
-        <v>3178</v>
-      </c>
-      <c r="B1173" s="3" t="s">
-        <v>3179</v>
-      </c>
-      <c r="C1173" s="2" t="s">
-        <v>3180</v>
+      <c r="A1173" t="s">
+        <v>3182</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>3183</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>3184</v>
       </c>
     </row>
     <row r="1174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1174" s="2" t="s">
-        <v>3181</v>
-      </c>
-      <c r="B1174" s="3" t="s">
-        <v>3182</v>
-      </c>
-      <c r="C1174" s="2" t="s">
-        <v>3183</v>
+      <c r="A1174" t="s">
+        <v>3185</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>3186</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>3187</v>
       </c>
     </row>
     <row r="1175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1175" s="2" t="s">
-        <v>3184</v>
-      </c>
-      <c r="B1175" s="2" t="s">
-        <v>3185</v>
-      </c>
-      <c r="C1175" s="2" t="s">
-        <v>3186</v>
+      <c r="A1175" t="s">
+        <v>3188</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>3189</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>3190</v>
       </c>
     </row>
     <row r="1176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1176" s="3" t="s">
-        <v>3187</v>
-      </c>
-      <c r="B1176" s="2" t="s">
+      <c r="A1176" t="s">
+        <v>3191</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>3192</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1177" t="s">
+        <v>3194</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>3195</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1178" t="s">
+        <v>3197</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>3198</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1179" t="s">
+        <v>3200</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>3201</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1180" t="s">
+        <v>3203</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>3204</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>3205</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1181" t="s">
+        <v>3206</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>3521</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>3522</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1182" t="s">
+        <v>3207</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>3523</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>3524</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1183" t="s">
+        <v>3208</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>3525</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>3526</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1184" t="s">
+        <v>3209</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>3527</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>3528</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1185" t="s">
+        <v>3210</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>3211</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1186" t="s">
+        <v>3213</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>3214</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1187" t="s">
+        <v>3216</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>3217</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1188" t="s">
+        <v>3219</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>3220</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1189" t="s">
+        <v>3222</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>3223</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1190" t="s">
+        <v>3225</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>3226</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1191" t="s">
+        <v>3228</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>3229</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1192" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>3529</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>3530</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1193" t="s">
+        <v>3232</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>3531</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1194" t="s">
+        <v>3233</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>3533</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1195" t="s">
+        <v>3234</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>3235</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1196" t="s">
+        <v>3237</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>3535</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>3536</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1197" t="s">
+        <v>3238</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>3239</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1198" t="s">
+        <v>3241</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>3242</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1199" s="2"/>
+      <c r="B1199" s="2"/>
+      <c r="C1199" s="2"/>
+    </row>
+    <row r="1200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1200" s="4" t="s">
+        <v>3537</v>
+      </c>
+      <c r="B1200" s="4" t="s">
+        <v>3538</v>
+      </c>
+      <c r="C1200" s="4" t="s">
+        <v>3539</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1201" s="4" t="s">
+        <v>3540</v>
+      </c>
+      <c r="B1201" s="4" t="s">
+        <v>3541</v>
+      </c>
+      <c r="C1201" s="4" t="s">
+        <v>3542</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1202" s="4" t="s">
+        <v>3543</v>
+      </c>
+      <c r="B1202" s="4" t="s">
+        <v>3544</v>
+      </c>
+      <c r="C1202" s="4" t="s">
+        <v>3545</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1203" s="4" t="s">
+        <v>3546</v>
+      </c>
+      <c r="B1203" s="4" t="s">
+        <v>3547</v>
+      </c>
+      <c r="C1203" s="4" t="s">
+        <v>3548</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1204" s="4" t="s">
+        <v>3549</v>
+      </c>
+      <c r="B1204" s="4" t="s">
+        <v>3550</v>
+      </c>
+      <c r="C1204" s="4" t="s">
+        <v>3551</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1205" s="4" t="s">
+        <v>3552</v>
+      </c>
+      <c r="B1205" s="4" t="s">
+        <v>3553</v>
+      </c>
+      <c r="C1205" s="4" t="s">
+        <v>3554</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1206" s="4" t="s">
+        <v>3555</v>
+      </c>
+      <c r="B1206" s="5" t="s">
+        <v>3556</v>
+      </c>
+      <c r="C1206" s="4" t="s">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1207" s="4" t="s">
+        <v>3558</v>
+      </c>
+      <c r="B1207" s="5" t="s">
+        <v>3559</v>
+      </c>
+      <c r="C1207" s="4" t="s">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1208" s="4" t="s">
+        <v>3561</v>
+      </c>
+      <c r="B1208" s="4" t="s">
+        <v>3562</v>
+      </c>
+      <c r="C1208" s="4" t="s">
+        <v>3563</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1209" s="5" t="s">
+        <v>3564</v>
+      </c>
+      <c r="B1209" s="4" t="s">
         <v>822</v>
       </c>
-      <c r="C1176" s="2" t="s">
-        <v>3188</v>
-      </c>
-    </row>
-    <row r="1177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1177" s="2" t="s">
-        <v>3189</v>
-      </c>
-      <c r="B1177" s="2" t="s">
-        <v>3190</v>
-      </c>
-      <c r="C1177" s="2" t="s">
-        <v>3191</v>
-      </c>
-    </row>
-    <row r="1178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1178" s="4" t="s">
+      <c r="C1209" s="4" t="s">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1210" s="4" t="s">
+        <v>3566</v>
+      </c>
+      <c r="B1210" s="4" t="s">
+        <v>3567</v>
+      </c>
+      <c r="C1210" s="4" t="s">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1211" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="B1178" s="4" t="s">
-        <v>3192</v>
-      </c>
-      <c r="C1178" s="5" t="s">
-        <v>3193</v>
-      </c>
-    </row>
-    <row r="1179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1179" s="4" t="s">
-        <v>3194</v>
-      </c>
-      <c r="B1179" s="4" t="s">
-        <v>3195</v>
-      </c>
-      <c r="C1179" s="5" t="s">
-        <v>3196</v>
-      </c>
-    </row>
-    <row r="1180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1180" s="5" t="s">
-        <v>3197</v>
-      </c>
-      <c r="B1180" s="2" t="s">
-        <v>3198</v>
-      </c>
-      <c r="C1180" s="2" t="s">
-        <v>3199</v>
-      </c>
-    </row>
-    <row r="1181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1181" s="5" t="s">
-        <v>3200</v>
-      </c>
-      <c r="B1181" s="6" t="s">
-        <v>3201</v>
-      </c>
-      <c r="C1181" s="5" t="s">
-        <v>3202</v>
-      </c>
-    </row>
-    <row r="1182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1182" s="1" t="s">
-        <v>3203</v>
-      </c>
-      <c r="B1182" s="1" t="s">
-        <v>3204</v>
-      </c>
-      <c r="C1182" s="1" t="s">
-        <v>3205</v>
-      </c>
-    </row>
-    <row r="1183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1183" s="1" t="s">
-        <v>3206</v>
-      </c>
-      <c r="B1183" s="1" t="s">
-        <v>3207</v>
-      </c>
-      <c r="C1183" s="1" t="s">
-        <v>3208</v>
-      </c>
-    </row>
-    <row r="1184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1184" s="1" t="s">
-        <v>3209</v>
-      </c>
-      <c r="B1184" s="1" t="s">
-        <v>3210</v>
-      </c>
-      <c r="C1184" s="1" t="s">
-        <v>3211</v>
-      </c>
-    </row>
-    <row r="1185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1185" s="1" t="s">
-        <v>3212</v>
-      </c>
-      <c r="B1185" s="1" t="s">
-        <v>3213</v>
-      </c>
-      <c r="C1185" s="1" t="s">
-        <v>3214</v>
-      </c>
-    </row>
-    <row r="1186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1186" s="1" t="s">
-        <v>3215</v>
-      </c>
-      <c r="B1186" s="1" t="s">
-        <v>3216</v>
-      </c>
-      <c r="C1186" s="1" t="s">
-        <v>3217</v>
-      </c>
-    </row>
-    <row r="1187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1187" s="1" t="s">
-        <v>3218</v>
-      </c>
-      <c r="B1187" s="1" t="s">
-        <v>3219</v>
-      </c>
-      <c r="C1187" s="1" t="s">
-        <v>3220</v>
-      </c>
-    </row>
-    <row r="1188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1188" s="1" t="s">
-        <v>3221</v>
-      </c>
-      <c r="B1188" s="1" t="s">
+      <c r="B1211" s="6" t="s">
+        <v>3569</v>
+      </c>
+      <c r="C1211" s="7" t="s">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1212" s="6" t="s">
+        <v>3571</v>
+      </c>
+      <c r="B1212" s="6" t="s">
+        <v>3572</v>
+      </c>
+      <c r="C1212" s="7" t="s">
+        <v>3573</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1213" s="7" t="s">
+        <v>3574</v>
+      </c>
+      <c r="B1213" s="4" t="s">
+        <v>3575</v>
+      </c>
+      <c r="C1213" s="4" t="s">
+        <v>3576</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1214" s="7" t="s">
+        <v>3577</v>
+      </c>
+      <c r="B1214" s="8" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C1214" s="7" t="s">
+        <v>3579</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1215" s="3" t="s">
+        <v>3580</v>
+      </c>
+      <c r="B1215" s="3" t="s">
+        <v>3581</v>
+      </c>
+      <c r="C1215" s="3" t="s">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1216" s="3" t="s">
+        <v>3583</v>
+      </c>
+      <c r="B1216" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="C1216" s="3" t="s">
+        <v>3585</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1217" s="3" t="s">
+        <v>3586</v>
+      </c>
+      <c r="B1217" s="3" t="s">
+        <v>3587</v>
+      </c>
+      <c r="C1217" s="3" t="s">
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1218" s="3" t="s">
+        <v>3589</v>
+      </c>
+      <c r="B1218" s="3" t="s">
+        <v>3590</v>
+      </c>
+      <c r="C1218" s="3" t="s">
+        <v>3591</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1219" s="3" t="s">
+        <v>3592</v>
+      </c>
+      <c r="B1219" s="3" t="s">
+        <v>3593</v>
+      </c>
+      <c r="C1219" s="3" t="s">
+        <v>3594</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1220" s="3" t="s">
+        <v>3595</v>
+      </c>
+      <c r="B1220" s="3" t="s">
+        <v>3596</v>
+      </c>
+      <c r="C1220" s="3" t="s">
+        <v>3597</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1221" s="3" t="s">
+        <v>3598</v>
+      </c>
+      <c r="B1221" s="3" t="s">
         <v>999</v>
       </c>
-      <c r="C1188" s="1" t="s">
+      <c r="C1221" s="3" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="1189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1189" s="1" t="s">
-        <v>3222</v>
-      </c>
-      <c r="B1189" s="1" t="s">
-        <v>3223</v>
-      </c>
-      <c r="C1189" s="1" t="s">
-        <v>3224</v>
-      </c>
-    </row>
-    <row r="1190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1190" s="1" t="s">
-        <v>3225</v>
-      </c>
-      <c r="B1190" s="1" t="s">
-        <v>3226</v>
-      </c>
-      <c r="C1190" s="1" t="s">
-        <v>3227</v>
-      </c>
-    </row>
-    <row r="1191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1191" s="1" t="s">
-        <v>3228</v>
-      </c>
-      <c r="B1191" s="1" t="s">
-        <v>3229</v>
-      </c>
-      <c r="C1191" s="1" t="s">
-        <v>3230</v>
-      </c>
-    </row>
-    <row r="1192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1192" s="1" t="s">
-        <v>3231</v>
-      </c>
-      <c r="B1192" s="5" t="s">
-        <v>3232</v>
-      </c>
-      <c r="C1192" s="5" t="s">
-        <v>3233</v>
+    <row r="1222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1222" s="3" t="s">
+        <v>3599</v>
+      </c>
+      <c r="B1222" s="3" t="s">
+        <v>3600</v>
+      </c>
+      <c r="C1222" s="3" t="s">
+        <v>3601</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1223" s="3" t="s">
+        <v>3602</v>
+      </c>
+      <c r="B1223" s="3" t="s">
+        <v>3603</v>
+      </c>
+      <c r="C1223" s="3" t="s">
+        <v>3604</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1224" s="3" t="s">
+        <v>3605</v>
+      </c>
+      <c r="B1224" s="3" t="s">
+        <v>3606</v>
+      </c>
+      <c r="C1224" s="3" t="s">
+        <v>3607</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1225" s="3" t="s">
+        <v>3608</v>
+      </c>
+      <c r="B1225" s="7" t="s">
+        <v>3609</v>
+      </c>
+      <c r="C1225" s="7" t="s">
+        <v>3610</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>